--- a/03_ips_clean/02_ips_wide.xlsx
+++ b/03_ips_clean/02_ips_wide.xlsx
@@ -911,7 +911,7 @@
         <v>-13.6248</v>
       </c>
       <c r="G2" t="n">
-        <v>-16214</v>
+        <v>-13.3616</v>
       </c>
       <c r="H2" t="n">
         <v>70.6343</v>
@@ -983,7 +983,7 @@
         <v>-5.2947</v>
       </c>
       <c r="AE2" t="n">
-        <v>-166934</v>
+        <v>-137.5666</v>
       </c>
       <c r="AF2" t="n">
         <v>-81.1889</v>
@@ -1064,7 +1064,7 @@
         <v>-105.1246</v>
       </c>
       <c r="BF2" t="n">
-        <v>1931</v>
+        <v>1.5913</v>
       </c>
     </row>
     <row r="3">
@@ -1087,7 +1087,7 @@
         <v>-8.7441</v>
       </c>
       <c r="G3" t="n">
-        <v>-108</v>
+        <v>-8.1092</v>
       </c>
       <c r="H3" t="n">
         <v>93.4275</v>
@@ -1159,7 +1159,7 @@
         <v>-9.3105</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1189</v>
+        <v>-89.276</v>
       </c>
       <c r="AF3" t="n">
         <v>-61.3444</v>
@@ -1240,7 +1240,7 @@
         <v>-103.4659</v>
       </c>
       <c r="BF3" t="n">
-        <v>24</v>
+        <v>1.802</v>
       </c>
     </row>
     <row r="4">
@@ -1263,7 +1263,7 @@
         <v>-10.1291</v>
       </c>
       <c r="G4" t="n">
-        <v>-919</v>
+        <v>-27.3692</v>
       </c>
       <c r="H4" t="n">
         <v>86.7801</v>
@@ -1335,7 +1335,7 @@
         <v>-4.4672</v>
       </c>
       <c r="AE4" t="n">
-        <v>-4432</v>
+        <v>-131.9914</v>
       </c>
       <c r="AF4" t="n">
         <v>-60.6648</v>
@@ -1416,7 +1416,7 @@
         <v>-105.1386</v>
       </c>
       <c r="BF4" t="n">
-        <v>79</v>
+        <v>2.3527</v>
       </c>
     </row>
     <row r="5">
@@ -1439,7 +1439,7 @@
         <v>-9.231</v>
       </c>
       <c r="G5" t="n">
-        <v>-72</v>
+        <v>-10.0021</v>
       </c>
       <c r="H5" t="n">
         <v>77.8372</v>
@@ -1511,7 +1511,7 @@
         <v>-7.9184</v>
       </c>
       <c r="AE5" t="n">
-        <v>-824</v>
+        <v>-114.4689</v>
       </c>
       <c r="AF5" t="n">
         <v>-50.0107</v>
@@ -1592,7 +1592,7 @@
         <v>-99.5466</v>
       </c>
       <c r="BF5" t="n">
-        <v>11</v>
+        <v>1.5281</v>
       </c>
     </row>
     <row r="6">
@@ -1615,7 +1615,7 @@
         <v>-15.526</v>
       </c>
       <c r="G6" t="n">
-        <v>-143</v>
+        <v>-15.5972</v>
       </c>
       <c r="H6" t="n">
         <v>55.7808</v>
@@ -1687,7 +1687,7 @@
         <v>-9.3801</v>
       </c>
       <c r="AE6" t="n">
-        <v>-1094</v>
+        <v>-119.3239</v>
       </c>
       <c r="AF6" t="n">
         <v>-71.5507</v>
@@ -1768,7 +1768,7 @@
         <v>-98.2008</v>
       </c>
       <c r="BF6" t="n">
-        <v>5</v>
+        <v>0.5454</v>
       </c>
     </row>
     <row r="7">
@@ -1791,7 +1791,7 @@
         <v>-12.3035</v>
       </c>
       <c r="G7" t="n">
-        <v>-282</v>
+        <v>-9.3983</v>
       </c>
       <c r="H7" t="n">
         <v>86.3555</v>
@@ -1863,7 +1863,7 @@
         <v>-6.0322</v>
       </c>
       <c r="AE7" t="n">
-        <v>-4395</v>
+        <v>-146.4729</v>
       </c>
       <c r="AF7" t="n">
         <v>-89.7834</v>
@@ -1944,7 +1944,7 @@
         <v>-90.8852</v>
       </c>
       <c r="BF7" t="n">
-        <v>54</v>
+        <v>1.7997</v>
       </c>
     </row>
     <row r="8">
@@ -1967,7 +1967,7 @@
         <v>-8.5776</v>
       </c>
       <c r="G8" t="n">
-        <v>-118</v>
+        <v>-16.3504</v>
       </c>
       <c r="H8" t="n">
         <v>85.9214</v>
@@ -2039,7 +2039,7 @@
         <v>-7.4824</v>
       </c>
       <c r="AE8" t="n">
-        <v>-1062</v>
+        <v>-147.1534</v>
       </c>
       <c r="AF8" t="n">
         <v>-93.114</v>
@@ -2120,7 +2120,7 @@
         <v>-96.8982</v>
       </c>
       <c r="BF8" t="n">
-        <v>12</v>
+        <v>1.6627</v>
       </c>
     </row>
     <row r="9">
@@ -2143,7 +2143,7 @@
         <v>-21.4362</v>
       </c>
       <c r="G9" t="n">
-        <v>-1101</v>
+        <v>-20.743</v>
       </c>
       <c r="H9" t="n">
         <v>42.9069</v>
@@ -2215,7 +2215,7 @@
         <v>-5.9535</v>
       </c>
       <c r="AE9" t="n">
-        <v>-5198</v>
+        <v>-97.931</v>
       </c>
       <c r="AF9" t="n">
         <v>-64.4898</v>
@@ -2295,7 +2295,9 @@
       <c r="BE9" t="n">
         <v>-93.9556</v>
       </c>
-      <c r="BF9"/>
+      <c r="BF9" t="n">
+        <v>0.5464</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2317,7 +2319,7 @@
         <v>-15.2474</v>
       </c>
       <c r="G10" t="n">
-        <v>-635</v>
+        <v>-17.5585</v>
       </c>
       <c r="H10" t="n">
         <v>88.5839</v>
@@ -2389,7 +2391,7 @@
         <v>-11.6412</v>
       </c>
       <c r="AE10" t="n">
-        <v>-5737</v>
+        <v>-158.6349</v>
       </c>
       <c r="AF10" t="n">
         <v>-69.598</v>
@@ -2470,7 +2472,7 @@
         <v>-101.8884</v>
       </c>
       <c r="BF10" t="n">
-        <v>52</v>
+        <v>1.4379</v>
       </c>
     </row>
     <row r="11">
@@ -2493,7 +2495,7 @@
         <v>-12.508</v>
       </c>
       <c r="G11" t="n">
-        <v>-1683</v>
+        <v>-18.5788</v>
       </c>
       <c r="H11" t="n">
         <v>86.8157</v>
@@ -2565,7 +2567,7 @@
         <v>-4.0734</v>
       </c>
       <c r="AE11" t="n">
-        <v>-19546</v>
+        <v>-215.7697</v>
       </c>
       <c r="AF11" t="n">
         <v>-106.7588</v>
@@ -2646,7 +2648,7 @@
         <v>-111.3855</v>
       </c>
       <c r="BF11" t="n">
-        <v>391</v>
+        <v>4.3163</v>
       </c>
     </row>
     <row r="12">
@@ -2669,7 +2671,7 @@
         <v>-14.043</v>
       </c>
       <c r="G12" t="n">
-        <v>-173</v>
+        <v>-9.7105</v>
       </c>
       <c r="H12" t="n">
         <v>79.0649</v>
@@ -2741,7 +2743,7 @@
         <v>-6.5111</v>
       </c>
       <c r="AE12" t="n">
-        <v>-2472</v>
+        <v>-138.7536</v>
       </c>
       <c r="AF12" t="n">
         <v>-61.7993</v>
@@ -2822,7 +2824,7 @@
         <v>-101.5491</v>
       </c>
       <c r="BF12" t="n">
-        <v>16</v>
+        <v>0.8981</v>
       </c>
     </row>
     <row r="13">
@@ -2845,7 +2847,7 @@
         <v>-15.4239</v>
       </c>
       <c r="G13" t="n">
-        <v>-430</v>
+        <v>-7.2505</v>
       </c>
       <c r="H13" t="n">
         <v>77.0036</v>
@@ -2917,7 +2919,7 @@
         <v>-7.8575</v>
       </c>
       <c r="AE13" t="n">
-        <v>-7839</v>
+        <v>-132.1785</v>
       </c>
       <c r="AF13" t="n">
         <v>-87.8661</v>
@@ -2998,7 +3000,7 @@
         <v>-108.7107</v>
       </c>
       <c r="BF13" t="n">
-        <v>72</v>
+        <v>1.214</v>
       </c>
     </row>
     <row r="14">
@@ -3021,7 +3023,7 @@
         <v>-18.5185</v>
       </c>
       <c r="G14" t="n">
-        <v>-533</v>
+        <v>-14.9025</v>
       </c>
       <c r="H14" t="n">
         <v>42.4164</v>
@@ -3093,7 +3095,7 @@
         <v>-2.041</v>
       </c>
       <c r="AE14" t="n">
-        <v>-4545</v>
+        <v>-127.0763</v>
       </c>
       <c r="AF14" t="n">
         <v>-87.7372</v>
@@ -3174,7 +3176,7 @@
         <v>-108.1084</v>
       </c>
       <c r="BF14" t="n">
-        <v>20</v>
+        <v>0.5592</v>
       </c>
     </row>
     <row r="15">
@@ -3197,7 +3199,7 @@
         <v>-10.9029</v>
       </c>
       <c r="G15" t="n">
-        <v>-192</v>
+        <v>-6.6218</v>
       </c>
       <c r="H15" t="n">
         <v>54.3397</v>
@@ -3269,7 +3271,7 @@
         <v>-4.0352</v>
       </c>
       <c r="AE15" t="n">
-        <v>-4126</v>
+        <v>-142.3006</v>
       </c>
       <c r="AF15" t="n">
         <v>-73.0472</v>
@@ -3350,7 +3352,7 @@
         <v>-111.3815</v>
       </c>
       <c r="BF15" t="n">
-        <v>35</v>
+        <v>1.2071</v>
       </c>
     </row>
     <row r="16">
@@ -3373,7 +3375,7 @@
         <v>-10.6442</v>
       </c>
       <c r="G16" t="n">
-        <v>-1041</v>
+        <v>-13.0724</v>
       </c>
       <c r="H16" t="n">
         <v>89.6662</v>
@@ -3445,7 +3447,7 @@
         <v>-6.6178</v>
       </c>
       <c r="AE16" t="n">
-        <v>-10752</v>
+        <v>-135.0192</v>
       </c>
       <c r="AF16" t="n">
         <v>-74.8683</v>
@@ -3526,7 +3528,7 @@
         <v>-102.8043</v>
       </c>
       <c r="BF16" t="n">
-        <v>149</v>
+        <v>1.8711</v>
       </c>
     </row>
     <row r="17">
@@ -3549,7 +3551,7 @@
         <v>-13.6524</v>
       </c>
       <c r="G17" t="n">
-        <v>-1169</v>
+        <v>-7.1048</v>
       </c>
       <c r="H17" t="n">
         <v>69.213</v>
@@ -3621,7 +3623,7 @@
         <v>-4.0538</v>
       </c>
       <c r="AE17" t="n">
-        <v>-16385</v>
+        <v>-99.5829</v>
       </c>
       <c r="AF17" t="n">
         <v>-84.1456</v>
@@ -3702,7 +3704,7 @@
         <v>-110.3343</v>
       </c>
       <c r="BF17" t="n">
-        <v>107</v>
+        <v>0.6503</v>
       </c>
     </row>
     <row r="18">
@@ -3725,7 +3727,7 @@
         <v>-17.8494</v>
       </c>
       <c r="G18" t="n">
-        <v>-393</v>
+        <v>-8.4612</v>
       </c>
       <c r="H18" t="n">
         <v>73.6692</v>
@@ -3797,7 +3799,7 @@
         <v>-3.6385</v>
       </c>
       <c r="AE18" t="n">
-        <v>-6369</v>
+        <v>-137.1231</v>
       </c>
       <c r="AF18" t="n">
         <v>-86.7219</v>
@@ -3878,7 +3880,7 @@
         <v>-101.1578</v>
       </c>
       <c r="BF18" t="n">
-        <v>63</v>
+        <v>1.3564</v>
       </c>
     </row>
     <row r="19">
@@ -3901,7 +3903,7 @@
         <v>-9.611</v>
       </c>
       <c r="G19" t="n">
-        <v>-237</v>
+        <v>-12.2766</v>
       </c>
       <c r="H19" t="n">
         <v>59.7303</v>
@@ -3973,7 +3975,7 @@
         <v>-2.2792</v>
       </c>
       <c r="AE19" t="n">
-        <v>-2650</v>
+        <v>-137.2698</v>
       </c>
       <c r="AF19" t="n">
         <v>-94.5348</v>
@@ -4054,7 +4056,7 @@
         <v>-118.4089</v>
       </c>
       <c r="BF19" t="n">
-        <v>52</v>
+        <v>2.6936</v>
       </c>
     </row>
     <row r="20">
@@ -4077,7 +4079,7 @@
         <v>-9.4014</v>
       </c>
       <c r="G20" t="n">
-        <v>-191</v>
+        <v>-15.9768</v>
       </c>
       <c r="H20" t="n">
         <v>69.6478</v>
@@ -4149,7 +4151,7 @@
         <v>-6.2736</v>
       </c>
       <c r="AE20" t="n">
-        <v>-1456</v>
+        <v>-121.7919</v>
       </c>
       <c r="AF20" t="n">
         <v>-66.3331</v>
@@ -4230,7 +4232,7 @@
         <v>-103.4886</v>
       </c>
       <c r="BF20" t="n">
-        <v>11</v>
+        <v>0.9201</v>
       </c>
     </row>
     <row r="21">
@@ -4253,7 +4255,7 @@
         <v>-9.8719</v>
       </c>
       <c r="G21" t="n">
-        <v>-700</v>
+        <v>-13.4475</v>
       </c>
       <c r="H21" t="n">
         <v>90.2998</v>
@@ -4325,7 +4327,7 @@
         <v>-4.8603</v>
       </c>
       <c r="AE21" t="n">
-        <v>-7509</v>
+        <v>-144.2534</v>
       </c>
       <c r="AF21" t="n">
         <v>-63.1264</v>
@@ -4406,7 +4408,7 @@
         <v>-98.5993</v>
       </c>
       <c r="BF21" t="n">
-        <v>151</v>
+        <v>2.9008</v>
       </c>
     </row>
     <row r="22">
@@ -4429,7 +4431,7 @@
         <v>-21.0462</v>
       </c>
       <c r="G22" t="n">
-        <v>-546</v>
+        <v>-13.5847</v>
       </c>
       <c r="H22" t="n">
         <v>34.0481</v>
@@ -4501,7 +4503,7 @@
         <v>-3.8813</v>
       </c>
       <c r="AE22" t="n">
-        <v>-6078</v>
+        <v>-151.2232</v>
       </c>
       <c r="AF22" t="n">
         <v>-81.9561</v>
@@ -4582,7 +4584,7 @@
         <v>-108.8878</v>
       </c>
       <c r="BF22" t="n">
-        <v>19</v>
+        <v>0.4727</v>
       </c>
     </row>
     <row r="23">
@@ -4605,7 +4607,7 @@
         <v>-14.2774</v>
       </c>
       <c r="G23" t="n">
-        <v>-639</v>
+        <v>-10.1841</v>
       </c>
       <c r="H23" t="n">
         <v>52.1507</v>
@@ -4677,7 +4679,7 @@
         <v>-4.2713</v>
       </c>
       <c r="AE23" t="n">
-        <v>-8171</v>
+        <v>-130.2259</v>
       </c>
       <c r="AF23" t="n">
         <v>-93.442</v>
@@ -4758,7 +4760,7 @@
         <v>-114.895</v>
       </c>
       <c r="BF23" t="n">
-        <v>83</v>
+        <v>1.3228</v>
       </c>
     </row>
     <row r="24">
@@ -4781,7 +4783,7 @@
         <v>-11.0043</v>
       </c>
       <c r="G24" t="n">
-        <v>-213</v>
+        <v>-10.2921</v>
       </c>
       <c r="H24" t="n">
         <v>77.2337</v>
@@ -4853,7 +4855,7 @@
         <v>-5.3151</v>
       </c>
       <c r="AE24" t="n">
-        <v>-2344</v>
+        <v>-113.261</v>
       </c>
       <c r="AF24" t="n">
         <v>-57.4519</v>
@@ -4934,7 +4936,7 @@
         <v>-101.7813</v>
       </c>
       <c r="BF24" t="n">
-        <v>76</v>
+        <v>3.6723</v>
       </c>
     </row>
     <row r="25">
@@ -4957,7 +4959,7 @@
         <v>-11.5721</v>
       </c>
       <c r="G25" t="n">
-        <v>-299</v>
+        <v>-19.6082</v>
       </c>
       <c r="H25" t="n">
         <v>72.0187</v>
@@ -5029,7 +5031,7 @@
         <v>-9.1811</v>
       </c>
       <c r="AE25" t="n">
-        <v>-1087</v>
+        <v>-71.2846</v>
       </c>
       <c r="AF25" t="n">
         <v>-53.6438</v>
@@ -5110,7 +5112,7 @@
         <v>-102.6422</v>
       </c>
       <c r="BF25" t="n">
-        <v>13</v>
+        <v>0.8525</v>
       </c>
     </row>
     <row r="26">
@@ -5133,7 +5135,7 @@
         <v>-10.2258</v>
       </c>
       <c r="G26" t="n">
-        <v>-289</v>
+        <v>-10.4777</v>
       </c>
       <c r="H26" t="n">
         <v>64.7196</v>
@@ -5205,7 +5207,7 @@
         <v>-5.9458</v>
       </c>
       <c r="AE26" t="n">
-        <v>-3714</v>
+        <v>-134.6511</v>
       </c>
       <c r="AF26" t="n">
         <v>-65.4766</v>
@@ -5286,7 +5288,7 @@
         <v>-107.2579</v>
       </c>
       <c r="BF26" t="n">
-        <v>80</v>
+        <v>2.9004</v>
       </c>
     </row>
     <row r="27">
@@ -5309,7 +5311,7 @@
         <v>-10.8108</v>
       </c>
       <c r="G27" t="n">
-        <v>-382</v>
+        <v>-12.6667</v>
       </c>
       <c r="H27" t="n">
         <v>76.8853</v>
@@ -5381,7 +5383,7 @@
         <v>-4.7086</v>
       </c>
       <c r="AE27" t="n">
-        <v>-4085</v>
+        <v>-135.4537</v>
       </c>
       <c r="AF27" t="n">
         <v>-57.0995</v>
@@ -5462,7 +5464,7 @@
         <v>-97.7933</v>
       </c>
       <c r="BF27" t="n">
-        <v>52</v>
+        <v>1.7243</v>
       </c>
     </row>
     <row r="28">
@@ -5485,7 +5487,7 @@
         <v>-10.529</v>
       </c>
       <c r="G28" t="n">
-        <v>-610</v>
+        <v>-21.1457</v>
       </c>
       <c r="H28" t="n">
         <v>82.5231</v>
@@ -5557,7 +5559,7 @@
         <v>-8.6316</v>
       </c>
       <c r="AE28" t="n">
-        <v>-4771</v>
+        <v>-165.3867</v>
       </c>
       <c r="AF28" t="n">
         <v>-64.0263</v>
@@ -5638,7 +5640,7 @@
         <v>-99.6178</v>
       </c>
       <c r="BF28" t="n">
-        <v>46</v>
+        <v>1.5946</v>
       </c>
     </row>
     <row r="29">
@@ -5661,7 +5663,7 @@
         <v>-14.7176</v>
       </c>
       <c r="G29" t="n">
-        <v>-446</v>
+        <v>-18.3821</v>
       </c>
       <c r="H29" t="n">
         <v>54.5844</v>
@@ -5733,7 +5735,7 @@
         <v>-7.0066</v>
       </c>
       <c r="AE29" t="n">
-        <v>-3162</v>
+        <v>-130.3236</v>
       </c>
       <c r="AF29" t="n">
         <v>-94.0951</v>
@@ -5814,7 +5816,7 @@
         <v>-97.0546</v>
       </c>
       <c r="BF29" t="n">
-        <v>34</v>
+        <v>1.4013</v>
       </c>
     </row>
     <row r="30">
@@ -5837,7 +5839,7 @@
         <v>-11.3024</v>
       </c>
       <c r="G30" t="n">
-        <v>-522</v>
+        <v>-14.9368</v>
       </c>
       <c r="H30" t="n">
         <v>79.3304</v>
@@ -5909,7 +5911,7 @@
         <v>-4.2636</v>
       </c>
       <c r="AE30" t="n">
-        <v>-5079</v>
+        <v>-145.3336</v>
       </c>
       <c r="AF30" t="n">
         <v>-85.6149</v>
@@ -5990,7 +5992,7 @@
         <v>-105.6967</v>
       </c>
       <c r="BF30" t="n">
-        <v>19</v>
+        <v>0.5437</v>
       </c>
     </row>
     <row r="31">
@@ -6013,7 +6015,7 @@
         <v>-13.4164</v>
       </c>
       <c r="G31" t="n">
-        <v>-82</v>
+        <v>-6.3311</v>
       </c>
       <c r="H31" t="n">
         <v>67.4663</v>
@@ -6085,7 +6087,7 @@
         <v>-4.0148</v>
       </c>
       <c r="AE31" t="n">
-        <v>-1283</v>
+        <v>-99.0585</v>
       </c>
       <c r="AF31" t="n">
         <v>-86.4735</v>
@@ -6166,7 +6168,7 @@
         <v>-115.6944</v>
       </c>
       <c r="BF31" t="n">
-        <v>15</v>
+        <v>1.1581</v>
       </c>
     </row>
     <row r="32">
@@ -6189,7 +6191,7 @@
         <v>-12.1576</v>
       </c>
       <c r="G32" t="n">
-        <v>-1493</v>
+        <v>-18.1162</v>
       </c>
       <c r="H32" t="n">
         <v>50.1712</v>
@@ -6261,7 +6263,7 @@
         <v>-3.0578</v>
       </c>
       <c r="AE32" t="n">
-        <v>-13544</v>
+        <v>-164.344</v>
       </c>
       <c r="AF32" t="n">
         <v>-105.7607</v>
@@ -6342,7 +6344,7 @@
         <v>-97.0332</v>
       </c>
       <c r="BF32" t="n">
-        <v>98</v>
+        <v>1.1891</v>
       </c>
     </row>
     <row r="33">
@@ -6365,7 +6367,7 @@
         <v>-12.4338</v>
       </c>
       <c r="G33" t="n">
-        <v>-422</v>
+        <v>-19.8234</v>
       </c>
       <c r="H33" t="n">
         <v>66.2601</v>
@@ -6437,7 +6439,7 @@
         <v>-8.9252</v>
       </c>
       <c r="AE33" t="n">
-        <v>-3899</v>
+        <v>-183.1547</v>
       </c>
       <c r="AF33" t="n">
         <v>-71.6835</v>
@@ -6518,7 +6520,7 @@
         <v>-102.9911</v>
       </c>
       <c r="BF33" t="n">
-        <v>45</v>
+        <v>2.1139</v>
       </c>
     </row>
     <row r="34">
@@ -6541,7 +6543,7 @@
         <v>-16.9276</v>
       </c>
       <c r="G34" t="n">
-        <v>-151</v>
+        <v>-9.4275</v>
       </c>
       <c r="H34" t="n">
         <v>81.1062</v>
@@ -6613,7 +6615,7 @@
         <v>-6.4307</v>
       </c>
       <c r="AE34" t="n">
-        <v>-2137</v>
+        <v>-133.4207</v>
       </c>
       <c r="AF34" t="n">
         <v>-69.5511</v>
@@ -6694,7 +6696,7 @@
         <v>-105.832</v>
       </c>
       <c r="BF34" t="n">
-        <v>18</v>
+        <v>1.1238</v>
       </c>
     </row>
     <row r="35">
@@ -6717,7 +6719,7 @@
         <v>-13.3592</v>
       </c>
       <c r="G35" t="n">
-        <v>-16040</v>
+        <v>-13.0709</v>
       </c>
       <c r="H35" t="n">
         <v>72.7</v>
@@ -6789,7 +6791,7 @@
         <v>-5.1909</v>
       </c>
       <c r="AE35" t="n">
-        <v>-175078</v>
+        <v>-142.6702</v>
       </c>
       <c r="AF35" t="n">
         <v>-86.0301</v>
@@ -6868,7 +6870,7 @@
         <v>-105.1383</v>
       </c>
       <c r="BF35" t="n">
-        <v>2069</v>
+        <v>1.686</v>
       </c>
     </row>
     <row r="36">
@@ -6891,7 +6893,7 @@
         <v>-9.4374</v>
       </c>
       <c r="G36" t="n">
-        <v>-117</v>
+        <v>-8.6326</v>
       </c>
       <c r="H36" t="n">
         <v>93.1</v>
@@ -6963,7 +6965,7 @@
         <v>-9.2229</v>
       </c>
       <c r="AE36" t="n">
-        <v>-1339</v>
+        <v>-98.7958</v>
       </c>
       <c r="AF36" t="n">
         <v>-60.7974</v>
@@ -7042,7 +7044,7 @@
         <v>-103.4433</v>
       </c>
       <c r="BF36" t="n">
-        <v>28</v>
+        <v>2.0659</v>
       </c>
     </row>
     <row r="37">
@@ -7065,7 +7067,7 @@
         <v>-9.5653</v>
       </c>
       <c r="G37" t="n">
-        <v>-984</v>
+        <v>-28.9128</v>
       </c>
       <c r="H37" t="n">
         <v>94.2</v>
@@ -7137,7 +7139,7 @@
         <v>-4.9951</v>
       </c>
       <c r="AE37" t="n">
-        <v>-4527</v>
+        <v>-133.0166</v>
       </c>
       <c r="AF37" t="n">
         <v>-66.9637</v>
@@ -7216,7 +7218,7 @@
         <v>-106.45</v>
       </c>
       <c r="BF37" t="n">
-        <v>77</v>
+        <v>2.2625</v>
       </c>
     </row>
     <row r="38">
@@ -7239,7 +7241,7 @@
         <v>-8.415</v>
       </c>
       <c r="G38" t="n">
-        <v>-93</v>
+        <v>-12.6188</v>
       </c>
       <c r="H38" t="n">
         <v>40.2</v>
@@ -7311,7 +7313,7 @@
         <v>-7.4627</v>
       </c>
       <c r="AE38" t="n">
-        <v>-796</v>
+        <v>-108.0062</v>
       </c>
       <c r="AF38" t="n">
         <v>-50.0682</v>
@@ -7390,7 +7392,7 @@
         <v>-101.8083</v>
       </c>
       <c r="BF38" t="n">
-        <v>12</v>
+        <v>1.6282</v>
       </c>
     </row>
     <row r="39">
@@ -7413,7 +7415,7 @@
         <v>-12.7483</v>
       </c>
       <c r="G39" t="n">
-        <v>-145</v>
+        <v>-15.534</v>
       </c>
       <c r="H39" t="n">
         <v>83.8</v>
@@ -7485,7 +7487,7 @@
         <v>-9.3204</v>
       </c>
       <c r="AE39" t="n">
-        <v>-1106</v>
+        <v>-118.487</v>
       </c>
       <c r="AF39" t="n">
         <v>-86.669</v>
@@ -7564,7 +7566,7 @@
         <v>-97.9571</v>
       </c>
       <c r="BF39" t="n">
-        <v>8</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="40">
@@ -7587,7 +7589,7 @@
         <v>-13.0482</v>
       </c>
       <c r="G40" t="n">
-        <v>-283</v>
+        <v>-9.2998</v>
       </c>
       <c r="H40" t="n">
         <v>80.7</v>
@@ -7659,7 +7661,7 @@
         <v>-5.6193</v>
       </c>
       <c r="AE40" t="n">
-        <v>-4821</v>
+        <v>-158.426</v>
       </c>
       <c r="AF40" t="n">
         <v>-90.4352</v>
@@ -7738,7 +7740,7 @@
         <v>-93.9748</v>
       </c>
       <c r="BF40" t="n">
-        <v>53</v>
+        <v>1.7417</v>
       </c>
     </row>
     <row r="41">
@@ -7761,7 +7763,7 @@
         <v>-8.884</v>
       </c>
       <c r="G41" t="n">
-        <v>-111</v>
+        <v>-15.109</v>
       </c>
       <c r="H41" t="n">
         <v>92.2</v>
@@ -7833,7 +7835,7 @@
         <v>-8.9837</v>
       </c>
       <c r="AE41" t="n">
-        <v>-936</v>
+        <v>-127.4054</v>
       </c>
       <c r="AF41" t="n">
         <v>-79.7645</v>
@@ -7912,7 +7914,7 @@
         <v>-97.4178</v>
       </c>
       <c r="BF41" t="n">
-        <v>11</v>
+        <v>1.4973</v>
       </c>
     </row>
     <row r="42">
@@ -7935,7 +7937,7 @@
         <v>-21.0633</v>
       </c>
       <c r="G42" t="n">
-        <v>-1183</v>
+        <v>-21.932</v>
       </c>
       <c r="H42" t="n">
         <v>39.9</v>
@@ -8007,7 +8009,7 @@
         <v>-5.0427</v>
       </c>
       <c r="AE42" t="n">
-        <v>-5200</v>
+        <v>-96.4044</v>
       </c>
       <c r="AF42" t="n">
         <v>-65.8331</v>
@@ -8033,7 +8035,9 @@
       <c r="AM42" t="n">
         <v>46.25</v>
       </c>
-      <c r="AN42"/>
+      <c r="AN42" t="n">
+        <v>29</v>
+      </c>
       <c r="AO42" t="n">
         <v>0.1156</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>-96.1444</v>
       </c>
       <c r="BF42" t="n">
-        <v>29</v>
+        <v>0.5376</v>
       </c>
     </row>
     <row r="43">
@@ -8107,7 +8111,7 @@
         <v>-13.9748</v>
       </c>
       <c r="G43" t="n">
-        <v>-552</v>
+        <v>-15.1257</v>
       </c>
       <c r="H43" t="n">
         <v>94.3</v>
@@ -8179,7 +8183,7 @@
         <v>-12.0019</v>
       </c>
       <c r="AE43" t="n">
-        <v>-5916</v>
+        <v>-162.1081</v>
       </c>
       <c r="AF43" t="n">
         <v>-72.6692</v>
@@ -8258,7 +8262,7 @@
         <v>-101.0194</v>
       </c>
       <c r="BF43" t="n">
-        <v>64</v>
+        <v>1.7537</v>
       </c>
     </row>
     <row r="44">
@@ -8281,7 +8285,7 @@
         <v>-11.8734</v>
       </c>
       <c r="G44" t="n">
-        <v>-1685</v>
+        <v>-18.6106</v>
       </c>
       <c r="H44" t="n">
         <v>80.7</v>
@@ -8353,7 +8357,7 @@
         <v>-4.1639</v>
       </c>
       <c r="AE44" t="n">
-        <v>-20604</v>
+        <v>-227.5682</v>
       </c>
       <c r="AF44" t="n">
         <v>-113.0441</v>
@@ -8432,7 +8436,7 @@
         <v>-108.3041</v>
       </c>
       <c r="BF44" t="n">
-        <v>436</v>
+        <v>4.8156</v>
       </c>
     </row>
     <row r="45">
@@ -8455,7 +8459,7 @@
         <v>-12.9904</v>
       </c>
       <c r="G45" t="n">
-        <v>-167</v>
+        <v>-9.2677</v>
       </c>
       <c r="H45" t="n">
         <v>85.8</v>
@@ -8527,7 +8531,7 @@
         <v>-6.3264</v>
       </c>
       <c r="AE45" t="n">
-        <v>-2725</v>
+        <v>-151.224</v>
       </c>
       <c r="AF45" t="n">
         <v>-65.5951</v>
@@ -8606,7 +8610,7 @@
         <v>-104.7663</v>
       </c>
       <c r="BF45" t="n">
-        <v>18</v>
+        <v>0.9989</v>
       </c>
     </row>
     <row r="46">
@@ -8629,7 +8633,7 @@
         <v>-15.5977</v>
       </c>
       <c r="G46" t="n">
-        <v>-436</v>
+        <v>-7.2697</v>
       </c>
       <c r="H46" t="n">
         <v>86</v>
@@ -8701,7 +8705,7 @@
         <v>-7.6532</v>
       </c>
       <c r="AE46" t="n">
-        <v>-8545</v>
+        <v>-142.4763</v>
       </c>
       <c r="AF46" t="n">
         <v>-93.2057</v>
@@ -8780,7 +8784,7 @@
         <v>-109.7611</v>
       </c>
       <c r="BF46" t="n">
-        <v>78</v>
+        <v>1.3005</v>
       </c>
     </row>
     <row r="47">
@@ -8803,7 +8807,7 @@
         <v>-18.1668</v>
       </c>
       <c r="G47" t="n">
-        <v>-521</v>
+        <v>-14.483</v>
       </c>
       <c r="H47" t="n">
         <v>26</v>
@@ -8875,7 +8879,7 @@
         <v>-2.3073</v>
       </c>
       <c r="AE47" t="n">
-        <v>-4478</v>
+        <v>-124.4819</v>
       </c>
       <c r="AF47" t="n">
         <v>-85.1469</v>
@@ -8954,7 +8958,7 @@
         <v>-109.4903</v>
       </c>
       <c r="BF47" t="n">
-        <v>28</v>
+        <v>0.7784</v>
       </c>
     </row>
     <row r="48">
@@ -8977,7 +8981,7 @@
         <v>-9.8206</v>
       </c>
       <c r="G48" t="n">
-        <v>-214</v>
+        <v>-7.282</v>
       </c>
       <c r="H48" t="n">
         <v>49.5</v>
@@ -9049,7 +9053,7 @@
         <v>-3.8452</v>
       </c>
       <c r="AE48" t="n">
-        <v>-4289</v>
+        <v>-145.9461</v>
       </c>
       <c r="AF48" t="n">
         <v>-78.1964</v>
@@ -9128,7 +9132,7 @@
         <v>-112.0741</v>
       </c>
       <c r="BF48" t="n">
-        <v>35</v>
+        <v>1.191</v>
       </c>
     </row>
     <row r="49">
@@ -9151,7 +9155,7 @@
         <v>-10.8362</v>
       </c>
       <c r="G49" t="n">
-        <v>-1057</v>
+        <v>-13.1207</v>
       </c>
       <c r="H49" t="n">
         <v>89.9</v>
@@ -9223,7 +9227,7 @@
         <v>-7.4107</v>
       </c>
       <c r="AE49" t="n">
-        <v>-11317</v>
+        <v>-140.4799</v>
       </c>
       <c r="AF49" t="n">
         <v>-80.1643</v>
@@ -9302,7 +9306,7 @@
         <v>-103.7128</v>
       </c>
       <c r="BF49" t="n">
-        <v>172</v>
+        <v>2.1351</v>
       </c>
     </row>
     <row r="50">
@@ -9325,7 +9329,7 @@
         <v>-13.2613</v>
       </c>
       <c r="G50" t="n">
-        <v>-1185</v>
+        <v>-7.1135</v>
       </c>
       <c r="H50" t="n">
         <v>56.5</v>
@@ -9397,7 +9401,7 @@
         <v>-3.4757</v>
       </c>
       <c r="AE50" t="n">
-        <v>-17799</v>
+        <v>-106.8463</v>
       </c>
       <c r="AF50" t="n">
         <v>-90.0741</v>
@@ -9476,7 +9480,7 @@
         <v>-109.9233</v>
       </c>
       <c r="BF50" t="n">
-        <v>112</v>
+        <v>0.6723</v>
       </c>
     </row>
     <row r="51">
@@ -9499,7 +9503,7 @@
         <v>-16.7476</v>
       </c>
       <c r="G51" t="n">
-        <v>-385</v>
+        <v>-8.218</v>
       </c>
       <c r="H51" t="n">
         <v>60</v>
@@ -9571,7 +9575,7 @@
         <v>-3.8849</v>
       </c>
       <c r="AE51" t="n">
-        <v>-6463</v>
+        <v>-137.9559</v>
       </c>
       <c r="AF51" t="n">
         <v>-95.8199</v>
@@ -9652,7 +9656,7 @@
         <v>-102.6483</v>
       </c>
       <c r="BF51" t="n">
-        <v>63</v>
+        <v>1.3448</v>
       </c>
     </row>
     <row r="52">
@@ -9675,7 +9679,7 @@
         <v>-10.7228</v>
       </c>
       <c r="G52" t="n">
-        <v>-219</v>
+        <v>-11.2037</v>
       </c>
       <c r="H52" t="n">
         <v>42.4</v>
@@ -9747,7 +9751,7 @@
         <v>-4.4508</v>
       </c>
       <c r="AE52" t="n">
-        <v>-2957</v>
+        <v>-151.2751</v>
       </c>
       <c r="AF52" t="n">
         <v>-106.0512</v>
@@ -9828,7 +9832,7 @@
         <v>-120.8385</v>
       </c>
       <c r="BF52" t="n">
-        <v>57</v>
+        <v>2.916</v>
       </c>
     </row>
     <row r="53">
@@ -9851,7 +9855,7 @@
         <v>-9.9415</v>
       </c>
       <c r="G53" t="n">
-        <v>-173</v>
+        <v>-14.2431</v>
       </c>
       <c r="H53" t="n">
         <v>63.8</v>
@@ -9923,7 +9927,7 @@
         <v>-6.5041</v>
       </c>
       <c r="AE53" t="n">
-        <v>-1584</v>
+        <v>-130.4104</v>
       </c>
       <c r="AF53" t="n">
         <v>-70.3097</v>
@@ -10004,7 +10008,7 @@
         <v>-103.7157</v>
       </c>
       <c r="BF53" t="n">
-        <v>12</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="54">
@@ -10027,7 +10031,7 @@
         <v>-9.9862</v>
       </c>
       <c r="G54" t="n">
-        <v>-695</v>
+        <v>-13.1276</v>
       </c>
       <c r="H54" t="n">
         <v>99.6</v>
@@ -10099,7 +10103,7 @@
         <v>-5.5155</v>
       </c>
       <c r="AE54" t="n">
-        <v>-7722</v>
+        <v>-145.8576</v>
       </c>
       <c r="AF54" t="n">
         <v>-66.3745</v>
@@ -10180,7 +10184,7 @@
         <v>-97.1914</v>
       </c>
       <c r="BF54" t="n">
-        <v>156</v>
+        <v>2.9466</v>
       </c>
     </row>
     <row r="55">
@@ -10203,7 +10207,7 @@
         <v>-20.8914</v>
       </c>
       <c r="G55" t="n">
-        <v>-547</v>
+        <v>-13.5179</v>
       </c>
       <c r="H55" t="n">
         <v>47.4</v>
@@ -10275,7 +10279,7 @@
         <v>-2.8173</v>
       </c>
       <c r="AE55" t="n">
-        <v>-6206</v>
+        <v>-153.3673</v>
       </c>
       <c r="AF55" t="n">
         <v>-85.1107</v>
@@ -10356,7 +10360,7 @@
         <v>-110.036</v>
       </c>
       <c r="BF55" t="n">
-        <v>26</v>
+        <v>0.6425</v>
       </c>
     </row>
     <row r="56">
@@ -10379,7 +10383,7 @@
         <v>-14.4139</v>
       </c>
       <c r="G56" t="n">
-        <v>-686</v>
+        <v>-10.81</v>
       </c>
       <c r="H56" t="n">
         <v>39.9</v>
@@ -10451,7 +10455,7 @@
         <v>-3.5613</v>
       </c>
       <c r="AE56" t="n">
-        <v>-8890</v>
+        <v>-140.0893</v>
       </c>
       <c r="AF56" t="n">
         <v>-103.5778</v>
@@ -10532,7 +10536,7 @@
         <v>-115.8132</v>
       </c>
       <c r="BF56" t="n">
-        <v>88</v>
+        <v>1.3867</v>
       </c>
     </row>
     <row r="57">
@@ -10555,7 +10559,7 @@
         <v>-10.6836</v>
       </c>
       <c r="G57" t="n">
-        <v>-203</v>
+        <v>-9.6039</v>
       </c>
       <c r="H57" t="n">
         <v>89.8</v>
@@ -10627,7 +10631,7 @@
         <v>-4.8256</v>
       </c>
       <c r="AE57" t="n">
-        <v>-2516</v>
+        <v>-119.0312</v>
       </c>
       <c r="AF57" t="n">
         <v>-65.6659</v>
@@ -10708,7 +10712,7 @@
         <v>-107.2009</v>
       </c>
       <c r="BF57" t="n">
-        <v>80</v>
+        <v>3.7848</v>
       </c>
     </row>
     <row r="58">
@@ -10731,7 +10735,7 @@
         <v>-11.8195</v>
       </c>
       <c r="G58" t="n">
-        <v>-280</v>
+        <v>-17.8923</v>
       </c>
       <c r="H58" t="n">
         <v>95.2</v>
@@ -10803,7 +10807,7 @@
         <v>-7.9876</v>
       </c>
       <c r="AE58" t="n">
-        <v>-1240</v>
+        <v>-79.2373</v>
       </c>
       <c r="AF58" t="n">
         <v>-59.8114</v>
@@ -10884,7 +10888,7 @@
         <v>-98.7128</v>
       </c>
       <c r="BF58" t="n">
-        <v>13</v>
+        <v>0.8307</v>
       </c>
     </row>
     <row r="59">
@@ -10907,7 +10911,7 @@
         <v>-10.3926</v>
       </c>
       <c r="G59" t="n">
-        <v>-284</v>
+        <v>-10.2105</v>
       </c>
       <c r="H59" t="n">
         <v>71.8</v>
@@ -10979,7 +10983,7 @@
         <v>-6.4355</v>
       </c>
       <c r="AE59" t="n">
-        <v>-3952</v>
+        <v>-142.0838</v>
       </c>
       <c r="AF59" t="n">
         <v>-71.6171</v>
@@ -11060,7 +11064,7 @@
         <v>-106.8155</v>
       </c>
       <c r="BF59" t="n">
-        <v>83</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="60">
@@ -11083,7 +11087,7 @@
         <v>-12.766</v>
       </c>
       <c r="G60" t="n">
-        <v>-397</v>
+        <v>-13.019</v>
       </c>
       <c r="H60" t="n">
         <v>96.1</v>
@@ -11155,7 +11159,7 @@
         <v>-5.4109</v>
       </c>
       <c r="AE60" t="n">
-        <v>-4229</v>
+        <v>-138.6838</v>
       </c>
       <c r="AF60" t="n">
         <v>-59.9466</v>
@@ -11236,7 +11240,7 @@
         <v>-100.2497</v>
       </c>
       <c r="BF60" t="n">
-        <v>54</v>
+        <v>1.7709</v>
       </c>
     </row>
     <row r="61">
@@ -11259,7 +11263,7 @@
         <v>-10.9712</v>
       </c>
       <c r="G61" t="n">
-        <v>-570</v>
+        <v>-19.5027</v>
       </c>
       <c r="H61" t="n">
         <v>96</v>
@@ -11331,7 +11335,7 @@
         <v>-7.4589</v>
       </c>
       <c r="AE61" t="n">
-        <v>-4871</v>
+        <v>-166.6629</v>
       </c>
       <c r="AF61" t="n">
         <v>-62.8878</v>
@@ -11412,7 +11416,7 @@
         <v>-99.4093</v>
       </c>
       <c r="BF61" t="n">
-        <v>48</v>
+        <v>1.6423</v>
       </c>
     </row>
     <row r="62">
@@ -11435,7 +11439,7 @@
         <v>-13.9924</v>
       </c>
       <c r="G62" t="n">
-        <v>-384</v>
+        <v>-15.6264</v>
       </c>
       <c r="H62" t="n">
         <v>89.2</v>
@@ -11507,7 +11511,7 @@
         <v>-6.3075</v>
       </c>
       <c r="AE62" t="n">
-        <v>-3234</v>
+        <v>-131.604</v>
       </c>
       <c r="AF62" t="n">
         <v>-103.6473</v>
@@ -11588,7 +11592,7 @@
         <v>-95.6419</v>
       </c>
       <c r="BF62" t="n">
-        <v>34</v>
+        <v>1.3836</v>
       </c>
     </row>
     <row r="63">
@@ -11611,7 +11615,7 @@
         <v>-10.6091</v>
       </c>
       <c r="G63" t="n">
-        <v>-462</v>
+        <v>-13.0986</v>
       </c>
       <c r="H63" t="n">
         <v>95.3</v>
@@ -11683,7 +11687,7 @@
         <v>-4.5079</v>
       </c>
       <c r="AE63" t="n">
-        <v>-5432</v>
+        <v>-154.0074</v>
       </c>
       <c r="AF63" t="n">
         <v>-87.0969</v>
@@ -11764,7 +11768,7 @@
         <v>-103.4175</v>
       </c>
       <c r="BF63" t="n">
-        <v>19</v>
+        <v>0.5387</v>
       </c>
     </row>
     <row r="64">
@@ -11787,7 +11791,7 @@
         <v>-13.2428</v>
       </c>
       <c r="G64" t="n">
-        <v>-98</v>
+        <v>-7.4558</v>
       </c>
       <c r="H64" t="n">
         <v>50.5</v>
@@ -11859,7 +11863,7 @@
         <v>-3.9561</v>
       </c>
       <c r="AE64" t="n">
-        <v>-1413</v>
+        <v>-107.5003</v>
       </c>
       <c r="AF64" t="n">
         <v>-99.1316</v>
@@ -11940,7 +11944,7 @@
         <v>-115.7316</v>
       </c>
       <c r="BF64" t="n">
-        <v>14</v>
+        <v>1.0651</v>
       </c>
     </row>
     <row r="65">
@@ -11963,7 +11967,7 @@
         <v>-10.8058</v>
       </c>
       <c r="G65" t="n">
-        <v>-1416</v>
+        <v>-17.0262</v>
       </c>
       <c r="H65" t="n">
         <v>69.9</v>
@@ -12035,7 +12039,7 @@
         <v>-2.489</v>
       </c>
       <c r="AE65" t="n">
-        <v>-13975</v>
+        <v>-168.0374</v>
       </c>
       <c r="AF65" t="n">
         <v>-110.2855</v>
@@ -12116,7 +12120,7 @@
         <v>-96.1984</v>
       </c>
       <c r="BF65" t="n">
-        <v>94</v>
+        <v>1.1303</v>
       </c>
     </row>
     <row r="66">
@@ -12139,7 +12143,7 @@
         <v>-13.9229</v>
       </c>
       <c r="G66" t="n">
-        <v>-360</v>
+        <v>-16.6985</v>
       </c>
       <c r="H66" t="n">
         <v>98</v>
@@ -12211,7 +12215,7 @@
         <v>-10.3902</v>
       </c>
       <c r="AE66" t="n">
-        <v>-3794</v>
+        <v>-175.9836</v>
       </c>
       <c r="AF66" t="n">
         <v>-71.6644</v>
@@ -12292,7 +12296,7 @@
         <v>-103.176</v>
       </c>
       <c r="BF66" t="n">
-        <v>47</v>
+        <v>2.1801</v>
       </c>
     </row>
     <row r="67">
@@ -12315,7 +12319,7 @@
         <v>-15.7229</v>
       </c>
       <c r="G67" t="n">
-        <v>-148</v>
+        <v>-9.1546</v>
       </c>
       <c r="H67" t="n">
         <v>47.7</v>
@@ -12387,7 +12391,7 @@
         <v>-4.701</v>
       </c>
       <c r="AE67" t="n">
-        <v>-2202</v>
+        <v>-136.2055</v>
       </c>
       <c r="AF67" t="n">
         <v>-79.1748</v>
@@ -12468,7 +12472,7 @@
         <v>-111.9609</v>
       </c>
       <c r="BF67" t="n">
-        <v>20</v>
+        <v>1.2371</v>
       </c>
     </row>
     <row r="68">
@@ -12491,7 +12495,7 @@
         <v>-13.4613</v>
       </c>
       <c r="G68" t="n">
-        <v>-15955</v>
+        <v>-12.8626</v>
       </c>
       <c r="H68" t="n">
         <v>73.6</v>
@@ -12563,7 +12567,7 @@
         <v>-5.2877</v>
       </c>
       <c r="AE68" t="n">
-        <v>-180551</v>
+        <v>-145.5567</v>
       </c>
       <c r="AF68" t="n">
         <v>-85.8784</v>
@@ -12642,7 +12646,7 @@
         <v>-105.8283</v>
       </c>
       <c r="BF68" t="n">
-        <v>2207</v>
+        <v>1.7792</v>
       </c>
     </row>
     <row r="69">
@@ -12665,7 +12669,7 @@
         <v>-9.982</v>
       </c>
       <c r="G69" t="n">
-        <v>-108</v>
+        <v>-7.8501</v>
       </c>
       <c r="H69" t="n">
         <v>93.7</v>
@@ -12737,7 +12741,7 @@
         <v>-10.176</v>
       </c>
       <c r="AE69" t="n">
-        <v>-1410</v>
+        <v>-102.4872</v>
       </c>
       <c r="AF69" t="n">
         <v>-58.2214</v>
@@ -12816,7 +12820,7 @@
         <v>-106.1275</v>
       </c>
       <c r="BF69" t="n">
-        <v>30</v>
+        <v>2.1806</v>
       </c>
     </row>
     <row r="70">
@@ -12839,7 +12843,7 @@
         <v>-10.4167</v>
       </c>
       <c r="G70" t="n">
-        <v>-997</v>
+        <v>-28.7911</v>
       </c>
       <c r="H70" t="n">
         <v>98.1</v>
@@ -12911,7 +12915,7 @@
         <v>-4.7937</v>
       </c>
       <c r="AE70" t="n">
-        <v>-4927</v>
+        <v>-142.2807</v>
       </c>
       <c r="AF70" t="n">
         <v>-70.0863</v>
@@ -12990,7 +12994,7 @@
         <v>-106.1357</v>
       </c>
       <c r="BF70" t="n">
-        <v>80</v>
+        <v>2.3102</v>
       </c>
     </row>
     <row r="71">
@@ -13013,7 +13017,7 @@
         <v>-10.8073</v>
       </c>
       <c r="G71" t="n">
-        <v>-102</v>
+        <v>-13.523</v>
       </c>
       <c r="H71" t="n">
         <v>36.2</v>
@@ -13085,7 +13089,7 @@
         <v>-6.2312</v>
       </c>
       <c r="AE71" t="n">
-        <v>-853</v>
+        <v>-113.0895</v>
       </c>
       <c r="AF71" t="n">
         <v>-49.9821</v>
@@ -13164,7 +13168,7 @@
         <v>-104.8228</v>
       </c>
       <c r="BF71" t="n">
-        <v>12</v>
+        <v>1.5909</v>
       </c>
     </row>
     <row r="72">
@@ -13187,7 +13191,7 @@
         <v>-11.1844</v>
       </c>
       <c r="G72" t="n">
-        <v>-140</v>
+        <v>-14.7297</v>
       </c>
       <c r="H72" t="n">
         <v>77.3</v>
@@ -13259,7 +13263,7 @@
         <v>-7.7857</v>
       </c>
       <c r="AE72" t="n">
-        <v>-1056</v>
+        <v>-111.1043</v>
       </c>
       <c r="AF72" t="n">
         <v>-76.0686</v>
@@ -13338,7 +13342,7 @@
         <v>-98.6644</v>
       </c>
       <c r="BF72" t="n">
-        <v>8</v>
+        <v>0.8417</v>
       </c>
     </row>
     <row r="73">
@@ -13361,7 +13365,7 @@
         <v>-12.4183</v>
       </c>
       <c r="G73" t="n">
-        <v>-300</v>
+        <v>-9.7155</v>
       </c>
       <c r="H73" t="n">
         <v>81.4</v>
@@ -13433,7 +13437,7 @@
         <v>-6.5094</v>
       </c>
       <c r="AE73" t="n">
-        <v>-4871</v>
+        <v>-157.7472</v>
       </c>
       <c r="AF73" t="n">
         <v>-88.8644</v>
@@ -13512,7 +13516,7 @@
         <v>-92.4193</v>
       </c>
       <c r="BF73" t="n">
-        <v>54</v>
+        <v>1.7488</v>
       </c>
     </row>
     <row r="74">
@@ -13535,7 +13539,7 @@
         <v>-10.7937</v>
       </c>
       <c r="G74" t="n">
-        <v>-115</v>
+        <v>-15.3825</v>
       </c>
       <c r="H74" t="n">
         <v>92.9</v>
@@ -13607,7 +13611,7 @@
         <v>-6.153</v>
       </c>
       <c r="AE74" t="n">
-        <v>-1096</v>
+        <v>-146.6019</v>
       </c>
       <c r="AF74" t="n">
         <v>-76.5112</v>
@@ -13686,7 +13690,7 @@
         <v>-104.5214</v>
       </c>
       <c r="BF74" t="n">
-        <v>12</v>
+        <v>1.6051</v>
       </c>
     </row>
     <row r="75">
@@ -13709,7 +13713,7 @@
         <v>-20.5598</v>
       </c>
       <c r="G75" t="n">
-        <v>-971</v>
+        <v>-17.7211</v>
       </c>
       <c r="H75" t="n">
         <v>37.8</v>
@@ -13781,7 +13785,7 @@
         <v>-4.7816</v>
       </c>
       <c r="AE75" t="n">
-        <v>-5422</v>
+        <v>-98.9533</v>
       </c>
       <c r="AF75" t="n">
         <v>-69.698</v>
@@ -13860,7 +13864,7 @@
         <v>-96.2396</v>
       </c>
       <c r="BF75" t="n">
-        <v>35</v>
+        <v>0.6388</v>
       </c>
     </row>
     <row r="76">
@@ -13883,7 +13887,7 @@
         <v>-14.661</v>
       </c>
       <c r="G76" t="n">
-        <v>-608</v>
+        <v>-16.4797</v>
       </c>
       <c r="H76" t="n">
         <v>97</v>
@@ -13955,7 +13959,7 @@
         <v>-10.9774</v>
       </c>
       <c r="AE76" t="n">
-        <v>-5917</v>
+        <v>-160.3785</v>
       </c>
       <c r="AF76" t="n">
         <v>-73.3995</v>
@@ -14034,7 +14038,7 @@
         <v>-102.6392</v>
       </c>
       <c r="BF76" t="n">
-        <v>65</v>
+        <v>1.7618</v>
       </c>
     </row>
     <row r="77">
@@ -14057,7 +14061,7 @@
         <v>-12.2485</v>
       </c>
       <c r="G77" t="n">
-        <v>-1646</v>
+        <v>-18.1897</v>
       </c>
       <c r="H77" t="n">
         <v>79.6</v>
@@ -14129,7 +14133,7 @@
         <v>-3.3374</v>
       </c>
       <c r="AE77" t="n">
-        <v>-20934</v>
+        <v>-231.3383</v>
       </c>
       <c r="AF77" t="n">
         <v>-109.8122</v>
@@ -14208,7 +14212,7 @@
         <v>-109.1142</v>
       </c>
       <c r="BF77" t="n">
-        <v>476</v>
+        <v>5.2602</v>
       </c>
     </row>
     <row r="78">
@@ -14231,7 +14235,7 @@
         <v>-13.1034</v>
       </c>
       <c r="G78" t="n">
-        <v>-134</v>
+        <v>-7.3647</v>
       </c>
       <c r="H78" t="n">
         <v>86.6</v>
@@ -14303,7 +14307,7 @@
         <v>-6.8151</v>
       </c>
       <c r="AE78" t="n">
-        <v>-2798</v>
+        <v>-153.779</v>
       </c>
       <c r="AF78" t="n">
         <v>-67.7111</v>
@@ -14382,7 +14386,7 @@
         <v>-107.0493</v>
       </c>
       <c r="BF78" t="n">
-        <v>19</v>
+        <v>1.0442</v>
       </c>
     </row>
     <row r="79">
@@ -14405,7 +14409,7 @@
         <v>-15.0125</v>
       </c>
       <c r="G79" t="n">
-        <v>-508</v>
+        <v>-8.3848</v>
       </c>
       <c r="H79" t="n">
         <v>81.7</v>
@@ -14477,7 +14481,7 @@
         <v>-8.1537</v>
       </c>
       <c r="AE79" t="n">
-        <v>-9122</v>
+        <v>-150.5636</v>
       </c>
       <c r="AF79" t="n">
         <v>-96.0623</v>
@@ -14556,7 +14560,7 @@
         <v>-106.7897</v>
       </c>
       <c r="BF79" t="n">
-        <v>84</v>
+        <v>1.3865</v>
       </c>
     </row>
     <row r="80">
@@ -14579,7 +14583,7 @@
         <v>-17.2173</v>
       </c>
       <c r="G80" t="n">
-        <v>-401</v>
+        <v>-11.095</v>
       </c>
       <c r="H80" t="n">
         <v>29.2</v>
@@ -14651,7 +14655,7 @@
         <v>-2.0198</v>
       </c>
       <c r="AE80" t="n">
-        <v>-4596</v>
+        <v>-127.1636</v>
       </c>
       <c r="AF80" t="n">
         <v>-87.2659</v>
@@ -14730,7 +14734,7 @@
         <v>-109.9296</v>
       </c>
       <c r="BF80" t="n">
-        <v>29</v>
+        <v>0.8024</v>
       </c>
     </row>
     <row r="81">
@@ -14753,7 +14757,7 @@
         <v>-9.5231</v>
       </c>
       <c r="G81" t="n">
-        <v>-239</v>
+        <v>-8.0283</v>
       </c>
       <c r="H81" t="n">
         <v>60.9</v>
@@ -14825,7 +14829,7 @@
         <v>-3.8966</v>
       </c>
       <c r="AE81" t="n">
-        <v>-4476</v>
+        <v>-150.3538</v>
       </c>
       <c r="AF81" t="n">
         <v>-76.6549</v>
@@ -14904,7 +14908,7 @@
         <v>-114.2682</v>
       </c>
       <c r="BF81" t="n">
-        <v>36</v>
+        <v>1.2093</v>
       </c>
     </row>
     <row r="82">
@@ -14927,7 +14931,7 @@
         <v>-11.6636</v>
       </c>
       <c r="G82" t="n">
-        <v>-1116</v>
+        <v>-13.6946</v>
       </c>
       <c r="H82" t="n">
         <v>88</v>
@@ -14999,7 +15003,7 @@
         <v>-8.0744</v>
       </c>
       <c r="AE82" t="n">
-        <v>-11487</v>
+        <v>-140.9591</v>
       </c>
       <c r="AF82" t="n">
         <v>-78.2902</v>
@@ -15078,7 +15082,7 @@
         <v>-106.0689</v>
       </c>
       <c r="BF82" t="n">
-        <v>188</v>
+        <v>2.307</v>
       </c>
     </row>
     <row r="83">
@@ -15101,7 +15105,7 @@
         <v>-13.8091</v>
       </c>
       <c r="G83" t="n">
-        <v>-1117</v>
+        <v>-6.6247</v>
       </c>
       <c r="H83" t="n">
         <v>61.6</v>
@@ -15173,7 +15177,7 @@
         <v>-3.3806</v>
       </c>
       <c r="AE83" t="n">
-        <v>-18579</v>
+        <v>-110.1887</v>
       </c>
       <c r="AF83" t="n">
         <v>-90.5517</v>
@@ -15252,7 +15256,7 @@
         <v>-110.0972</v>
       </c>
       <c r="BF83" t="n">
-        <v>119</v>
+        <v>0.7058</v>
       </c>
     </row>
     <row r="84">
@@ -15275,7 +15279,7 @@
         <v>-17.0102</v>
       </c>
       <c r="G84" t="n">
-        <v>-395</v>
+        <v>-8.3654</v>
       </c>
       <c r="H84" t="n">
         <v>57.3</v>
@@ -15347,7 +15351,7 @@
         <v>-4.3627</v>
       </c>
       <c r="AE84" t="n">
-        <v>-6539</v>
+        <v>-138.4839</v>
       </c>
       <c r="AF84" t="n">
         <v>-92.6544</v>
@@ -15428,7 +15432,7 @@
         <v>-101.8306</v>
       </c>
       <c r="BF84" t="n">
-        <v>64</v>
+        <v>1.3554</v>
       </c>
     </row>
     <row r="85">
@@ -15451,7 +15455,7 @@
         <v>-11.4546</v>
       </c>
       <c r="G85" t="n">
-        <v>-239</v>
+        <v>-12.0832</v>
       </c>
       <c r="H85" t="n">
         <v>37.7</v>
@@ -15523,7 +15527,7 @@
         <v>-3.5896</v>
       </c>
       <c r="AE85" t="n">
-        <v>-2890</v>
+        <v>-146.1112</v>
       </c>
       <c r="AF85" t="n">
         <v>-107.4347</v>
@@ -15604,7 +15608,7 @@
         <v>-121.2829</v>
       </c>
       <c r="BF85" t="n">
-        <v>59</v>
+        <v>2.9829</v>
       </c>
     </row>
     <row r="86">
@@ -15627,7 +15631,7 @@
         <v>-8.6972</v>
       </c>
       <c r="G86" t="n">
-        <v>-205</v>
+        <v>-16.6165</v>
       </c>
       <c r="H86" t="n">
         <v>65.1</v>
@@ -15699,7 +15703,7 @@
         <v>-5.836</v>
       </c>
       <c r="AE86" t="n">
-        <v>-1756</v>
+        <v>-142.3342</v>
       </c>
       <c r="AF86" t="n">
         <v>-72.2208</v>
@@ -15780,7 +15784,7 @@
         <v>-106.2969</v>
       </c>
       <c r="BF86" t="n">
-        <v>11</v>
+        <v>0.8916</v>
       </c>
     </row>
     <row r="87">
@@ -15803,7 +15807,7 @@
         <v>-10.3188</v>
       </c>
       <c r="G87" t="n">
-        <v>-711</v>
+        <v>-13.2273</v>
       </c>
       <c r="H87" t="n">
         <v>99.6</v>
@@ -15875,7 +15879,7 @@
         <v>-5.023</v>
       </c>
       <c r="AE87" t="n">
-        <v>-8149</v>
+        <v>-151.6024</v>
       </c>
       <c r="AF87" t="n">
         <v>-66.2109</v>
@@ -15956,7 +15960,7 @@
         <v>-99.7039</v>
       </c>
       <c r="BF87" t="n">
-        <v>167</v>
+        <v>3.1068</v>
       </c>
     </row>
     <row r="88">
@@ -15979,7 +15983,7 @@
         <v>-21.224</v>
       </c>
       <c r="G88" t="n">
-        <v>-522</v>
+        <v>-12.8182</v>
       </c>
       <c r="H88" t="n">
         <v>48.5</v>
@@ -16051,7 +16055,7 @@
         <v>-3.1677</v>
       </c>
       <c r="AE88" t="n">
-        <v>-6403</v>
+        <v>-157.2319</v>
       </c>
       <c r="AF88" t="n">
         <v>-85.553</v>
@@ -16132,7 +16136,7 @@
         <v>-110.0251</v>
       </c>
       <c r="BF88" t="n">
-        <v>26</v>
+        <v>0.6385</v>
       </c>
     </row>
     <row r="89">
@@ -16155,7 +16159,7 @@
         <v>-15.0162</v>
       </c>
       <c r="G89" t="n">
-        <v>-662</v>
+        <v>-10.3222</v>
       </c>
       <c r="H89" t="n">
         <v>44.6</v>
@@ -16227,7 +16231,7 @@
         <v>-4.7089</v>
       </c>
       <c r="AE89" t="n">
-        <v>-9645</v>
+        <v>-150.3885</v>
       </c>
       <c r="AF89" t="n">
         <v>-105.6383</v>
@@ -16308,7 +16312,7 @@
         <v>-116.9383</v>
       </c>
       <c r="BF89" t="n">
-        <v>92</v>
+        <v>1.4345</v>
       </c>
     </row>
     <row r="90">
@@ -16331,7 +16335,7 @@
         <v>-9.9222</v>
       </c>
       <c r="G90" t="n">
-        <v>-228</v>
+        <v>-10.5743</v>
       </c>
       <c r="H90" t="n">
         <v>86.5</v>
@@ -16403,7 +16407,7 @@
         <v>-6.3539</v>
       </c>
       <c r="AE90" t="n">
-        <v>-2688</v>
+        <v>-124.6657</v>
       </c>
       <c r="AF90" t="n">
         <v>-61.0342</v>
@@ -16484,7 +16488,7 @@
         <v>-108.7839</v>
       </c>
       <c r="BF90" t="n">
-        <v>83</v>
+        <v>3.8494</v>
       </c>
     </row>
     <row r="91">
@@ -16507,7 +16511,7 @@
         <v>-10.5726</v>
       </c>
       <c r="G91" t="n">
-        <v>-285</v>
+        <v>-17.753</v>
       </c>
       <c r="H91" t="n">
         <v>97.1</v>
@@ -16579,7 +16583,7 @@
         <v>-8.4093</v>
       </c>
       <c r="AE91" t="n">
-        <v>-1314</v>
+        <v>-81.8507</v>
       </c>
       <c r="AF91" t="n">
         <v>-53.0721</v>
@@ -16660,7 +16664,7 @@
         <v>-97.934</v>
       </c>
       <c r="BF91" t="n">
-        <v>13</v>
+        <v>0.8098</v>
       </c>
     </row>
     <row r="92">
@@ -16683,7 +16687,7 @@
         <v>-10.1578</v>
       </c>
       <c r="G92" t="n">
-        <v>-302</v>
+        <v>-10.7715</v>
       </c>
       <c r="H92" t="n">
         <v>70.2</v>
@@ -16755,7 +16759,7 @@
         <v>-7.0978</v>
       </c>
       <c r="AE92" t="n">
-        <v>-4313</v>
+        <v>-153.8329</v>
       </c>
       <c r="AF92" t="n">
         <v>-80.6793</v>
@@ -16836,7 +16840,7 @@
         <v>-106.5248</v>
       </c>
       <c r="BF92" t="n">
-        <v>87</v>
+        <v>3.1031</v>
       </c>
     </row>
     <row r="93">
@@ -16859,7 +16863,7 @@
         <v>-13.4611</v>
       </c>
       <c r="G93" t="n">
-        <v>-387</v>
+        <v>-12.5754</v>
       </c>
       <c r="H93" t="n">
         <v>97.7</v>
@@ -16931,7 +16935,7 @@
         <v>-5.4591</v>
       </c>
       <c r="AE93" t="n">
-        <v>-4323</v>
+        <v>-140.4744</v>
       </c>
       <c r="AF93" t="n">
         <v>-58.3604</v>
@@ -17012,7 +17016,7 @@
         <v>-100.8727</v>
       </c>
       <c r="BF93" t="n">
-        <v>57</v>
+        <v>1.8522</v>
       </c>
     </row>
     <row r="94">
@@ -17035,7 +17039,7 @@
         <v>-9.1748</v>
       </c>
       <c r="G94" t="n">
-        <v>-571</v>
+        <v>-19.2788</v>
       </c>
       <c r="H94" t="n">
         <v>94.8</v>
@@ -17107,7 +17111,7 @@
         <v>-8.9135</v>
       </c>
       <c r="AE94" t="n">
-        <v>-4924</v>
+        <v>-166.2497</v>
       </c>
       <c r="AF94" t="n">
         <v>-61.7528</v>
@@ -17188,7 +17192,7 @@
         <v>-100.8735</v>
       </c>
       <c r="BF94" t="n">
-        <v>54</v>
+        <v>1.8232</v>
       </c>
     </row>
     <row r="95">
@@ -17211,7 +17215,7 @@
         <v>-14.559</v>
       </c>
       <c r="G95" t="n">
-        <v>-378</v>
+        <v>-15.1995</v>
       </c>
       <c r="H95" t="n">
         <v>88.8</v>
@@ -17283,7 +17287,7 @@
         <v>-4.3427</v>
       </c>
       <c r="AE95" t="n">
-        <v>-3236</v>
+        <v>-130.1202</v>
       </c>
       <c r="AF95" t="n">
         <v>-107.0395</v>
@@ -17364,7 +17368,7 @@
         <v>-95.6378</v>
       </c>
       <c r="BF95" t="n">
-        <v>46</v>
+        <v>1.8497</v>
       </c>
     </row>
     <row r="96">
@@ -17387,7 +17391,7 @@
         <v>-10.6454</v>
       </c>
       <c r="G96" t="n">
-        <v>-512</v>
+        <v>-14.385</v>
       </c>
       <c r="H96" t="n">
         <v>97.4</v>
@@ -17459,7 +17463,7 @@
         <v>-4.4391</v>
       </c>
       <c r="AE96" t="n">
-        <v>-5349</v>
+        <v>-150.2837</v>
       </c>
       <c r="AF96" t="n">
         <v>-84.3432</v>
@@ -17540,7 +17544,7 @@
         <v>-103.2106</v>
       </c>
       <c r="BF96" t="n">
-        <v>20</v>
+        <v>0.5619</v>
       </c>
     </row>
     <row r="97">
@@ -17563,7 +17567,7 @@
         <v>-12.3721</v>
       </c>
       <c r="G97" t="n">
-        <v>-82</v>
+        <v>-6.1591</v>
       </c>
       <c r="H97" t="n">
         <v>47.2</v>
@@ -17635,7 +17639,7 @@
         <v>-4.1311</v>
       </c>
       <c r="AE97" t="n">
-        <v>-1465</v>
+        <v>-110.0369</v>
       </c>
       <c r="AF97" t="n">
         <v>-99.2961</v>
@@ -17716,7 +17720,7 @@
         <v>-113.2364</v>
       </c>
       <c r="BF97" t="n">
-        <v>15</v>
+        <v>1.1267</v>
       </c>
     </row>
     <row r="98">
@@ -17739,7 +17743,7 @@
         <v>-10.8642</v>
       </c>
       <c r="G98" t="n">
-        <v>-1428</v>
+        <v>-17.0467</v>
       </c>
       <c r="H98" t="n">
         <v>72.3</v>
@@ -17811,7 +17815,7 @@
         <v>-2.5904</v>
       </c>
       <c r="AE98" t="n">
-        <v>-14282</v>
+        <v>-170.4912</v>
       </c>
       <c r="AF98" t="n">
         <v>-105.9333</v>
@@ -17892,7 +17896,7 @@
         <v>-96.0092</v>
       </c>
       <c r="BF98" t="n">
-        <v>98</v>
+        <v>1.1699</v>
       </c>
     </row>
     <row r="99">
@@ -17915,7 +17919,7 @@
         <v>-11.9414</v>
       </c>
       <c r="G99" t="n">
-        <v>-400</v>
+        <v>-18.3297</v>
       </c>
       <c r="H99" t="n">
         <v>98.6</v>
@@ -17987,7 +17991,7 @@
         <v>-8.7524</v>
       </c>
       <c r="AE99" t="n">
-        <v>-3545</v>
+        <v>-162.4466</v>
       </c>
       <c r="AF99" t="n">
         <v>-72.7688</v>
@@ -18068,7 +18072,7 @@
         <v>-103.6339</v>
       </c>
       <c r="BF99" t="n">
-        <v>47</v>
+        <v>2.1537</v>
       </c>
     </row>
     <row r="100">
@@ -18091,7 +18095,7 @@
         <v>-16.2037</v>
       </c>
       <c r="G100" t="n">
-        <v>-146</v>
+        <v>-8.9582</v>
       </c>
       <c r="H100" t="n">
         <v>49.6</v>
@@ -18163,7 +18167,7 @@
         <v>-6.688</v>
       </c>
       <c r="AE100" t="n">
-        <v>-2186</v>
+        <v>-134.1278</v>
       </c>
       <c r="AF100" t="n">
         <v>-75.7767</v>
@@ -18244,7 +18248,7 @@
         <v>-111.4409</v>
       </c>
       <c r="BF100" t="n">
-        <v>21</v>
+        <v>1.2885</v>
       </c>
     </row>
     <row r="101">
@@ -18267,7 +18271,7 @@
         <v>-12.9205</v>
       </c>
       <c r="G101" t="n">
-        <v>-18100</v>
+        <v>-14.4421</v>
       </c>
       <c r="H101" t="n">
         <v>73.6</v>
@@ -18339,7 +18343,7 @@
         <v>-5.4322</v>
       </c>
       <c r="AE101" t="n">
-        <v>-188773</v>
+        <v>-150.6234</v>
       </c>
       <c r="AF101" t="n">
         <v>-80.7937</v>
@@ -18420,7 +18424,7 @@
         <v>-108.3677</v>
       </c>
       <c r="BF101" t="n">
-        <v>2346</v>
+        <v>1.8719</v>
       </c>
     </row>
     <row r="102">
@@ -18443,7 +18447,7 @@
         <v>-9.1346</v>
       </c>
       <c r="G102" t="n">
-        <v>-150</v>
+        <v>-10.7466</v>
       </c>
       <c r="H102" t="n">
         <v>93.7</v>
@@ -18515,7 +18519,7 @@
         <v>-10.0301</v>
       </c>
       <c r="AE102" t="n">
-        <v>-1490</v>
+        <v>-106.7493</v>
       </c>
       <c r="AF102" t="n">
         <v>-49.4342</v>
@@ -18596,7 +18600,7 @@
         <v>-110.234</v>
       </c>
       <c r="BF102" t="n">
-        <v>33</v>
+        <v>2.3642</v>
       </c>
     </row>
     <row r="103">
@@ -18619,7 +18623,7 @@
         <v>-10.4165</v>
       </c>
       <c r="G103" t="n">
-        <v>-1095</v>
+        <v>-31.097</v>
       </c>
       <c r="H103" t="n">
         <v>98.1</v>
@@ -18691,7 +18695,7 @@
         <v>-5.5094</v>
       </c>
       <c r="AE103" t="n">
-        <v>-5232</v>
+        <v>-148.5839</v>
       </c>
       <c r="AF103" t="n">
         <v>-65.0623</v>
@@ -18772,7 +18776,7 @@
         <v>-108.4533</v>
       </c>
       <c r="BF103" t="n">
-        <v>84</v>
+        <v>2.3855</v>
       </c>
     </row>
     <row r="104">
@@ -18795,7 +18799,7 @@
         <v>-11.2747</v>
       </c>
       <c r="G104" t="n">
-        <v>-108</v>
+        <v>-14.0024</v>
       </c>
       <c r="H104" t="n">
         <v>36.2</v>
@@ -18867,7 +18871,7 @@
         <v>-7.3902</v>
       </c>
       <c r="AE104" t="n">
-        <v>-883</v>
+        <v>-114.4829</v>
       </c>
       <c r="AF104" t="n">
         <v>-50.694</v>
@@ -18948,7 +18952,7 @@
         <v>-110.2254</v>
       </c>
       <c r="BF104" t="n">
-        <v>14</v>
+        <v>1.8151</v>
       </c>
     </row>
     <row r="105">
@@ -18971,7 +18975,7 @@
         <v>-14.3042</v>
       </c>
       <c r="G105" t="n">
-        <v>-160</v>
+        <v>-16.5406</v>
       </c>
       <c r="H105" t="n">
         <v>77.3</v>
@@ -19043,7 +19047,7 @@
         <v>-7.1331</v>
       </c>
       <c r="AE105" t="n">
-        <v>-1140</v>
+        <v>-117.8515</v>
       </c>
       <c r="AF105" t="n">
         <v>-76.8102</v>
@@ -19124,7 +19128,7 @@
         <v>-96.8197</v>
       </c>
       <c r="BF105" t="n">
-        <v>9</v>
+        <v>0.9304</v>
       </c>
     </row>
     <row r="106">
@@ -19147,7 +19151,7 @@
         <v>-11.763</v>
       </c>
       <c r="G106" t="n">
-        <v>-438</v>
+        <v>-13.9846</v>
       </c>
       <c r="H106" t="n">
         <v>81.4</v>
@@ -19219,7 +19223,7 @@
         <v>-6.8965</v>
       </c>
       <c r="AE106" t="n">
-        <v>-5234</v>
+        <v>-167.1128</v>
       </c>
       <c r="AF106" t="n">
         <v>-78.8948</v>
@@ -19300,7 +19304,7 @@
         <v>-93.9158</v>
       </c>
       <c r="BF106" t="n">
-        <v>55</v>
+        <v>1.7561</v>
       </c>
     </row>
     <row r="107">
@@ -19323,7 +19327,7 @@
         <v>-11.1103</v>
       </c>
       <c r="G107" t="n">
-        <v>-148</v>
+        <v>-19.4652</v>
       </c>
       <c r="H107" t="n">
         <v>92.9</v>
@@ -19395,7 +19399,7 @@
         <v>-6.7076</v>
       </c>
       <c r="AE107" t="n">
-        <v>-1112</v>
+        <v>-146.2517</v>
       </c>
       <c r="AF107" t="n">
         <v>-66.6813</v>
@@ -19476,7 +19480,7 @@
         <v>-109.861</v>
       </c>
       <c r="BF107" t="n">
-        <v>14</v>
+        <v>1.8413</v>
       </c>
     </row>
     <row r="108">
@@ -19499,7 +19503,7 @@
         <v>-20.1323</v>
       </c>
       <c r="G108" t="n">
-        <v>-1014</v>
+        <v>-18.2247</v>
       </c>
       <c r="H108" t="n">
         <v>37.8</v>
@@ -19571,7 +19575,7 @@
         <v>-2.642</v>
       </c>
       <c r="AE108" t="n">
-        <v>-5907</v>
+        <v>-106.1671</v>
       </c>
       <c r="AF108" t="n">
         <v>-69.9334</v>
@@ -19652,7 +19656,7 @@
         <v>-98.777</v>
       </c>
       <c r="BF108" t="n">
-        <v>33</v>
+        <v>0.5931</v>
       </c>
     </row>
     <row r="109">
@@ -19675,7 +19679,7 @@
         <v>-13.7758</v>
       </c>
       <c r="G109" t="n">
-        <v>-702</v>
+        <v>-18.8306</v>
       </c>
       <c r="H109" t="n">
         <v>97</v>
@@ -19747,7 +19751,7 @@
         <v>-9.7908</v>
       </c>
       <c r="AE109" t="n">
-        <v>-6399</v>
+        <v>-171.6477</v>
       </c>
       <c r="AF109" t="n">
         <v>-61.0249</v>
@@ -19828,7 +19832,7 @@
         <v>-107.7498</v>
       </c>
       <c r="BF109" t="n">
-        <v>74</v>
+        <v>1.985</v>
       </c>
     </row>
     <row r="110">
@@ -19851,7 +19855,7 @@
         <v>-12.0832</v>
       </c>
       <c r="G110" t="n">
-        <v>-2019</v>
+        <v>-22.3306</v>
       </c>
       <c r="H110" t="n">
         <v>79.6</v>
@@ -19923,7 +19927,7 @@
         <v>-2.5107</v>
       </c>
       <c r="AE110" t="n">
-        <v>-21209</v>
+        <v>-234.5766</v>
       </c>
       <c r="AF110" t="n">
         <v>-101.3671</v>
@@ -20004,7 +20008,7 @@
         <v>-112.0297</v>
       </c>
       <c r="BF110" t="n">
-        <v>514</v>
+        <v>5.685</v>
       </c>
     </row>
     <row r="111">
@@ -20027,7 +20031,7 @@
         <v>-14.5848</v>
       </c>
       <c r="G111" t="n">
-        <v>-186</v>
+        <v>-10.1282</v>
       </c>
       <c r="H111" t="n">
         <v>86.6</v>
@@ -20099,7 +20103,7 @@
         <v>-6.6432</v>
       </c>
       <c r="AE111" t="n">
-        <v>-3040</v>
+        <v>-165.5359</v>
       </c>
       <c r="AF111" t="n">
         <v>-58.8088</v>
@@ -20180,7 +20184,7 @@
         <v>-108.503</v>
       </c>
       <c r="BF111" t="n">
-        <v>21</v>
+        <v>1.1435</v>
       </c>
     </row>
     <row r="112">
@@ -20203,7 +20207,7 @@
         <v>-11.0358</v>
       </c>
       <c r="G112" t="n">
-        <v>-548</v>
+        <v>-8.9583</v>
       </c>
       <c r="H112" t="n">
         <v>81.7</v>
@@ -20275,7 +20279,7 @@
         <v>-8.2391</v>
       </c>
       <c r="AE112" t="n">
-        <v>-9405</v>
+        <v>-153.7467</v>
       </c>
       <c r="AF112" t="n">
         <v>-89.3218</v>
@@ -20356,7 +20360,7 @@
         <v>-108.5361</v>
       </c>
       <c r="BF112" t="n">
-        <v>83</v>
+        <v>1.3568</v>
       </c>
     </row>
     <row r="113">
@@ -20379,7 +20383,7 @@
         <v>-20.3568</v>
       </c>
       <c r="G113" t="n">
-        <v>-465</v>
+        <v>-12.8109</v>
       </c>
       <c r="H113" t="n">
         <v>29.2</v>
@@ -20451,7 +20455,7 @@
         <v>-1.7357</v>
       </c>
       <c r="AE113" t="n">
-        <v>-4380</v>
+        <v>-120.67</v>
       </c>
       <c r="AF113" t="n">
         <v>-78.7937</v>
@@ -20532,7 +20536,7 @@
         <v>-114.3438</v>
       </c>
       <c r="BF113" t="n">
-        <v>31</v>
+        <v>0.8541</v>
       </c>
     </row>
     <row r="114">
@@ -20555,7 +20559,7 @@
         <v>-9.1299</v>
       </c>
       <c r="G114" t="n">
-        <v>-254</v>
+        <v>-8.4266</v>
       </c>
       <c r="H114" t="n">
         <v>60.9</v>
@@ -20627,7 +20631,7 @@
         <v>-3.6161</v>
       </c>
       <c r="AE114" t="n">
-        <v>-4610</v>
+        <v>-152.9398</v>
       </c>
       <c r="AF114" t="n">
         <v>-75.4415</v>
@@ -20708,7 +20712,7 @@
         <v>-112.8742</v>
       </c>
       <c r="BF114" t="n">
-        <v>38</v>
+        <v>1.2607</v>
       </c>
     </row>
     <row r="115">
@@ -20731,7 +20735,7 @@
         <v>-11.2021</v>
       </c>
       <c r="G115" t="n">
-        <v>-1335</v>
+        <v>-16.2034</v>
       </c>
       <c r="H115" t="n">
         <v>88</v>
@@ -20803,7 +20807,7 @@
         <v>-7.6466</v>
       </c>
       <c r="AE115" t="n">
-        <v>-11837</v>
+        <v>-143.6705</v>
       </c>
       <c r="AF115" t="n">
         <v>-66.2824</v>
@@ -20884,7 +20888,7 @@
         <v>-109.2296</v>
       </c>
       <c r="BF115" t="n">
-        <v>206</v>
+        <v>2.5003</v>
       </c>
     </row>
     <row r="116">
@@ -20907,7 +20911,7 @@
         <v>-13.4333</v>
       </c>
       <c r="G116" t="n">
-        <v>-1361</v>
+        <v>-7.9793</v>
       </c>
       <c r="H116" t="n">
         <v>61.6</v>
@@ -20979,7 +20983,7 @@
         <v>-3.4239</v>
       </c>
       <c r="AE116" t="n">
-        <v>-19210</v>
+        <v>-112.6246</v>
       </c>
       <c r="AF116" t="n">
         <v>-88.0125</v>
@@ -21060,7 +21064,7 @@
         <v>-111.2707</v>
       </c>
       <c r="BF116" t="n">
-        <v>123</v>
+        <v>0.7211</v>
       </c>
     </row>
     <row r="117">
@@ -21083,7 +21087,7 @@
         <v>-16.3507</v>
       </c>
       <c r="G117" t="n">
-        <v>-421</v>
+        <v>-8.8492</v>
       </c>
       <c r="H117" t="n">
         <v>57.3</v>
@@ -21155,7 +21159,7 @@
         <v>-5.1498</v>
       </c>
       <c r="AE117" t="n">
-        <v>-6767</v>
+        <v>-142.2391</v>
       </c>
       <c r="AF117" t="n">
         <v>-88.0718</v>
@@ -21236,7 +21240,7 @@
         <v>-110.6375</v>
       </c>
       <c r="BF117" t="n">
-        <v>65</v>
+        <v>1.3663</v>
       </c>
     </row>
     <row r="118">
@@ -21259,7 +21263,7 @@
         <v>-8.791</v>
       </c>
       <c r="G118" t="n">
-        <v>-268</v>
+        <v>-13.3965</v>
       </c>
       <c r="H118" t="n">
         <v>37.7</v>
@@ -21331,7 +21335,7 @@
         <v>-4.3988</v>
       </c>
       <c r="AE118" t="n">
-        <v>-2875</v>
+        <v>-143.7121</v>
       </c>
       <c r="AF118" t="n">
         <v>-97.5743</v>
@@ -21412,7 +21416,7 @@
         <v>-122.8443</v>
       </c>
       <c r="BF118" t="n">
-        <v>65</v>
+        <v>3.2491</v>
       </c>
     </row>
     <row r="119">
@@ -21435,7 +21439,7 @@
         <v>-8.0384</v>
       </c>
       <c r="G119" t="n">
-        <v>-194</v>
+        <v>-15.4907</v>
       </c>
       <c r="H119" t="n">
         <v>65.1</v>
@@ -21507,7 +21511,7 @@
         <v>-5.27</v>
       </c>
       <c r="AE119" t="n">
-        <v>-1718</v>
+        <v>-137.1807</v>
       </c>
       <c r="AF119" t="n">
         <v>-53.8183</v>
@@ -21588,7 +21592,7 @@
         <v>-110.5602</v>
       </c>
       <c r="BF119" t="n">
-        <v>11</v>
+        <v>0.8783</v>
       </c>
     </row>
     <row r="120">
@@ -21611,7 +21615,7 @@
         <v>-10.9325</v>
       </c>
       <c r="G120" t="n">
-        <v>-654</v>
+        <v>-11.9893</v>
       </c>
       <c r="H120" t="n">
         <v>99.6</v>
@@ -21683,7 +21687,7 @@
         <v>-5.8113</v>
       </c>
       <c r="AE120" t="n">
-        <v>-8658</v>
+        <v>-158.7212</v>
       </c>
       <c r="AF120" t="n">
         <v>-59.1217</v>
@@ -21764,7 +21768,7 @@
         <v>-100.1027</v>
       </c>
       <c r="BF120" t="n">
-        <v>174</v>
+        <v>3.1898</v>
       </c>
     </row>
     <row r="121">
@@ -21787,7 +21791,7 @@
         <v>-19.6308</v>
       </c>
       <c r="G121" t="n">
-        <v>-477</v>
+        <v>-11.6427</v>
       </c>
       <c r="H121" t="n">
         <v>48.5</v>
@@ -21859,7 +21863,7 @@
         <v>-3.4171</v>
       </c>
       <c r="AE121" t="n">
-        <v>-6582</v>
+        <v>-160.6542</v>
       </c>
       <c r="AF121" t="n">
         <v>-86.5024</v>
@@ -21940,7 +21944,7 @@
         <v>-114.5331</v>
       </c>
       <c r="BF121" t="n">
-        <v>28</v>
+        <v>0.6834</v>
       </c>
     </row>
     <row r="122">
@@ -21963,7 +21967,7 @@
         <v>-13.9124</v>
       </c>
       <c r="G122" t="n">
-        <v>-710</v>
+        <v>-10.9588</v>
       </c>
       <c r="H122" t="n">
         <v>44.6</v>
@@ -22035,7 +22039,7 @@
         <v>-4.9237</v>
       </c>
       <c r="AE122" t="n">
-        <v>-10218</v>
+        <v>-157.7139</v>
       </c>
       <c r="AF122" t="n">
         <v>-100.3887</v>
@@ -22116,7 +22120,7 @@
         <v>-117.6396</v>
       </c>
       <c r="BF122" t="n">
-        <v>100</v>
+        <v>1.5435</v>
       </c>
     </row>
     <row r="123">
@@ -22139,7 +22143,7 @@
         <v>-10.0159</v>
       </c>
       <c r="G123" t="n">
-        <v>-312</v>
+        <v>-14.1951</v>
       </c>
       <c r="H123" t="n">
         <v>86.5</v>
@@ -22211,7 +22215,7 @@
         <v>-6.2786</v>
       </c>
       <c r="AE123" t="n">
-        <v>-2863</v>
+        <v>-130.2585</v>
       </c>
       <c r="AF123" t="n">
         <v>-56.462</v>
@@ -22292,7 +22296,7 @@
         <v>-113.8711</v>
       </c>
       <c r="BF123" t="n">
-        <v>86</v>
+        <v>3.9128</v>
       </c>
     </row>
     <row r="124">
@@ -22315,7 +22319,7 @@
         <v>-11.5116</v>
       </c>
       <c r="G124" t="n">
-        <v>-313</v>
+        <v>-19.0246</v>
       </c>
       <c r="H124" t="n">
         <v>97.1</v>
@@ -22387,7 +22391,7 @@
         <v>-7.5977</v>
       </c>
       <c r="AE124" t="n">
-        <v>-1457</v>
+        <v>-88.5587</v>
       </c>
       <c r="AF124" t="n">
         <v>-50.3271</v>
@@ -22468,7 +22472,7 @@
         <v>-100.7694</v>
       </c>
       <c r="BF124" t="n">
-        <v>15</v>
+        <v>0.9117</v>
       </c>
     </row>
     <row r="125">
@@ -22491,7 +22495,7 @@
         <v>-9.8384</v>
       </c>
       <c r="G125" t="n">
-        <v>-358</v>
+        <v>-12.6719</v>
       </c>
       <c r="H125" t="n">
         <v>70.2</v>
@@ -22563,7 +22567,7 @@
         <v>-7.2208</v>
       </c>
       <c r="AE125" t="n">
-        <v>-4464</v>
+        <v>-158.0089</v>
       </c>
       <c r="AF125" t="n">
         <v>-78.3319</v>
@@ -22644,7 +22648,7 @@
         <v>-110.3451</v>
       </c>
       <c r="BF125" t="n">
-        <v>91</v>
+        <v>3.2211</v>
       </c>
     </row>
     <row r="126">
@@ -22667,7 +22671,7 @@
         <v>-10.9897</v>
       </c>
       <c r="G126" t="n">
-        <v>-474</v>
+        <v>-15.2676</v>
       </c>
       <c r="H126" t="n">
         <v>97.7</v>
@@ -22739,7 +22743,7 @@
         <v>-4.3484</v>
       </c>
       <c r="AE126" t="n">
-        <v>-4494</v>
+        <v>-144.7525</v>
       </c>
       <c r="AF126" t="n">
         <v>-53.1146</v>
@@ -22820,7 +22824,7 @@
         <v>-104.9893</v>
       </c>
       <c r="BF126" t="n">
-        <v>58</v>
+        <v>1.8682</v>
       </c>
     </row>
     <row r="127">
@@ -22843,7 +22847,7 @@
         <v>-10.3251</v>
       </c>
       <c r="G127" t="n">
-        <v>-709</v>
+        <v>-23.6323</v>
       </c>
       <c r="H127" t="n">
         <v>94.8</v>
@@ -22915,7 +22919,7 @@
         <v>-8.8996</v>
       </c>
       <c r="AE127" t="n">
-        <v>-5382</v>
+        <v>-179.3924</v>
       </c>
       <c r="AF127" t="n">
         <v>-51.4978</v>
@@ -22996,7 +23000,7 @@
         <v>-102.6979</v>
       </c>
       <c r="BF127" t="n">
-        <v>57</v>
+        <v>1.8999</v>
       </c>
     </row>
     <row r="128">
@@ -23019,7 +23023,7 @@
         <v>-14.9861</v>
       </c>
       <c r="G128" t="n">
-        <v>-397</v>
+        <v>-15.7795</v>
       </c>
       <c r="H128" t="n">
         <v>88.8</v>
@@ -23091,7 +23095,7 @@
         <v>-5.644</v>
       </c>
       <c r="AE128" t="n">
-        <v>-3663</v>
+        <v>-145.5925</v>
       </c>
       <c r="AF128" t="n">
         <v>-105.5277</v>
@@ -23172,7 +23176,7 @@
         <v>-97.4306</v>
       </c>
       <c r="BF128" t="n">
-        <v>50</v>
+        <v>1.9873</v>
       </c>
     </row>
     <row r="129">
@@ -23195,7 +23199,7 @@
         <v>-10.3386</v>
       </c>
       <c r="G129" t="n">
-        <v>-581</v>
+        <v>-16.1817</v>
       </c>
       <c r="H129" t="n">
         <v>97.4</v>
@@ -23267,7 +23271,7 @@
         <v>-4.5676</v>
       </c>
       <c r="AE129" t="n">
-        <v>-5519</v>
+        <v>-153.7118</v>
       </c>
       <c r="AF129" t="n">
         <v>-77.1483</v>
@@ -23348,7 +23352,7 @@
         <v>-103.1274</v>
       </c>
       <c r="BF129" t="n">
-        <v>20</v>
+        <v>0.557</v>
       </c>
     </row>
     <row r="130">
@@ -23371,7 +23375,7 @@
         <v>-12.616</v>
       </c>
       <c r="G130" t="n">
-        <v>-104</v>
+        <v>-7.7155</v>
       </c>
       <c r="H130" t="n">
         <v>47.2</v>
@@ -23443,7 +23447,7 @@
         <v>-4.0803</v>
       </c>
       <c r="AE130" t="n">
-        <v>-1626</v>
+        <v>-120.6292</v>
       </c>
       <c r="AF130" t="n">
         <v>-99.4857</v>
@@ -23524,7 +23528,7 @@
         <v>-118.3844</v>
       </c>
       <c r="BF130" t="n">
-        <v>18</v>
+        <v>1.3354</v>
       </c>
     </row>
     <row r="131">
@@ -23547,7 +23551,7 @@
         <v>-9.8351</v>
       </c>
       <c r="G131" t="n">
-        <v>-1513</v>
+        <v>-17.9389</v>
       </c>
       <c r="H131" t="n">
         <v>72.3</v>
@@ -23619,7 +23623,7 @@
         <v>-2.9997</v>
       </c>
       <c r="AE131" t="n">
-        <v>-15142</v>
+        <v>-179.5317</v>
       </c>
       <c r="AF131" t="n">
         <v>-104.468</v>
@@ -23700,7 +23704,7 @@
         <v>-97.3179</v>
       </c>
       <c r="BF131" t="n">
-        <v>94</v>
+        <v>1.1145</v>
       </c>
     </row>
     <row r="132">
@@ -23723,7 +23727,7 @@
         <v>-10.9096</v>
       </c>
       <c r="G132" t="n">
-        <v>-468</v>
+        <v>-21.1934</v>
       </c>
       <c r="H132" t="n">
         <v>98.6</v>
@@ -23795,7 +23799,7 @@
         <v>-10.642</v>
       </c>
       <c r="AE132" t="n">
-        <v>-3873</v>
+        <v>-175.3889</v>
       </c>
       <c r="AF132" t="n">
         <v>-65.3463</v>
@@ -23876,7 +23880,7 @@
         <v>-110.3469</v>
       </c>
       <c r="BF132" t="n">
-        <v>49</v>
+        <v>2.219</v>
       </c>
     </row>
     <row r="133">
@@ -23899,7 +23903,7 @@
         <v>-16.2683</v>
       </c>
       <c r="G133" t="n">
-        <v>-164</v>
+        <v>-9.9855</v>
       </c>
       <c r="H133" t="n">
         <v>49.6</v>
@@ -23971,7 +23975,7 @@
         <v>-6.0278</v>
       </c>
       <c r="AE133" t="n">
-        <v>-2384</v>
+        <v>-145.1545</v>
       </c>
       <c r="AF133" t="n">
         <v>-72.4555</v>
@@ -24052,7 +24056,7 @@
         <v>-117.0185</v>
       </c>
       <c r="BF133" t="n">
-        <v>22</v>
+        <v>1.3395</v>
       </c>
     </row>
     <row r="134">
@@ -24075,7 +24079,7 @@
         <v>-11.0271</v>
       </c>
       <c r="G134" t="n">
-        <v>-19762</v>
+        <v>-15.6125</v>
       </c>
       <c r="H134" t="n">
         <v>73.6</v>
@@ -24147,7 +24151,7 @@
         <v>-5.7064</v>
       </c>
       <c r="AE134" t="n">
-        <v>-195266</v>
+        <v>-154.2657</v>
       </c>
       <c r="AF134" t="n">
         <v>-82.4411</v>
@@ -24228,7 +24232,7 @@
         <v>-111.0803</v>
       </c>
       <c r="BF134" t="n">
-        <v>2346</v>
+        <v>1.8719</v>
       </c>
     </row>
     <row r="135">
@@ -24251,7 +24255,7 @@
         <v>-10.8625</v>
       </c>
       <c r="G135" t="n">
-        <v>-174</v>
+        <v>-12.2932</v>
       </c>
       <c r="H135" t="n">
         <v>93.7</v>
@@ -24323,7 +24327,7 @@
         <v>-11.0921</v>
       </c>
       <c r="AE135" t="n">
-        <v>-1584</v>
+        <v>-111.9102</v>
       </c>
       <c r="AF135" t="n">
         <v>-51.7161</v>
@@ -24404,7 +24408,7 @@
         <v>-110.1835</v>
       </c>
       <c r="BF135" t="n">
-        <v>33</v>
+        <v>2.3642</v>
       </c>
     </row>
     <row r="136">
@@ -24427,7 +24431,7 @@
         <v>-9.8419</v>
       </c>
       <c r="G136" t="n">
-        <v>-1151</v>
+        <v>-32.1638</v>
       </c>
       <c r="H136" t="n">
         <v>98.1</v>
@@ -24499,7 +24503,7 @@
         <v>-4.7226</v>
       </c>
       <c r="AE136" t="n">
-        <v>-5394</v>
+        <v>-150.731</v>
       </c>
       <c r="AF136" t="n">
         <v>-65.7247</v>
@@ -24580,7 +24584,7 @@
         <v>-111.236</v>
       </c>
       <c r="BF136" t="n">
-        <v>84</v>
+        <v>2.3855</v>
       </c>
     </row>
     <row r="137">
@@ -24603,7 +24607,7 @@
         <v>-9.5558</v>
       </c>
       <c r="G137" t="n">
-        <v>-152</v>
+        <v>-19.2864</v>
       </c>
       <c r="H137" t="n">
         <v>36.2</v>
@@ -24675,7 +24679,7 @@
         <v>-7.4862</v>
       </c>
       <c r="AE137" t="n">
-        <v>-935</v>
+        <v>-118.6369</v>
       </c>
       <c r="AF137" t="n">
         <v>-53.9259</v>
@@ -24756,7 +24760,7 @@
         <v>-112.5392</v>
       </c>
       <c r="BF137" t="n">
-        <v>14</v>
+        <v>1.8151</v>
       </c>
     </row>
     <row r="138">
@@ -24779,7 +24783,7 @@
         <v>-13.1201</v>
       </c>
       <c r="G138" t="n">
-        <v>-141</v>
+        <v>-14.3286</v>
       </c>
       <c r="H138" t="n">
         <v>77.3</v>
@@ -24851,7 +24855,7 @@
         <v>-9.654</v>
       </c>
       <c r="AE138" t="n">
-        <v>-1176</v>
+        <v>-119.5066</v>
       </c>
       <c r="AF138" t="n">
         <v>-78.1468</v>
@@ -24932,7 +24936,7 @@
         <v>-99.7639</v>
       </c>
       <c r="BF138" t="n">
-        <v>9</v>
+        <v>0.9304</v>
       </c>
     </row>
     <row r="139">
@@ -24955,7 +24959,7 @@
         <v>-12.3327</v>
       </c>
       <c r="G139" t="n">
-        <v>-378</v>
+        <v>-11.9031</v>
       </c>
       <c r="H139" t="n">
         <v>81.4</v>
@@ -25027,7 +25031,7 @@
         <v>-8.2188</v>
       </c>
       <c r="AE139" t="n">
-        <v>-5186</v>
+        <v>-163.3055</v>
       </c>
       <c r="AF139" t="n">
         <v>-83.7941</v>
@@ -25108,7 +25112,7 @@
         <v>-98.5102</v>
       </c>
       <c r="BF139" t="n">
-        <v>55</v>
+        <v>1.7561</v>
       </c>
     </row>
     <row r="140">
@@ -25131,7 +25135,7 @@
         <v>-8.4939</v>
       </c>
       <c r="G140" t="n">
-        <v>-158</v>
+        <v>-20.444</v>
       </c>
       <c r="H140" t="n">
         <v>92.9</v>
@@ -25203,7 +25207,7 @@
         <v>-5.0463</v>
       </c>
       <c r="AE140" t="n">
-        <v>-1186</v>
+        <v>-153.4596</v>
       </c>
       <c r="AF140" t="n">
         <v>-73.2362</v>
@@ -25284,7 +25288,7 @@
         <v>-113.8412</v>
       </c>
       <c r="BF140" t="n">
-        <v>14</v>
+        <v>1.8413</v>
       </c>
     </row>
     <row r="141">
@@ -25307,7 +25311,7 @@
         <v>-9.6703</v>
       </c>
       <c r="G141" t="n">
-        <v>-1200</v>
+        <v>-21.2482</v>
       </c>
       <c r="H141" t="n">
         <v>37.8</v>
@@ -25379,7 +25383,7 @@
         <v>-3.5414</v>
       </c>
       <c r="AE141" t="n">
-        <v>-6059</v>
+        <v>-107.2858</v>
       </c>
       <c r="AF141" t="n">
         <v>-69.1275</v>
@@ -25460,7 +25464,7 @@
         <v>-98.3484</v>
       </c>
       <c r="BF141" t="n">
-        <v>33</v>
+        <v>0.5931</v>
       </c>
     </row>
     <row r="142">
@@ -25483,7 +25487,7 @@
         <v>-14.3429</v>
       </c>
       <c r="G142" t="n">
-        <v>-762</v>
+        <v>-20.2373</v>
       </c>
       <c r="H142" t="n">
         <v>97</v>
@@ -25555,7 +25559,7 @@
         <v>-10.6233</v>
       </c>
       <c r="AE142" t="n">
-        <v>-6653</v>
+        <v>-176.6913</v>
       </c>
       <c r="AF142" t="n">
         <v>-64.8284</v>
@@ -25636,7 +25640,7 @@
         <v>-111.8218</v>
       </c>
       <c r="BF142" t="n">
-        <v>74</v>
+        <v>1.985</v>
       </c>
     </row>
     <row r="143">
@@ -25659,7 +25663,7 @@
         <v>-18.8051</v>
       </c>
       <c r="G143" t="n">
-        <v>-2025</v>
+        <v>-22.4222</v>
       </c>
       <c r="H143" t="n">
         <v>79.6</v>
@@ -25731,7 +25735,7 @@
         <v>-2.591</v>
       </c>
       <c r="AE143" t="n">
-        <v>-20816</v>
+        <v>-230.4895</v>
       </c>
       <c r="AF143" t="n">
         <v>-101.7803</v>
@@ -25812,7 +25816,7 @@
         <v>-114.1106</v>
       </c>
       <c r="BF143" t="n">
-        <v>514</v>
+        <v>5.685</v>
       </c>
     </row>
     <row r="144">
@@ -25835,7 +25839,7 @@
         <v>-10.9122</v>
       </c>
       <c r="G144" t="n">
-        <v>-179</v>
+        <v>-9.6603</v>
       </c>
       <c r="H144" t="n">
         <v>86.6</v>
@@ -25907,7 +25911,7 @@
         <v>-6.8539</v>
       </c>
       <c r="AE144" t="n">
-        <v>-3223</v>
+        <v>-173.9387</v>
       </c>
       <c r="AF144" t="n">
         <v>-66.3806</v>
@@ -25988,7 +25992,7 @@
         <v>-113.0847</v>
       </c>
       <c r="BF144" t="n">
-        <v>21</v>
+        <v>1.1435</v>
       </c>
     </row>
     <row r="145">
@@ -26011,7 +26015,7 @@
         <v>-10.481</v>
       </c>
       <c r="G145" t="n">
-        <v>-578</v>
+        <v>-9.3623</v>
       </c>
       <c r="H145" t="n">
         <v>81.7</v>
@@ -26083,7 +26087,7 @@
         <v>-7.9855</v>
       </c>
       <c r="AE145" t="n">
-        <v>-9590</v>
+        <v>-155.3359</v>
       </c>
       <c r="AF145" t="n">
         <v>-92.91</v>
@@ -26164,7 +26168,7 @@
         <v>-111.7504</v>
       </c>
       <c r="BF145" t="n">
-        <v>83</v>
+        <v>1.3568</v>
       </c>
     </row>
     <row r="146">
@@ -26187,7 +26191,7 @@
         <v>-7.9937</v>
       </c>
       <c r="G146" t="n">
-        <v>-457</v>
+        <v>-12.5413</v>
       </c>
       <c r="H146" t="n">
         <v>29.2</v>
@@ -26259,7 +26263,7 @@
         <v>-2.1131</v>
       </c>
       <c r="AE146" t="n">
-        <v>-4768</v>
+        <v>-130.8462</v>
       </c>
       <c r="AF146" t="n">
         <v>-83.7547</v>
@@ -26340,7 +26344,7 @@
         <v>-119.9966</v>
       </c>
       <c r="BF146" t="n">
-        <v>31</v>
+        <v>0.8541</v>
       </c>
     </row>
     <row r="147">
@@ -26363,7 +26367,7 @@
         <v>-9.8152</v>
       </c>
       <c r="G147" t="n">
-        <v>-265</v>
+        <v>-8.6865</v>
       </c>
       <c r="H147" t="n">
         <v>60.9</v>
@@ -26435,7 +26439,7 @@
         <v>-3.8352</v>
       </c>
       <c r="AE147" t="n">
-        <v>-4663</v>
+        <v>-152.8492</v>
       </c>
       <c r="AF147" t="n">
         <v>-70.7702</v>
@@ -26516,7 +26520,7 @@
         <v>-115.6509</v>
       </c>
       <c r="BF147" t="n">
-        <v>38</v>
+        <v>1.2607</v>
       </c>
     </row>
     <row r="148">
@@ -26539,7 +26543,7 @@
         <v>-10.5943</v>
       </c>
       <c r="G148" t="n">
-        <v>-1503</v>
+        <v>-18.0523</v>
       </c>
       <c r="H148" t="n">
         <v>88</v>
@@ -26611,7 +26615,7 @@
         <v>-7.2666</v>
       </c>
       <c r="AE148" t="n">
-        <v>-12465</v>
+        <v>-149.7153</v>
       </c>
       <c r="AF148" t="n">
         <v>-67.8734</v>
@@ -26692,7 +26696,7 @@
         <v>-111.969</v>
       </c>
       <c r="BF148" t="n">
-        <v>206</v>
+        <v>2.5003</v>
       </c>
     </row>
     <row r="149">
@@ -26715,7 +26719,7 @@
         <v>-10.6887</v>
       </c>
       <c r="G149" t="n">
-        <v>-1508</v>
+        <v>-8.7443</v>
       </c>
       <c r="H149" t="n">
         <v>61.6</v>
@@ -26787,7 +26791,7 @@
         <v>-4.146</v>
       </c>
       <c r="AE149" t="n">
-        <v>-19756</v>
+        <v>-114.5571</v>
       </c>
       <c r="AF149" t="n">
         <v>-90.8118</v>
@@ -26868,7 +26872,7 @@
         <v>-113.2342</v>
       </c>
       <c r="BF149" t="n">
-        <v>123</v>
+        <v>0.7211</v>
       </c>
     </row>
     <row r="150">
@@ -26891,7 +26895,7 @@
         <v>-8.4633</v>
       </c>
       <c r="G150" t="n">
-        <v>-518</v>
+        <v>-10.8097</v>
       </c>
       <c r="H150" t="n">
         <v>57.3</v>
@@ -26963,7 +26967,7 @@
         <v>-6.97</v>
       </c>
       <c r="AE150" t="n">
-        <v>-6964</v>
+        <v>-145.3262</v>
       </c>
       <c r="AF150" t="n">
         <v>-92.5088</v>
@@ -27044,7 +27048,7 @@
         <v>-114.2339</v>
       </c>
       <c r="BF150" t="n">
-        <v>65</v>
+        <v>1.3663</v>
       </c>
     </row>
     <row r="151">
@@ -27067,7 +27071,7 @@
         <v>-8.9337</v>
       </c>
       <c r="G151" t="n">
-        <v>-318</v>
+        <v>-15.7226</v>
       </c>
       <c r="H151" t="n">
         <v>37.7</v>
@@ -27139,7 +27143,7 @@
         <v>-4.4498</v>
       </c>
       <c r="AE151" t="n">
-        <v>-3452</v>
+        <v>-170.6741</v>
       </c>
       <c r="AF151" t="n">
         <v>-100.318</v>
@@ -27220,7 +27224,7 @@
         <v>-125.2565</v>
       </c>
       <c r="BF151" t="n">
-        <v>65</v>
+        <v>3.2491</v>
       </c>
     </row>
     <row r="152">
@@ -27243,7 +27247,7 @@
         <v>-8.9229</v>
       </c>
       <c r="G152" t="n">
-        <v>-259</v>
+        <v>-20.3833</v>
       </c>
       <c r="H152" t="n">
         <v>65.1</v>
@@ -27315,7 +27319,7 @@
         <v>-6.0599</v>
       </c>
       <c r="AE152" t="n">
-        <v>-1745</v>
+        <v>-137.3317</v>
       </c>
       <c r="AF152" t="n">
         <v>-61.3861</v>
@@ -27396,7 +27400,7 @@
         <v>-112.5927</v>
       </c>
       <c r="BF152" t="n">
-        <v>11</v>
+        <v>0.8783</v>
       </c>
     </row>
     <row r="153">
@@ -27419,7 +27423,7 @@
         <v>-11.5603</v>
       </c>
       <c r="G153" t="n">
-        <v>-792</v>
+        <v>-14.3137</v>
       </c>
       <c r="H153" t="n">
         <v>99.6</v>
@@ -27491,7 +27495,7 @@
         <v>-5.7472</v>
       </c>
       <c r="AE153" t="n">
-        <v>-8963</v>
+        <v>-161.9874</v>
       </c>
       <c r="AF153" t="n">
         <v>-53.8392</v>
@@ -27572,7 +27576,7 @@
         <v>-102.8663</v>
       </c>
       <c r="BF153" t="n">
-        <v>174</v>
+        <v>3.1898</v>
       </c>
     </row>
     <row r="154">
@@ -27595,7 +27599,7 @@
         <v>-8.4813</v>
       </c>
       <c r="G154" t="n">
-        <v>-603</v>
+        <v>-14.6333</v>
       </c>
       <c r="H154" t="n">
         <v>48.5</v>
@@ -27667,7 +27671,7 @@
         <v>-4.0284</v>
       </c>
       <c r="AE154" t="n">
-        <v>-6991</v>
+        <v>-169.654</v>
       </c>
       <c r="AF154" t="n">
         <v>-90.0324</v>
@@ -27748,7 +27752,7 @@
         <v>-116.2115</v>
       </c>
       <c r="BF154" t="n">
-        <v>28</v>
+        <v>0.6834</v>
       </c>
     </row>
     <row r="155">
@@ -27771,7 +27775,7 @@
         <v>-12.905</v>
       </c>
       <c r="G155" t="n">
-        <v>-737</v>
+        <v>-11.2648</v>
       </c>
       <c r="H155" t="n">
         <v>44.6</v>
@@ -27843,7 +27847,7 @@
         <v>-5.2732</v>
       </c>
       <c r="AE155" t="n">
-        <v>-10535</v>
+        <v>-161.0245</v>
       </c>
       <c r="AF155" t="n">
         <v>-101.2918</v>
@@ -27924,7 +27928,7 @@
         <v>-120.576</v>
       </c>
       <c r="BF155" t="n">
-        <v>100</v>
+        <v>1.5435</v>
       </c>
     </row>
     <row r="156">
@@ -27947,7 +27951,7 @@
         <v>-10.9779</v>
       </c>
       <c r="G156" t="n">
-        <v>-285</v>
+        <v>-12.7283</v>
       </c>
       <c r="H156" t="n">
         <v>86.5</v>
@@ -28019,7 +28023,7 @@
         <v>-7.8156</v>
       </c>
       <c r="AE156" t="n">
-        <v>-2742</v>
+        <v>-122.4593</v>
       </c>
       <c r="AF156" t="n">
         <v>-59.0413</v>
@@ -28100,7 +28104,7 @@
         <v>-115.0643</v>
       </c>
       <c r="BF156" t="n">
-        <v>86</v>
+        <v>3.9128</v>
       </c>
     </row>
     <row r="157">
@@ -28123,7 +28127,7 @@
         <v>-9.0285</v>
       </c>
       <c r="G157" t="n">
-        <v>-399</v>
+        <v>-23.686</v>
       </c>
       <c r="H157" t="n">
         <v>97.1</v>
@@ -28195,7 +28199,7 @@
         <v>-7.8953</v>
       </c>
       <c r="AE157" t="n">
-        <v>-1480</v>
+        <v>-87.8578</v>
       </c>
       <c r="AF157" t="n">
         <v>-54.0207</v>
@@ -28276,7 +28280,7 @@
         <v>-105.0331</v>
       </c>
       <c r="BF157" t="n">
-        <v>15</v>
+        <v>0.9117</v>
       </c>
     </row>
     <row r="158">
@@ -28299,7 +28303,7 @@
         <v>-9.5793</v>
       </c>
       <c r="G158" t="n">
-        <v>-419</v>
+        <v>-14.7226</v>
       </c>
       <c r="H158" t="n">
         <v>70.2</v>
@@ -28371,7 +28375,7 @@
         <v>-8.3979</v>
       </c>
       <c r="AE158" t="n">
-        <v>-4464</v>
+        <v>-156.854</v>
       </c>
       <c r="AF158" t="n">
         <v>-77.8648</v>
@@ -28452,7 +28456,7 @@
         <v>-114.1039</v>
       </c>
       <c r="BF158" t="n">
-        <v>91</v>
+        <v>3.2211</v>
       </c>
     </row>
     <row r="159">
@@ -28475,7 +28479,7 @@
         <v>-9.039</v>
       </c>
       <c r="G159" t="n">
-        <v>-521</v>
+        <v>-16.64</v>
       </c>
       <c r="H159" t="n">
         <v>97.7</v>
@@ -28547,7 +28551,7 @@
         <v>-4.8547</v>
       </c>
       <c r="AE159" t="n">
-        <v>-4662</v>
+        <v>-148.8975</v>
       </c>
       <c r="AF159" t="n">
         <v>-54.6149</v>
@@ -28628,7 +28632,7 @@
         <v>-108.5496</v>
       </c>
       <c r="BF159" t="n">
-        <v>58</v>
+        <v>1.8682</v>
       </c>
     </row>
     <row r="160">
@@ -28651,7 +28655,7 @@
         <v>-10.9248</v>
       </c>
       <c r="G160" t="n">
-        <v>-712</v>
+        <v>-23.4384</v>
       </c>
       <c r="H160" t="n">
         <v>94.8</v>
@@ -28723,7 +28727,7 @@
         <v>-8.6577</v>
       </c>
       <c r="AE160" t="n">
-        <v>-5583</v>
+        <v>-183.7872</v>
       </c>
       <c r="AF160" t="n">
         <v>-53.1314</v>
@@ -28804,7 +28808,7 @@
         <v>-105.0599</v>
       </c>
       <c r="BF160" t="n">
-        <v>57</v>
+        <v>1.8999</v>
       </c>
     </row>
     <row r="161">
@@ -28827,7 +28831,7 @@
         <v>-15.2551</v>
       </c>
       <c r="G161" t="n">
-        <v>-404</v>
+        <v>-15.8782</v>
       </c>
       <c r="H161" t="n">
         <v>88.8</v>
@@ -28899,7 +28903,7 @@
         <v>-4.9521</v>
       </c>
       <c r="AE161" t="n">
-        <v>-3780</v>
+        <v>-148.5632</v>
       </c>
       <c r="AF161" t="n">
         <v>-112.3263</v>
@@ -28980,7 +28984,7 @@
         <v>-98.8813</v>
       </c>
       <c r="BF161" t="n">
-        <v>50</v>
+        <v>1.9873</v>
       </c>
     </row>
     <row r="162">
@@ -29003,7 +29007,7 @@
         <v>-11.8612</v>
       </c>
       <c r="G162" t="n">
-        <v>-641</v>
+        <v>-17.7027</v>
       </c>
       <c r="H162" t="n">
         <v>97.4</v>
@@ -29075,7 +29079,7 @@
         <v>-4.8054</v>
       </c>
       <c r="AE162" t="n">
-        <v>-5823</v>
+        <v>-160.8159</v>
       </c>
       <c r="AF162" t="n">
         <v>-76.3068</v>
@@ -29156,7 +29160,7 @@
         <v>-110.2521</v>
       </c>
       <c r="BF162" t="n">
-        <v>20</v>
+        <v>0.557</v>
       </c>
     </row>
     <row r="163">
@@ -29179,7 +29183,7 @@
         <v>-10.8319</v>
       </c>
       <c r="G163" t="n">
-        <v>-100</v>
+        <v>-7.3306</v>
       </c>
       <c r="H163" t="n">
         <v>47.2</v>
@@ -29251,7 +29255,7 @@
         <v>-4.7649</v>
       </c>
       <c r="AE163" t="n">
-        <v>-1724</v>
+        <v>-126.3793</v>
       </c>
       <c r="AF163" t="n">
         <v>-96.2506</v>
@@ -29332,7 +29336,7 @@
         <v>-117.8759</v>
       </c>
       <c r="BF163" t="n">
-        <v>18</v>
+        <v>1.3354</v>
       </c>
     </row>
     <row r="164">
@@ -29355,7 +29359,7 @@
         <v>-11.4135</v>
       </c>
       <c r="G164" t="n">
-        <v>-1675</v>
+        <v>-19.7327</v>
       </c>
       <c r="H164" t="n">
         <v>72.3</v>
@@ -29427,7 +29431,7 @@
         <v>-3.1219</v>
       </c>
       <c r="AE164" t="n">
-        <v>-16552</v>
+        <v>-194.9944</v>
       </c>
       <c r="AF164" t="n">
         <v>-109.3604</v>
@@ -29508,7 +29512,7 @@
         <v>-99.3459</v>
       </c>
       <c r="BF164" t="n">
-        <v>94</v>
+        <v>1.1145</v>
       </c>
     </row>
     <row r="165">
@@ -29531,7 +29535,7 @@
         <v>-10.995</v>
       </c>
       <c r="G165" t="n">
-        <v>-571</v>
+        <v>-25.5611</v>
       </c>
       <c r="H165" t="n">
         <v>98.6</v>
@@ -29603,7 +29607,7 @@
         <v>-10.9675</v>
       </c>
       <c r="AE165" t="n">
-        <v>-3949</v>
+        <v>-176.7787</v>
       </c>
       <c r="AF165" t="n">
         <v>-68.4016</v>
@@ -29684,7 +29688,7 @@
         <v>-112.6626</v>
       </c>
       <c r="BF165" t="n">
-        <v>49</v>
+        <v>2.219</v>
       </c>
     </row>
     <row r="166">
@@ -29707,7 +29711,7 @@
         <v>-8.5329</v>
       </c>
       <c r="G166" t="n">
-        <v>-177</v>
+        <v>-10.6975</v>
       </c>
       <c r="H166" t="n">
         <v>49.6</v>
@@ -29779,7 +29783,7 @@
         <v>-7.0712</v>
       </c>
       <c r="AE166" t="n">
-        <v>-2403</v>
+        <v>-145.2321</v>
       </c>
       <c r="AF166" t="n">
         <v>-68.1134</v>
@@ -29860,7 +29864,7 @@
         <v>-120.0078</v>
       </c>
       <c r="BF166" t="n">
-        <v>22</v>
+        <v>1.3395</v>
       </c>
     </row>
     <row r="167">
@@ -29883,7 +29887,7 @@
         <v>-11.0271</v>
       </c>
       <c r="G167" t="n">
-        <v>-19762</v>
+        <v>-15.6125</v>
       </c>
       <c r="H167" t="n">
         <v>77.431</v>
@@ -29955,7 +29959,7 @@
         <v>-6.266</v>
       </c>
       <c r="AE167" t="n">
-        <v>-195266</v>
+        <v>-154.2657</v>
       </c>
       <c r="AF167" t="n">
         <v>-119.9978</v>
@@ -30036,7 +30040,7 @@
         <v>-115.6439</v>
       </c>
       <c r="BF167" t="n">
-        <v>2346</v>
+        <v>1.8719</v>
       </c>
     </row>
     <row r="168">
@@ -30059,7 +30063,7 @@
         <v>-10.8625</v>
       </c>
       <c r="G168" t="n">
-        <v>-174</v>
+        <v>-12.2932</v>
       </c>
       <c r="H168" t="n">
         <v>94.8316</v>
@@ -30131,7 +30135,7 @@
         <v>-12.6963</v>
       </c>
       <c r="AE168" t="n">
-        <v>-1584</v>
+        <v>-111.9102</v>
       </c>
       <c r="AF168" t="n">
         <v>-61.5177</v>
@@ -30212,7 +30216,7 @@
         <v>-118.9782</v>
       </c>
       <c r="BF168" t="n">
-        <v>33</v>
+        <v>2.3642</v>
       </c>
     </row>
     <row r="169">
@@ -30235,7 +30239,7 @@
         <v>-9.8419</v>
       </c>
       <c r="G169" t="n">
-        <v>-1151</v>
+        <v>-32.1638</v>
       </c>
       <c r="H169" t="n">
         <v>92.5046</v>
@@ -30307,7 +30311,7 @@
         <v>-2.5736</v>
       </c>
       <c r="AE169" t="n">
-        <v>-5394</v>
+        <v>-150.731</v>
       </c>
       <c r="AF169" t="n">
         <v>-94.1359</v>
@@ -30388,7 +30392,7 @@
         <v>-116.2623</v>
       </c>
       <c r="BF169" t="n">
-        <v>84</v>
+        <v>2.3855</v>
       </c>
     </row>
     <row r="170">
@@ -30411,7 +30415,7 @@
         <v>-9.5558</v>
       </c>
       <c r="G170" t="n">
-        <v>-152</v>
+        <v>-19.2864</v>
       </c>
       <c r="H170" t="n">
         <v>83.3904</v>
@@ -30483,7 +30487,7 @@
         <v>-8.3913</v>
       </c>
       <c r="AE170" t="n">
-        <v>-935</v>
+        <v>-118.6369</v>
       </c>
       <c r="AF170" t="n">
         <v>-63.1225</v>
@@ -30564,7 +30568,7 @@
         <v>-115.8265</v>
       </c>
       <c r="BF170" t="n">
-        <v>14</v>
+        <v>1.8151</v>
       </c>
     </row>
     <row r="171">
@@ -30587,7 +30591,7 @@
         <v>-13.1201</v>
       </c>
       <c r="G171" t="n">
-        <v>-141</v>
+        <v>-14.3286</v>
       </c>
       <c r="H171" t="n">
         <v>65.6019</v>
@@ -30659,7 +30663,7 @@
         <v>-7.5402</v>
       </c>
       <c r="AE171" t="n">
-        <v>-1176</v>
+        <v>-119.5066</v>
       </c>
       <c r="AF171" t="n">
         <v>-116.3338</v>
@@ -30740,7 +30744,7 @@
         <v>-103.8143</v>
       </c>
       <c r="BF171" t="n">
-        <v>9</v>
+        <v>0.9304</v>
       </c>
     </row>
     <row r="172">
@@ -30763,7 +30767,7 @@
         <v>-12.3327</v>
       </c>
       <c r="G172" t="n">
-        <v>-378</v>
+        <v>-11.9031</v>
       </c>
       <c r="H172" t="n">
         <v>91.8655</v>
@@ -30835,7 +30839,7 @@
         <v>-8.6756</v>
       </c>
       <c r="AE172" t="n">
-        <v>-5186</v>
+        <v>-163.3055</v>
       </c>
       <c r="AF172" t="n">
         <v>-124.159</v>
@@ -30916,7 +30920,7 @@
         <v>-104.5717</v>
       </c>
       <c r="BF172" t="n">
-        <v>55</v>
+        <v>1.7561</v>
       </c>
     </row>
     <row r="173">
@@ -30939,7 +30943,7 @@
         <v>-8.4939</v>
       </c>
       <c r="G173" t="n">
-        <v>-158</v>
+        <v>-20.444</v>
       </c>
       <c r="H173" t="n">
         <v>91.8947</v>
@@ -31011,7 +31015,7 @@
         <v>-6.8363</v>
       </c>
       <c r="AE173" t="n">
-        <v>-1186</v>
+        <v>-153.4596</v>
       </c>
       <c r="AF173" t="n">
         <v>-101.724</v>
@@ -31092,7 +31096,7 @@
         <v>-120.9215</v>
       </c>
       <c r="BF173" t="n">
-        <v>14</v>
+        <v>1.8413</v>
       </c>
     </row>
     <row r="174">
@@ -31115,7 +31119,7 @@
         <v>-9.6703</v>
       </c>
       <c r="G174" t="n">
-        <v>-1200</v>
+        <v>-21.2482</v>
       </c>
       <c r="H174" t="n">
         <v>52.4031</v>
@@ -31187,7 +31191,7 @@
         <v>-3.6076</v>
       </c>
       <c r="AE174" t="n">
-        <v>-6059</v>
+        <v>-107.2858</v>
       </c>
       <c r="AF174" t="n">
         <v>-108.499</v>
@@ -31268,7 +31272,7 @@
         <v>-102.3153</v>
       </c>
       <c r="BF174" t="n">
-        <v>33</v>
+        <v>0.5931</v>
       </c>
     </row>
     <row r="175">
@@ -31291,7 +31295,7 @@
         <v>-14.3429</v>
       </c>
       <c r="G175" t="n">
-        <v>-762</v>
+        <v>-20.2373</v>
       </c>
       <c r="H175" t="n">
         <v>93.0691</v>
@@ -31363,7 +31367,7 @@
         <v>-14.458</v>
       </c>
       <c r="AE175" t="n">
-        <v>-6653</v>
+        <v>-176.6913</v>
       </c>
       <c r="AF175" t="n">
         <v>-103.0501</v>
@@ -31444,7 +31448,7 @@
         <v>-118.9287</v>
       </c>
       <c r="BF175" t="n">
-        <v>74</v>
+        <v>1.985</v>
       </c>
     </row>
     <row r="176">
@@ -31467,7 +31471,7 @@
         <v>-18.8051</v>
       </c>
       <c r="G176" t="n">
-        <v>-2025</v>
+        <v>-22.4222</v>
       </c>
       <c r="H176" t="n">
         <v>89.7381</v>
@@ -31539,7 +31543,7 @@
         <v>-4.886</v>
       </c>
       <c r="AE176" t="n">
-        <v>-20816</v>
+        <v>-230.4895</v>
       </c>
       <c r="AF176" t="n">
         <v>-158.3614</v>
@@ -31620,7 +31624,7 @@
         <v>-116.4202</v>
       </c>
       <c r="BF176" t="n">
-        <v>514</v>
+        <v>5.685</v>
       </c>
     </row>
     <row r="177">
@@ -31643,7 +31647,7 @@
         <v>-10.9122</v>
       </c>
       <c r="G177" t="n">
-        <v>-179</v>
+        <v>-9.6603</v>
       </c>
       <c r="H177" t="n">
         <v>79.8496</v>
@@ -31715,7 +31719,7 @@
         <v>-6.2751</v>
       </c>
       <c r="AE177" t="n">
-        <v>-3223</v>
+        <v>-173.9387</v>
       </c>
       <c r="AF177" t="n">
         <v>-79.0658</v>
@@ -31796,7 +31800,7 @@
         <v>-115.7952</v>
       </c>
       <c r="BF177" t="n">
-        <v>21</v>
+        <v>1.1435</v>
       </c>
     </row>
     <row r="178">
@@ -31819,7 +31823,7 @@
         <v>-10.481</v>
       </c>
       <c r="G178" t="n">
-        <v>-578</v>
+        <v>-9.3623</v>
       </c>
       <c r="H178" t="n">
         <v>82.4737</v>
@@ -31891,7 +31895,7 @@
         <v>-8.124</v>
       </c>
       <c r="AE178" t="n">
-        <v>-9590</v>
+        <v>-155.3359</v>
       </c>
       <c r="AF178" t="n">
         <v>-121.3731</v>
@@ -31972,7 +31976,7 @@
         <v>-117.055</v>
       </c>
       <c r="BF178" t="n">
-        <v>83</v>
+        <v>1.3568</v>
       </c>
     </row>
     <row r="179">
@@ -31995,7 +31999,7 @@
         <v>-7.9937</v>
       </c>
       <c r="G179" t="n">
-        <v>-457</v>
+        <v>-12.5413</v>
       </c>
       <c r="H179" t="n">
         <v>49.0972</v>
@@ -32067,7 +32071,7 @@
         <v>-1.4122</v>
       </c>
       <c r="AE179" t="n">
-        <v>-4768</v>
+        <v>-130.8462</v>
       </c>
       <c r="AF179" t="n">
         <v>-115.2602</v>
@@ -32148,7 +32152,7 @@
         <v>-124.4096</v>
       </c>
       <c r="BF179" t="n">
-        <v>31</v>
+        <v>0.8541</v>
       </c>
     </row>
     <row r="180">
@@ -32171,7 +32175,7 @@
         <v>-9.8152</v>
       </c>
       <c r="G180" t="n">
-        <v>-265</v>
+        <v>-8.6865</v>
       </c>
       <c r="H180" t="n">
         <v>67.3025</v>
@@ -32243,7 +32247,7 @@
         <v>-4.2818</v>
       </c>
       <c r="AE180" t="n">
-        <v>-4663</v>
+        <v>-152.8492</v>
       </c>
       <c r="AF180" t="n">
         <v>-98.4482</v>
@@ -32324,7 +32328,7 @@
         <v>-119.911</v>
       </c>
       <c r="BF180" t="n">
-        <v>38</v>
+        <v>1.2607</v>
       </c>
     </row>
     <row r="181">
@@ -32347,7 +32351,7 @@
         <v>-10.5943</v>
       </c>
       <c r="G181" t="n">
-        <v>-1503</v>
+        <v>-18.0523</v>
       </c>
       <c r="H181" t="n">
         <v>94.6952</v>
@@ -32419,7 +32423,7 @@
         <v>-7.846</v>
       </c>
       <c r="AE181" t="n">
-        <v>-12465</v>
+        <v>-149.7153</v>
       </c>
       <c r="AF181" t="n">
         <v>-85.0368</v>
@@ -32500,7 +32504,7 @@
         <v>-116.0097</v>
       </c>
       <c r="BF181" t="n">
-        <v>206</v>
+        <v>2.5003</v>
       </c>
     </row>
     <row r="182">
@@ -32523,7 +32527,7 @@
         <v>-10.6887</v>
       </c>
       <c r="G182" t="n">
-        <v>-1508</v>
+        <v>-8.7443</v>
       </c>
       <c r="H182" t="n">
         <v>75.0026</v>
@@ -32595,7 +32599,7 @@
         <v>-4.8963</v>
       </c>
       <c r="AE182" t="n">
-        <v>-19756</v>
+        <v>-114.5571</v>
       </c>
       <c r="AF182" t="n">
         <v>-155.8342</v>
@@ -32676,7 +32680,7 @@
         <v>-119.127</v>
       </c>
       <c r="BF182" t="n">
-        <v>123</v>
+        <v>0.7211</v>
       </c>
     </row>
     <row r="183">
@@ -32699,7 +32703,7 @@
         <v>-8.4633</v>
       </c>
       <c r="G183" t="n">
-        <v>-518</v>
+        <v>-10.8097</v>
       </c>
       <c r="H183" t="n">
         <v>78.6328</v>
@@ -32771,7 +32775,7 @@
         <v>-7.9177</v>
       </c>
       <c r="AE183" t="n">
-        <v>-6964</v>
+        <v>-145.3262</v>
       </c>
       <c r="AF183" t="n">
         <v>-118.7868</v>
@@ -32852,7 +32856,7 @@
         <v>-121.9836</v>
       </c>
       <c r="BF183" t="n">
-        <v>65</v>
+        <v>1.3663</v>
       </c>
     </row>
     <row r="184">
@@ -32875,7 +32879,7 @@
         <v>-8.9337</v>
       </c>
       <c r="G184" t="n">
-        <v>-318</v>
+        <v>-15.7226</v>
       </c>
       <c r="H184" t="n">
         <v>67.3302</v>
@@ -32947,7 +32951,7 @@
         <v>-5.3766</v>
       </c>
       <c r="AE184" t="n">
-        <v>-3452</v>
+        <v>-170.6741</v>
       </c>
       <c r="AF184" t="n">
         <v>-132.2837</v>
@@ -33028,7 +33032,7 @@
         <v>-126.5916</v>
       </c>
       <c r="BF184" t="n">
-        <v>65</v>
+        <v>3.2491</v>
       </c>
     </row>
     <row r="185">
@@ -33051,7 +33055,7 @@
         <v>-8.9229</v>
       </c>
       <c r="G185" t="n">
-        <v>-259</v>
+        <v>-20.3833</v>
       </c>
       <c r="H185" t="n">
         <v>74.1084</v>
@@ -33123,7 +33127,7 @@
         <v>-7.3657</v>
       </c>
       <c r="AE185" t="n">
-        <v>-1745</v>
+        <v>-137.3317</v>
       </c>
       <c r="AF185" t="n">
         <v>-81.6702</v>
@@ -33204,7 +33208,7 @@
         <v>-121.7365</v>
       </c>
       <c r="BF185" t="n">
-        <v>11</v>
+        <v>0.8783</v>
       </c>
     </row>
     <row r="186">
@@ -33227,7 +33231,7 @@
         <v>-11.5603</v>
       </c>
       <c r="G186" t="n">
-        <v>-792</v>
+        <v>-14.3137</v>
       </c>
       <c r="H186" t="n">
         <v>96.887</v>
@@ -33299,7 +33303,7 @@
         <v>-6.068</v>
       </c>
       <c r="AE186" t="n">
-        <v>-8963</v>
+        <v>-161.9874</v>
       </c>
       <c r="AF186" t="n">
         <v>-72.937</v>
@@ -33380,7 +33384,7 @@
         <v>-108.1019</v>
       </c>
       <c r="BF186" t="n">
-        <v>174</v>
+        <v>3.1898</v>
       </c>
     </row>
     <row r="187">
@@ -33403,7 +33407,7 @@
         <v>-8.4813</v>
       </c>
       <c r="G187" t="n">
-        <v>-603</v>
+        <v>-14.6333</v>
       </c>
       <c r="H187" t="n">
         <v>40.2566</v>
@@ -33475,7 +33479,7 @@
         <v>-5.1789</v>
       </c>
       <c r="AE187" t="n">
-        <v>-6991</v>
+        <v>-169.654</v>
       </c>
       <c r="AF187" t="n">
         <v>-122.7933</v>
@@ -33556,7 +33560,7 @@
         <v>-122.6914</v>
       </c>
       <c r="BF187" t="n">
-        <v>28</v>
+        <v>0.6834</v>
       </c>
     </row>
     <row r="188">
@@ -33579,7 +33583,7 @@
         <v>-12.905</v>
       </c>
       <c r="G188" t="n">
-        <v>-737</v>
+        <v>-11.2648</v>
       </c>
       <c r="H188" t="n">
         <v>59.6676</v>
@@ -33651,7 +33655,7 @@
         <v>-5.1038</v>
       </c>
       <c r="AE188" t="n">
-        <v>-10535</v>
+        <v>-161.0245</v>
       </c>
       <c r="AF188" t="n">
         <v>-152.5684</v>
@@ -33732,7 +33736,7 @@
         <v>-126.1293</v>
       </c>
       <c r="BF188" t="n">
-        <v>100</v>
+        <v>1.5435</v>
       </c>
     </row>
     <row r="189">
@@ -33755,7 +33759,7 @@
         <v>-10.9779</v>
       </c>
       <c r="G189" t="n">
-        <v>-285</v>
+        <v>-12.7283</v>
       </c>
       <c r="H189" t="n">
         <v>84.896</v>
@@ -33827,7 +33831,7 @@
         <v>-8.4443</v>
       </c>
       <c r="AE189" t="n">
-        <v>-2742</v>
+        <v>-122.4593</v>
       </c>
       <c r="AF189" t="n">
         <v>-79.5873</v>
@@ -33908,7 +33912,7 @@
         <v>-118.5863</v>
       </c>
       <c r="BF189" t="n">
-        <v>86</v>
+        <v>3.9128</v>
       </c>
     </row>
     <row r="190">
@@ -33931,7 +33935,7 @@
         <v>-9.0285</v>
       </c>
       <c r="G190" t="n">
-        <v>-399</v>
+        <v>-23.686</v>
       </c>
       <c r="H190" t="n">
         <v>86.1493</v>
@@ -34003,7 +34007,7 @@
         <v>-9.4726</v>
       </c>
       <c r="AE190" t="n">
-        <v>-1480</v>
+        <v>-87.8578</v>
       </c>
       <c r="AF190" t="n">
         <v>-68.5151</v>
@@ -34084,7 +34088,7 @@
         <v>-105.6147</v>
       </c>
       <c r="BF190" t="n">
-        <v>15</v>
+        <v>0.9117</v>
       </c>
     </row>
     <row r="191">
@@ -34107,7 +34111,7 @@
         <v>-9.5793</v>
       </c>
       <c r="G191" t="n">
-        <v>-419</v>
+        <v>-14.7226</v>
       </c>
       <c r="H191" t="n">
         <v>68.8302</v>
@@ -34179,7 +34183,7 @@
         <v>-9.1416</v>
       </c>
       <c r="AE191" t="n">
-        <v>-4464</v>
+        <v>-156.854</v>
       </c>
       <c r="AF191" t="n">
         <v>-114.5892</v>
@@ -34260,7 +34264,7 @@
         <v>-117.1779</v>
       </c>
       <c r="BF191" t="n">
-        <v>91</v>
+        <v>3.2211</v>
       </c>
     </row>
     <row r="192">
@@ -34283,7 +34287,7 @@
         <v>-9.039</v>
       </c>
       <c r="G192" t="n">
-        <v>-521</v>
+        <v>-16.64</v>
       </c>
       <c r="H192" t="n">
         <v>86.1173</v>
@@ -34355,7 +34359,7 @@
         <v>-3.7001</v>
       </c>
       <c r="AE192" t="n">
-        <v>-4662</v>
+        <v>-148.8975</v>
       </c>
       <c r="AF192" t="n">
         <v>-70.9627</v>
@@ -34436,7 +34440,7 @@
         <v>-112.4424</v>
       </c>
       <c r="BF192" t="n">
-        <v>58</v>
+        <v>1.8682</v>
       </c>
     </row>
     <row r="193">
@@ -34459,7 +34463,7 @@
         <v>-10.9248</v>
       </c>
       <c r="G193" t="n">
-        <v>-712</v>
+        <v>-23.4384</v>
       </c>
       <c r="H193" t="n">
         <v>88.5243</v>
@@ -34531,7 +34535,7 @@
         <v>-10.3231</v>
       </c>
       <c r="AE193" t="n">
-        <v>-5583</v>
+        <v>-183.7872</v>
       </c>
       <c r="AF193" t="n">
         <v>-77.2198</v>
@@ -34612,7 +34616,7 @@
         <v>-111.6909</v>
       </c>
       <c r="BF193" t="n">
-        <v>57</v>
+        <v>1.8999</v>
       </c>
     </row>
     <row r="194">
@@ -34635,7 +34639,7 @@
         <v>-15.2551</v>
       </c>
       <c r="G194" t="n">
-        <v>-404</v>
+        <v>-15.8782</v>
       </c>
       <c r="H194" t="n">
         <v>69.8498</v>
@@ -34707,7 +34711,7 @@
         <v>-4.8281</v>
       </c>
       <c r="AE194" t="n">
-        <v>-3780</v>
+        <v>-148.5632</v>
       </c>
       <c r="AF194" t="n">
         <v>-176.0178</v>
@@ -34788,7 +34792,7 @@
         <v>-97.805</v>
       </c>
       <c r="BF194" t="n">
-        <v>50</v>
+        <v>1.9873</v>
       </c>
     </row>
     <row r="195">
@@ -34811,7 +34815,7 @@
         <v>-11.8612</v>
       </c>
       <c r="G195" t="n">
-        <v>-641</v>
+        <v>-17.7027</v>
       </c>
       <c r="H195" t="n">
         <v>89.5407</v>
@@ -34883,7 +34887,7 @@
         <v>-4.6489</v>
       </c>
       <c r="AE195" t="n">
-        <v>-5823</v>
+        <v>-160.8159</v>
       </c>
       <c r="AF195" t="n">
         <v>-113.5289</v>
@@ -34964,7 +34968,7 @@
         <v>-117.3193</v>
       </c>
       <c r="BF195" t="n">
-        <v>20</v>
+        <v>0.557</v>
       </c>
     </row>
     <row r="196">
@@ -34987,7 +34991,7 @@
         <v>-10.8319</v>
       </c>
       <c r="G196" t="n">
-        <v>-100</v>
+        <v>-7.3306</v>
       </c>
       <c r="H196" t="n">
         <v>70.3115</v>
@@ -35059,7 +35063,7 @@
         <v>-3.872</v>
       </c>
       <c r="AE196" t="n">
-        <v>-1724</v>
+        <v>-126.3793</v>
       </c>
       <c r="AF196" t="n">
         <v>-159.9432</v>
@@ -35140,7 +35144,7 @@
         <v>-121.0032</v>
       </c>
       <c r="BF196" t="n">
-        <v>18</v>
+        <v>1.3354</v>
       </c>
     </row>
     <row r="197">
@@ -35163,7 +35167,7 @@
         <v>-11.4135</v>
       </c>
       <c r="G197" t="n">
-        <v>-1675</v>
+        <v>-19.7327</v>
       </c>
       <c r="H197" t="n">
         <v>60.8061</v>
@@ -35235,7 +35239,7 @@
         <v>-3.5845</v>
       </c>
       <c r="AE197" t="n">
-        <v>-16552</v>
+        <v>-194.9944</v>
       </c>
       <c r="AF197" t="n">
         <v>-157.7659</v>
@@ -35316,7 +35320,7 @@
         <v>-103.1657</v>
       </c>
       <c r="BF197" t="n">
-        <v>94</v>
+        <v>1.1145</v>
       </c>
     </row>
     <row r="198">
@@ -35339,7 +35343,7 @@
         <v>-10.995</v>
       </c>
       <c r="G198" t="n">
-        <v>-571</v>
+        <v>-25.5611</v>
       </c>
       <c r="H198" t="n">
         <v>77.1702</v>
@@ -35411,7 +35415,7 @@
         <v>-10.4701</v>
       </c>
       <c r="AE198" t="n">
-        <v>-3949</v>
+        <v>-176.7787</v>
       </c>
       <c r="AF198" t="n">
         <v>-81.1755</v>
@@ -35492,7 +35496,7 @@
         <v>-114.6565</v>
       </c>
       <c r="BF198" t="n">
-        <v>49</v>
+        <v>2.219</v>
       </c>
     </row>
     <row r="199">
@@ -35515,7 +35519,7 @@
         <v>-8.5329</v>
       </c>
       <c r="G199" t="n">
-        <v>-177</v>
+        <v>-10.6975</v>
       </c>
       <c r="H199" t="n">
         <v>78.9296</v>
@@ -35587,7 +35591,7 @@
         <v>-7.7675</v>
       </c>
       <c r="AE199" t="n">
-        <v>-2403</v>
+        <v>-145.2321</v>
       </c>
       <c r="AF199" t="n">
         <v>-97.8338</v>
@@ -35668,7 +35672,7 @@
         <v>-124.0036</v>
       </c>
       <c r="BF199" t="n">
-        <v>22</v>
+        <v>1.3395</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/02_ips_wide.xlsx
+++ b/03_ips_clean/02_ips_wide.xlsx
@@ -938,7 +938,7 @@
         <v>-17.1095</v>
       </c>
       <c r="P2" t="n">
-        <v>-314.852</v>
+        <v>-3.3161</v>
       </c>
       <c r="Q2" t="n">
         <v>-2.7</v>
@@ -1114,7 +1114,7 @@
         <v>-3.3788</v>
       </c>
       <c r="P3" t="n">
-        <v>-315.6571</v>
+        <v>-5.4061</v>
       </c>
       <c r="Q3" t="n">
         <v>-4.7</v>
@@ -1290,7 +1290,7 @@
         <v>-25.4334</v>
       </c>
       <c r="P4" t="n">
-        <v>-417.6849</v>
+        <v>-2.9781</v>
       </c>
       <c r="Q4" t="n">
         <v>-3.6</v>
@@ -1466,7 +1466,7 @@
         <v>-25.0053</v>
       </c>
       <c r="P5" t="n">
-        <v>-583.1803</v>
+        <v>-4.0286</v>
       </c>
       <c r="Q5" t="n">
         <v>-3.2</v>
@@ -1642,7 +1642,7 @@
         <v>-7.3078</v>
       </c>
       <c r="P6" t="n">
-        <v>-406.7266</v>
+        <v>-3.7084</v>
       </c>
       <c r="Q6" t="n">
         <v>-1.1</v>
@@ -1818,7 +1818,7 @@
         <v>-10.4314</v>
       </c>
       <c r="P7" t="n">
-        <v>-487.9429</v>
+        <v>-2.7328</v>
       </c>
       <c r="Q7" t="n">
         <v>-3</v>
@@ -1994,7 +1994,7 @@
         <v>-31.4537</v>
       </c>
       <c r="P8" t="n">
-        <v>-849.6652</v>
+        <v>-5.2654</v>
       </c>
       <c r="Q8" t="n">
         <v>-2.7</v>
@@ -2170,7 +2170,7 @@
         <v>-10.1548</v>
       </c>
       <c r="P9" t="n">
-        <v>-36.9267</v>
+        <v>-1.7521</v>
       </c>
       <c r="Q9" t="n">
         <v>-1.5</v>
@@ -2346,7 +2346,7 @@
         <v>-42.5828</v>
       </c>
       <c r="P10" t="n">
-        <v>-907.0696</v>
+        <v>-8.7654</v>
       </c>
       <c r="Q10" t="n">
         <v>-2</v>
@@ -2522,7 +2522,7 @@
         <v>-11.9222</v>
       </c>
       <c r="P11" t="n">
-        <v>-136.189</v>
+        <v>-2.2078</v>
       </c>
       <c r="Q11" t="n">
         <v>-1.5</v>
@@ -2698,7 +2698,7 @@
         <v>-11.1138</v>
       </c>
       <c r="P12" t="n">
-        <v>-301.9239</v>
+        <v>-7.0163</v>
       </c>
       <c r="Q12" t="n">
         <v>-2.2</v>
@@ -2874,7 +2874,7 @@
         <v>-16.3558</v>
       </c>
       <c r="P13" t="n">
-        <v>-318.8032</v>
+        <v>-2.681</v>
       </c>
       <c r="Q13" t="n">
         <v>-5</v>
@@ -3050,7 +3050,7 @@
         <v>-67.774</v>
       </c>
       <c r="P14" t="n">
-        <v>-78.9019</v>
+        <v>-0.9786</v>
       </c>
       <c r="Q14" t="n">
         <v>-3.3</v>
@@ -3226,7 +3226,7 @@
         <v>-8.0359</v>
       </c>
       <c r="P15" t="n">
-        <v>-126.1944</v>
+        <v>-2.2763</v>
       </c>
       <c r="Q15" t="n">
         <v>-1.9</v>
@@ -3402,7 +3402,7 @@
         <v>-15.4458</v>
       </c>
       <c r="P16" t="n">
-        <v>-530.5706</v>
+        <v>-3.5664</v>
       </c>
       <c r="Q16" t="n">
         <v>-3</v>
@@ -3578,7 +3578,7 @@
         <v>-16.3672</v>
       </c>
       <c r="P17" t="n">
-        <v>-72.0935</v>
+        <v>-0.5652</v>
       </c>
       <c r="Q17" t="n">
         <v>-3.6</v>
@@ -3754,7 +3754,7 @@
         <v>-18.817</v>
       </c>
       <c r="P18" t="n">
-        <v>-200.0977</v>
+        <v>-5.4255</v>
       </c>
       <c r="Q18" t="n">
         <v>-2.2</v>
@@ -3930,7 +3930,7 @@
         <v>-24.2942</v>
       </c>
       <c r="P19" t="n">
-        <v>-461.0193</v>
+        <v>-3.7296</v>
       </c>
       <c r="Q19" t="n">
         <v>-5</v>
@@ -4106,7 +4106,7 @@
         <v>-12.0454</v>
       </c>
       <c r="P20" t="n">
-        <v>-185.2809</v>
+        <v>-4.517</v>
       </c>
       <c r="Q20" t="n">
         <v>-1.2</v>
@@ -4282,7 +4282,7 @@
         <v>-9.0867</v>
       </c>
       <c r="P21" t="n">
-        <v>-1661.0555</v>
+        <v>-3.8806</v>
       </c>
       <c r="Q21" t="n">
         <v>-2.2</v>
@@ -4458,7 +4458,7 @@
         <v>-20.1034</v>
       </c>
       <c r="P22" t="n">
-        <v>-82.5035</v>
+        <v>-1.8163</v>
       </c>
       <c r="Q22" t="n">
         <v>-2.6</v>
@@ -4634,7 +4634,7 @@
         <v>-10.0725</v>
       </c>
       <c r="P23" t="n">
-        <v>-162.5951</v>
+        <v>-2.4225</v>
       </c>
       <c r="Q23" t="n">
         <v>-3</v>
@@ -4810,7 +4810,7 @@
         <v>-6.7647</v>
       </c>
       <c r="P24" t="n">
-        <v>-586.7442</v>
+        <v>-5.0736</v>
       </c>
       <c r="Q24" t="n">
         <v>-2.4</v>
@@ -4986,7 +4986,7 @@
         <v>-9.509</v>
       </c>
       <c r="P25" t="n">
-        <v>-471.7114</v>
+        <v>-7.0826</v>
       </c>
       <c r="Q25" t="n">
         <v>-4.2</v>
@@ -5162,7 +5162,7 @@
         <v>-9.6438</v>
       </c>
       <c r="P26" t="n">
-        <v>-183.5954</v>
+        <v>-3.6255</v>
       </c>
       <c r="Q26" t="n">
         <v>-1.8</v>
@@ -5338,7 +5338,7 @@
         <v>-36.4084</v>
       </c>
       <c r="P27" t="n">
-        <v>-340.4083</v>
+        <v>-9.4503</v>
       </c>
       <c r="Q27" t="n">
         <v>-2.8</v>
@@ -5514,7 +5514,7 @@
         <v>-20.279</v>
       </c>
       <c r="P28" t="n">
-        <v>-414.5934</v>
+        <v>-6.8983</v>
       </c>
       <c r="Q28" t="n">
         <v>-1.9</v>
@@ -5690,7 +5690,7 @@
         <v>-15.3322</v>
       </c>
       <c r="P29" t="n">
-        <v>-123.6466</v>
+        <v>-3.5033</v>
       </c>
       <c r="Q29" t="n">
         <v>-4.9</v>
@@ -5866,7 +5866,7 @@
         <v>-19.5152</v>
       </c>
       <c r="P30" t="n">
-        <v>-411.6211</v>
+        <v>-4.8645</v>
       </c>
       <c r="Q30" t="n">
         <v>-2.7</v>
@@ -6042,7 +6042,7 @@
         <v>-6.1767</v>
       </c>
       <c r="P31" t="n">
-        <v>-208.6946</v>
+        <v>-7.3348</v>
       </c>
       <c r="Q31" t="n">
         <v>-1.7</v>
@@ -6218,7 +6218,7 @@
         <v>-12.2069</v>
       </c>
       <c r="P32" t="n">
-        <v>-99.997</v>
+        <v>-2.6452</v>
       </c>
       <c r="Q32" t="n">
         <v>-1.4</v>
@@ -6394,7 +6394,7 @@
         <v>-2.7245</v>
       </c>
       <c r="P33" t="n">
-        <v>-240.6988</v>
+        <v>-2.2078</v>
       </c>
       <c r="Q33" t="n">
         <v>-1.8</v>
@@ -6570,7 +6570,7 @@
         <v>-21.0401</v>
       </c>
       <c r="P34" t="n">
-        <v>-167.6343</v>
+        <v>-4.9947</v>
       </c>
       <c r="Q34" t="n">
         <v>-2.6</v>
@@ -6746,7 +6746,7 @@
         <v>-20.013</v>
       </c>
       <c r="P35" t="n">
-        <v>-293.4038</v>
+        <v>-3.2547</v>
       </c>
       <c r="Q35" t="n">
         <v>-2.7</v>
@@ -6920,7 +6920,7 @@
         <v>-3.394</v>
       </c>
       <c r="P36" t="n">
-        <v>-291.0012</v>
+        <v>-5.1648</v>
       </c>
       <c r="Q36" t="n">
         <v>-4.7</v>
@@ -7094,7 +7094,7 @@
         <v>-33.8492</v>
       </c>
       <c r="P37" t="n">
-        <v>-324.9754</v>
+        <v>-1.763</v>
       </c>
       <c r="Q37" t="n">
         <v>-3.6</v>
@@ -7268,7 +7268,7 @@
         <v>-32.2933</v>
       </c>
       <c r="P38" t="n">
-        <v>-471.1022</v>
+        <v>-5.4274</v>
       </c>
       <c r="Q38" t="n">
         <v>-3.2</v>
@@ -7442,7 +7442,7 @@
         <v>-9.9632</v>
       </c>
       <c r="P39" t="n">
-        <v>-375.173</v>
+        <v>-4.928</v>
       </c>
       <c r="Q39" t="n">
         <v>-1.1</v>
@@ -7616,7 +7616,7 @@
         <v>-8.4454</v>
       </c>
       <c r="P40" t="n">
-        <v>-503.7689</v>
+        <v>-2.2675</v>
       </c>
       <c r="Q40" t="n">
         <v>-3</v>
@@ -7790,7 +7790,7 @@
         <v>-83.4396</v>
       </c>
       <c r="P41" t="n">
-        <v>-871.42</v>
+        <v>-4.4919</v>
       </c>
       <c r="Q41" t="n">
         <v>-2.7</v>
@@ -7964,7 +7964,7 @@
         <v>-10.2337</v>
       </c>
       <c r="P42" t="n">
-        <v>-45.0134</v>
+        <v>-1.4275</v>
       </c>
       <c r="Q42" t="n">
         <v>-1.5</v>
@@ -8138,7 +8138,7 @@
         <v>-48.9941</v>
       </c>
       <c r="P43" t="n">
-        <v>-867.7005</v>
+        <v>-7.8369</v>
       </c>
       <c r="Q43" t="n">
         <v>-2</v>
@@ -8312,7 +8312,7 @@
         <v>-14.1264</v>
       </c>
       <c r="P44" t="n">
-        <v>-126.4525</v>
+        <v>-2.4299</v>
       </c>
       <c r="Q44" t="n">
         <v>-1.5</v>
@@ -8486,7 +8486,7 @@
         <v>-11.8759</v>
       </c>
       <c r="P45" t="n">
-        <v>-316.3217</v>
+        <v>-6.4929</v>
       </c>
       <c r="Q45" t="n">
         <v>-2.2</v>
@@ -8660,7 +8660,7 @@
         <v>-20.5419</v>
       </c>
       <c r="P46" t="n">
-        <v>-336.7744</v>
+        <v>-3.1013</v>
       </c>
       <c r="Q46" t="n">
         <v>-5</v>
@@ -8834,7 +8834,7 @@
         <v>-72.1094</v>
       </c>
       <c r="P47" t="n">
-        <v>-100.0748</v>
+        <v>-1.6123</v>
       </c>
       <c r="Q47" t="n">
         <v>-3.3</v>
@@ -9008,7 +9008,7 @@
         <v>-7.4521</v>
       </c>
       <c r="P48" t="n">
-        <v>-107.0521</v>
+        <v>-1.0549</v>
       </c>
       <c r="Q48" t="n">
         <v>-1.9</v>
@@ -9182,7 +9182,7 @@
         <v>-16.1371</v>
       </c>
       <c r="P49" t="n">
-        <v>-381.3701</v>
+        <v>-3.7364</v>
       </c>
       <c r="Q49" t="n">
         <v>-3</v>
@@ -9356,7 +9356,7 @@
         <v>-16.6161</v>
       </c>
       <c r="P50" t="n">
-        <v>-79.8871</v>
+        <v>-0.6543</v>
       </c>
       <c r="Q50" t="n">
         <v>-3.6</v>
@@ -9530,7 +9530,7 @@
         <v>-30.4814</v>
       </c>
       <c r="P51" t="n">
-        <v>-269.743</v>
+        <v>-6.1048</v>
       </c>
       <c r="Q51" t="n">
         <v>-2.2</v>
@@ -9706,7 +9706,7 @@
         <v>-33.7133</v>
       </c>
       <c r="P52" t="n">
-        <v>-497.7703</v>
+        <v>-3.4788</v>
       </c>
       <c r="Q52" t="n">
         <v>-5</v>
@@ -9882,7 +9882,7 @@
         <v>-12.2671</v>
       </c>
       <c r="P53" t="n">
-        <v>-172.4809</v>
+        <v>-4.4458</v>
       </c>
       <c r="Q53" t="n">
         <v>-1.2</v>
@@ -10058,7 +10058,7 @@
         <v>-11.8431</v>
       </c>
       <c r="P54" t="n">
-        <v>-1434.2291</v>
+        <v>-4.6277</v>
       </c>
       <c r="Q54" t="n">
         <v>-2.2</v>
@@ -10234,7 +10234,7 @@
         <v>-19.6714</v>
       </c>
       <c r="P55" t="n">
-        <v>-105.4493</v>
+        <v>-1.6805</v>
       </c>
       <c r="Q55" t="n">
         <v>-2.6</v>
@@ -10410,7 +10410,7 @@
         <v>-11.5822</v>
       </c>
       <c r="P56" t="n">
-        <v>-130.6345</v>
+        <v>-1.9698</v>
       </c>
       <c r="Q56" t="n">
         <v>-3</v>
@@ -10586,7 +10586,7 @@
         <v>-6.4814</v>
       </c>
       <c r="P57" t="n">
-        <v>-701.0353</v>
+        <v>-5.2987</v>
       </c>
       <c r="Q57" t="n">
         <v>-2.4</v>
@@ -10762,7 +10762,7 @@
         <v>-12.3329</v>
       </c>
       <c r="P58" t="n">
-        <v>-419.4464</v>
+        <v>-5.6872</v>
       </c>
       <c r="Q58" t="n">
         <v>-4.2</v>
@@ -10938,7 +10938,7 @@
         <v>-11.9362</v>
       </c>
       <c r="P59" t="n">
-        <v>-155.8895</v>
+        <v>-4.2424</v>
       </c>
       <c r="Q59" t="n">
         <v>-1.8</v>
@@ -11114,7 +11114,7 @@
         <v>-42.73</v>
       </c>
       <c r="P60" t="n">
-        <v>-285.5332</v>
+        <v>-8.3623</v>
       </c>
       <c r="Q60" t="n">
         <v>-2.8</v>
@@ -11290,7 +11290,7 @@
         <v>-19.8449</v>
       </c>
       <c r="P61" t="n">
-        <v>-449.7606</v>
+        <v>-7.9037</v>
       </c>
       <c r="Q61" t="n">
         <v>-1.9</v>
@@ -11466,7 +11466,7 @@
         <v>-17.5391</v>
       </c>
       <c r="P62" t="n">
-        <v>-107.2283</v>
+        <v>-2.5637</v>
       </c>
       <c r="Q62" t="n">
         <v>-4.9</v>
@@ -11642,7 +11642,7 @@
         <v>-22.88</v>
       </c>
       <c r="P63" t="n">
-        <v>-404.1843</v>
+        <v>-4.9332</v>
       </c>
       <c r="Q63" t="n">
         <v>-2.7</v>
@@ -11818,7 +11818,7 @@
         <v>-7.3036</v>
       </c>
       <c r="P64" t="n">
-        <v>-193.394</v>
+        <v>-5.706</v>
       </c>
       <c r="Q64" t="n">
         <v>-1.7</v>
@@ -11994,7 +11994,7 @@
         <v>-15.5472</v>
       </c>
       <c r="P65" t="n">
-        <v>-74.7301</v>
+        <v>-2.0561</v>
       </c>
       <c r="Q65" t="n">
         <v>-1.4</v>
@@ -12170,7 +12170,7 @@
         <v>-2.9686</v>
       </c>
       <c r="P66" t="n">
-        <v>-264.9031</v>
+        <v>-2.2729</v>
       </c>
       <c r="Q66" t="n">
         <v>-1.8</v>
@@ -12346,7 +12346,7 @@
         <v>-36.1235</v>
       </c>
       <c r="P67" t="n">
-        <v>-138.8034</v>
+        <v>-6.6804</v>
       </c>
       <c r="Q67" t="n">
         <v>-2.6</v>
@@ -12522,7 +12522,7 @@
         <v>-25.8615</v>
       </c>
       <c r="P68" t="n">
-        <v>-296.5042</v>
+        <v>-3.0869</v>
       </c>
       <c r="Q68" t="n">
         <v>-2.4</v>
@@ -12696,7 +12696,7 @@
         <v>-6.1056</v>
       </c>
       <c r="P69" t="n">
-        <v>-288.9266</v>
+        <v>-4.6519</v>
       </c>
       <c r="Q69" t="n">
         <v>-3.525</v>
@@ -12870,7 +12870,7 @@
         <v>-62.6359</v>
       </c>
       <c r="P70" t="n">
-        <v>-549.3995</v>
+        <v>-1.646</v>
       </c>
       <c r="Q70" t="n">
         <v>-3.319</v>
@@ -13044,7 +13044,7 @@
         <v>-99.5665</v>
       </c>
       <c r="P71" t="n">
-        <v>-425.8422</v>
+        <v>-5.1706</v>
       </c>
       <c r="Q71" t="n">
         <v>-4.019</v>
@@ -13218,7 +13218,7 @@
         <v>-8.2066</v>
       </c>
       <c r="P72" t="n">
-        <v>-331.84</v>
+        <v>-3.2616</v>
       </c>
       <c r="Q72" t="n">
         <v>-1.128</v>
@@ -13392,7 +13392,7 @@
         <v>-8.9059</v>
       </c>
       <c r="P73" t="n">
-        <v>-490.7295</v>
+        <v>-3.109</v>
       </c>
       <c r="Q73" t="n">
         <v>-2.604</v>
@@ -13566,7 +13566,7 @@
         <v>-115.9706</v>
       </c>
       <c r="P74" t="n">
-        <v>-710.27</v>
+        <v>-3.7453</v>
       </c>
       <c r="Q74" t="n">
         <v>-2.577</v>
@@ -13740,7 +13740,7 @@
         <v>-10.7859</v>
       </c>
       <c r="P75" t="n">
-        <v>-57.8901</v>
+        <v>-1.4053</v>
       </c>
       <c r="Q75" t="n">
         <v>-1.382</v>
@@ -13914,7 +13914,7 @@
         <v>-60.9313</v>
       </c>
       <c r="P76" t="n">
-        <v>-776.0345</v>
+        <v>-7.2641</v>
       </c>
       <c r="Q76" t="n">
         <v>-1.83</v>
@@ -14088,7 +14088,7 @@
         <v>-14.5871</v>
       </c>
       <c r="P77" t="n">
-        <v>-136.1574</v>
+        <v>-2.1328</v>
       </c>
       <c r="Q77" t="n">
         <v>-3.843</v>
@@ -14262,7 +14262,7 @@
         <v>-10.9921</v>
       </c>
       <c r="P78" t="n">
-        <v>-312.6144</v>
+        <v>-6.1006</v>
       </c>
       <c r="Q78" t="n">
         <v>-2.511</v>
@@ -14436,7 +14436,7 @@
         <v>-37.7152</v>
       </c>
       <c r="P79" t="n">
-        <v>-335.4588</v>
+        <v>-2.7069</v>
       </c>
       <c r="Q79" t="n">
         <v>-3.458</v>
@@ -14610,7 +14610,7 @@
         <v>-72.9614</v>
       </c>
       <c r="P80" t="n">
-        <v>-115.6536</v>
+        <v>-1.3004</v>
       </c>
       <c r="Q80" t="n">
         <v>-2.505</v>
@@ -14784,7 +14784,7 @@
         <v>-10.5476</v>
       </c>
       <c r="P81" t="n">
-        <v>-110.3804</v>
+        <v>-1.1421</v>
       </c>
       <c r="Q81" t="n">
         <v>-2.102</v>
@@ -14958,7 +14958,7 @@
         <v>-19.4621</v>
       </c>
       <c r="P82" t="n">
-        <v>-300.2146</v>
+        <v>-3.8777</v>
       </c>
       <c r="Q82" t="n">
         <v>-2.317</v>
@@ -15132,7 +15132,7 @@
         <v>-18.2432</v>
       </c>
       <c r="P83" t="n">
-        <v>-80.8311</v>
+        <v>-0.3558</v>
       </c>
       <c r="Q83" t="n">
         <v>-2.46</v>
@@ -15306,7 +15306,7 @@
         <v>-36.6806</v>
       </c>
       <c r="P84" t="n">
-        <v>-302.3393</v>
+        <v>-4.0027</v>
       </c>
       <c r="Q84" t="n">
         <v>-1.978</v>
@@ -15482,7 +15482,7 @@
         <v>-33.0646</v>
       </c>
       <c r="P85" t="n">
-        <v>-466.2918</v>
+        <v>-3.1346</v>
       </c>
       <c r="Q85" t="n">
         <v>-4.235</v>
@@ -15658,7 +15658,7 @@
         <v>-38.4205</v>
       </c>
       <c r="P86" t="n">
-        <v>-131.5538</v>
+        <v>-4.4581</v>
       </c>
       <c r="Q86" t="n">
         <v>-1</v>
@@ -15834,7 +15834,7 @@
         <v>-12.3529</v>
       </c>
       <c r="P87" t="n">
-        <v>-1444.0269</v>
+        <v>-4.1486</v>
       </c>
       <c r="Q87" t="n">
         <v>-2.329</v>
@@ -16010,7 +16010,7 @@
         <v>-24.998</v>
       </c>
       <c r="P88" t="n">
-        <v>-109.888</v>
+        <v>-1.3751</v>
       </c>
       <c r="Q88" t="n">
         <v>-1.916</v>
@@ -16186,7 +16186,7 @@
         <v>-16.8865</v>
       </c>
       <c r="P89" t="n">
-        <v>-135.7316</v>
+        <v>-2.9937</v>
       </c>
       <c r="Q89" t="n">
         <v>-2.177</v>
@@ -16362,7 +16362,7 @@
         <v>-10.1105</v>
       </c>
       <c r="P90" t="n">
-        <v>-648.8366</v>
+        <v>-5.6582</v>
       </c>
       <c r="Q90" t="n">
         <v>-3.316</v>
@@ -16538,7 +16538,7 @@
         <v>-28.3425</v>
       </c>
       <c r="P91" t="n">
-        <v>-354.3126</v>
+        <v>-7.3504</v>
       </c>
       <c r="Q91" t="n">
         <v>-1.937</v>
@@ -16714,7 +16714,7 @@
         <v>-18.0833</v>
       </c>
       <c r="P92" t="n">
-        <v>-159.6823</v>
+        <v>-4.1374</v>
       </c>
       <c r="Q92" t="n">
         <v>-2.304</v>
@@ -16890,7 +16890,7 @@
         <v>-53.2912</v>
       </c>
       <c r="P93" t="n">
-        <v>-277.0494</v>
+        <v>-8.936</v>
       </c>
       <c r="Q93" t="n">
         <v>-1.736</v>
@@ -17066,7 +17066,7 @@
         <v>-25.6937</v>
       </c>
       <c r="P94" t="n">
-        <v>-537.7455</v>
+        <v>-7.4954</v>
       </c>
       <c r="Q94" t="n">
         <v>-2.14</v>
@@ -17242,7 +17242,7 @@
         <v>-18.0946</v>
       </c>
       <c r="P95" t="n">
-        <v>-97.1478</v>
+        <v>-1.9301</v>
       </c>
       <c r="Q95" t="n">
         <v>-4.461</v>
@@ -17418,7 +17418,7 @@
         <v>-33.8272</v>
       </c>
       <c r="P96" t="n">
-        <v>-408.0333</v>
+        <v>-5.2258</v>
       </c>
       <c r="Q96" t="n">
         <v>-2.302</v>
@@ -17594,7 +17594,7 @@
         <v>-9.4639</v>
       </c>
       <c r="P97" t="n">
-        <v>-254.8499</v>
+        <v>-9.0133</v>
       </c>
       <c r="Q97" t="n">
         <v>-1.631</v>
@@ -17770,7 +17770,7 @@
         <v>-22.0963</v>
       </c>
       <c r="P98" t="n">
-        <v>-102.9728</v>
+        <v>-1.6235</v>
       </c>
       <c r="Q98" t="n">
         <v>-1.365</v>
@@ -17946,7 +17946,7 @@
         <v>-2.3829</v>
       </c>
       <c r="P99" t="n">
-        <v>-288.3256</v>
+        <v>-1.8788</v>
       </c>
       <c r="Q99" t="n">
         <v>-1.417</v>
@@ -18122,7 +18122,7 @@
         <v>-43.5026</v>
       </c>
       <c r="P100" t="n">
-        <v>-152.4124</v>
+        <v>-5.0927</v>
       </c>
       <c r="Q100" t="n">
         <v>-2.308</v>
@@ -18298,7 +18298,7 @@
         <v>-29.2712</v>
       </c>
       <c r="P101" t="n">
-        <v>-291.4605</v>
+        <v>-2.9826</v>
       </c>
       <c r="Q101" t="n">
         <v>-2.9</v>
@@ -18474,7 +18474,7 @@
         <v>-5.8748</v>
       </c>
       <c r="P102" t="n">
-        <v>-270.3121</v>
+        <v>-5.3016</v>
       </c>
       <c r="Q102" t="n">
         <v>-4.396</v>
@@ -18650,7 +18650,7 @@
         <v>-82.6981</v>
       </c>
       <c r="P103" t="n">
-        <v>-462.9049</v>
+        <v>-1.7039</v>
       </c>
       <c r="Q103" t="n">
         <v>-4.66</v>
@@ -18826,7 +18826,7 @@
         <v>-25.9304</v>
       </c>
       <c r="P104" t="n">
-        <v>-402.0516</v>
+        <v>-3.371</v>
       </c>
       <c r="Q104" t="n">
         <v>-4.249</v>
@@ -19002,7 +19002,7 @@
         <v>-8.1669</v>
       </c>
       <c r="P105" t="n">
-        <v>-351.7971</v>
+        <v>-2.4811</v>
       </c>
       <c r="Q105" t="n">
         <v>-1.117</v>
@@ -19178,7 +19178,7 @@
         <v>-7.7905</v>
       </c>
       <c r="P106" t="n">
-        <v>-423.0181</v>
+        <v>-3.0013</v>
       </c>
       <c r="Q106" t="n">
         <v>-2.242</v>
@@ -19354,7 +19354,7 @@
         <v>-98.2464</v>
       </c>
       <c r="P107" t="n">
-        <v>-648.5316</v>
+        <v>-2.8935</v>
       </c>
       <c r="Q107" t="n">
         <v>-3.146</v>
@@ -19530,7 +19530,7 @@
         <v>-11.8982</v>
       </c>
       <c r="P108" t="n">
-        <v>-59.4191</v>
+        <v>-1.4019</v>
       </c>
       <c r="Q108" t="n">
         <v>-1.468</v>
@@ -19706,7 +19706,7 @@
         <v>-79.8823</v>
       </c>
       <c r="P109" t="n">
-        <v>-695.7648</v>
+        <v>-7.2425</v>
       </c>
       <c r="Q109" t="n">
         <v>-2.544</v>
@@ -19882,7 +19882,7 @@
         <v>-16.2475</v>
       </c>
       <c r="P110" t="n">
-        <v>-128.9182</v>
+        <v>-2.4664</v>
       </c>
       <c r="Q110" t="n">
         <v>-5</v>
@@ -20058,7 +20058,7 @@
         <v>-9.6926</v>
       </c>
       <c r="P111" t="n">
-        <v>-334.7201</v>
+        <v>-5.6631</v>
       </c>
       <c r="Q111" t="n">
         <v>-2.902</v>
@@ -20234,7 +20234,7 @@
         <v>-57.4936</v>
       </c>
       <c r="P112" t="n">
-        <v>-315.3401</v>
+        <v>-3.0733</v>
       </c>
       <c r="Q112" t="n">
         <v>-3.927</v>
@@ -20410,7 +20410,7 @@
         <v>-65.2114</v>
       </c>
       <c r="P113" t="n">
-        <v>-133.7288</v>
+        <v>-1.5428</v>
       </c>
       <c r="Q113" t="n">
         <v>-2.644</v>
@@ -20586,7 +20586,7 @@
         <v>-11.2797</v>
       </c>
       <c r="P114" t="n">
-        <v>-105.2332</v>
+        <v>-1.1943</v>
       </c>
       <c r="Q114" t="n">
         <v>-2.833</v>
@@ -20762,7 +20762,7 @@
         <v>-35.5383</v>
       </c>
       <c r="P115" t="n">
-        <v>-304.2484</v>
+        <v>-4.2602</v>
       </c>
       <c r="Q115" t="n">
         <v>-2.876</v>
@@ -20938,7 +20938,7 @@
         <v>-18.5851</v>
       </c>
       <c r="P116" t="n">
-        <v>-82.4311</v>
+        <v>-0.2873</v>
       </c>
       <c r="Q116" t="n">
         <v>-4.8</v>
@@ -21114,7 +21114,7 @@
         <v>-43.6365</v>
       </c>
       <c r="P117" t="n">
-        <v>-315.9024</v>
+        <v>-3.5943</v>
       </c>
       <c r="Q117" t="n">
         <v>-2.247</v>
@@ -21290,7 +21290,7 @@
         <v>-41.1392</v>
       </c>
       <c r="P118" t="n">
-        <v>-462.878</v>
+        <v>-3.3991</v>
       </c>
       <c r="Q118" t="n">
         <v>-4.247</v>
@@ -21466,7 +21466,7 @@
         <v>-31.7001</v>
       </c>
       <c r="P119" t="n">
-        <v>-120.8116</v>
+        <v>-3.3537</v>
       </c>
       <c r="Q119" t="n">
         <v>-1</v>
@@ -21642,7 +21642,7 @@
         <v>-15.5825</v>
       </c>
       <c r="P120" t="n">
-        <v>-1482.4061</v>
+        <v>-4.1981</v>
       </c>
       <c r="Q120" t="n">
         <v>-2.557</v>
@@ -21818,7 +21818,7 @@
         <v>-27.5324</v>
       </c>
       <c r="P121" t="n">
-        <v>-95.4357</v>
+        <v>-0.8787</v>
       </c>
       <c r="Q121" t="n">
         <v>-2.084</v>
@@ -21994,7 +21994,7 @@
         <v>-19.2782</v>
       </c>
       <c r="P122" t="n">
-        <v>-116.9503</v>
+        <v>-3.1796</v>
       </c>
       <c r="Q122" t="n">
         <v>-2.382</v>
@@ -22170,7 +22170,7 @@
         <v>-10.4189</v>
       </c>
       <c r="P123" t="n">
-        <v>-690.8748</v>
+        <v>-6.6426</v>
       </c>
       <c r="Q123" t="n">
         <v>-4.527</v>
@@ -22346,7 +22346,7 @@
         <v>-51.1173</v>
       </c>
       <c r="P124" t="n">
-        <v>-307.2506</v>
+        <v>-4.1939</v>
       </c>
       <c r="Q124" t="n">
         <v>-2.978</v>
@@ -22522,7 +22522,7 @@
         <v>-19.9281</v>
       </c>
       <c r="P125" t="n">
-        <v>-178.5741</v>
+        <v>-3.9998</v>
       </c>
       <c r="Q125" t="n">
         <v>-3.236</v>
@@ -22698,7 +22698,7 @@
         <v>-39.1031</v>
       </c>
       <c r="P126" t="n">
-        <v>-267.9242</v>
+        <v>-8.9544</v>
       </c>
       <c r="Q126" t="n">
         <v>-1.981</v>
@@ -22874,7 +22874,7 @@
         <v>-31.1987</v>
       </c>
       <c r="P127" t="n">
-        <v>-531.2442</v>
+        <v>-6.933</v>
       </c>
       <c r="Q127" t="n">
         <v>-1.89</v>
@@ -23050,7 +23050,7 @@
         <v>-22.6159</v>
       </c>
       <c r="P128" t="n">
-        <v>-85.6146</v>
+        <v>-1.6296</v>
       </c>
       <c r="Q128" t="n">
         <v>-4.769</v>
@@ -23226,7 +23226,7 @@
         <v>-40.0224</v>
       </c>
       <c r="P129" t="n">
-        <v>-353.2669</v>
+        <v>-3.7878</v>
       </c>
       <c r="Q129" t="n">
         <v>-2.659</v>
@@ -23402,7 +23402,7 @@
         <v>-11.2765</v>
       </c>
       <c r="P130" t="n">
-        <v>-252.0899</v>
+        <v>-5.935</v>
       </c>
       <c r="Q130" t="n">
         <v>-1.848</v>
@@ -23578,7 +23578,7 @@
         <v>-17.9745</v>
       </c>
       <c r="P131" t="n">
-        <v>-146.9974</v>
+        <v>-1.6599</v>
       </c>
       <c r="Q131" t="n">
         <v>-1.587</v>
@@ -23754,7 +23754,7 @@
         <v>-2.6718</v>
       </c>
       <c r="P132" t="n">
-        <v>-282.8955</v>
+        <v>-1.6755</v>
       </c>
       <c r="Q132" t="n">
         <v>-1.329</v>
@@ -23930,7 +23930,7 @@
         <v>-47.0656</v>
       </c>
       <c r="P133" t="n">
-        <v>-149.7819</v>
+        <v>-5.0536</v>
       </c>
       <c r="Q133" t="n">
         <v>-2.332</v>
@@ -24106,7 +24106,7 @@
         <v>-28.9632</v>
       </c>
       <c r="P134" t="n">
-        <v>-286.4533</v>
+        <v>-2.8852</v>
       </c>
       <c r="Q134" t="n">
         <v>-3.1</v>
@@ -24282,7 +24282,7 @@
         <v>-8.478</v>
       </c>
       <c r="P135" t="n">
-        <v>-266.0692</v>
+        <v>-5.9346</v>
       </c>
       <c r="Q135" t="n">
         <v>-3.979</v>
@@ -24458,7 +24458,7 @@
         <v>-78.8865</v>
       </c>
       <c r="P136" t="n">
-        <v>-355.6178</v>
+        <v>-1.5649</v>
       </c>
       <c r="Q136" t="n">
         <v>-4.225</v>
@@ -24634,7 +24634,7 @@
         <v>-13.196</v>
       </c>
       <c r="P137" t="n">
-        <v>-408.1871</v>
+        <v>-4.441</v>
       </c>
       <c r="Q137" t="n">
         <v>-4.22</v>
@@ -24810,7 +24810,7 @@
         <v>-8.4346</v>
       </c>
       <c r="P138" t="n">
-        <v>-363.8041</v>
+        <v>-3.4551</v>
       </c>
       <c r="Q138" t="n">
         <v>-1.041</v>
@@ -24986,7 +24986,7 @@
         <v>-9.6358</v>
       </c>
       <c r="P139" t="n">
-        <v>-422.8435</v>
+        <v>-2.6136</v>
       </c>
       <c r="Q139" t="n">
         <v>-2.779</v>
@@ -25162,7 +25162,7 @@
         <v>-107.3958</v>
       </c>
       <c r="P140" t="n">
-        <v>-684.7454</v>
+        <v>-1.8115</v>
       </c>
       <c r="Q140" t="n">
         <v>-3.414</v>
@@ -25338,7 +25338,7 @@
         <v>-10.9605</v>
       </c>
       <c r="P141" t="n">
-        <v>-63.5499</v>
+        <v>-1.2041</v>
       </c>
       <c r="Q141" t="n">
         <v>-1.838</v>
@@ -25514,7 +25514,7 @@
         <v>-77.9747</v>
       </c>
       <c r="P142" t="n">
-        <v>-748.116</v>
+        <v>-6.9848</v>
       </c>
       <c r="Q142" t="n">
         <v>-2.849</v>
@@ -25690,7 +25690,7 @@
         <v>-14.4056</v>
       </c>
       <c r="P143" t="n">
-        <v>-118.179</v>
+        <v>-2.436</v>
       </c>
       <c r="Q143" t="n">
         <v>-5</v>
@@ -25866,7 +25866,7 @@
         <v>-9.4444</v>
       </c>
       <c r="P144" t="n">
-        <v>-320.0838</v>
+        <v>-6.0444</v>
       </c>
       <c r="Q144" t="n">
         <v>-3.06</v>
@@ -26042,7 +26042,7 @@
         <v>-65.0985</v>
       </c>
       <c r="P145" t="n">
-        <v>-321.913</v>
+        <v>-3.11</v>
       </c>
       <c r="Q145" t="n">
         <v>-4.068</v>
@@ -26218,7 +26218,7 @@
         <v>-53.1563</v>
       </c>
       <c r="P146" t="n">
-        <v>-153.157</v>
+        <v>-1.427</v>
       </c>
       <c r="Q146" t="n">
         <v>-3.027</v>
@@ -26394,7 +26394,7 @@
         <v>-15.7012</v>
       </c>
       <c r="P147" t="n">
-        <v>-95.0267</v>
+        <v>-0.6884</v>
       </c>
       <c r="Q147" t="n">
         <v>-3.126</v>
@@ -26570,7 +26570,7 @@
         <v>-30.3274</v>
       </c>
       <c r="P148" t="n">
-        <v>-240.8898</v>
+        <v>-3.4952</v>
       </c>
       <c r="Q148" t="n">
         <v>-2.989</v>
@@ -26746,7 +26746,7 @@
         <v>-18.7991</v>
       </c>
       <c r="P149" t="n">
-        <v>-99.098</v>
+        <v>-0.7306</v>
       </c>
       <c r="Q149" t="n">
         <v>-4.902</v>
@@ -26922,7 +26922,7 @@
         <v>-51.3775</v>
       </c>
       <c r="P150" t="n">
-        <v>-295.2435</v>
+        <v>-4.4241</v>
       </c>
       <c r="Q150" t="n">
         <v>-2.392</v>
@@ -27098,7 +27098,7 @@
         <v>-52.3592</v>
       </c>
       <c r="P151" t="n">
-        <v>-495.7064</v>
+        <v>-4.1531</v>
       </c>
       <c r="Q151" t="n">
         <v>-4.605</v>
@@ -27274,7 +27274,7 @@
         <v>-17.1566</v>
       </c>
       <c r="P152" t="n">
-        <v>-107.8979</v>
+        <v>-1.574</v>
       </c>
       <c r="Q152" t="n">
         <v>-1</v>
@@ -27450,7 +27450,7 @@
         <v>-17.838</v>
       </c>
       <c r="P153" t="n">
-        <v>-1390.348</v>
+        <v>-3.6869</v>
       </c>
       <c r="Q153" t="n">
         <v>-3.307</v>
@@ -27626,7 +27626,7 @@
         <v>-28.2473</v>
       </c>
       <c r="P154" t="n">
-        <v>-119.6629</v>
+        <v>-1.456</v>
       </c>
       <c r="Q154" t="n">
         <v>-2.874</v>
@@ -27802,7 +27802,7 @@
         <v>-19.4727</v>
       </c>
       <c r="P155" t="n">
-        <v>-115.5372</v>
+        <v>-2.6443</v>
       </c>
       <c r="Q155" t="n">
         <v>-3.1</v>
@@ -27978,7 +27978,7 @@
         <v>-10.004</v>
       </c>
       <c r="P156" t="n">
-        <v>-598.5409</v>
+        <v>-6.7884</v>
       </c>
       <c r="Q156" t="n">
         <v>-2.982</v>
@@ -28154,7 +28154,7 @@
         <v>-44.5225</v>
       </c>
       <c r="P157" t="n">
-        <v>-381.8251</v>
+        <v>-5.7582</v>
       </c>
       <c r="Q157" t="n">
         <v>-4.004</v>
@@ -28330,7 +28330,7 @@
         <v>-18.3418</v>
       </c>
       <c r="P158" t="n">
-        <v>-195.1539</v>
+        <v>-2.9164</v>
       </c>
       <c r="Q158" t="n">
         <v>-3.007</v>
@@ -28506,7 +28506,7 @@
         <v>-36.1864</v>
       </c>
       <c r="P159" t="n">
-        <v>-295.2081</v>
+        <v>-7.5375</v>
       </c>
       <c r="Q159" t="n">
         <v>-2.722</v>
@@ -28682,7 +28682,7 @@
         <v>-45.56</v>
       </c>
       <c r="P160" t="n">
-        <v>-547.2468</v>
+        <v>-5.8267</v>
       </c>
       <c r="Q160" t="n">
         <v>-1.614</v>
@@ -28858,7 +28858,7 @@
         <v>-27.158</v>
       </c>
       <c r="P161" t="n">
-        <v>-98.6491</v>
+        <v>-0.8647</v>
       </c>
       <c r="Q161" t="n">
         <v>-4.613</v>
@@ -29034,7 +29034,7 @@
         <v>-24.3861</v>
       </c>
       <c r="P162" t="n">
-        <v>-381.5339</v>
+        <v>-4.5016</v>
       </c>
       <c r="Q162" t="n">
         <v>-3.635</v>
@@ -29210,7 +29210,7 @@
         <v>-13.8548</v>
       </c>
       <c r="P163" t="n">
-        <v>-161.4929</v>
+        <v>-3.592</v>
       </c>
       <c r="Q163" t="n">
         <v>-1.745</v>
@@ -29386,7 +29386,7 @@
         <v>-17.5886</v>
       </c>
       <c r="P164" t="n">
-        <v>-150.6872</v>
+        <v>-1.2959</v>
       </c>
       <c r="Q164" t="n">
         <v>-1.843</v>
@@ -29562,7 +29562,7 @@
         <v>-2.0592</v>
       </c>
       <c r="P165" t="n">
-        <v>-296.1234</v>
+        <v>-2.1487</v>
       </c>
       <c r="Q165" t="n">
         <v>-1.168</v>
@@ -29738,7 +29738,7 @@
         <v>-41.279</v>
       </c>
       <c r="P166" t="n">
-        <v>-154.7813</v>
+        <v>-6.7086</v>
       </c>
       <c r="Q166" t="n">
         <v>-2.771</v>
@@ -29914,7 +29914,7 @@
         <v>-29.0277</v>
       </c>
       <c r="P167" t="n">
-        <v>-239.4003</v>
+        <v>-2.7195</v>
       </c>
       <c r="Q167" t="n">
         <v>-3.2</v>
@@ -30090,7 +30090,7 @@
         <v>-6.5235</v>
       </c>
       <c r="P168" t="n">
-        <v>-292.7174</v>
+        <v>-4.84</v>
       </c>
       <c r="Q168" t="n">
         <v>-3.948</v>
@@ -30266,7 +30266,7 @@
         <v>-78.6411</v>
       </c>
       <c r="P169" t="n">
-        <v>-337.1168</v>
+        <v>-2.4675</v>
       </c>
       <c r="Q169" t="n">
         <v>-4.206</v>
@@ -30442,7 +30442,7 @@
         <v>-9.769</v>
       </c>
       <c r="P170" t="n">
-        <v>-329.7652</v>
+        <v>-3.8825</v>
       </c>
       <c r="Q170" t="n">
         <v>-4.107</v>
@@ -30618,7 +30618,7 @@
         <v>-8.1865</v>
       </c>
       <c r="P171" t="n">
-        <v>-323.7958</v>
+        <v>-3.1238</v>
       </c>
       <c r="Q171" t="n">
         <v>-1.299</v>
@@ -30794,7 +30794,7 @@
         <v>-7.6904</v>
       </c>
       <c r="P172" t="n">
-        <v>-336.027</v>
+        <v>-2.2881</v>
       </c>
       <c r="Q172" t="n">
         <v>-2.776</v>
@@ -30970,7 +30970,7 @@
         <v>-94.8877</v>
       </c>
       <c r="P173" t="n">
-        <v>-694.02</v>
+        <v>-3.6916</v>
       </c>
       <c r="Q173" t="n">
         <v>-3.452</v>
@@ -31146,7 +31146,7 @@
         <v>-9.5602</v>
       </c>
       <c r="P174" t="n">
-        <v>-57.1086</v>
+        <v>-1.0282</v>
       </c>
       <c r="Q174" t="n">
         <v>-1.823</v>
@@ -31322,7 +31322,7 @@
         <v>-92.6542</v>
       </c>
       <c r="P175" t="n">
-        <v>-592.6183</v>
+        <v>-7.0286</v>
       </c>
       <c r="Q175" t="n">
         <v>-3.052</v>
@@ -31498,7 +31498,7 @@
         <v>-14.5386</v>
       </c>
       <c r="P176" t="n">
-        <v>-71.1079</v>
+        <v>-1.5418</v>
       </c>
       <c r="Q176" t="n">
         <v>-5</v>
@@ -31674,7 +31674,7 @@
         <v>-9.1671</v>
       </c>
       <c r="P177" t="n">
-        <v>-306.8235</v>
+        <v>-4.529</v>
       </c>
       <c r="Q177" t="n">
         <v>-3.115</v>
@@ -31850,7 +31850,7 @@
         <v>-87.126</v>
       </c>
       <c r="P178" t="n">
-        <v>-254.616</v>
+        <v>-2.6431</v>
       </c>
       <c r="Q178" t="n">
         <v>-4.252</v>
@@ -32026,7 +32026,7 @@
         <v>-42.5906</v>
       </c>
       <c r="P179" t="n">
-        <v>-144.5483</v>
+        <v>-1.158</v>
       </c>
       <c r="Q179" t="n">
         <v>-2.845</v>
@@ -32202,7 +32202,7 @@
         <v>-11.8722</v>
       </c>
       <c r="P180" t="n">
-        <v>-74.0226</v>
+        <v>-0.7785</v>
       </c>
       <c r="Q180" t="n">
         <v>-3.423</v>
@@ -32378,7 +32378,7 @@
         <v>-26.8443</v>
       </c>
       <c r="P181" t="n">
-        <v>-189.4072</v>
+        <v>-2.6353</v>
       </c>
       <c r="Q181" t="n">
         <v>-3.795</v>
@@ -32554,7 +32554,7 @@
         <v>-18.1787</v>
       </c>
       <c r="P182" t="n">
-        <v>-99.6915</v>
+        <v>-1.4242</v>
       </c>
       <c r="Q182" t="n">
         <v>-5</v>
@@ -32730,7 +32730,7 @@
         <v>-50.5386</v>
       </c>
       <c r="P183" t="n">
-        <v>-290.4074</v>
+        <v>-4.38</v>
       </c>
       <c r="Q183" t="n">
         <v>-2.453</v>
@@ -32906,7 +32906,7 @@
         <v>-50.1136</v>
       </c>
       <c r="P184" t="n">
-        <v>-425.2049</v>
+        <v>-3.9563</v>
       </c>
       <c r="Q184" t="n">
         <v>-3.871</v>
@@ -33082,7 +33082,7 @@
         <v>-14.9742</v>
       </c>
       <c r="P185" t="n">
-        <v>-76.8137</v>
+        <v>-1.6998</v>
       </c>
       <c r="Q185" t="n">
         <v>-1.308</v>
@@ -33258,7 +33258,7 @@
         <v>-15.9047</v>
       </c>
       <c r="P186" t="n">
-        <v>-1107.4188</v>
+        <v>-3.5094</v>
       </c>
       <c r="Q186" t="n">
         <v>-3.086</v>
@@ -33434,7 +33434,7 @@
         <v>-21.1754</v>
       </c>
       <c r="P187" t="n">
-        <v>-100.3836</v>
+        <v>-1.21</v>
       </c>
       <c r="Q187" t="n">
         <v>-3.049</v>
@@ -33610,7 +33610,7 @@
         <v>-15.6609</v>
       </c>
       <c r="P188" t="n">
-        <v>-100.2692</v>
+        <v>-2.8405</v>
       </c>
       <c r="Q188" t="n">
         <v>-3.599</v>
@@ -33786,7 +33786,7 @@
         <v>-9.5843</v>
       </c>
       <c r="P189" t="n">
-        <v>-424.3251</v>
+        <v>-6.2065</v>
       </c>
       <c r="Q189" t="n">
         <v>-3.425</v>
@@ -33962,7 +33962,7 @@
         <v>-33.8001</v>
       </c>
       <c r="P190" t="n">
-        <v>-252.5855</v>
+        <v>-3.6061</v>
       </c>
       <c r="Q190" t="n">
         <v>-5</v>
@@ -34138,7 +34138,7 @@
         <v>-28.417</v>
       </c>
       <c r="P191" t="n">
-        <v>-168.128</v>
+        <v>-2.622</v>
       </c>
       <c r="Q191" t="n">
         <v>-3.623</v>
@@ -34314,7 +34314,7 @@
         <v>-22.4319</v>
       </c>
       <c r="P192" t="n">
-        <v>-240.7379</v>
+        <v>-8.16</v>
       </c>
       <c r="Q192" t="n">
         <v>-2.917</v>
@@ -34490,7 +34490,7 @@
         <v>-53.755</v>
       </c>
       <c r="P193" t="n">
-        <v>-437.8167</v>
+        <v>-6.1124</v>
       </c>
       <c r="Q193" t="n">
         <v>-2.008</v>
@@ -34666,7 +34666,7 @@
         <v>-24.3486</v>
       </c>
       <c r="P194" t="n">
-        <v>-98.7681</v>
+        <v>-0.6243</v>
       </c>
       <c r="Q194" t="n">
         <v>-4.993</v>
@@ -34842,7 +34842,7 @@
         <v>-22.6491</v>
       </c>
       <c r="P195" t="n">
-        <v>-299.3422</v>
+        <v>-4.1386</v>
       </c>
       <c r="Q195" t="n">
         <v>-3.67</v>
@@ -35018,7 +35018,7 @@
         <v>-11.4671</v>
       </c>
       <c r="P196" t="n">
-        <v>-154.1352</v>
+        <v>-4.2443</v>
       </c>
       <c r="Q196" t="n">
         <v>-1.428</v>
@@ -35194,7 +35194,7 @@
         <v>-14.6231</v>
       </c>
       <c r="P197" t="n">
-        <v>-128.929</v>
+        <v>-1.0791</v>
       </c>
       <c r="Q197" t="n">
         <v>-1.995</v>
@@ -35370,7 +35370,7 @@
         <v>-3.1022</v>
       </c>
       <c r="P198" t="n">
-        <v>-208.1522</v>
+        <v>-0.8186</v>
       </c>
       <c r="Q198" t="n">
         <v>-1.322</v>
@@ -35546,7 +35546,7 @@
         <v>-76.6889</v>
       </c>
       <c r="P199" t="n">
-        <v>-142.7745</v>
+        <v>-5.24</v>
       </c>
       <c r="Q199" t="n">
         <v>-3.041</v>

--- a/03_ips_clean/02_ips_wide.xlsx
+++ b/03_ips_clean/02_ips_wide.xlsx
@@ -953,7 +953,7 @@
         <v>3.9589</v>
       </c>
       <c r="U2" t="n">
-        <v>94.52</v>
+        <v>-5.48</v>
       </c>
       <c r="V2" t="n">
         <v>11.8264</v>
@@ -962,7 +962,7 @@
         <v>5.6244</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.8977</v>
+        <v>-0.019</v>
       </c>
       <c r="Y2" t="n">
         <v>71.467</v>
@@ -977,7 +977,7 @@
         <v>0.4792</v>
       </c>
       <c r="AC2" t="n">
-        <v>-25.1</v>
+        <v>74.9</v>
       </c>
       <c r="AD2" t="n">
         <v>-5.2947</v>
@@ -998,10 +998,10 @@
         <v>-12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-62</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>-19.1</v>
+        <v>80.9</v>
       </c>
       <c r="AL2" t="n">
         <v>56.4</v>
@@ -1129,7 +1129,7 @@
         <v>3.8172</v>
       </c>
       <c r="U3" t="n">
-        <v>97.41</v>
+        <v>-2.59</v>
       </c>
       <c r="V3" t="n">
         <v>11.8872</v>
@@ -1138,7 +1138,7 @@
         <v>5.6835</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.131</v>
+        <v>-0.0213</v>
       </c>
       <c r="Y3" t="n">
         <v>74.8481</v>
@@ -1153,7 +1153,7 @@
         <v>0.8498</v>
       </c>
       <c r="AC3" t="n">
-        <v>-24.1</v>
+        <v>75.9</v>
       </c>
       <c r="AD3" t="n">
         <v>-9.3105</v>
@@ -1174,10 +1174,10 @@
         <v>-0.0625</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-33.7</v>
+        <v>66.3</v>
       </c>
       <c r="AK3" t="n">
-        <v>-16.1787</v>
+        <v>83.8213</v>
       </c>
       <c r="AL3" t="n">
         <v>66.2916</v>
@@ -1305,7 +1305,7 @@
         <v>3.1933</v>
       </c>
       <c r="U4" t="n">
-        <v>98.05</v>
+        <v>-1.95</v>
       </c>
       <c r="V4" t="n">
         <v>11.5469</v>
@@ -1314,7 +1314,7 @@
         <v>5.9357</v>
       </c>
       <c r="X4" t="n">
-        <v>-1.1313</v>
+        <v>-0.0113</v>
       </c>
       <c r="Y4" t="n">
         <v>84.46</v>
@@ -1329,7 +1329,7 @@
         <v>0.732</v>
       </c>
       <c r="AC4" t="n">
-        <v>-26</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="n">
         <v>-4.4672</v>
@@ -1350,10 +1350,10 @@
         <v>-3.7881</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-53.8</v>
+        <v>46.2</v>
       </c>
       <c r="AK4" t="n">
-        <v>-11.6185</v>
+        <v>88.3815</v>
       </c>
       <c r="AL4" t="n">
         <v>57.1412</v>
@@ -1481,7 +1481,7 @@
         <v>3.674</v>
       </c>
       <c r="U5" t="n">
-        <v>97.51</v>
+        <v>-2.49</v>
       </c>
       <c r="V5" t="n">
         <v>11.1585</v>
@@ -1490,7 +1490,7 @@
         <v>5.4288</v>
       </c>
       <c r="X5" t="n">
-        <v>-2.755</v>
+        <v>-0.0276</v>
       </c>
       <c r="Y5" t="n">
         <v>87.5135</v>
@@ -1505,7 +1505,7 @@
         <v>0.1665</v>
       </c>
       <c r="AC5" t="n">
-        <v>-24</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="n">
         <v>-7.9184</v>
@@ -1526,10 +1526,10 @@
         <v>-1.2205</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-62.7</v>
+        <v>37.3</v>
       </c>
       <c r="AK5" t="n">
-        <v>-15.206</v>
+        <v>84.794</v>
       </c>
       <c r="AL5" t="n">
         <v>51.7704</v>
@@ -1657,7 +1657,7 @@
         <v>4.0157</v>
       </c>
       <c r="U6" t="n">
-        <v>93.35</v>
+        <v>-6.65</v>
       </c>
       <c r="V6" t="n">
         <v>11.2391</v>
@@ -1666,7 +1666,7 @@
         <v>5.2556</v>
       </c>
       <c r="X6" t="n">
-        <v>-1.8812</v>
+        <v>-0.0188</v>
       </c>
       <c r="Y6" t="n">
         <v>73.53</v>
@@ -1681,7 +1681,7 @@
         <v>-0.1998</v>
       </c>
       <c r="AC6" t="n">
-        <v>-24.8</v>
+        <v>75.2</v>
       </c>
       <c r="AD6" t="n">
         <v>-9.3801</v>
@@ -1702,10 +1702,10 @@
         <v>-21.589</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-68.7</v>
+        <v>31.3</v>
       </c>
       <c r="AK6" t="n">
-        <v>-10.7576</v>
+        <v>89.2424</v>
       </c>
       <c r="AL6" t="n">
         <v>68.5928</v>
@@ -1833,7 +1833,7 @@
         <v>3.9771</v>
       </c>
       <c r="U7" t="n">
-        <v>98.03</v>
+        <v>-1.97</v>
       </c>
       <c r="V7" t="n">
         <v>11.2836</v>
@@ -1842,7 +1842,7 @@
         <v>5.6099</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.5958</v>
+        <v>-0.006</v>
       </c>
       <c r="Y7" t="n">
         <v>74.4881</v>
@@ -1857,7 +1857,7 @@
         <v>0.6334</v>
       </c>
       <c r="AC7" t="n">
-        <v>-24.3</v>
+        <v>75.7</v>
       </c>
       <c r="AD7" t="n">
         <v>-6.0322</v>
@@ -1878,10 +1878,10 @@
         <v>-6.8904</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-48.6</v>
+        <v>51.4</v>
       </c>
       <c r="AK7" t="n">
-        <v>-21.0456</v>
+        <v>78.9544</v>
       </c>
       <c r="AL7" t="n">
         <v>65.7032</v>
@@ -2009,7 +2009,7 @@
         <v>3.4594</v>
       </c>
       <c r="U8" t="n">
-        <v>96.12</v>
+        <v>-3.88</v>
       </c>
       <c r="V8" t="n">
         <v>11.2022</v>
@@ -2018,7 +2018,7 @@
         <v>4.8834</v>
       </c>
       <c r="X8" t="n">
-        <v>-2.3948</v>
+        <v>-0.0239</v>
       </c>
       <c r="Y8" t="n">
         <v>77.9388</v>
@@ -2033,7 +2033,7 @@
         <v>0.4458</v>
       </c>
       <c r="AC8" t="n">
-        <v>-24.1</v>
+        <v>75.9</v>
       </c>
       <c r="AD8" t="n">
         <v>-7.4824</v>
@@ -2054,10 +2054,10 @@
         <v>-2.2342</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-47</v>
+        <v>53</v>
       </c>
       <c r="AK8" t="n">
-        <v>-12.9669</v>
+        <v>87.0331</v>
       </c>
       <c r="AL8" t="n">
         <v>56.5824</v>
@@ -2185,7 +2185,7 @@
         <v>5.5002</v>
       </c>
       <c r="U9" t="n">
-        <v>85.16</v>
+        <v>-14.84</v>
       </c>
       <c r="V9" t="n">
         <v>14.6282</v>
@@ -2194,7 +2194,7 @@
         <v>5.8352</v>
       </c>
       <c r="X9" t="n">
-        <v>-7.983</v>
+        <v>-0.0798</v>
       </c>
       <c r="Y9" t="n">
         <v>56.6168</v>
@@ -2209,7 +2209,7 @@
         <v>0.7739</v>
       </c>
       <c r="AC9" t="n">
-        <v>-27.2</v>
+        <v>72.8</v>
       </c>
       <c r="AD9" t="n">
         <v>-5.9535</v>
@@ -2230,10 +2230,10 @@
         <v>-38.3136</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-74.1</v>
+        <v>25.9</v>
       </c>
       <c r="AK9" t="n">
-        <v>-28.4165</v>
+        <v>71.5835</v>
       </c>
       <c r="AL9" t="n">
         <v>50.9702</v>
@@ -2361,7 +2361,7 @@
         <v>3.4234</v>
       </c>
       <c r="U10" t="n">
-        <v>97.4</v>
+        <v>-2.6</v>
       </c>
       <c r="V10" t="n">
         <v>11.9184</v>
@@ -2370,7 +2370,7 @@
         <v>5.3432</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.5195</v>
+        <v>-0.0152</v>
       </c>
       <c r="Y10" t="n">
         <v>76.4105</v>
@@ -2385,7 +2385,7 @@
         <v>0.9447</v>
       </c>
       <c r="AC10" t="n">
-        <v>-27.1</v>
+        <v>72.9</v>
       </c>
       <c r="AD10" t="n">
         <v>-11.6412</v>
@@ -2406,10 +2406,10 @@
         <v>-6.7322</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-57.2</v>
+        <v>42.8</v>
       </c>
       <c r="AK10" t="n">
-        <v>-24.8724</v>
+        <v>75.1276</v>
       </c>
       <c r="AL10" t="n">
         <v>61.2388</v>
@@ -2537,7 +2537,7 @@
         <v>3.2721</v>
       </c>
       <c r="U11" t="n">
-        <v>98.52</v>
+        <v>-1.48</v>
       </c>
       <c r="V11" t="n">
         <v>9.6811</v>
@@ -2546,7 +2546,7 @@
         <v>5.4004</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.1595</v>
+        <v>-0.0316</v>
       </c>
       <c r="Y11" t="n">
         <v>79.7012</v>
@@ -2561,7 +2561,7 @@
         <v>-0.1039</v>
       </c>
       <c r="AC11" t="n">
-        <v>-23.9</v>
+        <v>76.1</v>
       </c>
       <c r="AD11" t="n">
         <v>-4.0734</v>
@@ -2582,10 +2582,10 @@
         <v>-0.0537</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-65</v>
+        <v>35</v>
       </c>
       <c r="AK11" t="n">
-        <v>-11.8038</v>
+        <v>88.1962</v>
       </c>
       <c r="AL11" t="n">
         <v>49.4037</v>
@@ -2713,7 +2713,7 @@
         <v>4.0358</v>
       </c>
       <c r="U12" t="n">
-        <v>96.85</v>
+        <v>-3.15</v>
       </c>
       <c r="V12" t="n">
         <v>12.2323</v>
@@ -2722,7 +2722,7 @@
         <v>5.7316</v>
       </c>
       <c r="X12" t="n">
-        <v>-1.315</v>
+        <v>-0.0131</v>
       </c>
       <c r="Y12" t="n">
         <v>69.2194</v>
@@ -2737,7 +2737,7 @@
         <v>0.9439</v>
       </c>
       <c r="AC12" t="n">
-        <v>-24.4</v>
+        <v>75.6</v>
       </c>
       <c r="AD12" t="n">
         <v>-6.5111</v>
@@ -2758,10 +2758,10 @@
         <v>-12.3138</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-49.8</v>
+        <v>50.2</v>
       </c>
       <c r="AK12" t="n">
-        <v>-25.3349</v>
+        <v>74.6651</v>
       </c>
       <c r="AL12" t="n">
         <v>57.8096</v>
@@ -2889,7 +2889,7 @@
         <v>4.111</v>
       </c>
       <c r="U13" t="n">
-        <v>93.65</v>
+        <v>-6.35</v>
       </c>
       <c r="V13" t="n">
         <v>12.3028</v>
@@ -2898,7 +2898,7 @@
         <v>6.0629</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.8754</v>
+        <v>-0.0088</v>
       </c>
       <c r="Y13" t="n">
         <v>66.2171</v>
@@ -2913,7 +2913,7 @@
         <v>0.5953</v>
       </c>
       <c r="AC13" t="n">
-        <v>-24.5</v>
+        <v>75.5</v>
       </c>
       <c r="AD13" t="n">
         <v>-7.8575</v>
@@ -2934,10 +2934,10 @@
         <v>-3.3935</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-59.1</v>
+        <v>40.9</v>
       </c>
       <c r="AK13" t="n">
-        <v>-22.3105</v>
+        <v>77.6895</v>
       </c>
       <c r="AL13" t="n">
         <v>56.1692</v>
@@ -3065,7 +3065,7 @@
         <v>5.3477</v>
       </c>
       <c r="U14" t="n">
-        <v>86.39</v>
+        <v>-13.61</v>
       </c>
       <c r="V14" t="n">
         <v>13.6474</v>
@@ -3074,7 +3074,7 @@
         <v>6.1184</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.0649</v>
+        <v>-0.0106</v>
       </c>
       <c r="Y14" t="n">
         <v>55.1649</v>
@@ -3089,7 +3089,7 @@
         <v>-1.6282</v>
       </c>
       <c r="AC14" t="n">
-        <v>-27.1</v>
+        <v>72.9</v>
       </c>
       <c r="AD14" t="n">
         <v>-2.041</v>
@@ -3110,10 +3110,10 @@
         <v>-37.449</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-70</v>
+        <v>30</v>
       </c>
       <c r="AK14" t="n">
-        <v>-24.6284</v>
+        <v>75.3716</v>
       </c>
       <c r="AL14" t="n">
         <v>49.0076</v>
@@ -3241,7 +3241,7 @@
         <v>4.1228</v>
       </c>
       <c r="U15" t="n">
-        <v>91.8</v>
+        <v>-8.2</v>
       </c>
       <c r="V15" t="n">
         <v>12.3046</v>
@@ -3250,7 +3250,7 @@
         <v>5.8604</v>
       </c>
       <c r="X15" t="n">
-        <v>-2.3061</v>
+        <v>-0.0231</v>
       </c>
       <c r="Y15" t="n">
         <v>66.85</v>
@@ -3265,7 +3265,7 @@
         <v>0.862</v>
       </c>
       <c r="AC15" t="n">
-        <v>-25.6</v>
+        <v>74.4</v>
       </c>
       <c r="AD15" t="n">
         <v>-4.0352</v>
@@ -3286,10 +3286,10 @@
         <v>-16.8512</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-48.6</v>
+        <v>51.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>-30.5596</v>
+        <v>69.4404</v>
       </c>
       <c r="AL15" t="n">
         <v>56.5023</v>
@@ -3417,7 +3417,7 @@
         <v>3.9773</v>
       </c>
       <c r="U16" t="n">
-        <v>96.48</v>
+        <v>-3.52</v>
       </c>
       <c r="V16" t="n">
         <v>11.8315</v>
@@ -3426,7 +3426,7 @@
         <v>5.6535</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.1707</v>
+        <v>-0.0017</v>
       </c>
       <c r="Y16" t="n">
         <v>76.3199</v>
@@ -3441,7 +3441,7 @@
         <v>0.8619</v>
       </c>
       <c r="AC16" t="n">
-        <v>-24.5</v>
+        <v>75.5</v>
       </c>
       <c r="AD16" t="n">
         <v>-6.6178</v>
@@ -3462,10 +3462,10 @@
         <v>-0.6467</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-60</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="n">
-        <v>-13.5282</v>
+        <v>86.4718</v>
       </c>
       <c r="AL16" t="n">
         <v>49.9491</v>
@@ -3593,7 +3593,7 @@
         <v>3.516</v>
       </c>
       <c r="U17" t="n">
-        <v>96.66</v>
+        <v>-3.34</v>
       </c>
       <c r="V17" t="n">
         <v>11.8301</v>
@@ -3602,7 +3602,7 @@
         <v>5.4723</v>
       </c>
       <c r="X17" t="n">
-        <v>-2.404</v>
+        <v>-0.024</v>
       </c>
       <c r="Y17" t="n">
         <v>72.8827</v>
@@ -3617,7 +3617,7 @@
         <v>0.8663</v>
       </c>
       <c r="AC17" t="n">
-        <v>-24.8</v>
+        <v>75.2</v>
       </c>
       <c r="AD17" t="n">
         <v>-4.0538</v>
@@ -3638,10 +3638,10 @@
         <v>-4.3472</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-76.4</v>
+        <v>23.6</v>
       </c>
       <c r="AK17" t="n">
-        <v>-19.4231</v>
+        <v>80.5769</v>
       </c>
       <c r="AL17" t="n">
         <v>54.6416</v>
@@ -3769,7 +3769,7 @@
         <v>4.3427</v>
       </c>
       <c r="U18" t="n">
-        <v>91.73</v>
+        <v>-8.27</v>
       </c>
       <c r="V18" t="n">
         <v>12.1829</v>
@@ -3778,7 +3778,7 @@
         <v>5.2115</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.2212</v>
+        <v>-0.0022</v>
       </c>
       <c r="Y18" t="n">
         <v>60.6236</v>
@@ -3793,7 +3793,7 @@
         <v>0.8278</v>
       </c>
       <c r="AC18" t="n">
-        <v>-25.3</v>
+        <v>74.7</v>
       </c>
       <c r="AD18" t="n">
         <v>-3.6385</v>
@@ -3814,10 +3814,10 @@
         <v>-8.9534</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-59.9</v>
+        <v>40.1</v>
       </c>
       <c r="AK18" t="n">
-        <v>-17.2097</v>
+        <v>82.7903</v>
       </c>
       <c r="AL18" t="n">
         <v>53.507</v>
@@ -3945,7 +3945,7 @@
         <v>3.5567</v>
       </c>
       <c r="U19" t="n">
-        <v>95.04</v>
+        <v>-4.96</v>
       </c>
       <c r="V19" t="n">
         <v>11.134</v>
@@ -3954,7 +3954,7 @@
         <v>5.5979</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.7673</v>
+        <v>-0.0077</v>
       </c>
       <c r="Y19" t="n">
         <v>66.9007</v>
@@ -3969,7 +3969,7 @@
         <v>0.741</v>
       </c>
       <c r="AC19" t="n">
-        <v>-24.3</v>
+        <v>75.7</v>
       </c>
       <c r="AD19" t="n">
         <v>-2.2792</v>
@@ -3990,10 +3990,10 @@
         <v>-5.2977</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-68</v>
+        <v>32</v>
       </c>
       <c r="AK19" t="n">
-        <v>-15.229</v>
+        <v>84.771</v>
       </c>
       <c r="AL19" t="n">
         <v>55.8727</v>
@@ -4121,7 +4121,7 @@
         <v>3.9605</v>
       </c>
       <c r="U20" t="n">
-        <v>94.96</v>
+        <v>-5.04</v>
       </c>
       <c r="V20" t="n">
         <v>11.4258</v>
@@ -4130,7 +4130,7 @@
         <v>5.4973</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.1909</v>
+        <v>-0.0119</v>
       </c>
       <c r="Y20" t="n">
         <v>73.8716</v>
@@ -4145,7 +4145,7 @@
         <v>0.2472</v>
       </c>
       <c r="AC20" t="n">
-        <v>-24.9</v>
+        <v>75.1</v>
       </c>
       <c r="AD20" t="n">
         <v>-6.2736</v>
@@ -4166,10 +4166,10 @@
         <v>-15.6224</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-49.2</v>
+        <v>50.8</v>
       </c>
       <c r="AK20" t="n">
-        <v>-21.6005</v>
+        <v>78.3995</v>
       </c>
       <c r="AL20" t="n">
         <v>56.4647</v>
@@ -4297,7 +4297,7 @@
         <v>3.8644</v>
       </c>
       <c r="U21" t="n">
-        <v>98.37</v>
+        <v>-1.63</v>
       </c>
       <c r="V21" t="n">
         <v>10.7204</v>
@@ -4306,7 +4306,7 @@
         <v>5.5837</v>
       </c>
       <c r="X21" t="n">
-        <v>-2.7519</v>
+        <v>-0.0275</v>
       </c>
       <c r="Y21" t="n">
         <v>76.8941</v>
@@ -4321,7 +4321,7 @@
         <v>0.9039</v>
       </c>
       <c r="AC21" t="n">
-        <v>-23.6</v>
+        <v>76.4</v>
       </c>
       <c r="AD21" t="n">
         <v>-4.8603</v>
@@ -4342,10 +4342,10 @@
         <v>-2.8162</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-57.4</v>
+        <v>42.6</v>
       </c>
       <c r="AK21" t="n">
-        <v>-16.1019</v>
+        <v>83.8981</v>
       </c>
       <c r="AL21" t="n">
         <v>72.7397</v>
@@ -4473,7 +4473,7 @@
         <v>4.9001</v>
       </c>
       <c r="U22" t="n">
-        <v>86.69</v>
+        <v>-13.31</v>
       </c>
       <c r="V22" t="n">
         <v>13.2453</v>
@@ -4482,7 +4482,7 @@
         <v>5.762</v>
       </c>
       <c r="X22" t="n">
-        <v>-3.1741</v>
+        <v>-0.0317</v>
       </c>
       <c r="Y22" t="n">
         <v>57.3648</v>
@@ -4497,7 +4497,7 @@
         <v>-0.3933</v>
       </c>
       <c r="AC22" t="n">
-        <v>-27</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="n">
         <v>-3.8813</v>
@@ -4518,10 +4518,10 @@
         <v>-33.3914</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-66.1</v>
+        <v>33.9</v>
       </c>
       <c r="AK22" t="n">
-        <v>-24.4199</v>
+        <v>75.5801</v>
       </c>
       <c r="AL22" t="n">
         <v>62.3061</v>
@@ -4649,7 +4649,7 @@
         <v>4.6031</v>
       </c>
       <c r="U23" t="n">
-        <v>91.68</v>
+        <v>-8.32</v>
       </c>
       <c r="V23" t="n">
         <v>13.0007</v>
@@ -4658,7 +4658,7 @@
         <v>5.9168</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.8684</v>
+        <v>-0.0087</v>
       </c>
       <c r="Y23" t="n">
         <v>59.2832</v>
@@ -4673,7 +4673,7 @@
         <v>-0.0678</v>
       </c>
       <c r="AC23" t="n">
-        <v>-25.2</v>
+        <v>74.8</v>
       </c>
       <c r="AD23" t="n">
         <v>-4.2713</v>
@@ -4694,10 +4694,10 @@
         <v>-12.3249</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-60</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>-22.055</v>
+        <v>77.945</v>
       </c>
       <c r="AL23" t="n">
         <v>50.6801</v>
@@ -4825,7 +4825,7 @@
         <v>4.1103</v>
       </c>
       <c r="U24" t="n">
-        <v>95.46</v>
+        <v>-4.54</v>
       </c>
       <c r="V24" t="n">
         <v>12.0126</v>
@@ -4834,7 +4834,7 @@
         <v>5.836</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.9821</v>
+        <v>-0.0098</v>
       </c>
       <c r="Y24" t="n">
         <v>75.57</v>
@@ -4849,7 +4849,7 @@
         <v>0.8067</v>
       </c>
       <c r="AC24" t="n">
-        <v>-24.6</v>
+        <v>75.4</v>
       </c>
       <c r="AD24" t="n">
         <v>-5.3151</v>
@@ -4870,10 +4870,10 @@
         <v>-1.688</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-45.3</v>
+        <v>54.7</v>
       </c>
       <c r="AK24" t="n">
-        <v>-14.0131</v>
+        <v>85.9869</v>
       </c>
       <c r="AL24" t="n">
         <v>57.2778</v>
@@ -5001,7 +5001,7 @@
         <v>3.5181</v>
       </c>
       <c r="U25" t="n">
-        <v>96.13</v>
+        <v>-3.87</v>
       </c>
       <c r="V25" t="n">
         <v>11.3657</v>
@@ -5010,7 +5010,7 @@
         <v>5.3256</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.3987</v>
+        <v>-0.014</v>
       </c>
       <c r="Y25" t="n">
         <v>81.3223</v>
@@ -5025,7 +5025,7 @@
         <v>-0.9018</v>
       </c>
       <c r="AC25" t="n">
-        <v>-24.4</v>
+        <v>75.6</v>
       </c>
       <c r="AD25" t="n">
         <v>-9.1811</v>
@@ -5046,10 +5046,10 @@
         <v>-10.0928</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-65.9</v>
+        <v>34.1</v>
       </c>
       <c r="AK25" t="n">
-        <v>-6.6252</v>
+        <v>93.3748</v>
       </c>
       <c r="AL25" t="n">
         <v>57.0172</v>
@@ -5177,7 +5177,7 @@
         <v>4.5718</v>
       </c>
       <c r="U26" t="n">
-        <v>93.72</v>
+        <v>-6.28</v>
       </c>
       <c r="V26" t="n">
         <v>12.1957</v>
@@ -5186,7 +5186,7 @@
         <v>6.2437</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.0128</v>
+        <v>-0.0001</v>
       </c>
       <c r="Y26" t="n">
         <v>64.025</v>
@@ -5201,7 +5201,7 @@
         <v>0.9275</v>
       </c>
       <c r="AC26" t="n">
-        <v>-25.3</v>
+        <v>74.7</v>
       </c>
       <c r="AD26" t="n">
         <v>-5.9458</v>
@@ -5222,10 +5222,10 @@
         <v>-26.1421</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-55.6</v>
+        <v>44.4</v>
       </c>
       <c r="AK26" t="n">
-        <v>-16.2682</v>
+        <v>83.7318</v>
       </c>
       <c r="AL26" t="n">
         <v>58.5541</v>
@@ -5353,7 +5353,7 @@
         <v>3.64</v>
       </c>
       <c r="U27" t="n">
-        <v>95.84</v>
+        <v>-4.16</v>
       </c>
       <c r="V27" t="n">
         <v>11.1649</v>
@@ -5362,7 +5362,7 @@
         <v>5.3322</v>
       </c>
       <c r="X27" t="n">
-        <v>-1.5264</v>
+        <v>-0.0153</v>
       </c>
       <c r="Y27" t="n">
         <v>84.2972</v>
@@ -5377,7 +5377,7 @@
         <v>0.7016</v>
       </c>
       <c r="AC27" t="n">
-        <v>-24.5</v>
+        <v>75.5</v>
       </c>
       <c r="AD27" t="n">
         <v>-4.7086</v>
@@ -5398,10 +5398,10 @@
         <v>-10.3569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-47.6</v>
+        <v>52.4</v>
       </c>
       <c r="AK27" t="n">
-        <v>-24.0951</v>
+        <v>75.9049</v>
       </c>
       <c r="AL27" t="n">
         <v>62.2032</v>
@@ -5529,7 +5529,7 @@
         <v>3.3681</v>
       </c>
       <c r="U28" t="n">
-        <v>97.83</v>
+        <v>-2.17</v>
       </c>
       <c r="V28" t="n">
         <v>11.1773</v>
@@ -5538,7 +5538,7 @@
         <v>5.9097</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.8124</v>
+        <v>-0.0181</v>
       </c>
       <c r="Y28" t="n">
         <v>86.2898</v>
@@ -5553,7 +5553,7 @@
         <v>0.9307</v>
       </c>
       <c r="AC28" t="n">
-        <v>-24.7</v>
+        <v>75.3</v>
       </c>
       <c r="AD28" t="n">
         <v>-8.6316</v>
@@ -5574,10 +5574,10 @@
         <v>-9.9307</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-59.5</v>
+        <v>40.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>-18.8663</v>
+        <v>81.1337</v>
       </c>
       <c r="AL28" t="n">
         <v>65.9385</v>
@@ -5705,7 +5705,7 @@
         <v>5.109</v>
       </c>
       <c r="U29" t="n">
-        <v>94.64</v>
+        <v>-5.36</v>
       </c>
       <c r="V29" t="n">
         <v>12.1535</v>
@@ -5714,7 +5714,7 @@
         <v>5.7312</v>
       </c>
       <c r="X29" t="n">
-        <v>-3.3756</v>
+        <v>-0.0338</v>
       </c>
       <c r="Y29" t="n">
         <v>71.5036</v>
@@ -5729,7 +5729,7 @@
         <v>0.8764</v>
       </c>
       <c r="AC29" t="n">
-        <v>-25.2</v>
+        <v>74.8</v>
       </c>
       <c r="AD29" t="n">
         <v>-7.0066</v>
@@ -5750,10 +5750,10 @@
         <v>-33.2857</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-80.7</v>
+        <v>19.3</v>
       </c>
       <c r="AK29" t="n">
-        <v>-21.8986</v>
+        <v>78.1014</v>
       </c>
       <c r="AL29" t="n">
         <v>54.2324</v>
@@ -5881,7 +5881,7 @@
         <v>3.5113</v>
       </c>
       <c r="U30" t="n">
-        <v>97</v>
+        <v>-3</v>
       </c>
       <c r="V30" t="n">
         <v>11.1441</v>
@@ -5890,7 +5890,7 @@
         <v>5.2178</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.4507</v>
+        <v>-0.0045</v>
       </c>
       <c r="Y30" t="n">
         <v>75.7427</v>
@@ -5905,7 +5905,7 @@
         <v>0.5994</v>
       </c>
       <c r="AC30" t="n">
-        <v>-24.2</v>
+        <v>75.8</v>
       </c>
       <c r="AD30" t="n">
         <v>-4.2636</v>
@@ -5926,10 +5926,10 @@
         <v>-10.7939</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-54.6</v>
+        <v>45.4</v>
       </c>
       <c r="AK30" t="n">
-        <v>-20.5486</v>
+        <v>79.4514</v>
       </c>
       <c r="AL30" t="n">
         <v>54.7514</v>
@@ -6057,7 +6057,7 @@
         <v>3.9718</v>
       </c>
       <c r="U31" t="n">
-        <v>96.05</v>
+        <v>-3.95</v>
       </c>
       <c r="V31" t="n">
         <v>12.0383</v>
@@ -6066,7 +6066,7 @@
         <v>5.8047</v>
       </c>
       <c r="X31" t="n">
-        <v>-2.7179</v>
+        <v>-0.0272</v>
       </c>
       <c r="Y31" t="n">
         <v>64.476</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>-24.8</v>
+        <v>75.2</v>
       </c>
       <c r="AD31" t="n">
         <v>-4.0148</v>
@@ -6102,10 +6102,10 @@
         <v>-3.2135</v>
       </c>
       <c r="AJ31" t="n">
-        <v>-54.5</v>
+        <v>45.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>-19.458</v>
+        <v>80.542</v>
       </c>
       <c r="AL31" t="n">
         <v>63.6497</v>
@@ -6233,7 +6233,7 @@
         <v>3.2866</v>
       </c>
       <c r="U32" t="n">
-        <v>90.56</v>
+        <v>-9.44</v>
       </c>
       <c r="V32" t="n">
         <v>11.2222</v>
@@ -6242,7 +6242,7 @@
         <v>5.3756</v>
       </c>
       <c r="X32" t="n">
-        <v>-2.1856</v>
+        <v>-0.0219</v>
       </c>
       <c r="Y32" t="n">
         <v>74.0293</v>
@@ -6257,7 +6257,7 @@
         <v>-0.1042</v>
       </c>
       <c r="AC32" t="n">
-        <v>-25.9</v>
+        <v>74.1</v>
       </c>
       <c r="AD32" t="n">
         <v>-3.0578</v>
@@ -6278,10 +6278,10 @@
         <v>-29.4055</v>
       </c>
       <c r="AJ32" t="n">
-        <v>-61.8</v>
+        <v>38.2</v>
       </c>
       <c r="AK32" t="n">
-        <v>-22.6314</v>
+        <v>77.3686</v>
       </c>
       <c r="AL32" t="n">
         <v>54.397</v>
@@ -6409,7 +6409,7 @@
         <v>3.9245</v>
       </c>
       <c r="U33" t="n">
-        <v>92.56</v>
+        <v>-7.44</v>
       </c>
       <c r="V33" t="n">
         <v>10.9767</v>
@@ -6418,7 +6418,7 @@
         <v>5.4327</v>
       </c>
       <c r="X33" t="n">
-        <v>-2.3604</v>
+        <v>-0.0236</v>
       </c>
       <c r="Y33" t="n">
         <v>75.3977</v>
@@ -6433,7 +6433,7 @@
         <v>0.6712</v>
       </c>
       <c r="AC33" t="n">
-        <v>-24.51</v>
+        <v>75.49</v>
       </c>
       <c r="AD33" t="n">
         <v>-8.9252</v>
@@ -6454,10 +6454,10 @@
         <v>-22.4357</v>
       </c>
       <c r="AJ33" t="n">
-        <v>-48.3</v>
+        <v>51.7</v>
       </c>
       <c r="AK33" t="n">
-        <v>-5.2669</v>
+        <v>94.7331</v>
       </c>
       <c r="AL33" t="n">
         <v>64.64</v>
@@ -6585,7 +6585,7 @@
         <v>4.7214</v>
       </c>
       <c r="U34" t="n">
-        <v>95.61</v>
+        <v>-4.39</v>
       </c>
       <c r="V34" t="n">
         <v>12.2942</v>
@@ -6594,7 +6594,7 @@
         <v>5.9899</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.4298</v>
+        <v>-0.0143</v>
       </c>
       <c r="Y34" t="n">
         <v>61.4712</v>
@@ -6609,7 +6609,7 @@
         <v>0.5005</v>
       </c>
       <c r="AC34" t="n">
-        <v>-24.74</v>
+        <v>75.26</v>
       </c>
       <c r="AD34" t="n">
         <v>-6.4307</v>
@@ -6630,10 +6630,10 @@
         <v>-22.2239</v>
       </c>
       <c r="AJ34" t="n">
-        <v>-58.3</v>
+        <v>41.7</v>
       </c>
       <c r="AK34" t="n">
-        <v>-26.3944</v>
+        <v>73.6056</v>
       </c>
       <c r="AL34" t="n">
         <v>63.8355</v>
@@ -6761,7 +6761,7 @@
         <v>3.9212</v>
       </c>
       <c r="U35" t="n">
-        <v>88.7569</v>
+        <v>-11.2431</v>
       </c>
       <c r="V35" t="n">
         <v>11.6126</v>
@@ -6770,7 +6770,7 @@
         <v>5.57</v>
       </c>
       <c r="X35" t="n">
-        <v>-2.1762</v>
+        <v>-0.0218</v>
       </c>
       <c r="Y35" t="n">
         <v>73.6318</v>
@@ -6785,7 +6785,7 @@
         <v>0.4792</v>
       </c>
       <c r="AC35" t="n">
-        <v>-25.17</v>
+        <v>74.83</v>
       </c>
       <c r="AD35" t="n">
         <v>-5.1909</v>
@@ -6806,10 +6806,10 @@
         <v>-11.1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-62</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="n">
-        <v>-12.4</v>
+        <v>87.6</v>
       </c>
       <c r="AL35" t="n">
         <v>56.6</v>
@@ -6935,7 +6935,7 @@
         <v>3.7699</v>
       </c>
       <c r="U36" t="n">
-        <v>89.8813</v>
+        <v>-10.1187</v>
       </c>
       <c r="V36" t="n">
         <v>11.6426</v>
@@ -6944,7 +6944,7 @@
         <v>5.5431</v>
       </c>
       <c r="X36" t="n">
-        <v>-2.3677</v>
+        <v>-0.0237</v>
       </c>
       <c r="Y36" t="n">
         <v>80.3156</v>
@@ -6959,7 +6959,7 @@
         <v>0.8498</v>
       </c>
       <c r="AC36" t="n">
-        <v>-24.43</v>
+        <v>75.57</v>
       </c>
       <c r="AD36" t="n">
         <v>-9.2229</v>
@@ -6980,10 +6980,10 @@
         <v>-0.6136</v>
       </c>
       <c r="AJ36" t="n">
-        <v>-33.7</v>
+        <v>66.3</v>
       </c>
       <c r="AK36" t="n">
-        <v>-11.5694</v>
+        <v>88.4306</v>
       </c>
       <c r="AL36" t="n">
         <v>62.0396</v>
@@ -7109,7 +7109,7 @@
         <v>3.1313</v>
       </c>
       <c r="U37" t="n">
-        <v>92.6134</v>
+        <v>-7.3866</v>
       </c>
       <c r="V37" t="n">
         <v>11.3238</v>
@@ -7118,7 +7118,7 @@
         <v>5.7797</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.1206</v>
+        <v>-0.0112</v>
       </c>
       <c r="Y37" t="n">
         <v>86.5843</v>
@@ -7133,7 +7133,7 @@
         <v>0.732</v>
       </c>
       <c r="AC37" t="n">
-        <v>-24.39</v>
+        <v>75.61</v>
       </c>
       <c r="AD37" t="n">
         <v>-4.9951</v>
@@ -7154,10 +7154,10 @@
         <v>-2.8916</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-53.8</v>
+        <v>46.2</v>
       </c>
       <c r="AK37" t="n">
-        <v>-9.669</v>
+        <v>90.331</v>
       </c>
       <c r="AL37" t="n">
         <v>58.9147</v>
@@ -7283,7 +7283,7 @@
         <v>3.5932</v>
       </c>
       <c r="U38" t="n">
-        <v>90.53</v>
+        <v>-9.47</v>
       </c>
       <c r="V38" t="n">
         <v>10.9736</v>
@@ -7292,7 +7292,7 @@
         <v>5.322</v>
       </c>
       <c r="X38" t="n">
-        <v>-4.5528</v>
+        <v>-0.0455</v>
       </c>
       <c r="Y38" t="n">
         <v>84.7136</v>
@@ -7307,7 +7307,7 @@
         <v>0.1665</v>
       </c>
       <c r="AC38" t="n">
-        <v>-24.51</v>
+        <v>75.49</v>
       </c>
       <c r="AD38" t="n">
         <v>-7.4627</v>
@@ -7328,10 +7328,10 @@
         <v>-2.0161</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-62.7</v>
+        <v>37.3</v>
       </c>
       <c r="AK38" t="n">
-        <v>-7.7278</v>
+        <v>92.2722</v>
       </c>
       <c r="AL38" t="n">
         <v>60.4405</v>
@@ -7457,7 +7457,7 @@
         <v>3.9267</v>
       </c>
       <c r="U39" t="n">
-        <v>87.0288</v>
+        <v>-12.9712</v>
       </c>
       <c r="V39" t="n">
         <v>10.9573</v>
@@ -7466,7 +7466,7 @@
         <v>5.1993</v>
       </c>
       <c r="X39" t="n">
-        <v>-2.9099</v>
+        <v>-0.0291</v>
       </c>
       <c r="Y39" t="n">
         <v>71.1909</v>
@@ -7481,7 +7481,7 @@
         <v>-0.1998</v>
       </c>
       <c r="AC39" t="n">
-        <v>-25.64</v>
+        <v>74.36</v>
       </c>
       <c r="AD39" t="n">
         <v>-9.3204</v>
@@ -7502,10 +7502,10 @@
         <v>-21.1453</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-68.7</v>
+        <v>31.3</v>
       </c>
       <c r="AK39" t="n">
-        <v>-6.3552</v>
+        <v>93.6448</v>
       </c>
       <c r="AL39" t="n">
         <v>67.8362</v>
@@ -7631,7 +7631,7 @@
         <v>3.9655</v>
       </c>
       <c r="U40" t="n">
-        <v>90.9859</v>
+        <v>-9.0141</v>
       </c>
       <c r="V40" t="n">
         <v>11.1005</v>
@@ -7640,7 +7640,7 @@
         <v>5.6476</v>
       </c>
       <c r="X40" t="n">
-        <v>-2.2465</v>
+        <v>-0.0225</v>
       </c>
       <c r="Y40" t="n">
         <v>78.2932</v>
@@ -7655,7 +7655,7 @@
         <v>0.6334</v>
       </c>
       <c r="AC40" t="n">
-        <v>-24.69</v>
+        <v>75.31</v>
       </c>
       <c r="AD40" t="n">
         <v>-5.6193</v>
@@ -7676,10 +7676,10 @@
         <v>-6.242</v>
       </c>
       <c r="AJ40" t="n">
-        <v>-48.6</v>
+        <v>51.4</v>
       </c>
       <c r="AK40" t="n">
-        <v>-15.1842</v>
+        <v>84.8158</v>
       </c>
       <c r="AL40" t="n">
         <v>64.8376</v>
@@ -7805,7 +7805,7 @@
         <v>3.4029</v>
       </c>
       <c r="U41" t="n">
-        <v>89.5471</v>
+        <v>-10.4529</v>
       </c>
       <c r="V41" t="n">
         <v>10.7193</v>
@@ -7814,7 +7814,7 @@
         <v>5.0769</v>
       </c>
       <c r="X41" t="n">
-        <v>-0.5916</v>
+        <v>-0.0059</v>
       </c>
       <c r="Y41" t="n">
         <v>77.3596</v>
@@ -7829,7 +7829,7 @@
         <v>0.4458</v>
       </c>
       <c r="AC41" t="n">
-        <v>-24.88</v>
+        <v>75.12</v>
       </c>
       <c r="AD41" t="n">
         <v>-8.9837</v>
@@ -7850,10 +7850,10 @@
         <v>-1.434</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-47</v>
+        <v>53</v>
       </c>
       <c r="AK41" t="n">
-        <v>-8.7578</v>
+        <v>91.2422</v>
       </c>
       <c r="AL41" t="n">
         <v>56.2831</v>
@@ -7979,7 +7979,7 @@
         <v>5.4113</v>
       </c>
       <c r="U42" t="n">
-        <v>79.5084</v>
+        <v>-20.4916</v>
       </c>
       <c r="V42" t="n">
         <v>14.4798</v>
@@ -7988,7 +7988,7 @@
         <v>5.7877</v>
       </c>
       <c r="X42" t="n">
-        <v>-7.5836</v>
+        <v>-0.0758</v>
       </c>
       <c r="Y42" t="n">
         <v>58.065</v>
@@ -8003,7 +8003,7 @@
         <v>0.7739</v>
       </c>
       <c r="AC42" t="n">
-        <v>-26.13</v>
+        <v>73.87</v>
       </c>
       <c r="AD42" t="n">
         <v>-5.0427</v>
@@ -8024,10 +8024,10 @@
         <v>-31.0738</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-74.1</v>
+        <v>25.9</v>
       </c>
       <c r="AK42" t="n">
-        <v>-24.4084</v>
+        <v>75.5916</v>
       </c>
       <c r="AL42" t="n">
         <v>50.3513</v>
@@ -8153,7 +8153,7 @@
         <v>3.3747</v>
       </c>
       <c r="U43" t="n">
-        <v>90.7066</v>
+        <v>-9.2934</v>
       </c>
       <c r="V43" t="n">
         <v>11.7743</v>
@@ -8162,7 +8162,7 @@
         <v>5.23</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.9676</v>
+        <v>-0.0097</v>
       </c>
       <c r="Y43" t="n">
         <v>79.6166</v>
@@ -8177,7 +8177,7 @@
         <v>0.9447</v>
       </c>
       <c r="AC43" t="n">
-        <v>-24.96</v>
+        <v>75.04</v>
       </c>
       <c r="AD43" t="n">
         <v>-12.0019</v>
@@ -8198,10 +8198,10 @@
         <v>-6.6516</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-57.2</v>
+        <v>42.8</v>
       </c>
       <c r="AK43" t="n">
-        <v>-17.012</v>
+        <v>82.988</v>
       </c>
       <c r="AL43" t="n">
         <v>62.7523</v>
@@ -8327,7 +8327,7 @@
         <v>3.3046</v>
       </c>
       <c r="U44" t="n">
-        <v>94.2442</v>
+        <v>-5.7558</v>
       </c>
       <c r="V44" t="n">
         <v>9.7147</v>
@@ -8336,7 +8336,7 @@
         <v>5.3271</v>
       </c>
       <c r="X44" t="n">
-        <v>-3.2443</v>
+        <v>-0.0324</v>
       </c>
       <c r="Y44" t="n">
         <v>79.9156</v>
@@ -8351,7 +8351,7 @@
         <v>-0.1039</v>
       </c>
       <c r="AC44" t="n">
-        <v>-23.73</v>
+        <v>76.27</v>
       </c>
       <c r="AD44" t="n">
         <v>-4.1639</v>
@@ -8372,10 +8372,10 @@
         <v>-0.0096</v>
       </c>
       <c r="AJ44" t="n">
-        <v>-65</v>
+        <v>35</v>
       </c>
       <c r="AK44" t="n">
-        <v>-7.0485</v>
+        <v>92.9515</v>
       </c>
       <c r="AL44" t="n">
         <v>52.2956</v>
@@ -8501,7 +8501,7 @@
         <v>4.0267</v>
       </c>
       <c r="U45" t="n">
-        <v>90.1982</v>
+        <v>-9.8018</v>
       </c>
       <c r="V45" t="n">
         <v>12.0501</v>
@@ -8510,7 +8510,7 @@
         <v>5.6947</v>
       </c>
       <c r="X45" t="n">
-        <v>-0.8986</v>
+        <v>-0.009</v>
       </c>
       <c r="Y45" t="n">
         <v>77.9104</v>
@@ -8525,7 +8525,7 @@
         <v>0.9439</v>
       </c>
       <c r="AC45" t="n">
-        <v>-25.26</v>
+        <v>74.74</v>
       </c>
       <c r="AD45" t="n">
         <v>-6.3264</v>
@@ -8546,10 +8546,10 @@
         <v>-13.4745</v>
       </c>
       <c r="AJ45" t="n">
-        <v>-49.8</v>
+        <v>50.2</v>
       </c>
       <c r="AK45" t="n">
-        <v>-14.5573</v>
+        <v>85.4427</v>
       </c>
       <c r="AL45" t="n">
         <v>59.8544</v>
@@ -8675,7 +8675,7 @@
         <v>4.0818</v>
       </c>
       <c r="U46" t="n">
-        <v>86.8647</v>
+        <v>-13.1353</v>
       </c>
       <c r="V46" t="n">
         <v>11.9801</v>
@@ -8684,7 +8684,7 @@
         <v>6.0574</v>
       </c>
       <c r="X46" t="n">
-        <v>-1.1962</v>
+        <v>-0.012</v>
       </c>
       <c r="Y46" t="n">
         <v>64.7293</v>
@@ -8699,7 +8699,7 @@
         <v>0.5953</v>
       </c>
       <c r="AC46" t="n">
-        <v>-25.16</v>
+        <v>74.84</v>
       </c>
       <c r="AD46" t="n">
         <v>-7.6532</v>
@@ -8720,10 +8720,10 @@
         <v>-3.0246</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-59.1</v>
+        <v>40.9</v>
       </c>
       <c r="AK46" t="n">
-        <v>-15.9945</v>
+        <v>84.0055</v>
       </c>
       <c r="AL46" t="n">
         <v>55.3552</v>
@@ -8849,7 +8849,7 @@
         <v>5.352</v>
       </c>
       <c r="U47" t="n">
-        <v>80.5713</v>
+        <v>-19.4287</v>
       </c>
       <c r="V47" t="n">
         <v>13.3132</v>
@@ -8858,7 +8858,7 @@
         <v>6.1157</v>
       </c>
       <c r="X47" t="n">
-        <v>-1.8293</v>
+        <v>-0.0183</v>
       </c>
       <c r="Y47" t="n">
         <v>58.6722</v>
@@ -8873,7 +8873,7 @@
         <v>-1.6282</v>
       </c>
       <c r="AC47" t="n">
-        <v>-27.15</v>
+        <v>72.85</v>
       </c>
       <c r="AD47" t="n">
         <v>-2.3073</v>
@@ -8894,10 +8894,10 @@
         <v>-33.5901</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-70</v>
+        <v>30</v>
       </c>
       <c r="AK47" t="n">
-        <v>-17.017</v>
+        <v>82.983</v>
       </c>
       <c r="AL47" t="n">
         <v>51.0708</v>
@@ -9023,7 +9023,7 @@
         <v>4.0598</v>
       </c>
       <c r="U48" t="n">
-        <v>86.3968</v>
+        <v>-13.6032</v>
       </c>
       <c r="V48" t="n">
         <v>12.107</v>
@@ -9032,7 +9032,7 @@
         <v>5.867</v>
       </c>
       <c r="X48" t="n">
-        <v>-1.7989</v>
+        <v>-0.018</v>
       </c>
       <c r="Y48" t="n">
         <v>74.8827</v>
@@ -9047,7 +9047,7 @@
         <v>0.862</v>
       </c>
       <c r="AC48" t="n">
-        <v>-25.29</v>
+        <v>74.71</v>
       </c>
       <c r="AD48" t="n">
         <v>-3.8452</v>
@@ -9068,10 +9068,10 @@
         <v>-12.0176</v>
       </c>
       <c r="AJ48" t="n">
-        <v>-48.6</v>
+        <v>51.4</v>
       </c>
       <c r="AK48" t="n">
-        <v>-18.8849</v>
+        <v>81.1151</v>
       </c>
       <c r="AL48" t="n">
         <v>57.3287</v>
@@ -9197,7 +9197,7 @@
         <v>3.9517</v>
       </c>
       <c r="U49" t="n">
-        <v>89.9617</v>
+        <v>-10.0383</v>
       </c>
       <c r="V49" t="n">
         <v>11.59</v>
@@ -9206,7 +9206,7 @@
         <v>5.4827</v>
       </c>
       <c r="X49" t="n">
-        <v>-1.1307</v>
+        <v>-0.0113</v>
       </c>
       <c r="Y49" t="n">
         <v>81.7786</v>
@@ -9221,7 +9221,7 @@
         <v>0.8619</v>
       </c>
       <c r="AC49" t="n">
-        <v>-24.87</v>
+        <v>75.13</v>
       </c>
       <c r="AD49" t="n">
         <v>-7.4107</v>
@@ -9242,10 +9242,10 @@
         <v>-0.9011</v>
       </c>
       <c r="AJ49" t="n">
-        <v>-60</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="n">
-        <v>-14.1285</v>
+        <v>85.8715</v>
       </c>
       <c r="AL49" t="n">
         <v>52.8515</v>
@@ -9371,7 +9371,7 @@
         <v>3.4511</v>
       </c>
       <c r="U50" t="n">
-        <v>91.7993</v>
+        <v>-8.2007</v>
       </c>
       <c r="V50" t="n">
         <v>11.6244</v>
@@ -9380,7 +9380,7 @@
         <v>5.4322</v>
       </c>
       <c r="X50" t="n">
-        <v>-2.3902</v>
+        <v>-0.0239</v>
       </c>
       <c r="Y50" t="n">
         <v>75.1743</v>
@@ -9395,7 +9395,7 @@
         <v>0.8663</v>
       </c>
       <c r="AC50" t="n">
-        <v>-24.89</v>
+        <v>75.11</v>
       </c>
       <c r="AD50" t="n">
         <v>-3.4757</v>
@@ -9416,10 +9416,10 @@
         <v>-5.4161</v>
       </c>
       <c r="AJ50" t="n">
-        <v>-76.4</v>
+        <v>23.6</v>
       </c>
       <c r="AK50" t="n">
-        <v>-8.3337</v>
+        <v>91.6663</v>
       </c>
       <c r="AL50" t="n">
         <v>52.6288</v>
@@ -9545,7 +9545,7 @@
         <v>4.3562</v>
       </c>
       <c r="U51" t="n">
-        <v>84.8769</v>
+        <v>-15.123</v>
       </c>
       <c r="V51" t="n">
         <v>12.0046</v>
@@ -9554,7 +9554,7 @@
         <v>5.1185</v>
       </c>
       <c r="X51" t="n">
-        <v>-0.2199</v>
+        <v>-0.0022</v>
       </c>
       <c r="Y51" t="n">
         <v>73.1324</v>
@@ -9569,7 +9569,7 @@
         <v>0.8278</v>
       </c>
       <c r="AC51" t="n">
-        <v>-25.52</v>
+        <v>74.48</v>
       </c>
       <c r="AD51" t="n">
         <v>-3.8849</v>
@@ -9590,10 +9590,10 @@
         <v>-9.3284</v>
       </c>
       <c r="AJ51" t="n">
-        <v>-59.9</v>
+        <v>40.1</v>
       </c>
       <c r="AK51" t="n">
-        <v>-14.6207</v>
+        <v>85.3793</v>
       </c>
       <c r="AL51" t="n">
         <v>53.6227</v>
@@ -9721,7 +9721,7 @@
         <v>3.5118</v>
       </c>
       <c r="U52" t="n">
-        <v>89.1658</v>
+        <v>-10.8342</v>
       </c>
       <c r="V52" t="n">
         <v>10.8734</v>
@@ -9730,7 +9730,7 @@
         <v>5.4755</v>
       </c>
       <c r="X52" t="n">
-        <v>-1.1634</v>
+        <v>-0.0116</v>
       </c>
       <c r="Y52" t="n">
         <v>75.5391</v>
@@ -9745,7 +9745,7 @@
         <v>0.741</v>
       </c>
       <c r="AC52" t="n">
-        <v>-25.12</v>
+        <v>74.88</v>
       </c>
       <c r="AD52" t="n">
         <v>-4.4508</v>
@@ -9766,10 +9766,10 @@
         <v>-4.9564</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-68</v>
+        <v>32</v>
       </c>
       <c r="AK52" t="n">
-        <v>-6.2702</v>
+        <v>93.7298</v>
       </c>
       <c r="AL52" t="n">
         <v>56.3534</v>
@@ -9897,7 +9897,7 @@
         <v>3.8671</v>
       </c>
       <c r="U53" t="n">
-        <v>88.5199</v>
+        <v>-11.4801</v>
       </c>
       <c r="V53" t="n">
         <v>11.2847</v>
@@ -9906,7 +9906,7 @@
         <v>5.3741</v>
       </c>
       <c r="X53" t="n">
-        <v>-1.0751</v>
+        <v>-0.0108</v>
       </c>
       <c r="Y53" t="n">
         <v>80.3969</v>
@@ -9921,7 +9921,7 @@
         <v>0.2472</v>
       </c>
       <c r="AC53" t="n">
-        <v>-25.05</v>
+        <v>74.95</v>
       </c>
       <c r="AD53" t="n">
         <v>-6.5041</v>
@@ -9942,10 +9942,10 @@
         <v>-13.1182</v>
       </c>
       <c r="AJ53" t="n">
-        <v>-49.2</v>
+        <v>50.8</v>
       </c>
       <c r="AK53" t="n">
-        <v>-13.5366</v>
+        <v>86.4634</v>
       </c>
       <c r="AL53" t="n">
         <v>56.4532</v>
@@ -10073,7 +10073,7 @@
         <v>3.8118</v>
       </c>
       <c r="U54" t="n">
-        <v>91.5988</v>
+        <v>-8.4012</v>
       </c>
       <c r="V54" t="n">
         <v>10.6021</v>
@@ -10082,7 +10082,7 @@
         <v>5.4599</v>
       </c>
       <c r="X54" t="n">
-        <v>-3.3937</v>
+        <v>-0.0339</v>
       </c>
       <c r="Y54" t="n">
         <v>78.725</v>
@@ -10097,7 +10097,7 @@
         <v>0.9039</v>
       </c>
       <c r="AC54" t="n">
-        <v>-24.43</v>
+        <v>75.57</v>
       </c>
       <c r="AD54" t="n">
         <v>-5.5155</v>
@@ -10118,10 +10118,10 @@
         <v>-1.3955</v>
       </c>
       <c r="AJ54" t="n">
-        <v>-57.4</v>
+        <v>42.6</v>
       </c>
       <c r="AK54" t="n">
-        <v>-7.988</v>
+        <v>92.012</v>
       </c>
       <c r="AL54" t="n">
         <v>71.4809</v>
@@ -10249,7 +10249,7 @@
         <v>4.9832</v>
       </c>
       <c r="U55" t="n">
-        <v>82.0508</v>
+        <v>-17.9492</v>
       </c>
       <c r="V55" t="n">
         <v>13.1243</v>
@@ -10258,7 +10258,7 @@
         <v>5.7525</v>
       </c>
       <c r="X55" t="n">
-        <v>-3.5236</v>
+        <v>-0.0352</v>
       </c>
       <c r="Y55" t="n">
         <v>52.729</v>
@@ -10273,7 +10273,7 @@
         <v>-0.3933</v>
       </c>
       <c r="AC55" t="n">
-        <v>-26.26</v>
+        <v>73.74</v>
       </c>
       <c r="AD55" t="n">
         <v>-2.8173</v>
@@ -10294,10 +10294,10 @@
         <v>-36.0974</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-66.1</v>
+        <v>33.9</v>
       </c>
       <c r="AK55" t="n">
-        <v>-13.9204</v>
+        <v>86.0796</v>
       </c>
       <c r="AL55" t="n">
         <v>59.058</v>
@@ -10425,7 +10425,7 @@
         <v>4.6116</v>
       </c>
       <c r="U56" t="n">
-        <v>87.4224</v>
+        <v>-12.5776</v>
       </c>
       <c r="V56" t="n">
         <v>12.5624</v>
@@ -10434,7 +10434,7 @@
         <v>6.0957</v>
       </c>
       <c r="X56" t="n">
-        <v>-0.7634</v>
+        <v>-0.0076</v>
       </c>
       <c r="Y56" t="n">
         <v>65.4712</v>
@@ -10449,7 +10449,7 @@
         <v>-0.0678</v>
       </c>
       <c r="AC56" t="n">
-        <v>-25.56</v>
+        <v>74.44</v>
       </c>
       <c r="AD56" t="n">
         <v>-3.5613</v>
@@ -10470,10 +10470,10 @@
         <v>-12.0509</v>
       </c>
       <c r="AJ56" t="n">
-        <v>-60</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="n">
-        <v>-13.2335</v>
+        <v>86.7665</v>
       </c>
       <c r="AL56" t="n">
         <v>53.889</v>
@@ -10601,7 +10601,7 @@
         <v>4.1054</v>
       </c>
       <c r="U57" t="n">
-        <v>90.2962</v>
+        <v>-9.7038</v>
       </c>
       <c r="V57" t="n">
         <v>11.8126</v>
@@ -10610,7 +10610,7 @@
         <v>5.7867</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.6487</v>
+        <v>-0.0065</v>
       </c>
       <c r="Y57" t="n">
         <v>76.4526</v>
@@ -10625,7 +10625,7 @@
         <v>0.8067</v>
       </c>
       <c r="AC57" t="n">
-        <v>-24.71</v>
+        <v>75.29</v>
       </c>
       <c r="AD57" t="n">
         <v>-4.8256</v>
@@ -10646,10 +10646,10 @@
         <v>-1.3389</v>
       </c>
       <c r="AJ57" t="n">
-        <v>-45.3</v>
+        <v>54.7</v>
       </c>
       <c r="AK57" t="n">
-        <v>-9.5652</v>
+        <v>90.4348</v>
       </c>
       <c r="AL57" t="n">
         <v>52.8974</v>
@@ -10777,7 +10777,7 @@
         <v>3.4523</v>
       </c>
       <c r="U58" t="n">
-        <v>89.8882</v>
+        <v>-10.1118</v>
       </c>
       <c r="V58" t="n">
         <v>11.3019</v>
@@ -10786,7 +10786,7 @@
         <v>5.4452</v>
       </c>
       <c r="X58" t="n">
-        <v>-2.1661</v>
+        <v>-0.0217</v>
       </c>
       <c r="Y58" t="n">
         <v>82.7389</v>
@@ -10801,7 +10801,7 @@
         <v>-0.9018</v>
       </c>
       <c r="AC58" t="n">
-        <v>-24.87</v>
+        <v>75.13</v>
       </c>
       <c r="AD58" t="n">
         <v>-7.9876</v>
@@ -10822,10 +10822,10 @@
         <v>-9.643</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-65.9</v>
+        <v>34.1</v>
       </c>
       <c r="AK58" t="n">
-        <v>-3.1802</v>
+        <v>96.8198</v>
       </c>
       <c r="AL58" t="n">
         <v>55.3902</v>
@@ -10953,7 +10953,7 @@
         <v>4.4672</v>
       </c>
       <c r="U59" t="n">
-        <v>87.8142</v>
+        <v>-12.1858</v>
       </c>
       <c r="V59" t="n">
         <v>11.7775</v>
@@ -10962,7 +10962,7 @@
         <v>6.2196</v>
       </c>
       <c r="X59" t="n">
-        <v>-0.5925</v>
+        <v>-0.0059</v>
       </c>
       <c r="Y59" t="n">
         <v>68.7325</v>
@@ -10977,7 +10977,7 @@
         <v>0.9275</v>
       </c>
       <c r="AC59" t="n">
-        <v>-25.51</v>
+        <v>74.49</v>
       </c>
       <c r="AD59" t="n">
         <v>-6.4355</v>
@@ -10998,10 +10998,10 @@
         <v>-20.5755</v>
       </c>
       <c r="AJ59" t="n">
-        <v>-55.6</v>
+        <v>44.4</v>
       </c>
       <c r="AK59" t="n">
-        <v>-10.7788</v>
+        <v>89.2212</v>
       </c>
       <c r="AL59" t="n">
         <v>56.5782</v>
@@ -11129,7 +11129,7 @@
         <v>3.5548</v>
       </c>
       <c r="U60" t="n">
-        <v>90.3969</v>
+        <v>-9.6031</v>
       </c>
       <c r="V60" t="n">
         <v>10.9035</v>
@@ -11138,7 +11138,7 @@
         <v>5.2678</v>
       </c>
       <c r="X60" t="n">
-        <v>-1.9766</v>
+        <v>-0.0198</v>
       </c>
       <c r="Y60" t="n">
         <v>85.6805</v>
@@ -11153,7 +11153,7 @@
         <v>0.7016</v>
       </c>
       <c r="AC60" t="n">
-        <v>-25.26</v>
+        <v>74.74</v>
       </c>
       <c r="AD60" t="n">
         <v>-5.4109</v>
@@ -11174,10 +11174,10 @@
         <v>-8.1164</v>
       </c>
       <c r="AJ60" t="n">
-        <v>-47.6</v>
+        <v>52.4</v>
       </c>
       <c r="AK60" t="n">
-        <v>-15.9454</v>
+        <v>84.0546</v>
       </c>
       <c r="AL60" t="n">
         <v>58.4743</v>
@@ -11305,7 +11305,7 @@
         <v>3.2832</v>
       </c>
       <c r="U61" t="n">
-        <v>90.903</v>
+        <v>-9.097</v>
       </c>
       <c r="V61" t="n">
         <v>10.9365</v>
@@ -11314,7 +11314,7 @@
         <v>5.7271</v>
       </c>
       <c r="X61" t="n">
-        <v>-1.6662</v>
+        <v>-0.0167</v>
       </c>
       <c r="Y61" t="n">
         <v>87.4007</v>
@@ -11329,7 +11329,7 @@
         <v>0.9307</v>
       </c>
       <c r="AC61" t="n">
-        <v>-24.98</v>
+        <v>75.02</v>
       </c>
       <c r="AD61" t="n">
         <v>-7.4589</v>
@@ -11350,10 +11350,10 @@
         <v>-5.4067</v>
       </c>
       <c r="AJ61" t="n">
-        <v>-59.5</v>
+        <v>40.5</v>
       </c>
       <c r="AK61" t="n">
-        <v>-12.4058</v>
+        <v>87.5942</v>
       </c>
       <c r="AL61" t="n">
         <v>64.264</v>
@@ -11481,7 +11481,7 @@
         <v>5.0033</v>
       </c>
       <c r="U62" t="n">
-        <v>88.4967</v>
+        <v>-11.5033</v>
       </c>
       <c r="V62" t="n">
         <v>12.0621</v>
@@ -11490,7 +11490,7 @@
         <v>5.5557</v>
       </c>
       <c r="X62" t="n">
-        <v>-4.6361</v>
+        <v>-0.0464</v>
       </c>
       <c r="Y62" t="n">
         <v>72.9021</v>
@@ -11505,7 +11505,7 @@
         <v>0.8764</v>
       </c>
       <c r="AC62" t="n">
-        <v>-25.33</v>
+        <v>74.67</v>
       </c>
       <c r="AD62" t="n">
         <v>-6.3075</v>
@@ -11526,10 +11526,10 @@
         <v>-30.9299</v>
       </c>
       <c r="AJ62" t="n">
-        <v>-80.7</v>
+        <v>19.3</v>
       </c>
       <c r="AK62" t="n">
-        <v>-16.983</v>
+        <v>83.017</v>
       </c>
       <c r="AL62" t="n">
         <v>57.6767</v>
@@ -11657,7 +11657,7 @@
         <v>3.4159</v>
       </c>
       <c r="U63" t="n">
-        <v>91.0938</v>
+        <v>-8.9062</v>
       </c>
       <c r="V63" t="n">
         <v>11.0127</v>
@@ -11666,7 +11666,7 @@
         <v>5.1155</v>
       </c>
       <c r="X63" t="n">
-        <v>-0.8773</v>
+        <v>-0.0088</v>
       </c>
       <c r="Y63" t="n">
         <v>80.2526</v>
@@ -11681,7 +11681,7 @@
         <v>0.5994</v>
       </c>
       <c r="AC63" t="n">
-        <v>-25.14</v>
+        <v>74.86</v>
       </c>
       <c r="AD63" t="n">
         <v>-4.5079</v>
@@ -11702,10 +11702,10 @@
         <v>-9.8202</v>
       </c>
       <c r="AJ63" t="n">
-        <v>-54.6</v>
+        <v>45.4</v>
       </c>
       <c r="AK63" t="n">
-        <v>-20.2668</v>
+        <v>79.7332</v>
       </c>
       <c r="AL63" t="n">
         <v>57.4697</v>
@@ -11833,7 +11833,7 @@
         <v>3.8906</v>
       </c>
       <c r="U64" t="n">
-        <v>90.2951</v>
+        <v>-9.7049</v>
       </c>
       <c r="V64" t="n">
         <v>11.8039</v>
@@ -11842,7 +11842,7 @@
         <v>5.8825</v>
       </c>
       <c r="X64" t="n">
-        <v>-3.3827</v>
+        <v>-0.0338</v>
       </c>
       <c r="Y64" t="n">
         <v>69.5477</v>
@@ -11857,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="AC64" t="n">
-        <v>-25.11</v>
+        <v>74.89</v>
       </c>
       <c r="AD64" t="n">
         <v>-3.9561</v>
@@ -11878,10 +11878,10 @@
         <v>-3.5697</v>
       </c>
       <c r="AJ64" t="n">
-        <v>-54.5</v>
+        <v>45.5</v>
       </c>
       <c r="AK64" t="n">
-        <v>-12.3669</v>
+        <v>87.6331</v>
       </c>
       <c r="AL64" t="n">
         <v>63.7848</v>
@@ -12009,7 +12009,7 @@
         <v>3.2464</v>
       </c>
       <c r="U65" t="n">
-        <v>84.7758</v>
+        <v>-15.2242</v>
       </c>
       <c r="V65" t="n">
         <v>10.8432</v>
@@ -12018,7 +12018,7 @@
         <v>5.3054</v>
       </c>
       <c r="X65" t="n">
-        <v>-3.0997</v>
+        <v>-0.031</v>
       </c>
       <c r="Y65" t="n">
         <v>64.5611</v>
@@ -12033,7 +12033,7 @@
         <v>-0.1042</v>
       </c>
       <c r="AC65" t="n">
-        <v>-25.85</v>
+        <v>74.15</v>
       </c>
       <c r="AD65" t="n">
         <v>-2.489</v>
@@ -12054,10 +12054,10 @@
         <v>-30.1819</v>
       </c>
       <c r="AJ65" t="n">
-        <v>-61.8</v>
+        <v>38.2</v>
       </c>
       <c r="AK65" t="n">
-        <v>-12.2017</v>
+        <v>87.7983</v>
       </c>
       <c r="AL65" t="n">
         <v>52.4097</v>
@@ -12185,7 +12185,7 @@
         <v>3.8604</v>
       </c>
       <c r="U66" t="n">
-        <v>87.9254</v>
+        <v>-12.0746</v>
       </c>
       <c r="V66" t="n">
         <v>10.687</v>
@@ -12194,7 +12194,7 @@
         <v>5.3861</v>
       </c>
       <c r="X66" t="n">
-        <v>-2.4478</v>
+        <v>-0.0245</v>
       </c>
       <c r="Y66" t="n">
         <v>76.8602</v>
@@ -12209,7 +12209,7 @@
         <v>0.6712</v>
       </c>
       <c r="AC66" t="n">
-        <v>-25.72</v>
+        <v>74.28</v>
       </c>
       <c r="AD66" t="n">
         <v>-10.3902</v>
@@ -12230,10 +12230,10 @@
         <v>-19.4334</v>
       </c>
       <c r="AJ66" t="n">
-        <v>-48.3</v>
+        <v>51.7</v>
       </c>
       <c r="AK66" t="n">
-        <v>-2.373</v>
+        <v>97.627</v>
       </c>
       <c r="AL66" t="n">
         <v>68.4221</v>
@@ -12361,7 +12361,7 @@
         <v>4.689</v>
       </c>
       <c r="U67" t="n">
-        <v>89.2294</v>
+        <v>-10.7706</v>
       </c>
       <c r="V67" t="n">
         <v>12.1694</v>
@@ -12370,7 +12370,7 @@
         <v>5.8927</v>
       </c>
       <c r="X67" t="n">
-        <v>-0.7438</v>
+        <v>-0.0074</v>
       </c>
       <c r="Y67" t="n">
         <v>66.1956</v>
@@ -12385,7 +12385,7 @@
         <v>0.5005</v>
       </c>
       <c r="AC67" t="n">
-        <v>-25.36</v>
+        <v>74.64</v>
       </c>
       <c r="AD67" t="n">
         <v>-4.701</v>
@@ -12406,10 +12406,10 @@
         <v>-20.8951</v>
       </c>
       <c r="AJ67" t="n">
-        <v>-58.3</v>
+        <v>41.7</v>
       </c>
       <c r="AK67" t="n">
-        <v>-14.7711</v>
+        <v>85.2289</v>
       </c>
       <c r="AL67" t="n">
         <v>67.7774</v>
@@ -12537,7 +12537,7 @@
         <v>3.9761</v>
       </c>
       <c r="U68" t="n">
-        <v>88.7569</v>
+        <v>-11.2431</v>
       </c>
       <c r="V68" t="n">
         <v>11.3977</v>
@@ -12546,7 +12546,7 @@
         <v>5.4102</v>
       </c>
       <c r="X68" t="n">
-        <v>-2.271</v>
+        <v>-0.0227</v>
       </c>
       <c r="Y68" t="n">
         <v>72.2484</v>
@@ -12561,7 +12561,7 @@
         <v>0.4792</v>
       </c>
       <c r="AC68" t="n">
-        <v>-25.12</v>
+        <v>74.88</v>
       </c>
       <c r="AD68" t="n">
         <v>-5.2877</v>
@@ -12582,10 +12582,10 @@
         <v>-10.34</v>
       </c>
       <c r="AJ68" t="n">
-        <v>-62</v>
+        <v>38</v>
       </c>
       <c r="AK68" t="n">
-        <v>-10.9</v>
+        <v>89.1</v>
       </c>
       <c r="AL68" t="n">
         <v>62.7</v>
@@ -12711,7 +12711,7 @@
         <v>3.8754</v>
       </c>
       <c r="U69" t="n">
-        <v>89.8813</v>
+        <v>-10.1187</v>
       </c>
       <c r="V69" t="n">
         <v>11.4536</v>
@@ -12720,7 +12720,7 @@
         <v>5.4131</v>
       </c>
       <c r="X69" t="n">
-        <v>-2.0867</v>
+        <v>-0.0209</v>
       </c>
       <c r="Y69" t="n">
         <v>74.4119</v>
@@ -12735,7 +12735,7 @@
         <v>0.8498</v>
       </c>
       <c r="AC69" t="n">
-        <v>-24.4</v>
+        <v>75.6</v>
       </c>
       <c r="AD69" t="n">
         <v>-10.176</v>
@@ -12756,10 +12756,10 @@
         <v>-0.8571</v>
       </c>
       <c r="AJ69" t="n">
-        <v>-41.7</v>
+        <v>58.3</v>
       </c>
       <c r="AK69" t="n">
-        <v>-9.4383</v>
+        <v>90.5617</v>
       </c>
       <c r="AL69" t="n">
         <v>62.4484</v>
@@ -12885,7 +12885,7 @@
         <v>3.2433</v>
       </c>
       <c r="U70" t="n">
-        <v>92.6134</v>
+        <v>-7.3866</v>
       </c>
       <c r="V70" t="n">
         <v>11.2143</v>
@@ -12894,7 +12894,7 @@
         <v>5.3258</v>
       </c>
       <c r="X70" t="n">
-        <v>-2.3091</v>
+        <v>-0.0231</v>
       </c>
       <c r="Y70" t="n">
         <v>86.0104</v>
@@ -12909,7 +12909,7 @@
         <v>0.732</v>
       </c>
       <c r="AC70" t="n">
-        <v>-24.35</v>
+        <v>75.65</v>
       </c>
       <c r="AD70" t="n">
         <v>-4.7937</v>
@@ -12930,10 +12930,10 @@
         <v>-2.7115</v>
       </c>
       <c r="AJ70" t="n">
-        <v>-58.2</v>
+        <v>41.8</v>
       </c>
       <c r="AK70" t="n">
-        <v>-6.8991</v>
+        <v>93.1009</v>
       </c>
       <c r="AL70" t="n">
         <v>61.5118</v>
@@ -13059,7 +13059,7 @@
         <v>3.7496</v>
       </c>
       <c r="U71" t="n">
-        <v>90.53</v>
+        <v>-9.47</v>
       </c>
       <c r="V71" t="n">
         <v>10.8325</v>
@@ -13068,7 +13068,7 @@
         <v>5.1033</v>
       </c>
       <c r="X71" t="n">
-        <v>-4.8699</v>
+        <v>-0.0487</v>
       </c>
       <c r="Y71" t="n">
         <v>85.0844</v>
@@ -13083,7 +13083,7 @@
         <v>0.1665</v>
       </c>
       <c r="AC71" t="n">
-        <v>-24.47</v>
+        <v>75.53</v>
       </c>
       <c r="AD71" t="n">
         <v>-6.2312</v>
@@ -13104,10 +13104,10 @@
         <v>-1.717</v>
       </c>
       <c r="AJ71" t="n">
-        <v>-53.2</v>
+        <v>46.8</v>
       </c>
       <c r="AK71" t="n">
-        <v>-8.7178</v>
+        <v>91.2822</v>
       </c>
       <c r="AL71" t="n">
         <v>64.1262</v>
@@ -13233,7 +13233,7 @@
         <v>3.9935</v>
       </c>
       <c r="U72" t="n">
-        <v>87.0288</v>
+        <v>-12.9712</v>
       </c>
       <c r="V72" t="n">
         <v>10.6565</v>
@@ -13242,7 +13242,7 @@
         <v>5.0518</v>
       </c>
       <c r="X72" t="n">
-        <v>-1.8624</v>
+        <v>-0.0186</v>
       </c>
       <c r="Y72" t="n">
         <v>72.2127</v>
@@ -13257,7 +13257,7 @@
         <v>-0.1998</v>
       </c>
       <c r="AC72" t="n">
-        <v>-25.59</v>
+        <v>74.41</v>
       </c>
       <c r="AD72" t="n">
         <v>-7.7857</v>
@@ -13278,10 +13278,10 @@
         <v>-20.9179</v>
       </c>
       <c r="AJ72" t="n">
-        <v>-55.7</v>
+        <v>44.3</v>
       </c>
       <c r="AK72" t="n">
-        <v>-6.315</v>
+        <v>93.685</v>
       </c>
       <c r="AL72" t="n">
         <v>70.3038</v>
@@ -13407,7 +13407,7 @@
         <v>4.0032</v>
       </c>
       <c r="U73" t="n">
-        <v>90.9859</v>
+        <v>-9.0141</v>
       </c>
       <c r="V73" t="n">
         <v>10.863</v>
@@ -13416,7 +13416,7 @@
         <v>5.4608</v>
       </c>
       <c r="X73" t="n">
-        <v>-2.6549</v>
+        <v>-0.0265</v>
       </c>
       <c r="Y73" t="n">
         <v>74.1317</v>
@@ -13431,7 +13431,7 @@
         <v>0.6334</v>
       </c>
       <c r="AC73" t="n">
-        <v>-24.64</v>
+        <v>75.36</v>
       </c>
       <c r="AD73" t="n">
         <v>-6.5094</v>
@@ -13452,10 +13452,10 @@
         <v>-4.7546</v>
       </c>
       <c r="AJ73" t="n">
-        <v>-44.6</v>
+        <v>55.4</v>
       </c>
       <c r="AK73" t="n">
-        <v>-11.6213</v>
+        <v>88.3787</v>
       </c>
       <c r="AL73" t="n">
         <v>67.5927</v>
@@ -13581,7 +13581,7 @@
         <v>3.3245</v>
       </c>
       <c r="U74" t="n">
-        <v>89.5471</v>
+        <v>-10.4529</v>
       </c>
       <c r="V74" t="n">
         <v>10.4034</v>
@@ -13590,7 +13590,7 @@
         <v>5.0378</v>
       </c>
       <c r="X74" t="n">
-        <v>-2.6309</v>
+        <v>-0.0263</v>
       </c>
       <c r="Y74" t="n">
         <v>77.5868</v>
@@ -13605,7 +13605,7 @@
         <v>0.4458</v>
       </c>
       <c r="AC74" t="n">
-        <v>-24.84</v>
+        <v>75.16</v>
       </c>
       <c r="AD74" t="n">
         <v>-6.153</v>
@@ -13626,10 +13626,10 @@
         <v>-2.3983</v>
       </c>
       <c r="AJ74" t="n">
-        <v>-44.5</v>
+        <v>55.5</v>
       </c>
       <c r="AK74" t="n">
-        <v>-7.6274</v>
+        <v>92.3726</v>
       </c>
       <c r="AL74" t="n">
         <v>55.6502</v>
@@ -13755,7 +13755,7 @@
         <v>5.4742</v>
       </c>
       <c r="U75" t="n">
-        <v>79.5084</v>
+        <v>-20.4916</v>
       </c>
       <c r="V75" t="n">
         <v>14.2302</v>
@@ -13764,7 +13764,7 @@
         <v>5.6812</v>
       </c>
       <c r="X75" t="n">
-        <v>-7.3117</v>
+        <v>-0.0731</v>
       </c>
       <c r="Y75" t="n">
         <v>53.1612</v>
@@ -13779,7 +13779,7 @@
         <v>0.7739</v>
       </c>
       <c r="AC75" t="n">
-        <v>-26.08</v>
+        <v>73.92</v>
       </c>
       <c r="AD75" t="n">
         <v>-4.7816</v>
@@ -13800,10 +13800,10 @@
         <v>-29.4244</v>
       </c>
       <c r="AJ75" t="n">
-        <v>-71.9</v>
+        <v>28.1</v>
       </c>
       <c r="AK75" t="n">
-        <v>-24.0763</v>
+        <v>75.9237</v>
       </c>
       <c r="AL75" t="n">
         <v>77.9815</v>
@@ -13929,7 +13929,7 @@
         <v>3.3774</v>
       </c>
       <c r="U76" t="n">
-        <v>90.7066</v>
+        <v>-9.2934</v>
       </c>
       <c r="V76" t="n">
         <v>11.5856</v>
@@ -13938,7 +13938,7 @@
         <v>5.1013</v>
       </c>
       <c r="X76" t="n">
-        <v>-0.5285</v>
+        <v>-0.0053</v>
       </c>
       <c r="Y76" t="n">
         <v>80.2949</v>
@@ -13953,7 +13953,7 @@
         <v>0.9447</v>
       </c>
       <c r="AC76" t="n">
-        <v>-24.92</v>
+        <v>75.08</v>
       </c>
       <c r="AD76" t="n">
         <v>-10.9774</v>
@@ -13974,10 +13974,10 @@
         <v>-5.7997</v>
       </c>
       <c r="AJ76" t="n">
-        <v>-59.3</v>
+        <v>40.7</v>
       </c>
       <c r="AK76" t="n">
-        <v>-16.6833</v>
+        <v>83.3167</v>
       </c>
       <c r="AL76" t="n">
         <v>70.9344</v>
@@ -14103,7 +14103,7 @@
         <v>3.3267</v>
       </c>
       <c r="U77" t="n">
-        <v>94.2442</v>
+        <v>-5.7558</v>
       </c>
       <c r="V77" t="n">
         <v>9.4719</v>
@@ -14112,7 +14112,7 @@
         <v>5.1528</v>
       </c>
       <c r="X77" t="n">
-        <v>-2.9894</v>
+        <v>-0.0299</v>
       </c>
       <c r="Y77" t="n">
         <v>81.9172</v>
@@ -14127,7 +14127,7 @@
         <v>-0.1039</v>
       </c>
       <c r="AC77" t="n">
-        <v>-23.69</v>
+        <v>76.31</v>
       </c>
       <c r="AD77" t="n">
         <v>-3.3374</v>
@@ -14148,10 +14148,10 @@
         <v>-0.0733</v>
       </c>
       <c r="AJ77" t="n">
-        <v>-73.2</v>
+        <v>26.8</v>
       </c>
       <c r="AK77" t="n">
-        <v>-7.2134</v>
+        <v>92.7866</v>
       </c>
       <c r="AL77" t="n">
         <v>50.4491</v>
@@ -14277,7 +14277,7 @@
         <v>4.0561</v>
       </c>
       <c r="U78" t="n">
-        <v>90.1982</v>
+        <v>-9.8018</v>
       </c>
       <c r="V78" t="n">
         <v>11.944</v>
@@ -14286,7 +14286,7 @@
         <v>5.6719</v>
       </c>
       <c r="X78" t="n">
-        <v>-0.831</v>
+        <v>-0.0083</v>
       </c>
       <c r="Y78" t="n">
         <v>70.7701</v>
@@ -14301,7 +14301,7 @@
         <v>0.9439</v>
       </c>
       <c r="AC78" t="n">
-        <v>-25.22</v>
+        <v>74.78</v>
       </c>
       <c r="AD78" t="n">
         <v>-6.8151</v>
@@ -14322,10 +14322,10 @@
         <v>-11.7353</v>
       </c>
       <c r="AJ78" t="n">
-        <v>-51.2</v>
+        <v>48.8</v>
       </c>
       <c r="AK78" t="n">
-        <v>-13.8138</v>
+        <v>86.1862</v>
       </c>
       <c r="AL78" t="n">
         <v>64.5168</v>
@@ -14451,7 +14451,7 @@
         <v>4.2573</v>
       </c>
       <c r="U79" t="n">
-        <v>86.8647</v>
+        <v>-13.1353</v>
       </c>
       <c r="V79" t="n">
         <v>11.7588</v>
@@ -14460,7 +14460,7 @@
         <v>5.907</v>
       </c>
       <c r="X79" t="n">
-        <v>-1.2405</v>
+        <v>-0.0124</v>
       </c>
       <c r="Y79" t="n">
         <v>69.6586</v>
@@ -14475,7 +14475,7 @@
         <v>0.5953</v>
       </c>
       <c r="AC79" t="n">
-        <v>-25.12</v>
+        <v>74.88</v>
       </c>
       <c r="AD79" t="n">
         <v>-8.1537</v>
@@ -14496,10 +14496,10 @@
         <v>-3.0309</v>
       </c>
       <c r="AJ79" t="n">
-        <v>-65.9</v>
+        <v>34.1</v>
       </c>
       <c r="AK79" t="n">
-        <v>-10.9547</v>
+        <v>89.0453</v>
       </c>
       <c r="AL79" t="n">
         <v>69.9131</v>
@@ -14625,7 +14625,7 @@
         <v>5.3915</v>
       </c>
       <c r="U80" t="n">
-        <v>80.5713</v>
+        <v>-19.4287</v>
       </c>
       <c r="V80" t="n">
         <v>12.9039</v>
@@ -14634,7 +14634,7 @@
         <v>5.927</v>
       </c>
       <c r="X80" t="n">
-        <v>-1.7565</v>
+        <v>-0.0176</v>
       </c>
       <c r="Y80" t="n">
         <v>57.5494</v>
@@ -14649,7 +14649,7 @@
         <v>-1.6282</v>
       </c>
       <c r="AC80" t="n">
-        <v>-27.11</v>
+        <v>72.89</v>
       </c>
       <c r="AD80" t="n">
         <v>-2.0198</v>
@@ -14670,10 +14670,10 @@
         <v>-31.151</v>
       </c>
       <c r="AJ80" t="n">
-        <v>-66.7</v>
+        <v>33.3</v>
       </c>
       <c r="AK80" t="n">
-        <v>-15.8824</v>
+        <v>84.1176</v>
       </c>
       <c r="AL80" t="n">
         <v>52.689</v>
@@ -14799,7 +14799,7 @@
         <v>4.068</v>
       </c>
       <c r="U81" t="n">
-        <v>86.3968</v>
+        <v>-13.6032</v>
       </c>
       <c r="V81" t="n">
         <v>11.9076</v>
@@ -14808,7 +14808,7 @@
         <v>5.8286</v>
       </c>
       <c r="X81" t="n">
-        <v>-2.6334</v>
+        <v>-0.0263</v>
       </c>
       <c r="Y81" t="n">
         <v>67.3616</v>
@@ -14823,7 +14823,7 @@
         <v>0.862</v>
       </c>
       <c r="AC81" t="n">
-        <v>-25.24</v>
+        <v>74.76</v>
       </c>
       <c r="AD81" t="n">
         <v>-3.8966</v>
@@ -14844,10 +14844,10 @@
         <v>-16.1882</v>
       </c>
       <c r="AJ81" t="n">
-        <v>-52.7</v>
+        <v>47.3</v>
       </c>
       <c r="AK81" t="n">
-        <v>-13.8277</v>
+        <v>86.1723</v>
       </c>
       <c r="AL81" t="n">
         <v>67.6669</v>
@@ -14973,7 +14973,7 @@
         <v>3.9562</v>
       </c>
       <c r="U82" t="n">
-        <v>89.9617</v>
+        <v>-10.0383</v>
       </c>
       <c r="V82" t="n">
         <v>11.4373</v>
@@ -14982,7 +14982,7 @@
         <v>5.2995</v>
       </c>
       <c r="X82" t="n">
-        <v>-1.3146</v>
+        <v>-0.0131</v>
       </c>
       <c r="Y82" t="n">
         <v>79.4429</v>
@@ -14997,7 +14997,7 @@
         <v>0.8619</v>
       </c>
       <c r="AC82" t="n">
-        <v>-24.83</v>
+        <v>75.17</v>
       </c>
       <c r="AD82" t="n">
         <v>-8.0744</v>
@@ -15018,10 +15018,10 @@
         <v>-1.6328</v>
       </c>
       <c r="AJ82" t="n">
-        <v>-60</v>
+        <v>40</v>
       </c>
       <c r="AK82" t="n">
-        <v>-12.7302</v>
+        <v>87.2698</v>
       </c>
       <c r="AL82" t="n">
         <v>55.4071</v>
@@ -15147,7 +15147,7 @@
         <v>3.5081</v>
       </c>
       <c r="U83" t="n">
-        <v>91.7993</v>
+        <v>-8.2007</v>
       </c>
       <c r="V83" t="n">
         <v>11.3708</v>
@@ -15156,7 +15156,7 @@
         <v>5.3578</v>
       </c>
       <c r="X83" t="n">
-        <v>-1.9216</v>
+        <v>-0.0192</v>
       </c>
       <c r="Y83" t="n">
         <v>73.1271</v>
@@ -15171,7 +15171,7 @@
         <v>0.8663</v>
       </c>
       <c r="AC83" t="n">
-        <v>-24.85</v>
+        <v>75.15</v>
       </c>
       <c r="AD83" t="n">
         <v>-3.3806</v>
@@ -15192,10 +15192,10 @@
         <v>-5.5183</v>
       </c>
       <c r="AJ83" t="n">
-        <v>-67.5</v>
+        <v>32.5</v>
       </c>
       <c r="AK83" t="n">
-        <v>-7.0962</v>
+        <v>92.9038</v>
       </c>
       <c r="AL83" t="n">
         <v>63.9304</v>
@@ -15321,7 +15321,7 @@
         <v>4.4179</v>
       </c>
       <c r="U84" t="n">
-        <v>84.8769</v>
+        <v>-15.123</v>
       </c>
       <c r="V84" t="n">
         <v>11.8415</v>
@@ -15330,7 +15330,7 @@
         <v>5.0706</v>
       </c>
       <c r="X84" t="n">
-        <v>-0.1402</v>
+        <v>-0.0014</v>
       </c>
       <c r="Y84" t="n">
         <v>66.8781</v>
@@ -15345,7 +15345,7 @@
         <v>0.8278</v>
       </c>
       <c r="AC84" t="n">
-        <v>-25.49</v>
+        <v>74.51</v>
       </c>
       <c r="AD84" t="n">
         <v>-4.3627</v>
@@ -15366,10 +15366,10 @@
         <v>-7.4195</v>
       </c>
       <c r="AJ84" t="n">
-        <v>-52.7</v>
+        <v>47.3</v>
       </c>
       <c r="AK84" t="n">
-        <v>-11.7635</v>
+        <v>88.2365</v>
       </c>
       <c r="AL84" t="n">
         <v>64.5047</v>
@@ -15497,7 +15497,7 @@
         <v>3.5231</v>
       </c>
       <c r="U85" t="n">
-        <v>89.1658</v>
+        <v>-10.8342</v>
       </c>
       <c r="V85" t="n">
         <v>10.657</v>
@@ -15506,7 +15506,7 @@
         <v>5.1531</v>
       </c>
       <c r="X85" t="n">
-        <v>-2.2442</v>
+        <v>-0.0224</v>
       </c>
       <c r="Y85" t="n">
         <v>72.3929</v>
@@ -15521,7 +15521,7 @@
         <v>0.741</v>
       </c>
       <c r="AC85" t="n">
-        <v>-25.07</v>
+        <v>74.93</v>
       </c>
       <c r="AD85" t="n">
         <v>-3.5896</v>
@@ -15542,10 +15542,10 @@
         <v>-4.5133</v>
       </c>
       <c r="AJ85" t="n">
-        <v>-66.3</v>
+        <v>33.7</v>
       </c>
       <c r="AK85" t="n">
-        <v>-5.8112</v>
+        <v>94.1888</v>
       </c>
       <c r="AL85" t="n">
         <v>57.1576</v>
@@ -15673,7 +15673,7 @@
         <v>3.989</v>
       </c>
       <c r="U86" t="n">
-        <v>88.5199</v>
+        <v>-11.4801</v>
       </c>
       <c r="V86" t="n">
         <v>11.0864</v>
@@ -15682,7 +15682,7 @@
         <v>5.0183</v>
       </c>
       <c r="X86" t="n">
-        <v>-1.0424</v>
+        <v>-0.0104</v>
       </c>
       <c r="Y86" t="n">
         <v>70.8899</v>
@@ -15697,7 +15697,7 @@
         <v>0.2472</v>
       </c>
       <c r="AC86" t="n">
-        <v>-25</v>
+        <v>75</v>
       </c>
       <c r="AD86" t="n">
         <v>-5.836</v>
@@ -15718,10 +15718,10 @@
         <v>-13.0754</v>
       </c>
       <c r="AJ86" t="n">
-        <v>-52.5</v>
+        <v>47.5</v>
       </c>
       <c r="AK86" t="n">
-        <v>-12.2132</v>
+        <v>87.7868</v>
       </c>
       <c r="AL86" t="n">
         <v>63.1395</v>
@@ -15849,7 +15849,7 @@
         <v>3.8146</v>
       </c>
       <c r="U87" t="n">
-        <v>91.5988</v>
+        <v>-8.4012</v>
       </c>
       <c r="V87" t="n">
         <v>10.5266</v>
@@ -15858,7 +15858,7 @@
         <v>5.22</v>
       </c>
       <c r="X87" t="n">
-        <v>-3.1002</v>
+        <v>-0.031</v>
       </c>
       <c r="Y87" t="n">
         <v>79.3293</v>
@@ -15873,7 +15873,7 @@
         <v>0.9039</v>
       </c>
       <c r="AC87" t="n">
-        <v>-24.39</v>
+        <v>75.61</v>
       </c>
       <c r="AD87" t="n">
         <v>-5.023</v>
@@ -15894,10 +15894,10 @@
         <v>-2.2752</v>
       </c>
       <c r="AJ87" t="n">
-        <v>-49.1</v>
+        <v>50.9</v>
       </c>
       <c r="AK87" t="n">
-        <v>-8.2531</v>
+        <v>91.7469</v>
       </c>
       <c r="AL87" t="n">
         <v>70.4167</v>
@@ -16025,7 +16025,7 @@
         <v>4.9862</v>
       </c>
       <c r="U88" t="n">
-        <v>82.0508</v>
+        <v>-17.9492</v>
       </c>
       <c r="V88" t="n">
         <v>12.9929</v>
@@ -16034,7 +16034,7 @@
         <v>5.6867</v>
       </c>
       <c r="X88" t="n">
-        <v>-2.8716</v>
+        <v>-0.0287</v>
       </c>
       <c r="Y88" t="n">
         <v>55.3405</v>
@@ -16049,7 +16049,7 @@
         <v>-0.3933</v>
       </c>
       <c r="AC88" t="n">
-        <v>-26.21</v>
+        <v>73.79</v>
       </c>
       <c r="AD88" t="n">
         <v>-3.1677</v>
@@ -16070,10 +16070,10 @@
         <v>-31.0787</v>
       </c>
       <c r="AJ88" t="n">
-        <v>-68</v>
+        <v>32</v>
       </c>
       <c r="AK88" t="n">
-        <v>-10.7582</v>
+        <v>89.2418</v>
       </c>
       <c r="AL88" t="n">
         <v>60.6043</v>
@@ -16201,7 +16201,7 @@
         <v>4.7674</v>
       </c>
       <c r="U89" t="n">
-        <v>87.4224</v>
+        <v>-12.5776</v>
       </c>
       <c r="V89" t="n">
         <v>12.2662</v>
@@ -16210,7 +16210,7 @@
         <v>6.0605</v>
       </c>
       <c r="X89" t="n">
-        <v>-0.6391</v>
+        <v>-0.0064</v>
       </c>
       <c r="Y89" t="n">
         <v>63.6644</v>
@@ -16225,7 +16225,7 @@
         <v>-0.0678</v>
       </c>
       <c r="AC89" t="n">
-        <v>-25.52</v>
+        <v>74.48</v>
       </c>
       <c r="AD89" t="n">
         <v>-4.7089</v>
@@ -16246,10 +16246,10 @@
         <v>-14.0272</v>
       </c>
       <c r="AJ89" t="n">
-        <v>-70.3</v>
+        <v>29.7</v>
       </c>
       <c r="AK89" t="n">
-        <v>-12.2081</v>
+        <v>87.7919</v>
       </c>
       <c r="AL89" t="n">
         <v>55.8399</v>
@@ -16377,7 +16377,7 @@
         <v>4.1228</v>
       </c>
       <c r="U90" t="n">
-        <v>90.2962</v>
+        <v>-9.7038</v>
       </c>
       <c r="V90" t="n">
         <v>11.678</v>
@@ -16386,7 +16386,7 @@
         <v>5.4558</v>
       </c>
       <c r="X90" t="n">
-        <v>-0.3099</v>
+        <v>-0.0031</v>
       </c>
       <c r="Y90" t="n">
         <v>77.8616</v>
@@ -16401,7 +16401,7 @@
         <v>0.8067</v>
       </c>
       <c r="AC90" t="n">
-        <v>-24.67</v>
+        <v>75.33</v>
       </c>
       <c r="AD90" t="n">
         <v>-6.3539</v>
@@ -16422,10 +16422,10 @@
         <v>-2.3603</v>
       </c>
       <c r="AJ90" t="n">
-        <v>-45.3</v>
+        <v>54.7</v>
       </c>
       <c r="AK90" t="n">
-        <v>-6.7742</v>
+        <v>93.2258</v>
       </c>
       <c r="AL90" t="n">
         <v>56.8524</v>
@@ -16553,7 +16553,7 @@
         <v>3.5292</v>
       </c>
       <c r="U91" t="n">
-        <v>89.8882</v>
+        <v>-10.1118</v>
       </c>
       <c r="V91" t="n">
         <v>11.3687</v>
@@ -16562,7 +16562,7 @@
         <v>5.2784</v>
       </c>
       <c r="X91" t="n">
-        <v>-2.4199</v>
+        <v>-0.0242</v>
       </c>
       <c r="Y91" t="n">
         <v>78.7696</v>
@@ -16577,7 +16577,7 @@
         <v>-0.9018</v>
       </c>
       <c r="AC91" t="n">
-        <v>-24.83</v>
+        <v>75.17</v>
       </c>
       <c r="AD91" t="n">
         <v>-8.4093</v>
@@ -16598,10 +16598,10 @@
         <v>-10.9801</v>
       </c>
       <c r="AJ91" t="n">
-        <v>-68.1</v>
+        <v>31.9</v>
       </c>
       <c r="AK91" t="n">
-        <v>-2.4074</v>
+        <v>97.5926</v>
       </c>
       <c r="AL91" t="n">
         <v>53.7459</v>
@@ -16729,7 +16729,7 @@
         <v>4.5774</v>
       </c>
       <c r="U92" t="n">
-        <v>87.8142</v>
+        <v>-12.1858</v>
       </c>
       <c r="V92" t="n">
         <v>11.4615</v>
@@ -16738,7 +16738,7 @@
         <v>6.0997</v>
       </c>
       <c r="X92" t="n">
-        <v>-0.6912</v>
+        <v>-0.0069</v>
       </c>
       <c r="Y92" t="n">
         <v>67.2412</v>
@@ -16753,7 +16753,7 @@
         <v>0.9275</v>
       </c>
       <c r="AC92" t="n">
-        <v>-25.46</v>
+        <v>74.54</v>
       </c>
       <c r="AD92" t="n">
         <v>-7.0978</v>
@@ -16774,10 +16774,10 @@
         <v>-20.241</v>
       </c>
       <c r="AJ92" t="n">
-        <v>-56.4</v>
+        <v>43.6</v>
       </c>
       <c r="AK92" t="n">
-        <v>-10.8303</v>
+        <v>89.1697</v>
       </c>
       <c r="AL92" t="n">
         <v>58.588</v>
@@ -16905,7 +16905,7 @@
         <v>3.53</v>
       </c>
       <c r="U93" t="n">
-        <v>90.3969</v>
+        <v>-9.6031</v>
       </c>
       <c r="V93" t="n">
         <v>10.6795</v>
@@ -16914,7 +16914,7 @@
         <v>5.3044</v>
       </c>
       <c r="X93" t="n">
-        <v>-1.6616</v>
+        <v>-0.0166</v>
       </c>
       <c r="Y93" t="n">
         <v>80.6497</v>
@@ -16929,7 +16929,7 @@
         <v>0.7016</v>
       </c>
       <c r="AC93" t="n">
-        <v>-25.22</v>
+        <v>74.78</v>
       </c>
       <c r="AD93" t="n">
         <v>-5.4591</v>
@@ -16950,10 +16950,10 @@
         <v>-7.4014</v>
       </c>
       <c r="AJ93" t="n">
-        <v>-48.4</v>
+        <v>51.6</v>
       </c>
       <c r="AK93" t="n">
-        <v>-13.3207</v>
+        <v>86.6793</v>
       </c>
       <c r="AL93" t="n">
         <v>77.4938</v>
@@ -17081,7 +17081,7 @@
         <v>3.3342</v>
       </c>
       <c r="U94" t="n">
-        <v>90.903</v>
+        <v>-9.097</v>
       </c>
       <c r="V94" t="n">
         <v>10.7263</v>
@@ -17090,7 +17090,7 @@
         <v>5.1282</v>
       </c>
       <c r="X94" t="n">
-        <v>-2.1911</v>
+        <v>-0.0219</v>
       </c>
       <c r="Y94" t="n">
         <v>90.6785</v>
@@ -17105,7 +17105,7 @@
         <v>0.9307</v>
       </c>
       <c r="AC94" t="n">
-        <v>-24.94</v>
+        <v>75.06</v>
       </c>
       <c r="AD94" t="n">
         <v>-8.9135</v>
@@ -17126,10 +17126,10 @@
         <v>-5.9209</v>
       </c>
       <c r="AJ94" t="n">
-        <v>-66.4</v>
+        <v>33.6</v>
       </c>
       <c r="AK94" t="n">
-        <v>-10.8334</v>
+        <v>89.1666</v>
       </c>
       <c r="AL94" t="n">
         <v>69.6197</v>
@@ -17257,7 +17257,7 @@
         <v>5.0652</v>
       </c>
       <c r="U95" t="n">
-        <v>88.4967</v>
+        <v>-11.5033</v>
       </c>
       <c r="V95" t="n">
         <v>11.8694</v>
@@ -17266,7 +17266,7 @@
         <v>5.4505</v>
       </c>
       <c r="X95" t="n">
-        <v>-3.5683</v>
+        <v>-0.0357</v>
       </c>
       <c r="Y95" t="n">
         <v>71.9494</v>
@@ -17281,7 +17281,7 @@
         <v>0.8764</v>
       </c>
       <c r="AC95" t="n">
-        <v>-25.3</v>
+        <v>74.7</v>
       </c>
       <c r="AD95" t="n">
         <v>-4.3427</v>
@@ -17302,10 +17302,10 @@
         <v>-32.0704</v>
       </c>
       <c r="AJ95" t="n">
-        <v>-79.5</v>
+        <v>20.5</v>
       </c>
       <c r="AK95" t="n">
-        <v>-14.9718</v>
+        <v>85.0282</v>
       </c>
       <c r="AL95" t="n">
         <v>70.5485</v>
@@ -17433,7 +17433,7 @@
         <v>3.3908</v>
       </c>
       <c r="U96" t="n">
-        <v>91.0938</v>
+        <v>-8.9062</v>
       </c>
       <c r="V96" t="n">
         <v>10.8783</v>
@@ -17442,7 +17442,7 @@
         <v>4.8867</v>
       </c>
       <c r="X96" t="n">
-        <v>-1.3498</v>
+        <v>-0.0135</v>
       </c>
       <c r="Y96" t="n">
         <v>77.5988</v>
@@ -17457,7 +17457,7 @@
         <v>0.5994</v>
       </c>
       <c r="AC96" t="n">
-        <v>-25.1</v>
+        <v>74.9</v>
       </c>
       <c r="AD96" t="n">
         <v>-4.4391</v>
@@ -17478,10 +17478,10 @@
         <v>-10.1256</v>
       </c>
       <c r="AJ96" t="n">
-        <v>-57.7</v>
+        <v>42.3</v>
       </c>
       <c r="AK96" t="n">
-        <v>-17.646</v>
+        <v>82.354</v>
       </c>
       <c r="AL96" t="n">
         <v>57.3637</v>
@@ -17609,7 +17609,7 @@
         <v>3.9795</v>
       </c>
       <c r="U97" t="n">
-        <v>90.2951</v>
+        <v>-9.7049</v>
       </c>
       <c r="V97" t="n">
         <v>11.5576</v>
@@ -17618,7 +17618,7 @@
         <v>5.72</v>
       </c>
       <c r="X97" t="n">
-        <v>-4.649</v>
+        <v>-0.0465</v>
       </c>
       <c r="Y97" t="n">
         <v>65.2576</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="AC97" t="n">
-        <v>-25.05</v>
+        <v>74.95</v>
       </c>
       <c r="AD97" t="n">
         <v>-4.1311</v>
@@ -17654,10 +17654,10 @@
         <v>-3.3562</v>
       </c>
       <c r="AJ97" t="n">
-        <v>-55.9</v>
+        <v>44.1</v>
       </c>
       <c r="AK97" t="n">
-        <v>-8.6483</v>
+        <v>91.3517</v>
       </c>
       <c r="AL97" t="n">
         <v>74.132</v>
@@ -17785,7 +17785,7 @@
         <v>3.3538</v>
       </c>
       <c r="U98" t="n">
-        <v>84.7758</v>
+        <v>-15.2242</v>
       </c>
       <c r="V98" t="n">
         <v>10.497</v>
@@ -17794,7 +17794,7 @@
         <v>5.092</v>
       </c>
       <c r="X98" t="n">
-        <v>-4.1382</v>
+        <v>-0.0414</v>
       </c>
       <c r="Y98" t="n">
         <v>64.1815</v>
@@ -17809,7 +17809,7 @@
         <v>-0.1042</v>
       </c>
       <c r="AC98" t="n">
-        <v>-25.8</v>
+        <v>74.2</v>
       </c>
       <c r="AD98" t="n">
         <v>-2.5904</v>
@@ -17830,10 +17830,10 @@
         <v>-22.7174</v>
       </c>
       <c r="AJ98" t="n">
-        <v>-65.6</v>
+        <v>34.4</v>
       </c>
       <c r="AK98" t="n">
-        <v>-11.4035</v>
+        <v>88.5965</v>
       </c>
       <c r="AL98" t="n">
         <v>59.4123</v>
@@ -17961,7 +17961,7 @@
         <v>3.9053</v>
       </c>
       <c r="U99" t="n">
-        <v>87.9254</v>
+        <v>-12.0746</v>
       </c>
       <c r="V99" t="n">
         <v>10.4373</v>
@@ -17970,7 +17970,7 @@
         <v>5.2645</v>
       </c>
       <c r="X99" t="n">
-        <v>-3.3291</v>
+        <v>-0.0333</v>
       </c>
       <c r="Y99" t="n">
         <v>75.9672</v>
@@ -17985,7 +17985,7 @@
         <v>0.6712</v>
       </c>
       <c r="AC99" t="n">
-        <v>-25.67</v>
+        <v>74.33</v>
       </c>
       <c r="AD99" t="n">
         <v>-8.7524</v>
@@ -18006,10 +18006,10 @@
         <v>-16.1478</v>
       </c>
       <c r="AJ99" t="n">
-        <v>-40.8</v>
+        <v>59.2</v>
       </c>
       <c r="AK99" t="n">
-        <v>-2.2373</v>
+        <v>97.7627</v>
       </c>
       <c r="AL99" t="n">
         <v>74.2825</v>
@@ -18137,7 +18137,7 @@
         <v>4.6658</v>
       </c>
       <c r="U100" t="n">
-        <v>89.2294</v>
+        <v>-10.7706</v>
       </c>
       <c r="V100" t="n">
         <v>12.1434</v>
@@ -18146,7 +18146,7 @@
         <v>5.4976</v>
       </c>
       <c r="X100" t="n">
-        <v>-2.8228</v>
+        <v>-0.0282</v>
       </c>
       <c r="Y100" t="n">
         <v>64.5668</v>
@@ -18161,7 +18161,7 @@
         <v>0.5005</v>
       </c>
       <c r="AC100" t="n">
-        <v>-25.31</v>
+        <v>74.69</v>
       </c>
       <c r="AD100" t="n">
         <v>-6.688</v>
@@ -18182,10 +18182,10 @@
         <v>-17.8121</v>
       </c>
       <c r="AJ100" t="n">
-        <v>-63.5</v>
+        <v>36.5</v>
       </c>
       <c r="AK100" t="n">
-        <v>-14.796</v>
+        <v>85.204</v>
       </c>
       <c r="AL100" t="n">
         <v>57.0733</v>
@@ -18313,7 +18313,7 @@
         <v>3.9026</v>
       </c>
       <c r="U101" t="n">
-        <v>89.1684</v>
+        <v>-10.8316</v>
       </c>
       <c r="V101" t="n">
         <v>11.1868</v>
@@ -18322,7 +18322,7 @@
         <v>5.2153</v>
       </c>
       <c r="X101" t="n">
-        <v>-2.4028</v>
+        <v>-0.024</v>
       </c>
       <c r="Y101" t="n">
         <v>74.5036</v>
@@ -18337,7 +18337,7 @@
         <v>0.5675</v>
       </c>
       <c r="AC101" t="n">
-        <v>-25</v>
+        <v>75</v>
       </c>
       <c r="AD101" t="n">
         <v>-5.4322</v>
@@ -18358,10 +18358,10 @@
         <v>-10.34</v>
       </c>
       <c r="AJ101" t="n">
-        <v>-62</v>
+        <v>38</v>
       </c>
       <c r="AK101" t="n">
-        <v>-13.4524</v>
+        <v>86.5476</v>
       </c>
       <c r="AL101" t="n">
         <v>72.8784</v>
@@ -18489,7 +18489,7 @@
         <v>3.8905</v>
       </c>
       <c r="U102" t="n">
-        <v>90.8901</v>
+        <v>-9.1099</v>
       </c>
       <c r="V102" t="n">
         <v>11.2856</v>
@@ -18498,7 +18498,7 @@
         <v>5.2474</v>
       </c>
       <c r="X102" t="n">
-        <v>-1.738</v>
+        <v>-0.0174</v>
       </c>
       <c r="Y102" t="n">
         <v>79.8234</v>
@@ -18513,7 +18513,7 @@
         <v>0.9284</v>
       </c>
       <c r="AC102" t="n">
-        <v>-24.3</v>
+        <v>75.7</v>
       </c>
       <c r="AD102" t="n">
         <v>-10.0301</v>
@@ -18534,10 +18534,10 @@
         <v>-0.8571</v>
       </c>
       <c r="AJ102" t="n">
-        <v>-41.7</v>
+        <v>58.3</v>
       </c>
       <c r="AK102" t="n">
-        <v>-11.0862</v>
+        <v>88.9138</v>
       </c>
       <c r="AL102" t="n">
         <v>84.1839</v>
@@ -18665,7 +18665,7 @@
         <v>3.2196</v>
       </c>
       <c r="U103" t="n">
-        <v>91.5882</v>
+        <v>-8.4118</v>
       </c>
       <c r="V103" t="n">
         <v>11.054</v>
@@ -18674,7 +18674,7 @@
         <v>5.1568</v>
       </c>
       <c r="X103" t="n">
-        <v>-2.7852</v>
+        <v>-0.0279</v>
       </c>
       <c r="Y103" t="n">
         <v>85.1086</v>
@@ -18689,7 +18689,7 @@
         <v>0.432</v>
       </c>
       <c r="AC103" t="n">
-        <v>-24.24</v>
+        <v>75.76</v>
       </c>
       <c r="AD103" t="n">
         <v>-5.5094</v>
@@ -18710,10 +18710,10 @@
         <v>-2.7115</v>
       </c>
       <c r="AJ103" t="n">
-        <v>-58.2</v>
+        <v>41.8</v>
       </c>
       <c r="AK103" t="n">
-        <v>-11.4113</v>
+        <v>88.5888</v>
       </c>
       <c r="AL103" t="n">
         <v>73.7216</v>
@@ -18841,7 +18841,7 @@
         <v>3.6926</v>
       </c>
       <c r="U104" t="n">
-        <v>92.2137</v>
+        <v>-7.7863</v>
       </c>
       <c r="V104" t="n">
         <v>10.7212</v>
@@ -18850,7 +18850,7 @@
         <v>4.9615</v>
       </c>
       <c r="X104" t="n">
-        <v>-4.7622</v>
+        <v>-0.0476</v>
       </c>
       <c r="Y104" t="n">
         <v>82.9168</v>
@@ -18865,7 +18865,7 @@
         <v>-0.5558</v>
       </c>
       <c r="AC104" t="n">
-        <v>-24.36</v>
+        <v>75.64</v>
       </c>
       <c r="AD104" t="n">
         <v>-7.3902</v>
@@ -18886,10 +18886,10 @@
         <v>-1.717</v>
       </c>
       <c r="AJ104" t="n">
-        <v>-53.2</v>
+        <v>46.8</v>
       </c>
       <c r="AK104" t="n">
-        <v>-7.1741</v>
+        <v>92.8259</v>
       </c>
       <c r="AL104" t="n">
         <v>72.565</v>
@@ -19017,7 +19017,7 @@
         <v>4.0071</v>
       </c>
       <c r="U105" t="n">
-        <v>88.0139</v>
+        <v>-11.986</v>
       </c>
       <c r="V105" t="n">
         <v>10.3768</v>
@@ -19026,7 +19026,7 @@
         <v>4.7452</v>
       </c>
       <c r="X105" t="n">
-        <v>-3.7418</v>
+        <v>-0.0374</v>
       </c>
       <c r="Y105" t="n">
         <v>72.7993</v>
@@ -19041,7 +19041,7 @@
         <v>-1.2743</v>
       </c>
       <c r="AC105" t="n">
-        <v>-25.48</v>
+        <v>74.52</v>
       </c>
       <c r="AD105" t="n">
         <v>-7.1331</v>
@@ -19062,10 +19062,10 @@
         <v>-20.9179</v>
       </c>
       <c r="AJ105" t="n">
-        <v>-55.7</v>
+        <v>44.3</v>
       </c>
       <c r="AK105" t="n">
-        <v>-9.312</v>
+        <v>90.688</v>
       </c>
       <c r="AL105" t="n">
         <v>72.2142</v>
@@ -19193,7 +19193,7 @@
         <v>4.1003</v>
       </c>
       <c r="U106" t="n">
-        <v>91.5156</v>
+        <v>-8.4844</v>
       </c>
       <c r="V106" t="n">
         <v>10.7642</v>
@@ -19202,7 +19202,7 @@
         <v>4.959</v>
       </c>
       <c r="X106" t="n">
-        <v>-4.0222</v>
+        <v>-0.0402</v>
       </c>
       <c r="Y106" t="n">
         <v>77.5083</v>
@@ -19217,7 +19217,7 @@
         <v>-0.5006</v>
       </c>
       <c r="AC106" t="n">
-        <v>-24.52</v>
+        <v>75.48</v>
       </c>
       <c r="AD106" t="n">
         <v>-6.8965</v>
@@ -19238,10 +19238,10 @@
         <v>-4.7546</v>
       </c>
       <c r="AJ106" t="n">
-        <v>-44.6</v>
+        <v>55.4</v>
       </c>
       <c r="AK106" t="n">
-        <v>-12.6982</v>
+        <v>87.3018</v>
       </c>
       <c r="AL106" t="n">
         <v>72.5333</v>
@@ -19369,7 +19369,7 @@
         <v>3.27</v>
       </c>
       <c r="U107" t="n">
-        <v>90.006</v>
+        <v>-9.994</v>
       </c>
       <c r="V107" t="n">
         <v>10.0951</v>
@@ -19378,7 +19378,7 @@
         <v>4.9221</v>
       </c>
       <c r="X107" t="n">
-        <v>-2.0625</v>
+        <v>-0.0206</v>
       </c>
       <c r="Y107" t="n">
         <v>79.29</v>
@@ -19393,7 +19393,7 @@
         <v>0.2109</v>
       </c>
       <c r="AC107" t="n">
-        <v>-24.7</v>
+        <v>75.3</v>
       </c>
       <c r="AD107" t="n">
         <v>-6.7076</v>
@@ -19414,10 +19414,10 @@
         <v>-2.3983</v>
       </c>
       <c r="AJ107" t="n">
-        <v>-44.5</v>
+        <v>55.5</v>
       </c>
       <c r="AK107" t="n">
-        <v>-8.0905</v>
+        <v>91.9095</v>
       </c>
       <c r="AL107" t="n">
         <v>80.2968</v>
@@ -19545,7 +19545,7 @@
         <v>5.3683</v>
       </c>
       <c r="U108" t="n">
-        <v>78.5208</v>
+        <v>-21.4792</v>
       </c>
       <c r="V108" t="n">
         <v>14.09</v>
@@ -19554,7 +19554,7 @@
         <v>5.5866</v>
       </c>
       <c r="X108" t="n">
-        <v>-6.6668</v>
+        <v>-0.0667</v>
       </c>
       <c r="Y108" t="n">
         <v>59.477</v>
@@ -19569,7 +19569,7 @@
         <v>0.7843</v>
       </c>
       <c r="AC108" t="n">
-        <v>-25.95</v>
+        <v>74.05</v>
       </c>
       <c r="AD108" t="n">
         <v>-2.642</v>
@@ -19590,10 +19590,10 @@
         <v>-29.4244</v>
       </c>
       <c r="AJ108" t="n">
-        <v>-71.9</v>
+        <v>28.1</v>
       </c>
       <c r="AK108" t="n">
-        <v>-26.4726</v>
+        <v>73.5274</v>
       </c>
       <c r="AL108" t="n">
         <v>59.7273</v>
@@ -19721,7 +19721,7 @@
         <v>3.3335</v>
       </c>
       <c r="U109" t="n">
-        <v>91.9938</v>
+        <v>-8.0062</v>
       </c>
       <c r="V109" t="n">
         <v>11.3845</v>
@@ -19730,7 +19730,7 @@
         <v>5.0248</v>
       </c>
       <c r="X109" t="n">
-        <v>-0.1357</v>
+        <v>-0.0014</v>
       </c>
       <c r="Y109" t="n">
         <v>78.3275</v>
@@ -19745,7 +19745,7 @@
         <v>0.7049</v>
       </c>
       <c r="AC109" t="n">
-        <v>-24.8</v>
+        <v>75.2</v>
       </c>
       <c r="AD109" t="n">
         <v>-9.7908</v>
@@ -19766,10 +19766,10 @@
         <v>-5.7997</v>
       </c>
       <c r="AJ109" t="n">
-        <v>-59.3</v>
+        <v>40.7</v>
       </c>
       <c r="AK109" t="n">
-        <v>-21.4877</v>
+        <v>78.5123</v>
       </c>
       <c r="AL109" t="n">
         <v>72.9734</v>
@@ -19897,7 +19897,7 @@
         <v>3.2079</v>
       </c>
       <c r="U110" t="n">
-        <v>94.5925</v>
+        <v>-5.4075</v>
       </c>
       <c r="V110" t="n">
         <v>9.2817</v>
@@ -19906,7 +19906,7 @@
         <v>5.0189</v>
       </c>
       <c r="X110" t="n">
-        <v>-3.0027</v>
+        <v>-0.03</v>
       </c>
       <c r="Y110" t="n">
         <v>81.867</v>
@@ -19921,7 +19921,7 @@
         <v>0.5576</v>
       </c>
       <c r="AC110" t="n">
-        <v>-23.59</v>
+        <v>76.41</v>
       </c>
       <c r="AD110" t="n">
         <v>-2.5107</v>
@@ -19942,10 +19942,10 @@
         <v>-0.0733</v>
       </c>
       <c r="AJ110" t="n">
-        <v>-73.2</v>
+        <v>26.8</v>
       </c>
       <c r="AK110" t="n">
-        <v>-8.2804</v>
+        <v>91.7196</v>
       </c>
       <c r="AL110" t="n">
         <v>82.4773</v>
@@ -20073,7 +20073,7 @@
         <v>3.9321</v>
       </c>
       <c r="U111" t="n">
-        <v>90.5807</v>
+        <v>-9.4193</v>
       </c>
       <c r="V111" t="n">
         <v>11.8534</v>
@@ -20082,7 +20082,7 @@
         <v>5.2614</v>
       </c>
       <c r="X111" t="n">
-        <v>-1.3587</v>
+        <v>-0.0136</v>
       </c>
       <c r="Y111" t="n">
         <v>75.655</v>
@@ -20097,7 +20097,7 @@
         <v>1</v>
       </c>
       <c r="AC111" t="n">
-        <v>-25.08</v>
+        <v>74.92</v>
       </c>
       <c r="AD111" t="n">
         <v>-6.6432</v>
@@ -20118,10 +20118,10 @@
         <v>-11.7353</v>
       </c>
       <c r="AJ111" t="n">
-        <v>-51.2</v>
+        <v>48.8</v>
       </c>
       <c r="AK111" t="n">
-        <v>-20.2925</v>
+        <v>79.7075</v>
       </c>
       <c r="AL111" t="n">
         <v>79.9183</v>
@@ -20249,7 +20249,7 @@
         <v>4.159</v>
       </c>
       <c r="U112" t="n">
-        <v>87.7615</v>
+        <v>-12.2385</v>
       </c>
       <c r="V112" t="n">
         <v>11.6104</v>
@@ -20258,7 +20258,7 @@
         <v>5.4231</v>
       </c>
       <c r="X112" t="n">
-        <v>-1.586</v>
+        <v>-0.0159</v>
       </c>
       <c r="Y112" t="n">
         <v>70.2429</v>
@@ -20273,7 +20273,7 @@
         <v>0.5913</v>
       </c>
       <c r="AC112" t="n">
-        <v>-24.99</v>
+        <v>75.01</v>
       </c>
       <c r="AD112" t="n">
         <v>-8.2391</v>
@@ -20294,10 +20294,10 @@
         <v>-3.0309</v>
       </c>
       <c r="AJ112" t="n">
-        <v>-65.9</v>
+        <v>34.1</v>
       </c>
       <c r="AK112" t="n">
-        <v>-13.1782</v>
+        <v>86.8218</v>
       </c>
       <c r="AL112" t="n">
         <v>76.9412</v>
@@ -20425,7 +20425,7 @@
         <v>5.1728</v>
       </c>
       <c r="U113" t="n">
-        <v>81.4315</v>
+        <v>-18.5685</v>
       </c>
       <c r="V113" t="n">
         <v>12.5684</v>
@@ -20434,7 +20434,7 @@
         <v>5.7267</v>
       </c>
       <c r="X113" t="n">
-        <v>-2.0343</v>
+        <v>-0.0203</v>
       </c>
       <c r="Y113" t="n">
         <v>60.489</v>
@@ -20449,7 +20449,7 @@
         <v>0.0633</v>
       </c>
       <c r="AC113" t="n">
-        <v>-26.96</v>
+        <v>73.04</v>
       </c>
       <c r="AD113" t="n">
         <v>-1.7357</v>
@@ -20470,10 +20470,10 @@
         <v>-31.151</v>
       </c>
       <c r="AJ113" t="n">
-        <v>-66.7</v>
+        <v>33.3</v>
       </c>
       <c r="AK113" t="n">
-        <v>-17.1108</v>
+        <v>82.8892</v>
       </c>
       <c r="AL113" t="n">
         <v>56.1357</v>
@@ -20601,7 +20601,7 @@
         <v>4.0073</v>
       </c>
       <c r="U114" t="n">
-        <v>87.5747</v>
+        <v>-12.4253</v>
       </c>
       <c r="V114" t="n">
         <v>11.7176</v>
@@ -20610,7 +20610,7 @@
         <v>5.759</v>
       </c>
       <c r="X114" t="n">
-        <v>-2.2628</v>
+        <v>-0.0226</v>
       </c>
       <c r="Y114" t="n">
         <v>68.0793</v>
@@ -20625,7 +20625,7 @@
         <v>0.7678</v>
       </c>
       <c r="AC114" t="n">
-        <v>-25.12</v>
+        <v>74.88</v>
       </c>
       <c r="AD114" t="n">
         <v>-3.6161</v>
@@ -20646,10 +20646,10 @@
         <v>-16.1882</v>
       </c>
       <c r="AJ114" t="n">
-        <v>-52.7</v>
+        <v>47.3</v>
       </c>
       <c r="AK114" t="n">
-        <v>-17.7748</v>
+        <v>82.2252</v>
       </c>
       <c r="AL114" t="n">
         <v>69.7525</v>
@@ -20777,7 +20777,7 @@
         <v>3.9401</v>
       </c>
       <c r="U115" t="n">
-        <v>89.4853</v>
+        <v>-10.5147</v>
       </c>
       <c r="V115" t="n">
         <v>11.3149</v>
@@ -20786,7 +20786,7 @@
         <v>5.0728</v>
       </c>
       <c r="X115" t="n">
-        <v>-1.7649</v>
+        <v>-0.0176</v>
       </c>
       <c r="Y115" t="n">
         <v>82.1744</v>
@@ -20801,7 +20801,7 @@
         <v>0.7573</v>
       </c>
       <c r="AC115" t="n">
-        <v>-24.71</v>
+        <v>75.29</v>
       </c>
       <c r="AD115" t="n">
         <v>-7.6466</v>
@@ -20822,10 +20822,10 @@
         <v>-1.6328</v>
       </c>
       <c r="AJ115" t="n">
-        <v>-60</v>
+        <v>40</v>
       </c>
       <c r="AK115" t="n">
-        <v>-14.7044</v>
+        <v>85.2956</v>
       </c>
       <c r="AL115" t="n">
         <v>82.4456</v>
@@ -20953,7 +20953,7 @@
         <v>3.4161</v>
       </c>
       <c r="U116" t="n">
-        <v>91.9477</v>
+        <v>-8.0523</v>
       </c>
       <c r="V116" t="n">
         <v>11.11</v>
@@ -20962,7 +20962,7 @@
         <v>5.2713</v>
       </c>
       <c r="X116" t="n">
-        <v>-1.9299</v>
+        <v>-0.0193</v>
       </c>
       <c r="Y116" t="n">
         <v>75.1161</v>
@@ -20977,7 +20977,7 @@
         <v>0.8886</v>
       </c>
       <c r="AC116" t="n">
-        <v>-24.73</v>
+        <v>75.27</v>
       </c>
       <c r="AD116" t="n">
         <v>-3.4239</v>
@@ -20998,10 +20998,10 @@
         <v>-5.5183</v>
       </c>
       <c r="AJ116" t="n">
-        <v>-67.5</v>
+        <v>32.5</v>
       </c>
       <c r="AK116" t="n">
-        <v>-12.7833</v>
+        <v>87.2167</v>
       </c>
       <c r="AL116" t="n">
         <v>65.1808</v>
@@ -21129,7 +21129,7 @@
         <v>4.4665</v>
       </c>
       <c r="U117" t="n">
-        <v>86.5116</v>
+        <v>-13.4884</v>
       </c>
       <c r="V117" t="n">
         <v>11.6446</v>
@@ -21138,7 +21138,7 @@
         <v>4.9889</v>
       </c>
       <c r="X117" t="n">
-        <v>-0.2651</v>
+        <v>-0.0027</v>
       </c>
       <c r="Y117" t="n">
         <v>72.6955</v>
@@ -21153,7 +21153,7 @@
         <v>0.7057</v>
       </c>
       <c r="AC117" t="n">
-        <v>-25.36</v>
+        <v>74.64</v>
       </c>
       <c r="AD117" t="n">
         <v>-5.1498</v>
@@ -21174,10 +21174,10 @@
         <v>-7.4195</v>
       </c>
       <c r="AJ117" t="n">
-        <v>-52.7</v>
+        <v>47.3</v>
       </c>
       <c r="AK117" t="n">
-        <v>-13.2837</v>
+        <v>86.7163</v>
       </c>
       <c r="AL117" t="n">
         <v>76.7638</v>
@@ -21305,7 +21305,7 @@
         <v>3.4616</v>
       </c>
       <c r="U118" t="n">
-        <v>90.0321</v>
+        <v>-9.9679</v>
       </c>
       <c r="V118" t="n">
         <v>10.4333</v>
@@ -21314,7 +21314,7 @@
         <v>5.0148</v>
       </c>
       <c r="X118" t="n">
-        <v>-1.7394</v>
+        <v>-0.0174</v>
       </c>
       <c r="Y118" t="n">
         <v>77.7728</v>
@@ -21329,7 +21329,7 @@
         <v>0.6001</v>
       </c>
       <c r="AC118" t="n">
-        <v>-24.96</v>
+        <v>75.04</v>
       </c>
       <c r="AD118" t="n">
         <v>-4.3988</v>
@@ -21350,10 +21350,10 @@
         <v>-4.5133</v>
       </c>
       <c r="AJ118" t="n">
-        <v>-66.3</v>
+        <v>33.7</v>
       </c>
       <c r="AK118" t="n">
-        <v>-7.7076</v>
+        <v>92.2924</v>
       </c>
       <c r="AL118" t="n">
         <v>62.7356</v>
@@ -21481,7 +21481,7 @@
         <v>3.9247</v>
       </c>
       <c r="U119" t="n">
-        <v>88.1997</v>
+        <v>-11.8003</v>
       </c>
       <c r="V119" t="n">
         <v>11.0426</v>
@@ -21490,7 +21490,7 @@
         <v>4.8975</v>
       </c>
       <c r="X119" t="n">
-        <v>-1.8329</v>
+        <v>-0.0183</v>
       </c>
       <c r="Y119" t="n">
         <v>73.0009</v>
@@ -21505,7 +21505,7 @@
         <v>0.7605</v>
       </c>
       <c r="AC119" t="n">
-        <v>-24.87</v>
+        <v>75.13</v>
       </c>
       <c r="AD119" t="n">
         <v>-5.27</v>
@@ -21526,10 +21526,10 @@
         <v>-13.0754</v>
       </c>
       <c r="AJ119" t="n">
-        <v>-52.5</v>
+        <v>47.5</v>
       </c>
       <c r="AK119" t="n">
-        <v>-14.1702</v>
+        <v>85.8298</v>
       </c>
       <c r="AL119" t="n">
         <v>75.7323</v>
@@ -21657,7 +21657,7 @@
         <v>3.7331</v>
       </c>
       <c r="U120" t="n">
-        <v>94.0408</v>
+        <v>-5.9592</v>
       </c>
       <c r="V120" t="n">
         <v>10.471</v>
@@ -21666,7 +21666,7 @@
         <v>4.8984</v>
       </c>
       <c r="X120" t="n">
-        <v>-4.3446</v>
+        <v>-0.0434</v>
       </c>
       <c r="Y120" t="n">
         <v>83.1108</v>
@@ -21681,7 +21681,7 @@
         <v>0.945</v>
       </c>
       <c r="AC120" t="n">
-        <v>-24.28</v>
+        <v>75.72</v>
       </c>
       <c r="AD120" t="n">
         <v>-5.8113</v>
@@ -21702,10 +21702,10 @@
         <v>-2.2752</v>
       </c>
       <c r="AJ120" t="n">
-        <v>-49.1</v>
+        <v>50.9</v>
       </c>
       <c r="AK120" t="n">
-        <v>-8.9936</v>
+        <v>91.0064</v>
       </c>
       <c r="AL120" t="n">
         <v>83.1778</v>
@@ -21833,7 +21833,7 @@
         <v>4.7901</v>
       </c>
       <c r="U121" t="n">
-        <v>81.7711</v>
+        <v>-18.2289</v>
       </c>
       <c r="V121" t="n">
         <v>12.1565</v>
@@ -21842,7 +21842,7 @@
         <v>5.4945</v>
       </c>
       <c r="X121" t="n">
-        <v>-3.0433</v>
+        <v>-0.0304</v>
       </c>
       <c r="Y121" t="n">
         <v>61.7872</v>
@@ -21857,7 +21857,7 @@
         <v>0.0481</v>
       </c>
       <c r="AC121" t="n">
-        <v>-26.08</v>
+        <v>73.92</v>
       </c>
       <c r="AD121" t="n">
         <v>-3.4171</v>
@@ -21878,10 +21878,10 @@
         <v>-31.0787</v>
       </c>
       <c r="AJ121" t="n">
-        <v>-68</v>
+        <v>32</v>
       </c>
       <c r="AK121" t="n">
-        <v>-11.1236</v>
+        <v>88.8764</v>
       </c>
       <c r="AL121" t="n">
         <v>70.8742</v>
@@ -22009,7 +22009,7 @@
         <v>4.6849</v>
       </c>
       <c r="U122" t="n">
-        <v>88.3019</v>
+        <v>-11.6981</v>
       </c>
       <c r="V122" t="n">
         <v>12.0684</v>
@@ -22018,7 +22018,7 @@
         <v>5.8026</v>
       </c>
       <c r="X122" t="n">
-        <v>-0.8479</v>
+        <v>-0.0085</v>
       </c>
       <c r="Y122" t="n">
         <v>67.6653</v>
@@ -22033,7 +22033,7 @@
         <v>0.3054</v>
       </c>
       <c r="AC122" t="n">
-        <v>-25.39</v>
+        <v>74.61</v>
       </c>
       <c r="AD122" t="n">
         <v>-4.9237</v>
@@ -22054,10 +22054,10 @@
         <v>-14.0272</v>
       </c>
       <c r="AJ122" t="n">
-        <v>-70.3</v>
+        <v>29.7</v>
       </c>
       <c r="AK122" t="n">
-        <v>-12.3908</v>
+        <v>87.6092</v>
       </c>
       <c r="AL122" t="n">
         <v>66.1853</v>
@@ -22185,7 +22185,7 @@
         <v>4.1099</v>
       </c>
       <c r="U123" t="n">
-        <v>90.0433</v>
+        <v>-9.9567</v>
       </c>
       <c r="V123" t="n">
         <v>11.5812</v>
@@ -22194,7 +22194,7 @@
         <v>5.3113</v>
       </c>
       <c r="X123" t="n">
-        <v>-0.024</v>
+        <v>-0.0002</v>
       </c>
       <c r="Y123" t="n">
         <v>75.6839</v>
@@ -22209,7 +22209,7 @@
         <v>0.8635</v>
       </c>
       <c r="AC123" t="n">
-        <v>-24.54</v>
+        <v>75.46</v>
       </c>
       <c r="AD123" t="n">
         <v>-6.2786</v>
@@ -22230,10 +22230,10 @@
         <v>-2.3603</v>
       </c>
       <c r="AJ123" t="n">
-        <v>-45.3</v>
+        <v>54.7</v>
       </c>
       <c r="AK123" t="n">
-        <v>-10.1045</v>
+        <v>89.8955</v>
       </c>
       <c r="AL123" t="n">
         <v>70.5869</v>
@@ -22361,7 +22361,7 @@
         <v>3.5268</v>
       </c>
       <c r="U124" t="n">
-        <v>90.0739</v>
+        <v>-9.9261</v>
       </c>
       <c r="V124" t="n">
         <v>11.37</v>
@@ -22370,7 +22370,7 @@
         <v>5.0943</v>
       </c>
       <c r="X124" t="n">
-        <v>-2.376</v>
+        <v>-0.0238</v>
       </c>
       <c r="Y124" t="n">
         <v>81.9834</v>
@@ -22385,7 +22385,7 @@
         <v>-0.5803</v>
       </c>
       <c r="AC124" t="n">
-        <v>-24.72</v>
+        <v>75.28</v>
       </c>
       <c r="AD124" t="n">
         <v>-7.5977</v>
@@ -22406,10 +22406,10 @@
         <v>-10.9801</v>
       </c>
       <c r="AJ124" t="n">
-        <v>-68.1</v>
+        <v>31.9</v>
       </c>
       <c r="AK124" t="n">
-        <v>-4.0883</v>
+        <v>95.9117</v>
       </c>
       <c r="AL124" t="n">
         <v>77.301</v>
@@ -22537,7 +22537,7 @@
         <v>4.4851</v>
       </c>
       <c r="U125" t="n">
-        <v>88.8471</v>
+        <v>-11.1529</v>
       </c>
       <c r="V125" t="n">
         <v>11.1965</v>
@@ -22546,7 +22546,7 @@
         <v>5.6322</v>
       </c>
       <c r="X125" t="n">
-        <v>-1.7178</v>
+        <v>-0.0172</v>
       </c>
       <c r="Y125" t="n">
         <v>67.6234</v>
@@ -22561,7 +22561,7 @@
         <v>0.5752</v>
       </c>
       <c r="AC125" t="n">
-        <v>-25.33</v>
+        <v>74.67</v>
       </c>
       <c r="AD125" t="n">
         <v>-7.2208</v>
@@ -22582,10 +22582,10 @@
         <v>-20.241</v>
       </c>
       <c r="AJ125" t="n">
-        <v>-56.4</v>
+        <v>43.6</v>
       </c>
       <c r="AK125" t="n">
-        <v>-13.8989</v>
+        <v>86.1011</v>
       </c>
       <c r="AL125" t="n">
         <v>81.6745</v>
@@ -22713,7 +22713,7 @@
         <v>3.5207</v>
       </c>
       <c r="U126" t="n">
-        <v>90.9081</v>
+        <v>-9.0919</v>
       </c>
       <c r="V126" t="n">
         <v>10.5305</v>
@@ -22722,7 +22722,7 @@
         <v>4.9938</v>
       </c>
       <c r="X126" t="n">
-        <v>-2.1382</v>
+        <v>-0.0214</v>
       </c>
       <c r="Y126" t="n">
         <v>81.9244</v>
@@ -22737,7 +22737,7 @@
         <v>0.5168</v>
       </c>
       <c r="AC126" t="n">
-        <v>-25.09</v>
+        <v>74.91</v>
       </c>
       <c r="AD126" t="n">
         <v>-4.3484</v>
@@ -22758,10 +22758,10 @@
         <v>-7.4014</v>
       </c>
       <c r="AJ126" t="n">
-        <v>-48.4</v>
+        <v>51.6</v>
       </c>
       <c r="AK126" t="n">
-        <v>-15.8421</v>
+        <v>84.1579</v>
       </c>
       <c r="AL126" t="n">
         <v>65.1415</v>
@@ -22889,7 +22889,7 @@
         <v>3.2964</v>
       </c>
       <c r="U127" t="n">
-        <v>91.6487</v>
+        <v>-8.3513</v>
       </c>
       <c r="V127" t="n">
         <v>10.4835</v>
@@ -22898,7 +22898,7 @@
         <v>4.9299</v>
       </c>
       <c r="X127" t="n">
-        <v>-1.9774</v>
+        <v>-0.0198</v>
       </c>
       <c r="Y127" t="n">
         <v>89.8259</v>
@@ -22913,7 +22913,7 @@
         <v>0.6333</v>
       </c>
       <c r="AC127" t="n">
-        <v>-24.82</v>
+        <v>75.18</v>
       </c>
       <c r="AD127" t="n">
         <v>-8.8996</v>
@@ -22934,10 +22934,10 @@
         <v>-5.9209</v>
       </c>
       <c r="AJ127" t="n">
-        <v>-66.4</v>
+        <v>33.6</v>
       </c>
       <c r="AK127" t="n">
-        <v>-11.7713</v>
+        <v>88.2287</v>
       </c>
       <c r="AL127" t="n">
         <v>80.6893</v>
@@ -23065,7 +23065,7 @@
         <v>4.8889</v>
       </c>
       <c r="U128" t="n">
-        <v>87.6779</v>
+        <v>-12.3222</v>
       </c>
       <c r="V128" t="n">
         <v>11.5766</v>
@@ -23074,7 +23074,7 @@
         <v>5.3661</v>
       </c>
       <c r="X128" t="n">
-        <v>-4.882</v>
+        <v>-0.0488</v>
       </c>
       <c r="Y128" t="n">
         <v>71.7591</v>
@@ -23089,7 +23089,7 @@
         <v>0.7218</v>
       </c>
       <c r="AC128" t="n">
-        <v>-25.17</v>
+        <v>74.83</v>
       </c>
       <c r="AD128" t="n">
         <v>-5.644</v>
@@ -23110,10 +23110,10 @@
         <v>-32.0704</v>
       </c>
       <c r="AJ128" t="n">
-        <v>-79.5</v>
+        <v>20.5</v>
       </c>
       <c r="AK128" t="n">
-        <v>-17.8826</v>
+        <v>82.1174</v>
       </c>
       <c r="AL128" t="n">
         <v>69.6488</v>
@@ -23241,7 +23241,7 @@
         <v>3.3477</v>
       </c>
       <c r="U129" t="n">
-        <v>91.6102</v>
+        <v>-8.3898</v>
       </c>
       <c r="V129" t="n">
         <v>10.6972</v>
@@ -23250,7 +23250,7 @@
         <v>4.8122</v>
       </c>
       <c r="X129" t="n">
-        <v>-0.9035</v>
+        <v>-0.009</v>
       </c>
       <c r="Y129" t="n">
         <v>80.4056</v>
@@ -23265,7 +23265,7 @@
         <v>0.8329</v>
       </c>
       <c r="AC129" t="n">
-        <v>-24.97</v>
+        <v>75.03</v>
       </c>
       <c r="AD129" t="n">
         <v>-4.5676</v>
@@ -23286,10 +23286,10 @@
         <v>-10.1256</v>
       </c>
       <c r="AJ129" t="n">
-        <v>-57.7</v>
+        <v>42.3</v>
       </c>
       <c r="AK129" t="n">
-        <v>-20.7882</v>
+        <v>79.2118</v>
       </c>
       <c r="AL129" t="n">
         <v>84.2396</v>
@@ -23417,7 +23417,7 @@
         <v>3.9485</v>
       </c>
       <c r="U130" t="n">
-        <v>90.7654</v>
+        <v>-9.2346</v>
       </c>
       <c r="V130" t="n">
         <v>11.3417</v>
@@ -23426,7 +23426,7 @@
         <v>5.6262</v>
       </c>
       <c r="X130" t="n">
-        <v>-4.0714</v>
+        <v>-0.0407</v>
       </c>
       <c r="Y130" t="n">
         <v>71.8166</v>
@@ -23441,7 +23441,7 @@
         <v>0.8516</v>
       </c>
       <c r="AC130" t="n">
-        <v>-24.95</v>
+        <v>75.05</v>
       </c>
       <c r="AD130" t="n">
         <v>-4.0803</v>
@@ -23462,10 +23462,10 @@
         <v>-3.3562</v>
       </c>
       <c r="AJ130" t="n">
-        <v>-55.9</v>
+        <v>44.1</v>
       </c>
       <c r="AK130" t="n">
-        <v>-8.6061</v>
+        <v>91.3939</v>
       </c>
       <c r="AL130" t="n">
         <v>67.5002</v>
@@ -23593,7 +23593,7 @@
         <v>3.205</v>
       </c>
       <c r="U131" t="n">
-        <v>84.97</v>
+        <v>-15.03</v>
       </c>
       <c r="V131" t="n">
         <v>10.1897</v>
@@ -23602,7 +23602,7 @@
         <v>4.9081</v>
       </c>
       <c r="X131" t="n">
-        <v>-3.8524</v>
+        <v>-0.0385</v>
       </c>
       <c r="Y131" t="n">
         <v>65.925</v>
@@ -23617,7 +23617,7 @@
         <v>0.3242</v>
       </c>
       <c r="AC131" t="n">
-        <v>-25.67</v>
+        <v>74.33</v>
       </c>
       <c r="AD131" t="n">
         <v>-2.9997</v>
@@ -23638,10 +23638,10 @@
         <v>-22.7174</v>
       </c>
       <c r="AJ131" t="n">
-        <v>-65.6</v>
+        <v>34.4</v>
       </c>
       <c r="AK131" t="n">
-        <v>-12.6528</v>
+        <v>87.3472</v>
       </c>
       <c r="AL131" t="n">
         <v>69.8247</v>
@@ -23769,7 +23769,7 @@
         <v>3.9418</v>
       </c>
       <c r="U132" t="n">
-        <v>87.9733</v>
+        <v>-12.0267</v>
       </c>
       <c r="V132" t="n">
         <v>10.2624</v>
@@ -23778,7 +23778,7 @@
         <v>4.9881</v>
       </c>
       <c r="X132" t="n">
-        <v>-2.8434</v>
+        <v>-0.0284</v>
       </c>
       <c r="Y132" t="n">
         <v>79.3017</v>
@@ -23793,7 +23793,7 @@
         <v>0.4566</v>
       </c>
       <c r="AC132" t="n">
-        <v>-25.54</v>
+        <v>74.46</v>
       </c>
       <c r="AD132" t="n">
         <v>-10.642</v>
@@ -23814,10 +23814,10 @@
         <v>-16.1478</v>
       </c>
       <c r="AJ132" t="n">
-        <v>-40.8</v>
+        <v>59.2</v>
       </c>
       <c r="AK132" t="n">
-        <v>-2.8935</v>
+        <v>97.1065</v>
       </c>
       <c r="AL132" t="n">
         <v>85.0168</v>
@@ -23945,7 +23945,7 @@
         <v>4.6253</v>
       </c>
       <c r="U133" t="n">
-        <v>89.0664</v>
+        <v>-10.9336</v>
       </c>
       <c r="V133" t="n">
         <v>12.094</v>
@@ -23954,7 +23954,7 @@
         <v>5.3647</v>
       </c>
       <c r="X133" t="n">
-        <v>-1.8719</v>
+        <v>-0.0187</v>
       </c>
       <c r="Y133" t="n">
         <v>67.4008</v>
@@ -23969,7 +23969,7 @@
         <v>0.8173</v>
       </c>
       <c r="AC133" t="n">
-        <v>-25.19</v>
+        <v>74.81</v>
       </c>
       <c r="AD133" t="n">
         <v>-6.0278</v>
@@ -23990,10 +23990,10 @@
         <v>-17.8121</v>
       </c>
       <c r="AJ133" t="n">
-        <v>-63.5</v>
+        <v>36.5</v>
       </c>
       <c r="AK133" t="n">
-        <v>-22.141</v>
+        <v>77.859</v>
       </c>
       <c r="AL133" t="n">
         <v>78.4744</v>
@@ -24121,7 +24121,7 @@
         <v>3.777</v>
       </c>
       <c r="U134" t="n">
-        <v>89.1684</v>
+        <v>-10.8316</v>
       </c>
       <c r="V134" t="n">
         <v>11.0385</v>
@@ -24130,7 +24130,7 @@
         <v>5.1143</v>
       </c>
       <c r="X134" t="n">
-        <v>-2.2386</v>
+        <v>-0.0224</v>
       </c>
       <c r="Y134" t="n">
         <v>74.5036</v>
@@ -24145,7 +24145,7 @@
         <v>0.5205</v>
       </c>
       <c r="AC134" t="n">
-        <v>-24.9</v>
+        <v>75.1</v>
       </c>
       <c r="AD134" t="n">
         <v>-5.7064</v>
@@ -24166,10 +24166,10 @@
         <v>-10.34</v>
       </c>
       <c r="AJ134" t="n">
-        <v>-60.3</v>
+        <v>39.7</v>
       </c>
       <c r="AK134" t="n">
-        <v>-13.4524</v>
+        <v>86.5476</v>
       </c>
       <c r="AL134" t="n">
         <v>72.8784</v>
@@ -24297,7 +24297,7 @@
         <v>3.8006</v>
       </c>
       <c r="U135" t="n">
-        <v>90.8901</v>
+        <v>-9.1099</v>
       </c>
       <c r="V135" t="n">
         <v>11.2215</v>
@@ -24306,7 +24306,7 @@
         <v>5.1657</v>
       </c>
       <c r="X135" t="n">
-        <v>-1.6075</v>
+        <v>-0.0161</v>
       </c>
       <c r="Y135" t="n">
         <v>79.8234</v>
@@ -24321,7 +24321,7 @@
         <v>0.788</v>
       </c>
       <c r="AC135" t="n">
-        <v>-24.21</v>
+        <v>75.79</v>
       </c>
       <c r="AD135" t="n">
         <v>-11.0921</v>
@@ -24342,10 +24342,10 @@
         <v>-0.8571</v>
       </c>
       <c r="AJ135" t="n">
-        <v>-41.6</v>
+        <v>58.4</v>
       </c>
       <c r="AK135" t="n">
-        <v>-11.0862</v>
+        <v>88.9138</v>
       </c>
       <c r="AL135" t="n">
         <v>84.1839</v>
@@ -24473,7 +24473,7 @@
         <v>3.1137</v>
       </c>
       <c r="U136" t="n">
-        <v>91.5882</v>
+        <v>-8.4118</v>
       </c>
       <c r="V136" t="n">
         <v>10.8831</v>
@@ -24482,7 +24482,7 @@
         <v>5.093</v>
       </c>
       <c r="X136" t="n">
-        <v>-2.3223</v>
+        <v>-0.0232</v>
       </c>
       <c r="Y136" t="n">
         <v>85.1086</v>
@@ -24497,7 +24497,7 @@
         <v>0.1058</v>
       </c>
       <c r="AC136" t="n">
-        <v>-24.15</v>
+        <v>75.85</v>
       </c>
       <c r="AD136" t="n">
         <v>-4.7226</v>
@@ -24518,10 +24518,10 @@
         <v>-2.7115</v>
       </c>
       <c r="AJ136" t="n">
-        <v>-56.8</v>
+        <v>43.2</v>
       </c>
       <c r="AK136" t="n">
-        <v>-11.4113</v>
+        <v>88.5888</v>
       </c>
       <c r="AL136" t="n">
         <v>73.7216</v>
@@ -24649,7 +24649,7 @@
         <v>3.6351</v>
       </c>
       <c r="U137" t="n">
-        <v>92.2137</v>
+        <v>-7.7863</v>
       </c>
       <c r="V137" t="n">
         <v>10.6621</v>
@@ -24658,7 +24658,7 @@
         <v>4.8871</v>
       </c>
       <c r="X137" t="n">
-        <v>-4.015</v>
+        <v>-0.0402</v>
       </c>
       <c r="Y137" t="n">
         <v>82.9168</v>
@@ -24673,7 +24673,7 @@
         <v>-0.2688</v>
       </c>
       <c r="AC137" t="n">
-        <v>-24.25</v>
+        <v>75.75</v>
       </c>
       <c r="AD137" t="n">
         <v>-7.4862</v>
@@ -24694,10 +24694,10 @@
         <v>-1.717</v>
       </c>
       <c r="AJ137" t="n">
-        <v>-46.6</v>
+        <v>53.4</v>
       </c>
       <c r="AK137" t="n">
-        <v>-7.1741</v>
+        <v>92.8259</v>
       </c>
       <c r="AL137" t="n">
         <v>72.565</v>
@@ -24825,7 +24825,7 @@
         <v>3.9719</v>
       </c>
       <c r="U138" t="n">
-        <v>88.0139</v>
+        <v>-11.986</v>
       </c>
       <c r="V138" t="n">
         <v>10.1514</v>
@@ -24834,7 +24834,7 @@
         <v>4.6027</v>
       </c>
       <c r="X138" t="n">
-        <v>-6.7135</v>
+        <v>-0.0671</v>
       </c>
       <c r="Y138" t="n">
         <v>72.7993</v>
@@ -24849,7 +24849,7 @@
         <v>-0.1178</v>
       </c>
       <c r="AC138" t="n">
-        <v>-25.34</v>
+        <v>74.66</v>
       </c>
       <c r="AD138" t="n">
         <v>-9.654</v>
@@ -24870,10 +24870,10 @@
         <v>-20.9179</v>
       </c>
       <c r="AJ138" t="n">
-        <v>-53.7</v>
+        <v>46.3</v>
       </c>
       <c r="AK138" t="n">
-        <v>-9.312</v>
+        <v>90.688</v>
       </c>
       <c r="AL138" t="n">
         <v>72.2142</v>
@@ -25001,7 +25001,7 @@
         <v>3.8927</v>
       </c>
       <c r="U139" t="n">
-        <v>91.5156</v>
+        <v>-8.4844</v>
       </c>
       <c r="V139" t="n">
         <v>10.6156</v>
@@ -25010,7 +25010,7 @@
         <v>4.8551</v>
       </c>
       <c r="X139" t="n">
-        <v>-2.0469</v>
+        <v>-0.0205</v>
       </c>
       <c r="Y139" t="n">
         <v>77.5083</v>
@@ -25025,7 +25025,7 @@
         <v>0.1498</v>
       </c>
       <c r="AC139" t="n">
-        <v>-24.44</v>
+        <v>75.56</v>
       </c>
       <c r="AD139" t="n">
         <v>-8.2188</v>
@@ -25046,10 +25046,10 @@
         <v>-4.7546</v>
       </c>
       <c r="AJ139" t="n">
-        <v>-44.8</v>
+        <v>55.2</v>
       </c>
       <c r="AK139" t="n">
-        <v>-12.6982</v>
+        <v>87.3018</v>
       </c>
       <c r="AL139" t="n">
         <v>72.5333</v>
@@ -25177,7 +25177,7 @@
         <v>3.1634</v>
       </c>
       <c r="U140" t="n">
-        <v>90.006</v>
+        <v>-9.994</v>
       </c>
       <c r="V140" t="n">
         <v>9.8412</v>
@@ -25186,7 +25186,7 @@
         <v>4.5657</v>
       </c>
       <c r="X140" t="n">
-        <v>-2.0268</v>
+        <v>-0.0203</v>
       </c>
       <c r="Y140" t="n">
         <v>79.29</v>
@@ -25201,7 +25201,7 @@
         <v>1</v>
       </c>
       <c r="AC140" t="n">
-        <v>-24.61</v>
+        <v>75.39</v>
       </c>
       <c r="AD140" t="n">
         <v>-5.0463</v>
@@ -25222,10 +25222,10 @@
         <v>-2.3983</v>
       </c>
       <c r="AJ140" t="n">
-        <v>-50.3</v>
+        <v>49.7</v>
       </c>
       <c r="AK140" t="n">
-        <v>-8.0905</v>
+        <v>91.9095</v>
       </c>
       <c r="AL140" t="n">
         <v>80.2968</v>
@@ -25353,7 +25353,7 @@
         <v>5.227</v>
       </c>
       <c r="U141" t="n">
-        <v>78.5208</v>
+        <v>-21.4792</v>
       </c>
       <c r="V141" t="n">
         <v>13.9693</v>
@@ -25362,7 +25362,7 @@
         <v>5.456</v>
       </c>
       <c r="X141" t="n">
-        <v>-6.1746</v>
+        <v>-0.0617</v>
       </c>
       <c r="Y141" t="n">
         <v>59.477</v>
@@ -25377,7 +25377,7 @@
         <v>0.6282</v>
       </c>
       <c r="AC141" t="n">
-        <v>-25.84</v>
+        <v>74.16</v>
       </c>
       <c r="AD141" t="n">
         <v>-3.5414</v>
@@ -25398,10 +25398,10 @@
         <v>-29.4244</v>
       </c>
       <c r="AJ141" t="n">
-        <v>-71.6</v>
+        <v>28.4</v>
       </c>
       <c r="AK141" t="n">
-        <v>-26.4726</v>
+        <v>73.5274</v>
       </c>
       <c r="AL141" t="n">
         <v>59.7273</v>
@@ -25529,7 +25529,7 @@
         <v>3.3197</v>
       </c>
       <c r="U142" t="n">
-        <v>91.9938</v>
+        <v>-8.0062</v>
       </c>
       <c r="V142" t="n">
         <v>11.2064</v>
@@ -25538,7 +25538,7 @@
         <v>5.0133</v>
       </c>
       <c r="X142" t="n">
-        <v>-0.2652</v>
+        <v>-0.0027</v>
       </c>
       <c r="Y142" t="n">
         <v>78.3275</v>
@@ -25553,7 +25553,7 @@
         <v>0.8938</v>
       </c>
       <c r="AC142" t="n">
-        <v>-24.71</v>
+        <v>75.29</v>
       </c>
       <c r="AD142" t="n">
         <v>-10.6233</v>
@@ -25574,10 +25574,10 @@
         <v>-5.7997</v>
       </c>
       <c r="AJ142" t="n">
-        <v>-57.8</v>
+        <v>42.2</v>
       </c>
       <c r="AK142" t="n">
-        <v>-21.4877</v>
+        <v>78.5123</v>
       </c>
       <c r="AL142" t="n">
         <v>72.9734</v>
@@ -25705,7 +25705,7 @@
         <v>3.099</v>
       </c>
       <c r="U143" t="n">
-        <v>94.5925</v>
+        <v>-5.4075</v>
       </c>
       <c r="V143" t="n">
         <v>9.0779</v>
@@ -25714,7 +25714,7 @@
         <v>4.9235</v>
       </c>
       <c r="X143" t="n">
-        <v>-3.3192</v>
+        <v>-0.0332</v>
       </c>
       <c r="Y143" t="n">
         <v>81.867</v>
@@ -25729,7 +25729,7 @@
         <v>0.0699</v>
       </c>
       <c r="AC143" t="n">
-        <v>-23.51</v>
+        <v>76.49</v>
       </c>
       <c r="AD143" t="n">
         <v>-2.591</v>
@@ -25750,10 +25750,10 @@
         <v>-0.0733</v>
       </c>
       <c r="AJ143" t="n">
-        <v>-67.1</v>
+        <v>32.9</v>
       </c>
       <c r="AK143" t="n">
-        <v>-8.2804</v>
+        <v>91.7196</v>
       </c>
       <c r="AL143" t="n">
         <v>82.4773</v>
@@ -25881,7 +25881,7 @@
         <v>3.846</v>
       </c>
       <c r="U144" t="n">
-        <v>90.5807</v>
+        <v>-9.4193</v>
       </c>
       <c r="V144" t="n">
         <v>11.8601</v>
@@ -25890,7 +25890,7 @@
         <v>5.1642</v>
       </c>
       <c r="X144" t="n">
-        <v>-1.6394</v>
+        <v>-0.0164</v>
       </c>
       <c r="Y144" t="n">
         <v>75.655</v>
@@ -25905,7 +25905,7 @@
         <v>0.7841</v>
       </c>
       <c r="AC144" t="n">
-        <v>-25</v>
+        <v>75</v>
       </c>
       <c r="AD144" t="n">
         <v>-6.8539</v>
@@ -25926,10 +25926,10 @@
         <v>-11.7353</v>
       </c>
       <c r="AJ144" t="n">
-        <v>-42.9</v>
+        <v>57.1</v>
       </c>
       <c r="AK144" t="n">
-        <v>-20.2925</v>
+        <v>79.7075</v>
       </c>
       <c r="AL144" t="n">
         <v>79.9183</v>
@@ -26057,7 +26057,7 @@
         <v>4.063</v>
       </c>
       <c r="U145" t="n">
-        <v>87.7615</v>
+        <v>-12.2385</v>
       </c>
       <c r="V145" t="n">
         <v>11.5258</v>
@@ -26066,7 +26066,7 @@
         <v>5.2332</v>
       </c>
       <c r="X145" t="n">
-        <v>-2.3068</v>
+        <v>-0.0231</v>
       </c>
       <c r="Y145" t="n">
         <v>70.2429</v>
@@ -26081,7 +26081,7 @@
         <v>0.7084</v>
       </c>
       <c r="AC145" t="n">
-        <v>-24.9</v>
+        <v>75.1</v>
       </c>
       <c r="AD145" t="n">
         <v>-7.9855</v>
@@ -26102,10 +26102,10 @@
         <v>-3.0309</v>
       </c>
       <c r="AJ145" t="n">
-        <v>-54.6</v>
+        <v>45.4</v>
       </c>
       <c r="AK145" t="n">
-        <v>-13.1782</v>
+        <v>86.8218</v>
       </c>
       <c r="AL145" t="n">
         <v>76.9412</v>
@@ -26233,7 +26233,7 @@
         <v>4.9923</v>
       </c>
       <c r="U146" t="n">
-        <v>81.4315</v>
+        <v>-18.5685</v>
       </c>
       <c r="V146" t="n">
         <v>12.2922</v>
@@ -26242,7 +26242,7 @@
         <v>5.5275</v>
       </c>
       <c r="X146" t="n">
-        <v>-1.6731</v>
+        <v>-0.0167</v>
       </c>
       <c r="Y146" t="n">
         <v>60.489</v>
@@ -26257,7 +26257,7 @@
         <v>-0.3996</v>
       </c>
       <c r="AC146" t="n">
-        <v>-26.84</v>
+        <v>73.16</v>
       </c>
       <c r="AD146" t="n">
         <v>-2.1131</v>
@@ -26278,10 +26278,10 @@
         <v>-31.151</v>
       </c>
       <c r="AJ146" t="n">
-        <v>-66.9</v>
+        <v>33.1</v>
       </c>
       <c r="AK146" t="n">
-        <v>-17.1108</v>
+        <v>82.8892</v>
       </c>
       <c r="AL146" t="n">
         <v>56.1357</v>
@@ -26409,7 +26409,7 @@
         <v>3.8771</v>
       </c>
       <c r="U147" t="n">
-        <v>87.5747</v>
+        <v>-12.4253</v>
       </c>
       <c r="V147" t="n">
         <v>11.5705</v>
@@ -26418,7 +26418,7 @@
         <v>5.6616</v>
       </c>
       <c r="X147" t="n">
-        <v>-1.7356</v>
+        <v>-0.0174</v>
       </c>
       <c r="Y147" t="n">
         <v>68.0793</v>
@@ -26433,7 +26433,7 @@
         <v>0.9017</v>
       </c>
       <c r="AC147" t="n">
-        <v>-25.02</v>
+        <v>74.98</v>
       </c>
       <c r="AD147" t="n">
         <v>-3.8352</v>
@@ -26454,10 +26454,10 @@
         <v>-16.1882</v>
       </c>
       <c r="AJ147" t="n">
-        <v>-55.9</v>
+        <v>44.1</v>
       </c>
       <c r="AK147" t="n">
-        <v>-17.7748</v>
+        <v>82.2252</v>
       </c>
       <c r="AL147" t="n">
         <v>69.7525</v>
@@ -26585,7 +26585,7 @@
         <v>3.8341</v>
       </c>
       <c r="U148" t="n">
-        <v>89.4853</v>
+        <v>-10.5147</v>
       </c>
       <c r="V148" t="n">
         <v>11.2352</v>
@@ -26594,7 +26594,7 @@
         <v>5.0005</v>
       </c>
       <c r="X148" t="n">
-        <v>-1.4487</v>
+        <v>-0.0145</v>
       </c>
       <c r="Y148" t="n">
         <v>82.1744</v>
@@ -26609,7 +26609,7 @@
         <v>0.8679</v>
       </c>
       <c r="AC148" t="n">
-        <v>-24.62</v>
+        <v>75.38</v>
       </c>
       <c r="AD148" t="n">
         <v>-7.2666</v>
@@ -26630,10 +26630,10 @@
         <v>-1.6328</v>
       </c>
       <c r="AJ148" t="n">
-        <v>-62.6</v>
+        <v>37.4</v>
       </c>
       <c r="AK148" t="n">
-        <v>-14.7044</v>
+        <v>85.2956</v>
       </c>
       <c r="AL148" t="n">
         <v>82.4456</v>
@@ -26761,7 +26761,7 @@
         <v>3.2898</v>
       </c>
       <c r="U149" t="n">
-        <v>91.9477</v>
+        <v>-8.0523</v>
       </c>
       <c r="V149" t="n">
         <v>10.8776</v>
@@ -26770,7 +26770,7 @@
         <v>5.2047</v>
       </c>
       <c r="X149" t="n">
-        <v>-1.313</v>
+        <v>-0.0131</v>
       </c>
       <c r="Y149" t="n">
         <v>75.1161</v>
@@ -26785,7 +26785,7 @@
         <v>0.884</v>
       </c>
       <c r="AC149" t="n">
-        <v>-24.64</v>
+        <v>75.36</v>
       </c>
       <c r="AD149" t="n">
         <v>-4.146</v>
@@ -26806,10 +26806,10 @@
         <v>-5.5183</v>
       </c>
       <c r="AJ149" t="n">
-        <v>-70.4</v>
+        <v>29.6</v>
       </c>
       <c r="AK149" t="n">
-        <v>-12.7833</v>
+        <v>87.2167</v>
       </c>
       <c r="AL149" t="n">
         <v>65.1808</v>
@@ -26937,7 +26937,7 @@
         <v>4.4089</v>
       </c>
       <c r="U150" t="n">
-        <v>86.5116</v>
+        <v>-13.4884</v>
       </c>
       <c r="V150" t="n">
         <v>11.623</v>
@@ -26946,7 +26946,7 @@
         <v>4.9213</v>
       </c>
       <c r="X150" t="n">
-        <v>-0.72</v>
+        <v>-0.0072</v>
       </c>
       <c r="Y150" t="n">
         <v>72.6955</v>
@@ -26961,7 +26961,7 @@
         <v>0.8331</v>
       </c>
       <c r="AC150" t="n">
-        <v>-25.26</v>
+        <v>74.74</v>
       </c>
       <c r="AD150" t="n">
         <v>-6.97</v>
@@ -26982,10 +26982,10 @@
         <v>-7.4195</v>
       </c>
       <c r="AJ150" t="n">
-        <v>-60.6</v>
+        <v>39.4</v>
       </c>
       <c r="AK150" t="n">
-        <v>-13.2837</v>
+        <v>86.7163</v>
       </c>
       <c r="AL150" t="n">
         <v>76.7638</v>
@@ -27113,7 +27113,7 @@
         <v>3.3471</v>
       </c>
       <c r="U151" t="n">
-        <v>90.0321</v>
+        <v>-9.9679</v>
       </c>
       <c r="V151" t="n">
         <v>10.2184</v>
@@ -27122,7 +27122,7 @@
         <v>4.9321</v>
       </c>
       <c r="X151" t="n">
-        <v>-1.2914</v>
+        <v>-0.0129</v>
       </c>
       <c r="Y151" t="n">
         <v>77.7728</v>
@@ -27137,7 +27137,7 @@
         <v>-0.0383</v>
       </c>
       <c r="AC151" t="n">
-        <v>-24.86</v>
+        <v>75.14</v>
       </c>
       <c r="AD151" t="n">
         <v>-4.4498</v>
@@ -27158,10 +27158,10 @@
         <v>-4.5133</v>
       </c>
       <c r="AJ151" t="n">
-        <v>-62</v>
+        <v>38</v>
       </c>
       <c r="AK151" t="n">
-        <v>-7.7076</v>
+        <v>92.2924</v>
       </c>
       <c r="AL151" t="n">
         <v>62.7356</v>
@@ -27289,7 +27289,7 @@
         <v>3.7017</v>
       </c>
       <c r="U152" t="n">
-        <v>88.1997</v>
+        <v>-11.8003</v>
       </c>
       <c r="V152" t="n">
         <v>10.8715</v>
@@ -27298,7 +27298,7 @@
         <v>4.8587</v>
       </c>
       <c r="X152" t="n">
-        <v>-2.0917</v>
+        <v>-0.0209</v>
       </c>
       <c r="Y152" t="n">
         <v>73.0009</v>
@@ -27313,7 +27313,7 @@
         <v>1</v>
       </c>
       <c r="AC152" t="n">
-        <v>-24.79</v>
+        <v>75.21</v>
       </c>
       <c r="AD152" t="n">
         <v>-6.0599</v>
@@ -27334,10 +27334,10 @@
         <v>-13.0754</v>
       </c>
       <c r="AJ152" t="n">
-        <v>-54.3</v>
+        <v>45.7</v>
       </c>
       <c r="AK152" t="n">
-        <v>-14.1702</v>
+        <v>85.8298</v>
       </c>
       <c r="AL152" t="n">
         <v>75.7323</v>
@@ -27465,7 +27465,7 @@
         <v>3.7114</v>
       </c>
       <c r="U153" t="n">
-        <v>94.0408</v>
+        <v>-5.9592</v>
       </c>
       <c r="V153" t="n">
         <v>10.4347</v>
@@ -27474,7 +27474,7 @@
         <v>4.8473</v>
       </c>
       <c r="X153" t="n">
-        <v>-3.3797</v>
+        <v>-0.0338</v>
       </c>
       <c r="Y153" t="n">
         <v>83.1108</v>
@@ -27489,7 +27489,7 @@
         <v>0.8193</v>
       </c>
       <c r="AC153" t="n">
-        <v>-24.19</v>
+        <v>75.81</v>
       </c>
       <c r="AD153" t="n">
         <v>-5.7472</v>
@@ -27510,10 +27510,10 @@
         <v>-2.2752</v>
       </c>
       <c r="AJ153" t="n">
-        <v>-42.2</v>
+        <v>57.8</v>
       </c>
       <c r="AK153" t="n">
-        <v>-8.9936</v>
+        <v>91.0064</v>
       </c>
       <c r="AL153" t="n">
         <v>83.1778</v>
@@ -27641,7 +27641,7 @@
         <v>3.8573</v>
       </c>
       <c r="U154" t="n">
-        <v>81.7711</v>
+        <v>-18.2289</v>
       </c>
       <c r="V154" t="n">
         <v>12.0949</v>
@@ -27650,7 +27650,7 @@
         <v>5.5646</v>
       </c>
       <c r="X154" t="n">
-        <v>-2.9176</v>
+        <v>-0.0292</v>
       </c>
       <c r="Y154" t="n">
         <v>61.7872</v>
@@ -27665,7 +27665,7 @@
         <v>0.1992</v>
       </c>
       <c r="AC154" t="n">
-        <v>-25.97</v>
+        <v>74.03</v>
       </c>
       <c r="AD154" t="n">
         <v>-4.0284</v>
@@ -27686,10 +27686,10 @@
         <v>-31.0787</v>
       </c>
       <c r="AJ154" t="n">
-        <v>-62.6</v>
+        <v>37.4</v>
       </c>
       <c r="AK154" t="n">
-        <v>-11.1236</v>
+        <v>88.8764</v>
       </c>
       <c r="AL154" t="n">
         <v>70.8742</v>
@@ -27817,7 +27817,7 @@
         <v>4.5587</v>
       </c>
       <c r="U155" t="n">
-        <v>88.3019</v>
+        <v>-11.6981</v>
       </c>
       <c r="V155" t="n">
         <v>11.9644</v>
@@ -27826,7 +27826,7 @@
         <v>5.5114</v>
       </c>
       <c r="X155" t="n">
-        <v>-1.3199</v>
+        <v>-0.0132</v>
       </c>
       <c r="Y155" t="n">
         <v>67.6653</v>
@@ -27841,7 +27841,7 @@
         <v>0.4803</v>
       </c>
       <c r="AC155" t="n">
-        <v>-25.29</v>
+        <v>74.71</v>
       </c>
       <c r="AD155" t="n">
         <v>-5.2732</v>
@@ -27862,10 +27862,10 @@
         <v>-14.0272</v>
       </c>
       <c r="AJ155" t="n">
-        <v>-71</v>
+        <v>29</v>
       </c>
       <c r="AK155" t="n">
-        <v>-12.3908</v>
+        <v>87.6092</v>
       </c>
       <c r="AL155" t="n">
         <v>66.1853</v>
@@ -27993,7 +27993,7 @@
         <v>3.9734</v>
       </c>
       <c r="U156" t="n">
-        <v>90.0433</v>
+        <v>-9.9567</v>
       </c>
       <c r="V156" t="n">
         <v>11.5404</v>
@@ -28002,7 +28002,7 @@
         <v>5.2161</v>
       </c>
       <c r="X156" t="n">
-        <v>-0.5993</v>
+        <v>-0.006</v>
       </c>
       <c r="Y156" t="n">
         <v>75.6839</v>
@@ -28017,7 +28017,7 @@
         <v>0.9553</v>
       </c>
       <c r="AC156" t="n">
-        <v>-24.46</v>
+        <v>75.54</v>
       </c>
       <c r="AD156" t="n">
         <v>-7.8156</v>
@@ -28038,10 +28038,10 @@
         <v>-2.3603</v>
       </c>
       <c r="AJ156" t="n">
-        <v>-45.1</v>
+        <v>54.9</v>
       </c>
       <c r="AK156" t="n">
-        <v>-10.1045</v>
+        <v>89.8955</v>
       </c>
       <c r="AL156" t="n">
         <v>70.5869</v>
@@ -28169,7 +28169,7 @@
         <v>3.5294</v>
       </c>
       <c r="U157" t="n">
-        <v>90.0739</v>
+        <v>-9.9261</v>
       </c>
       <c r="V157" t="n">
         <v>11.3543</v>
@@ -28178,7 +28178,7 @@
         <v>5.0614</v>
       </c>
       <c r="X157" t="n">
-        <v>-2.4192</v>
+        <v>-0.0242</v>
       </c>
       <c r="Y157" t="n">
         <v>81.9834</v>
@@ -28193,7 +28193,7 @@
         <v>-2.3837</v>
       </c>
       <c r="AC157" t="n">
-        <v>-24.63</v>
+        <v>75.37</v>
       </c>
       <c r="AD157" t="n">
         <v>-7.8953</v>
@@ -28214,10 +28214,10 @@
         <v>-10.9801</v>
       </c>
       <c r="AJ157" t="n">
-        <v>-64</v>
+        <v>36</v>
       </c>
       <c r="AK157" t="n">
-        <v>-4.0883</v>
+        <v>95.9117</v>
       </c>
       <c r="AL157" t="n">
         <v>77.301</v>
@@ -28345,7 +28345,7 @@
         <v>4.4093</v>
       </c>
       <c r="U158" t="n">
-        <v>88.8471</v>
+        <v>-11.1529</v>
       </c>
       <c r="V158" t="n">
         <v>11.0137</v>
@@ -28354,7 +28354,7 @@
         <v>5.4202</v>
       </c>
       <c r="X158" t="n">
-        <v>-1.4456</v>
+        <v>-0.0145</v>
       </c>
       <c r="Y158" t="n">
         <v>67.6234</v>
@@ -28369,7 +28369,7 @@
         <v>0.5081</v>
       </c>
       <c r="AC158" t="n">
-        <v>-25.23</v>
+        <v>74.77</v>
       </c>
       <c r="AD158" t="n">
         <v>-8.3979</v>
@@ -28390,10 +28390,10 @@
         <v>-20.241</v>
       </c>
       <c r="AJ158" t="n">
-        <v>-61.3</v>
+        <v>38.7</v>
       </c>
       <c r="AK158" t="n">
-        <v>-13.8989</v>
+        <v>86.1011</v>
       </c>
       <c r="AL158" t="n">
         <v>81.6745</v>
@@ -28521,7 +28521,7 @@
         <v>3.4583</v>
       </c>
       <c r="U159" t="n">
-        <v>90.9081</v>
+        <v>-9.0919</v>
       </c>
       <c r="V159" t="n">
         <v>10.2871</v>
@@ -28530,7 +28530,7 @@
         <v>4.937</v>
       </c>
       <c r="X159" t="n">
-        <v>-2.5114</v>
+        <v>-0.0251</v>
       </c>
       <c r="Y159" t="n">
         <v>81.9244</v>
@@ -28545,7 +28545,7 @@
         <v>0.3932</v>
       </c>
       <c r="AC159" t="n">
-        <v>-24.99</v>
+        <v>75.01</v>
       </c>
       <c r="AD159" t="n">
         <v>-4.8547</v>
@@ -28566,10 +28566,10 @@
         <v>-7.4014</v>
       </c>
       <c r="AJ159" t="n">
-        <v>-51.6</v>
+        <v>48.4</v>
       </c>
       <c r="AK159" t="n">
-        <v>-15.8421</v>
+        <v>84.1579</v>
       </c>
       <c r="AL159" t="n">
         <v>65.1415</v>
@@ -28697,7 +28697,7 @@
         <v>3.1998</v>
       </c>
       <c r="U160" t="n">
-        <v>91.6487</v>
+        <v>-8.3513</v>
       </c>
       <c r="V160" t="n">
         <v>10.2314</v>
@@ -28706,7 +28706,7 @@
         <v>4.8543</v>
       </c>
       <c r="X160" t="n">
-        <v>-3.3608</v>
+        <v>-0.0336</v>
       </c>
       <c r="Y160" t="n">
         <v>89.8259</v>
@@ -28721,7 +28721,7 @@
         <v>0.2429</v>
       </c>
       <c r="AC160" t="n">
-        <v>-24.74</v>
+        <v>75.26</v>
       </c>
       <c r="AD160" t="n">
         <v>-8.6577</v>
@@ -28742,10 +28742,10 @@
         <v>-5.9209</v>
       </c>
       <c r="AJ160" t="n">
-        <v>-63.1</v>
+        <v>36.9</v>
       </c>
       <c r="AK160" t="n">
-        <v>-11.7713</v>
+        <v>88.2287</v>
       </c>
       <c r="AL160" t="n">
         <v>80.6893</v>
@@ -28873,7 +28873,7 @@
         <v>4.8374</v>
       </c>
       <c r="U161" t="n">
-        <v>87.6779</v>
+        <v>-12.3222</v>
       </c>
       <c r="V161" t="n">
         <v>11.3576</v>
@@ -28882,7 +28882,7 @@
         <v>5.3278</v>
       </c>
       <c r="X161" t="n">
-        <v>-5.3504</v>
+        <v>-0.0535</v>
       </c>
       <c r="Y161" t="n">
         <v>71.7591</v>
@@ -28897,7 +28897,7 @@
         <v>0.8035</v>
       </c>
       <c r="AC161" t="n">
-        <v>-25.07</v>
+        <v>74.93</v>
       </c>
       <c r="AD161" t="n">
         <v>-4.9521</v>
@@ -28918,10 +28918,10 @@
         <v>-32.0704</v>
       </c>
       <c r="AJ161" t="n">
-        <v>-78.5</v>
+        <v>21.5</v>
       </c>
       <c r="AK161" t="n">
-        <v>-17.8826</v>
+        <v>82.1174</v>
       </c>
       <c r="AL161" t="n">
         <v>69.6488</v>
@@ -29049,7 +29049,7 @@
         <v>3.2749</v>
       </c>
       <c r="U162" t="n">
-        <v>91.6102</v>
+        <v>-8.3898</v>
       </c>
       <c r="V162" t="n">
         <v>10.5145</v>
@@ -29058,7 +29058,7 @@
         <v>4.7644</v>
       </c>
       <c r="X162" t="n">
-        <v>-1.0161</v>
+        <v>-0.0102</v>
       </c>
       <c r="Y162" t="n">
         <v>80.4056</v>
@@ -29073,7 +29073,7 @@
         <v>0.5857</v>
       </c>
       <c r="AC162" t="n">
-        <v>-24.89</v>
+        <v>75.11</v>
       </c>
       <c r="AD162" t="n">
         <v>-4.8054</v>
@@ -29094,10 +29094,10 @@
         <v>-10.1256</v>
       </c>
       <c r="AJ162" t="n">
-        <v>-58.6</v>
+        <v>41.4</v>
       </c>
       <c r="AK162" t="n">
-        <v>-20.7882</v>
+        <v>79.2118</v>
       </c>
       <c r="AL162" t="n">
         <v>84.2396</v>
@@ -29225,7 +29225,7 @@
         <v>4.0679</v>
       </c>
       <c r="U163" t="n">
-        <v>90.7654</v>
+        <v>-9.2346</v>
       </c>
       <c r="V163" t="n">
         <v>11.2529</v>
@@ -29234,7 +29234,7 @@
         <v>5.5039</v>
       </c>
       <c r="X163" t="n">
-        <v>-3.3283</v>
+        <v>-0.0333</v>
       </c>
       <c r="Y163" t="n">
         <v>71.8166</v>
@@ -29249,7 +29249,7 @@
         <v>0.5602</v>
       </c>
       <c r="AC163" t="n">
-        <v>-24.86</v>
+        <v>75.14</v>
       </c>
       <c r="AD163" t="n">
         <v>-4.7649</v>
@@ -29270,10 +29270,10 @@
         <v>-3.3562</v>
       </c>
       <c r="AJ163" t="n">
-        <v>-56.4</v>
+        <v>43.6</v>
       </c>
       <c r="AK163" t="n">
-        <v>-8.6061</v>
+        <v>91.3939</v>
       </c>
       <c r="AL163" t="n">
         <v>67.5002</v>
@@ -29401,7 +29401,7 @@
         <v>3.1029</v>
       </c>
       <c r="U164" t="n">
-        <v>84.97</v>
+        <v>-15.03</v>
       </c>
       <c r="V164" t="n">
         <v>9.9929</v>
@@ -29410,7 +29410,7 @@
         <v>4.7401</v>
       </c>
       <c r="X164" t="n">
-        <v>-3.5941</v>
+        <v>-0.0359</v>
       </c>
       <c r="Y164" t="n">
         <v>65.925</v>
@@ -29425,7 +29425,7 @@
         <v>0.6112</v>
       </c>
       <c r="AC164" t="n">
-        <v>-25.57</v>
+        <v>74.43</v>
       </c>
       <c r="AD164" t="n">
         <v>-3.1219</v>
@@ -29446,10 +29446,10 @@
         <v>-22.7174</v>
       </c>
       <c r="AJ164" t="n">
-        <v>-53.9</v>
+        <v>46.1</v>
       </c>
       <c r="AK164" t="n">
-        <v>-12.6528</v>
+        <v>87.3472</v>
       </c>
       <c r="AL164" t="n">
         <v>69.8247</v>
@@ -29577,7 +29577,7 @@
         <v>3.8887</v>
       </c>
       <c r="U165" t="n">
-        <v>87.9733</v>
+        <v>-12.0267</v>
       </c>
       <c r="V165" t="n">
         <v>10.1308</v>
@@ -29586,7 +29586,7 @@
         <v>4.8791</v>
       </c>
       <c r="X165" t="n">
-        <v>-2.7343</v>
+        <v>-0.0273</v>
       </c>
       <c r="Y165" t="n">
         <v>79.3017</v>
@@ -29601,7 +29601,7 @@
         <v>-0.1639</v>
       </c>
       <c r="AC165" t="n">
-        <v>-25.43</v>
+        <v>74.57</v>
       </c>
       <c r="AD165" t="n">
         <v>-10.9675</v>
@@ -29622,10 +29622,10 @@
         <v>-16.1478</v>
       </c>
       <c r="AJ165" t="n">
-        <v>-31.5</v>
+        <v>68.5</v>
       </c>
       <c r="AK165" t="n">
-        <v>-2.8935</v>
+        <v>97.1065</v>
       </c>
       <c r="AL165" t="n">
         <v>85.0168</v>
@@ -29753,7 +29753,7 @@
         <v>4.5604</v>
       </c>
       <c r="U166" t="n">
-        <v>89.0664</v>
+        <v>-10.9336</v>
       </c>
       <c r="V166" t="n">
         <v>11.9989</v>
@@ -29762,7 +29762,7 @@
         <v>5.3374</v>
       </c>
       <c r="X166" t="n">
-        <v>-1.7223</v>
+        <v>-0.0172</v>
       </c>
       <c r="Y166" t="n">
         <v>67.4008</v>
@@ -29777,7 +29777,7 @@
         <v>0.8187</v>
       </c>
       <c r="AC166" t="n">
-        <v>-25.09</v>
+        <v>74.91</v>
       </c>
       <c r="AD166" t="n">
         <v>-7.0712</v>
@@ -29798,10 +29798,10 @@
         <v>-17.8121</v>
       </c>
       <c r="AJ166" t="n">
-        <v>-65.9</v>
+        <v>34.1</v>
       </c>
       <c r="AK166" t="n">
-        <v>-22.141</v>
+        <v>77.859</v>
       </c>
       <c r="AL166" t="n">
         <v>78.4744</v>
@@ -29929,7 +29929,7 @@
         <v>3.7572</v>
       </c>
       <c r="U167" t="n">
-        <v>95.3</v>
+        <v>-4.7</v>
       </c>
       <c r="V167" t="n">
         <v>11.0006</v>
@@ -29938,7 +29938,7 @@
         <v>5.0844</v>
       </c>
       <c r="X167" t="n">
-        <v>-1.9022</v>
+        <v>-0.019</v>
       </c>
       <c r="Y167" t="n">
         <v>76.9455</v>
@@ -29953,7 +29953,7 @@
         <v>0.9813</v>
       </c>
       <c r="AC167" t="n">
-        <v>-24.77</v>
+        <v>75.23</v>
       </c>
       <c r="AD167" t="n">
         <v>-6.266</v>
@@ -29974,10 +29974,10 @@
         <v>-10</v>
       </c>
       <c r="AJ167" t="n">
-        <v>-60.3</v>
+        <v>39.7</v>
       </c>
       <c r="AK167" t="n">
-        <v>-10.0128</v>
+        <v>89.9872</v>
       </c>
       <c r="AL167" t="n">
         <v>74.5327</v>
@@ -30105,7 +30105,7 @@
         <v>3.8974</v>
       </c>
       <c r="U168" t="n">
-        <v>97.9</v>
+        <v>-2.1</v>
       </c>
       <c r="V168" t="n">
         <v>11.2316</v>
@@ -30114,7 +30114,7 @@
         <v>5.1588</v>
       </c>
       <c r="X168" t="n">
-        <v>-1.4849</v>
+        <v>-0.0148</v>
       </c>
       <c r="Y168" t="n">
         <v>79.9045</v>
@@ -30129,7 +30129,7 @@
         <v>0.9854</v>
       </c>
       <c r="AC168" t="n">
-        <v>-24.09</v>
+        <v>75.91</v>
       </c>
       <c r="AD168" t="n">
         <v>-12.6963</v>
@@ -30150,10 +30150,10 @@
         <v>-0.8229</v>
       </c>
       <c r="AJ168" t="n">
-        <v>-41.6</v>
+        <v>58.4</v>
       </c>
       <c r="AK168" t="n">
-        <v>-7.5413</v>
+        <v>92.4587</v>
       </c>
       <c r="AL168" t="n">
         <v>88.4928</v>
@@ -30281,7 +30281,7 @@
         <v>2.8555</v>
       </c>
       <c r="U169" t="n">
-        <v>98.2</v>
+        <v>-1.8</v>
       </c>
       <c r="V169" t="n">
         <v>10.3534</v>
@@ -30290,7 +30290,7 @@
         <v>4.8954</v>
       </c>
       <c r="X169" t="n">
-        <v>-1.6602</v>
+        <v>-0.0166</v>
       </c>
       <c r="Y169" t="n">
         <v>85.8623</v>
@@ -30305,7 +30305,7 @@
         <v>0.9837</v>
       </c>
       <c r="AC169" t="n">
-        <v>-24.04</v>
+        <v>75.96</v>
       </c>
       <c r="AD169" t="n">
         <v>-2.5736</v>
@@ -30326,10 +30326,10 @@
         <v>-3.3031</v>
       </c>
       <c r="AJ169" t="n">
-        <v>-56.8</v>
+        <v>43.2</v>
       </c>
       <c r="AK169" t="n">
-        <v>-7.7012</v>
+        <v>92.2988</v>
       </c>
       <c r="AL169" t="n">
         <v>76.0922</v>
@@ -30457,7 +30457,7 @@
         <v>3.676</v>
       </c>
       <c r="U170" t="n">
-        <v>97.7</v>
+        <v>-2.3</v>
       </c>
       <c r="V170" t="n">
         <v>10.7298</v>
@@ -30466,7 +30466,7 @@
         <v>4.9099</v>
       </c>
       <c r="X170" t="n">
-        <v>-3.4934</v>
+        <v>-0.0349</v>
       </c>
       <c r="Y170" t="n">
         <v>87.1115</v>
@@ -30481,7 +30481,7 @@
         <v>0.9662</v>
       </c>
       <c r="AC170" t="n">
-        <v>-24.15</v>
+        <v>75.85</v>
       </c>
       <c r="AD170" t="n">
         <v>-8.3913</v>
@@ -30502,10 +30502,10 @@
         <v>-2.7242</v>
       </c>
       <c r="AJ170" t="n">
-        <v>-46.6</v>
+        <v>53.4</v>
       </c>
       <c r="AK170" t="n">
-        <v>-4.9785</v>
+        <v>95.0215</v>
       </c>
       <c r="AL170" t="n">
         <v>74.9328</v>
@@ -30633,7 +30633,7 @@
         <v>4.111</v>
       </c>
       <c r="U171" t="n">
-        <v>94.1</v>
+        <v>-5.9</v>
       </c>
       <c r="V171" t="n">
         <v>10.8236</v>
@@ -30642,7 +30642,7 @@
         <v>4.7994</v>
       </c>
       <c r="X171" t="n">
-        <v>-4.5354</v>
+        <v>-0.0454</v>
       </c>
       <c r="Y171" t="n">
         <v>72.3191</v>
@@ -30657,7 +30657,7 @@
         <v>0.9566</v>
       </c>
       <c r="AC171" t="n">
-        <v>-25.22</v>
+        <v>74.78</v>
       </c>
       <c r="AD171" t="n">
         <v>-7.5402</v>
@@ -30678,10 +30678,10 @@
         <v>-19.7181</v>
       </c>
       <c r="AJ171" t="n">
-        <v>-53.7</v>
+        <v>46.3</v>
       </c>
       <c r="AK171" t="n">
-        <v>-5.5308</v>
+        <v>94.4692</v>
       </c>
       <c r="AL171" t="n">
         <v>78.7908</v>
@@ -30809,7 +30809,7 @@
         <v>4.0864</v>
       </c>
       <c r="U172" t="n">
-        <v>98.3</v>
+        <v>-1.7</v>
       </c>
       <c r="V172" t="n">
         <v>10.7594</v>
@@ -30818,7 +30818,7 @@
         <v>4.9048</v>
       </c>
       <c r="X172" t="n">
-        <v>-1.5001</v>
+        <v>-0.015</v>
       </c>
       <c r="Y172" t="n">
         <v>79.8863</v>
@@ -30833,7 +30833,7 @@
         <v>0.9852</v>
       </c>
       <c r="AC172" t="n">
-        <v>-24.31</v>
+        <v>75.69</v>
       </c>
       <c r="AD172" t="n">
         <v>-8.6756</v>
@@ -30854,10 +30854,10 @@
         <v>-4.2592</v>
       </c>
       <c r="AJ172" t="n">
-        <v>-44.8</v>
+        <v>55.2</v>
       </c>
       <c r="AK172" t="n">
-        <v>-12.3276</v>
+        <v>87.6724</v>
       </c>
       <c r="AL172" t="n">
         <v>79.1678</v>
@@ -30985,7 +30985,7 @@
         <v>3.4552</v>
       </c>
       <c r="U173" t="n">
-        <v>96.6</v>
+        <v>-3.4</v>
       </c>
       <c r="V173" t="n">
         <v>10.3629</v>
@@ -30994,7 +30994,7 @@
         <v>4.76</v>
       </c>
       <c r="X173" t="n">
-        <v>-3.08</v>
+        <v>-0.0308</v>
       </c>
       <c r="Y173" t="n">
         <v>84.5298</v>
@@ -31009,7 +31009,7 @@
         <v>0.9701</v>
       </c>
       <c r="AC173" t="n">
-        <v>-24.48</v>
+        <v>75.52</v>
       </c>
       <c r="AD173" t="n">
         <v>-6.8363</v>
@@ -31030,10 +31030,10 @@
         <v>-1.4784</v>
       </c>
       <c r="AJ173" t="n">
-        <v>-50.3</v>
+        <v>49.7</v>
       </c>
       <c r="AK173" t="n">
-        <v>-6.0193</v>
+        <v>93.9807</v>
       </c>
       <c r="AL173" t="n">
         <v>83.3561</v>
@@ -31161,7 +31161,7 @@
         <v>5.3497</v>
       </c>
       <c r="U174" t="n">
-        <v>86.3</v>
+        <v>-13.7</v>
       </c>
       <c r="V174" t="n">
         <v>14.3692</v>
@@ -31170,7 +31170,7 @@
         <v>5.4775</v>
       </c>
       <c r="X174" t="n">
-        <v>-6.2704</v>
+        <v>-0.0627</v>
       </c>
       <c r="Y174" t="n">
         <v>58.6384</v>
@@ -31185,7 +31185,7 @@
         <v>0.941</v>
       </c>
       <c r="AC174" t="n">
-        <v>-25.7</v>
+        <v>74.3</v>
       </c>
       <c r="AD174" t="n">
         <v>-3.6076</v>
@@ -31206,10 +31206,10 @@
         <v>-32.529</v>
       </c>
       <c r="AJ174" t="n">
-        <v>-71.6</v>
+        <v>28.4</v>
       </c>
       <c r="AK174" t="n">
-        <v>-20.0708</v>
+        <v>79.9292</v>
       </c>
       <c r="AL174" t="n">
         <v>65.5049</v>
@@ -31337,7 +31337,7 @@
         <v>3.3688</v>
       </c>
       <c r="U175" t="n">
-        <v>97.4</v>
+        <v>-2.6</v>
       </c>
       <c r="V175" t="n">
         <v>11.1777</v>
@@ -31346,7 +31346,7 @@
         <v>5.0802</v>
       </c>
       <c r="X175" t="n">
-        <v>-0.0032</v>
+        <v>0</v>
       </c>
       <c r="Y175" t="n">
         <v>82.7448</v>
@@ -31361,7 +31361,7 @@
         <v>1</v>
       </c>
       <c r="AC175" t="n">
-        <v>-24.58</v>
+        <v>75.42</v>
       </c>
       <c r="AD175" t="n">
         <v>-14.458</v>
@@ -31382,10 +31382,10 @@
         <v>-5.0921</v>
       </c>
       <c r="AJ175" t="n">
-        <v>-57.8</v>
+        <v>42.2</v>
       </c>
       <c r="AK175" t="n">
-        <v>-18.9717</v>
+        <v>81.0283</v>
       </c>
       <c r="AL175" t="n">
         <v>74.183</v>
@@ -31513,7 +31513,7 @@
         <v>3.0113</v>
       </c>
       <c r="U176" t="n">
-        <v>98.6</v>
+        <v>-1.4</v>
       </c>
       <c r="V176" t="n">
         <v>8.7482</v>
@@ -31522,7 +31522,7 @@
         <v>4.743</v>
       </c>
       <c r="X176" t="n">
-        <v>-2.6691</v>
+        <v>-0.0267</v>
       </c>
       <c r="Y176" t="n">
         <v>85.301</v>
@@ -31537,7 +31537,7 @@
         <v>0.974</v>
       </c>
       <c r="AC176" t="n">
-        <v>-23.4</v>
+        <v>76.6</v>
       </c>
       <c r="AD176" t="n">
         <v>-4.886</v>
@@ -31558,10 +31558,10 @@
         <v>-0.0722</v>
       </c>
       <c r="AJ176" t="n">
-        <v>-67.1</v>
+        <v>32.9</v>
       </c>
       <c r="AK176" t="n">
-        <v>-4.4329</v>
+        <v>95.5671</v>
       </c>
       <c r="AL176" t="n">
         <v>83.7806</v>
@@ -31689,7 +31689,7 @@
         <v>3.9245</v>
       </c>
       <c r="U177" t="n">
-        <v>97.3</v>
+        <v>-2.7</v>
       </c>
       <c r="V177" t="n">
         <v>12.0353</v>
@@ -31698,7 +31698,7 @@
         <v>5.1846</v>
       </c>
       <c r="X177" t="n">
-        <v>-1.2007</v>
+        <v>-0.012</v>
       </c>
       <c r="Y177" t="n">
         <v>77.7903</v>
@@ -31713,7 +31713,7 @@
         <v>0.9881</v>
       </c>
       <c r="AC177" t="n">
-        <v>-24.87</v>
+        <v>75.13</v>
       </c>
       <c r="AD177" t="n">
         <v>-6.2751</v>
@@ -31734,10 +31734,10 @@
         <v>-13.431</v>
       </c>
       <c r="AJ177" t="n">
-        <v>-42.9</v>
+        <v>57.1</v>
       </c>
       <c r="AK177" t="n">
-        <v>-15.9681</v>
+        <v>84.0319</v>
       </c>
       <c r="AL177" t="n">
         <v>81.0965</v>
@@ -31865,7 +31865,7 @@
         <v>4.0294</v>
       </c>
       <c r="U178" t="n">
-        <v>94.7</v>
+        <v>-5.3</v>
       </c>
       <c r="V178" t="n">
         <v>11.4812</v>
@@ -31874,7 +31874,7 @@
         <v>5.1316</v>
       </c>
       <c r="X178" t="n">
-        <v>-1.2387</v>
+        <v>-0.0124</v>
       </c>
       <c r="Y178" t="n">
         <v>72.8773</v>
@@ -31889,7 +31889,7 @@
         <v>0.9878</v>
       </c>
       <c r="AC178" t="n">
-        <v>-24.77</v>
+        <v>75.23</v>
       </c>
       <c r="AD178" t="n">
         <v>-8.124</v>
@@ -31910,10 +31910,10 @@
         <v>-4.0955</v>
       </c>
       <c r="AJ178" t="n">
-        <v>-54.6</v>
+        <v>45.4</v>
       </c>
       <c r="AK178" t="n">
-        <v>-9.0563</v>
+        <v>90.9437</v>
       </c>
       <c r="AL178" t="n">
         <v>72.2202</v>
@@ -32041,7 +32041,7 @@
         <v>4.9877</v>
       </c>
       <c r="U179" t="n">
-        <v>87.5</v>
+        <v>-12.5</v>
       </c>
       <c r="V179" t="n">
         <v>12.5082</v>
@@ -32050,7 +32050,7 @@
         <v>5.4807</v>
       </c>
       <c r="X179" t="n">
-        <v>-1.3008</v>
+        <v>-0.013</v>
       </c>
       <c r="Y179" t="n">
         <v>66.4586</v>
@@ -32065,7 +32065,7 @@
         <v>0.9872</v>
       </c>
       <c r="AC179" t="n">
-        <v>-26.68</v>
+        <v>73.32</v>
       </c>
       <c r="AD179" t="n">
         <v>-1.4122</v>
@@ -32086,10 +32086,10 @@
         <v>-31.7766</v>
       </c>
       <c r="AJ179" t="n">
-        <v>-66.9</v>
+        <v>33.1</v>
       </c>
       <c r="AK179" t="n">
-        <v>-13.556</v>
+        <v>86.444</v>
       </c>
       <c r="AL179" t="n">
         <v>65.7712</v>
@@ -32217,7 +32217,7 @@
         <v>3.6627</v>
       </c>
       <c r="U180" t="n">
-        <v>93.4</v>
+        <v>-6.6</v>
       </c>
       <c r="V180" t="n">
         <v>11.3354</v>
@@ -32226,7 +32226,7 @@
         <v>5.5759</v>
       </c>
       <c r="X180" t="n">
-        <v>-1.6304</v>
+        <v>-0.0163</v>
       </c>
       <c r="Y180" t="n">
         <v>74.7112</v>
@@ -32241,7 +32241,7 @@
         <v>0.984</v>
       </c>
       <c r="AC180" t="n">
-        <v>-24.89</v>
+        <v>75.11</v>
       </c>
       <c r="AD180" t="n">
         <v>-4.2818</v>
@@ -32262,10 +32262,10 @@
         <v>-13.673</v>
       </c>
       <c r="AJ180" t="n">
-        <v>-55.9</v>
+        <v>44.1</v>
       </c>
       <c r="AK180" t="n">
-        <v>-12.3448</v>
+        <v>87.6552</v>
       </c>
       <c r="AL180" t="n">
         <v>73.8625</v>
@@ -32393,7 +32393,7 @@
         <v>3.7899</v>
       </c>
       <c r="U181" t="n">
-        <v>97.1</v>
+        <v>-2.9</v>
       </c>
       <c r="V181" t="n">
         <v>11.1984</v>
@@ -32402,7 +32402,7 @@
         <v>4.9555</v>
       </c>
       <c r="X181" t="n">
-        <v>-1.7862</v>
+        <v>-0.0179</v>
       </c>
       <c r="Y181" t="n">
         <v>80.0059</v>
@@ -32417,7 +32417,7 @@
         <v>0.9825</v>
       </c>
       <c r="AC181" t="n">
-        <v>-24.5</v>
+        <v>75.5</v>
       </c>
       <c r="AD181" t="n">
         <v>-7.846</v>
@@ -32438,10 +32438,10 @@
         <v>-1.2155</v>
       </c>
       <c r="AJ181" t="n">
-        <v>-62.6</v>
+        <v>37.4</v>
       </c>
       <c r="AK181" t="n">
-        <v>-10.751</v>
+        <v>89.249</v>
       </c>
       <c r="AL181" t="n">
         <v>83.3514</v>
@@ -32569,7 +32569,7 @@
         <v>3.2782</v>
       </c>
       <c r="U182" t="n">
-        <v>97.1</v>
+        <v>-2.9</v>
       </c>
       <c r="V182" t="n">
         <v>10.8422</v>
@@ -32578,7 +32578,7 @@
         <v>5.2487</v>
       </c>
       <c r="X182" t="n">
-        <v>-0.6296</v>
+        <v>-0.0063</v>
       </c>
       <c r="Y182" t="n">
         <v>81.4127</v>
@@ -32593,7 +32593,7 @@
         <v>0.9937</v>
       </c>
       <c r="AC182" t="n">
-        <v>-24.52</v>
+        <v>75.48</v>
       </c>
       <c r="AD182" t="n">
         <v>-4.8963</v>
@@ -32614,10 +32614,10 @@
         <v>-5.3138</v>
       </c>
       <c r="AJ182" t="n">
-        <v>-70.4</v>
+        <v>29.6</v>
       </c>
       <c r="AK182" t="n">
-        <v>-6.8006</v>
+        <v>93.1994</v>
       </c>
       <c r="AL182" t="n">
         <v>68.403</v>
@@ -32745,7 +32745,7 @@
         <v>4.2509</v>
       </c>
       <c r="U183" t="n">
-        <v>93</v>
+        <v>-7</v>
       </c>
       <c r="V183" t="n">
         <v>11.6058</v>
@@ -32754,7 +32754,7 @@
         <v>4.7821</v>
       </c>
       <c r="X183" t="n">
-        <v>-1.195</v>
+        <v>-0.0119</v>
       </c>
       <c r="Y183" t="n">
         <v>71.8657</v>
@@ -32769,7 +32769,7 @@
         <v>0.9879</v>
       </c>
       <c r="AC183" t="n">
-        <v>-25.13</v>
+        <v>74.87</v>
       </c>
       <c r="AD183" t="n">
         <v>-7.9177</v>
@@ -32790,10 +32790,10 @@
         <v>-8.183</v>
       </c>
       <c r="AJ183" t="n">
-        <v>-60.6</v>
+        <v>39.4</v>
       </c>
       <c r="AK183" t="n">
-        <v>-10.7554</v>
+        <v>89.2446</v>
       </c>
       <c r="AL183" t="n">
         <v>72.7666</v>
@@ -32921,7 +32921,7 @@
         <v>3.4534</v>
       </c>
       <c r="U184" t="n">
-        <v>95.6</v>
+        <v>-4.4</v>
       </c>
       <c r="V184" t="n">
         <v>10.3917</v>
@@ -32930,7 +32930,7 @@
         <v>4.9646</v>
       </c>
       <c r="X184" t="n">
-        <v>-1.9852</v>
+        <v>-0.0199</v>
       </c>
       <c r="Y184" t="n">
         <v>77.0864</v>
@@ -32945,7 +32945,7 @@
         <v>0.9805</v>
       </c>
       <c r="AC184" t="n">
-        <v>-24.73</v>
+        <v>75.27</v>
       </c>
       <c r="AD184" t="n">
         <v>-5.3766</v>
@@ -32966,10 +32966,10 @@
         <v>-3.4556</v>
       </c>
       <c r="AJ184" t="n">
-        <v>-62</v>
+        <v>38</v>
       </c>
       <c r="AK184" t="n">
-        <v>-4.884</v>
+        <v>95.116</v>
       </c>
       <c r="AL184" t="n">
         <v>60.4836</v>
@@ -33097,7 +33097,7 @@
         <v>3.8047</v>
       </c>
       <c r="U185" t="n">
-        <v>95.5</v>
+        <v>-4.5</v>
       </c>
       <c r="V185" t="n">
         <v>11.2744</v>
@@ -33106,7 +33106,7 @@
         <v>5.0755</v>
       </c>
       <c r="X185" t="n">
-        <v>-3.0537</v>
+        <v>-0.0305</v>
       </c>
       <c r="Y185" t="n">
         <v>75.7921</v>
@@ -33121,7 +33121,7 @@
         <v>0.9704</v>
       </c>
       <c r="AC185" t="n">
-        <v>-24.67</v>
+        <v>75.33</v>
       </c>
       <c r="AD185" t="n">
         <v>-7.3657</v>
@@ -33142,10 +33142,10 @@
         <v>-13.4948</v>
       </c>
       <c r="AJ185" t="n">
-        <v>-54.3</v>
+        <v>45.7</v>
       </c>
       <c r="AK185" t="n">
-        <v>-10.0479</v>
+        <v>89.9521</v>
       </c>
       <c r="AL185" t="n">
         <v>76.2916</v>
@@ -33273,7 +33273,7 @@
         <v>3.6179</v>
       </c>
       <c r="U186" t="n">
-        <v>98.5</v>
+        <v>-1.5</v>
       </c>
       <c r="V186" t="n">
         <v>10.0436</v>
@@ -33282,7 +33282,7 @@
         <v>4.6971</v>
       </c>
       <c r="X186" t="n">
-        <v>-3.5488</v>
+        <v>-0.0355</v>
       </c>
       <c r="Y186" t="n">
         <v>85.3346</v>
@@ -33297,7 +33297,7 @@
         <v>0.9657</v>
       </c>
       <c r="AC186" t="n">
-        <v>-24.08</v>
+        <v>75.92</v>
       </c>
       <c r="AD186" t="n">
         <v>-6.068</v>
@@ -33318,10 +33318,10 @@
         <v>-1.8165</v>
       </c>
       <c r="AJ186" t="n">
-        <v>-42.2</v>
+        <v>57.8</v>
       </c>
       <c r="AK186" t="n">
-        <v>-7.9697</v>
+        <v>92.0303</v>
       </c>
       <c r="AL186" t="n">
         <v>81.5023</v>
@@ -33449,7 +33449,7 @@
         <v>3.8805</v>
       </c>
       <c r="U187" t="n">
-        <v>88.2</v>
+        <v>-11.8</v>
       </c>
       <c r="V187" t="n">
         <v>11.2824</v>
@@ -33458,7 +33458,7 @@
         <v>5.4013</v>
       </c>
       <c r="X187" t="n">
-        <v>-3.0172</v>
+        <v>-0.0302</v>
       </c>
       <c r="Y187" t="n">
         <v>63.0234</v>
@@ -33473,7 +33473,7 @@
         <v>0.9707</v>
       </c>
       <c r="AC187" t="n">
-        <v>-25.83</v>
+        <v>74.17</v>
       </c>
       <c r="AD187" t="n">
         <v>-5.1789</v>
@@ -33494,10 +33494,10 @@
         <v>-30.7432</v>
       </c>
       <c r="AJ187" t="n">
-        <v>-62.6</v>
+        <v>37.4</v>
       </c>
       <c r="AK187" t="n">
-        <v>-10.5321</v>
+        <v>89.4679</v>
       </c>
       <c r="AL187" t="n">
         <v>74.4431</v>
@@ -33625,7 +33625,7 @@
         <v>4.3906</v>
       </c>
       <c r="U188" t="n">
-        <v>93</v>
+        <v>-7</v>
       </c>
       <c r="V188" t="n">
         <v>11.8254</v>
@@ -33634,7 +33634,7 @@
         <v>5.3384</v>
       </c>
       <c r="X188" t="n">
-        <v>-0.8699</v>
+        <v>-0.0087</v>
       </c>
       <c r="Y188" t="n">
         <v>70.7123</v>
@@ -33649,7 +33649,7 @@
         <v>0.9914</v>
       </c>
       <c r="AC188" t="n">
-        <v>-25.15</v>
+        <v>74.85</v>
       </c>
       <c r="AD188" t="n">
         <v>-5.1038</v>
@@ -33670,10 +33670,10 @@
         <v>-12.1514</v>
       </c>
       <c r="AJ188" t="n">
-        <v>-71</v>
+        <v>29</v>
       </c>
       <c r="AK188" t="n">
-        <v>-8.9529</v>
+        <v>91.0471</v>
       </c>
       <c r="AL188" t="n">
         <v>70.3909</v>
@@ -33801,7 +33801,7 @@
         <v>3.7963</v>
       </c>
       <c r="U189" t="n">
-        <v>96.5</v>
+        <v>-3.5</v>
       </c>
       <c r="V189" t="n">
         <v>10.9491</v>
@@ -33810,7 +33810,7 @@
         <v>5.0312</v>
       </c>
       <c r="X189" t="n">
-        <v>-0.4939</v>
+        <v>-0.0049</v>
       </c>
       <c r="Y189" t="n">
         <v>81.0973</v>
@@ -33825,7 +33825,7 @@
         <v>0.995</v>
       </c>
       <c r="AC189" t="n">
-        <v>-24.34</v>
+        <v>75.66</v>
       </c>
       <c r="AD189" t="n">
         <v>-8.4443</v>
@@ -33846,10 +33846,10 @@
         <v>-1.4429</v>
       </c>
       <c r="AJ189" t="n">
-        <v>-45.1</v>
+        <v>54.9</v>
       </c>
       <c r="AK189" t="n">
-        <v>-6.3095</v>
+        <v>93.6905</v>
       </c>
       <c r="AL189" t="n">
         <v>73.1909</v>
@@ -33977,7 +33977,7 @@
         <v>3.2324</v>
       </c>
       <c r="U190" t="n">
-        <v>96.9</v>
+        <v>-3.1</v>
       </c>
       <c r="V190" t="n">
         <v>10.4806</v>
@@ -33986,7 +33986,7 @@
         <v>4.6862</v>
       </c>
       <c r="X190" t="n">
-        <v>-2.0537</v>
+        <v>-0.0205</v>
       </c>
       <c r="Y190" t="n">
         <v>78.5203</v>
@@ -34001,7 +34001,7 @@
         <v>0.9799</v>
       </c>
       <c r="AC190" t="n">
-        <v>-24.52</v>
+        <v>75.48</v>
       </c>
       <c r="AD190" t="n">
         <v>-9.4726</v>
@@ -34022,10 +34022,10 @@
         <v>-7.6492</v>
       </c>
       <c r="AJ190" t="n">
-        <v>-64</v>
+        <v>36</v>
       </c>
       <c r="AK190" t="n">
-        <v>-2.1312</v>
+        <v>97.8688</v>
       </c>
       <c r="AL190" t="n">
         <v>68.6346</v>
@@ -34153,7 +34153,7 @@
         <v>4.3924</v>
       </c>
       <c r="U191" t="n">
-        <v>95</v>
+        <v>-5</v>
       </c>
       <c r="V191" t="n">
         <v>10.9596</v>
@@ -34162,7 +34162,7 @@
         <v>5.3155</v>
       </c>
       <c r="X191" t="n">
-        <v>-1.2044</v>
+        <v>-0.012</v>
       </c>
       <c r="Y191" t="n">
         <v>69.9894</v>
@@ -34177,7 +34177,7 @@
         <v>0.9881</v>
       </c>
       <c r="AC191" t="n">
-        <v>-25.09</v>
+        <v>74.91</v>
       </c>
       <c r="AD191" t="n">
         <v>-9.1416</v>
@@ -34198,10 +34198,10 @@
         <v>-19.7414</v>
       </c>
       <c r="AJ191" t="n">
-        <v>-61.3</v>
+        <v>38.7</v>
       </c>
       <c r="AK191" t="n">
-        <v>-10.5797</v>
+        <v>89.4204</v>
       </c>
       <c r="AL191" t="n">
         <v>80.3422</v>
@@ -34329,7 +34329,7 @@
         <v>3.6599</v>
       </c>
       <c r="U192" t="n">
-        <v>96.4</v>
+        <v>-3.6</v>
       </c>
       <c r="V192" t="n">
         <v>10.5913</v>
@@ -34338,7 +34338,7 @@
         <v>5.1044</v>
       </c>
       <c r="X192" t="n">
-        <v>-2.5179</v>
+        <v>-0.0252</v>
       </c>
       <c r="Y192" t="n">
         <v>83.5994</v>
@@ -34353,7 +34353,7 @@
         <v>0.9754</v>
       </c>
       <c r="AC192" t="n">
-        <v>-24.87</v>
+        <v>75.13</v>
       </c>
       <c r="AD192" t="n">
         <v>-3.7001</v>
@@ -34374,10 +34374,10 @@
         <v>-9.3436</v>
       </c>
       <c r="AJ192" t="n">
-        <v>-51.6</v>
+        <v>48.4</v>
       </c>
       <c r="AK192" t="n">
-        <v>-12.6976</v>
+        <v>87.3024</v>
       </c>
       <c r="AL192" t="n">
         <v>67.352</v>
@@ -34505,7 +34505,7 @@
         <v>3.34</v>
       </c>
       <c r="U193" t="n">
-        <v>98</v>
+        <v>-2</v>
       </c>
       <c r="V193" t="n">
         <v>10.4429</v>
@@ -34514,7 +34514,7 @@
         <v>5.076</v>
       </c>
       <c r="X193" t="n">
-        <v>-2.568</v>
+        <v>-0.0257</v>
       </c>
       <c r="Y193" t="n">
         <v>89.1367</v>
@@ -34529,7 +34529,7 @@
         <v>0.975</v>
       </c>
       <c r="AC193" t="n">
-        <v>-24.62</v>
+        <v>75.38</v>
       </c>
       <c r="AD193" t="n">
         <v>-10.3231</v>
@@ -34550,10 +34550,10 @@
         <v>-6.416</v>
       </c>
       <c r="AJ193" t="n">
-        <v>-63.1</v>
+        <v>36.9</v>
       </c>
       <c r="AK193" t="n">
-        <v>-11.5865</v>
+        <v>88.4135</v>
       </c>
       <c r="AL193" t="n">
         <v>77.7316</v>
@@ -34681,7 +34681,7 @@
         <v>5.0161</v>
       </c>
       <c r="U194" t="n">
-        <v>94.9</v>
+        <v>-5.1</v>
       </c>
       <c r="V194" t="n">
         <v>12.0223</v>
@@ -34690,7 +34690,7 @@
         <v>5.6187</v>
       </c>
       <c r="X194" t="n">
-        <v>-5.6377</v>
+        <v>-0.0564</v>
       </c>
       <c r="Y194" t="n">
         <v>75.0741</v>
@@ -34705,7 +34705,7 @@
         <v>0.9466</v>
       </c>
       <c r="AC194" t="n">
-        <v>-24.94</v>
+        <v>75.06</v>
       </c>
       <c r="AD194" t="n">
         <v>-4.8281</v>
@@ -34726,10 +34726,10 @@
         <v>-23.5374</v>
       </c>
       <c r="AJ194" t="n">
-        <v>-78.5</v>
+        <v>21.5</v>
       </c>
       <c r="AK194" t="n">
-        <v>-16.1778</v>
+        <v>83.8222</v>
       </c>
       <c r="AL194" t="n">
         <v>71.7368</v>
@@ -34857,7 +34857,7 @@
         <v>3.2853</v>
       </c>
       <c r="U195" t="n">
-        <v>95.9</v>
+        <v>-4.1</v>
       </c>
       <c r="V195" t="n">
         <v>10.6808</v>
@@ -34866,7 +34866,7 @@
         <v>4.9498</v>
       </c>
       <c r="X195" t="n">
-        <v>-1.4874</v>
+        <v>-0.0149</v>
       </c>
       <c r="Y195" t="n">
         <v>81.554</v>
@@ -34881,7 +34881,7 @@
         <v>0.9853</v>
       </c>
       <c r="AC195" t="n">
-        <v>-24.75</v>
+        <v>75.25</v>
       </c>
       <c r="AD195" t="n">
         <v>-4.6489</v>
@@ -34902,10 +34902,10 @@
         <v>-6.7713</v>
       </c>
       <c r="AJ195" t="n">
-        <v>-58.6</v>
+        <v>41.4</v>
       </c>
       <c r="AK195" t="n">
-        <v>-16.4035</v>
+        <v>83.5965</v>
       </c>
       <c r="AL195" t="n">
         <v>85.9328</v>
@@ -35033,7 +35033,7 @@
         <v>3.8709</v>
       </c>
       <c r="U196" t="n">
-        <v>96.7</v>
+        <v>-3.3</v>
       </c>
       <c r="V196" t="n">
         <v>11.3837</v>
@@ -35042,7 +35042,7 @@
         <v>5.5396</v>
       </c>
       <c r="X196" t="n">
-        <v>-2.9185</v>
+        <v>-0.0292</v>
       </c>
       <c r="Y196" t="n">
         <v>76.0645</v>
@@ -35057,7 +35057,7 @@
         <v>0.9716</v>
       </c>
       <c r="AC196" t="n">
-        <v>-24.73</v>
+        <v>75.27</v>
       </c>
       <c r="AD196" t="n">
         <v>-3.872</v>
@@ -35078,10 +35078,10 @@
         <v>-2.2488</v>
       </c>
       <c r="AJ196" t="n">
-        <v>-56.4</v>
+        <v>43.6</v>
       </c>
       <c r="AK196" t="n">
-        <v>-8.0558</v>
+        <v>91.9442</v>
       </c>
       <c r="AL196" t="n">
         <v>73.7466</v>
@@ -35209,7 +35209,7 @@
         <v>3.1869</v>
       </c>
       <c r="U197" t="n">
-        <v>91.5</v>
+        <v>-8.5</v>
       </c>
       <c r="V197" t="n">
         <v>10.3475</v>
@@ -35218,7 +35218,7 @@
         <v>4.8161</v>
       </c>
       <c r="X197" t="n">
-        <v>-2.7157</v>
+        <v>-0.0272</v>
       </c>
       <c r="Y197" t="n">
         <v>68.0869</v>
@@ -35233,7 +35233,7 @@
         <v>0.9736</v>
       </c>
       <c r="AC197" t="n">
-        <v>-25.43</v>
+        <v>74.57</v>
       </c>
       <c r="AD197" t="n">
         <v>-3.5845</v>
@@ -35254,10 +35254,10 @@
         <v>-23.2736</v>
       </c>
       <c r="AJ197" t="n">
-        <v>-53.9</v>
+        <v>46.1</v>
       </c>
       <c r="AK197" t="n">
-        <v>-10.9172</v>
+        <v>89.0828</v>
       </c>
       <c r="AL197" t="n">
         <v>70.9539</v>
@@ -35385,7 +35385,7 @@
         <v>3.7898</v>
       </c>
       <c r="U198" t="n">
-        <v>94</v>
+        <v>-6</v>
       </c>
       <c r="V198" t="n">
         <v>9.8769</v>
@@ -35394,7 +35394,7 @@
         <v>4.6448</v>
       </c>
       <c r="X198" t="n">
-        <v>-1.901</v>
+        <v>-0.019</v>
       </c>
       <c r="Y198" t="n">
         <v>77.2892</v>
@@ -35409,7 +35409,7 @@
         <v>0.9813</v>
       </c>
       <c r="AC198" t="n">
-        <v>-25.29</v>
+        <v>74.71</v>
       </c>
       <c r="AD198" t="n">
         <v>-10.4701</v>
@@ -35430,10 +35430,10 @@
         <v>-15.8424</v>
       </c>
       <c r="AJ198" t="n">
-        <v>-31.5</v>
+        <v>68.5</v>
       </c>
       <c r="AK198" t="n">
-        <v>-2.3614</v>
+        <v>97.6386</v>
       </c>
       <c r="AL198" t="n">
         <v>79.7248</v>
@@ -35561,7 +35561,7 @@
         <v>4.6061</v>
       </c>
       <c r="U199" t="n">
-        <v>96.2</v>
+        <v>-3.8</v>
       </c>
       <c r="V199" t="n">
         <v>12.2225</v>
@@ -35570,7 +35570,7 @@
         <v>5.4338</v>
       </c>
       <c r="X199" t="n">
-        <v>-1.5066</v>
+        <v>-0.0151</v>
       </c>
       <c r="Y199" t="n">
         <v>71.29</v>
@@ -35585,7 +35585,7 @@
         <v>0.9852</v>
       </c>
       <c r="AC199" t="n">
-        <v>-24.95</v>
+        <v>75.05</v>
       </c>
       <c r="AD199" t="n">
         <v>-7.7675</v>
@@ -35606,10 +35606,10 @@
         <v>-14.148</v>
       </c>
       <c r="AJ199" t="n">
-        <v>-65.9</v>
+        <v>34.1</v>
       </c>
       <c r="AK199" t="n">
-        <v>-19.0097</v>
+        <v>80.9903</v>
       </c>
       <c r="AL199" t="n">
         <v>80.5618</v>
